--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="85">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -154,13 +154,130 @@
   </si>
   <si>
     <t>exposes phoi bay,lo ra</t>
+  </si>
+  <si>
+    <t>106 Robust: manh me,cuong trang</t>
+  </si>
+  <si>
+    <t>103 Secure: vung chac,dam bao</t>
+  </si>
+  <si>
+    <t>101 inner: ben trong</t>
+  </si>
+  <si>
+    <t>96 containt: tiep xuc</t>
+  </si>
+  <si>
+    <t>90 elegant: thanh lich,tao nha</t>
+  </si>
+  <si>
+    <t>109 Formula: cong thuc,cach thuc</t>
+  </si>
+  <si>
+    <t>111 Breed: giong loai</t>
+  </si>
+  <si>
+    <t>114 Wide: rong,mo rong</t>
+  </si>
+  <si>
+    <t>Separate: tach roi</t>
+  </si>
+  <si>
+    <t>Phase: giai doan</t>
+  </si>
+  <si>
+    <t>Otherwise: neu ko thi</t>
+  </si>
+  <si>
+    <t>108 Util: tan dung</t>
+  </si>
+  <si>
+    <t>115 Surround: vay quanh</t>
+  </si>
+  <si>
+    <t>Instead: thay the</t>
+  </si>
+  <si>
+    <t>94 opposed: phan doi,chong lai</t>
+  </si>
+  <si>
+    <t>84 adorned : to diem,lam cho dep</t>
+  </si>
+  <si>
+    <t>88 nested: long nhau</t>
+  </si>
+  <si>
+    <t>76 persistence : kien tri</t>
+  </si>
+  <si>
+    <t>65 reveal : tiet lo</t>
+  </si>
+  <si>
+    <t>60 amount : so tien</t>
+  </si>
+  <si>
+    <t>robust manh me cuong trang</t>
+  </si>
+  <si>
+    <t>nested long nhau</t>
+  </si>
+  <si>
+    <t>elegant thanh lich tao nha</t>
+  </si>
+  <si>
+    <t>formula cong thuc cach thuc</t>
+  </si>
+  <si>
+    <t>adorned to diem lam cho dep</t>
+  </si>
+  <si>
+    <t>breed giong loai</t>
+  </si>
+  <si>
+    <t>wide rong mo rong</t>
+  </si>
+  <si>
+    <t>separate tach roi</t>
+  </si>
+  <si>
+    <t>surround vay quanh</t>
+  </si>
+  <si>
+    <t>phase giai doan</t>
+  </si>
+  <si>
+    <t>otherwise neu ko thi</t>
+  </si>
+  <si>
+    <t>util tan dung</t>
+  </si>
+  <si>
+    <t>instead thay the</t>
+  </si>
+  <si>
+    <t>opposed phan doi chong lai</t>
+  </si>
+  <si>
+    <t>reveal tiet lo</t>
+  </si>
+  <si>
+    <t>persistence kien tri</t>
+  </si>
+  <si>
+    <t>amount so tien</t>
+  </si>
+  <si>
+    <t>secure vung chac dam bao</t>
+  </si>
+  <si>
+    <t>rebust manh me cuong trang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +291,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,12 +319,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,16 +629,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
@@ -527,9 +653,9 @@
     <col min="14" max="14" width="31.85546875" customWidth="1"/>
     <col min="15" max="15" width="28.140625" customWidth="1"/>
     <col min="16" max="16" width="22.42578125" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
+    <col min="17" max="17" width="33.7109375" customWidth="1"/>
     <col min="18" max="18" width="23.7109375" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
     <col min="20" max="20" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1089,6 +1215,688 @@
       </c>
       <c r="T9" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" t="s">
+        <v>81</v>
+      </c>
+      <c r="T13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" t="s">
+        <v>81</v>
+      </c>
+      <c r="T14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" t="s">
+        <v>81</v>
+      </c>
+      <c r="T15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" t="s">
+        <v>81</v>
+      </c>
+      <c r="T18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" t="s">
+        <v>80</v>
+      </c>
+      <c r="S19" t="s">
+        <v>81</v>
+      </c>
+      <c r="T19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" t="s">
+        <v>81</v>
+      </c>
+      <c r="T20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s">
+        <v>81</v>
+      </c>
+      <c r="T21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>79</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="122">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -271,6 +271,117 @@
   </si>
   <si>
     <t>rebust manh me cuong trang</t>
+  </si>
+  <si>
+    <t>102 distributed: phan phoi</t>
+  </si>
+  <si>
+    <t>110 Perimeter: chu vi</t>
+  </si>
+  <si>
+    <t>99 mentioned: de cap</t>
+  </si>
+  <si>
+    <t>95 contains: chua dung</t>
+  </si>
+  <si>
+    <t>87 obviously: chac chan</t>
+  </si>
+  <si>
+    <t>86 compare : doi chieu</t>
+  </si>
+  <si>
+    <t>77 exposed : kham pha,trung bay,de lo ra</t>
+  </si>
+  <si>
+    <t>61 responsible : chịu trách nhiệm</t>
+  </si>
+  <si>
+    <t>58 schedule  : lich trinh</t>
+  </si>
+  <si>
+    <t>41 reflect : phản chiếu,dội lại</t>
+  </si>
+  <si>
+    <t>35 segment : bộ phận</t>
+  </si>
+  <si>
+    <t>27 capabilities  : khả năng</t>
+  </si>
+  <si>
+    <t>18 movement : phong trào</t>
+  </si>
+  <si>
+    <t>7 specify : chỉ định</t>
+  </si>
+  <si>
+    <t>3 ties : quan  hệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 164 temperature  : nhiệt độ</t>
+  </si>
+  <si>
+    <t>118 publish : công bố</t>
+  </si>
+  <si>
+    <t>86 integer : số nguyên</t>
+  </si>
+  <si>
+    <t>perimeter chu vi</t>
+  </si>
+  <si>
+    <t>mentioned de cap</t>
+  </si>
+  <si>
+    <t>contains chua dung</t>
+  </si>
+  <si>
+    <t>obviously chac chan</t>
+  </si>
+  <si>
+    <t>compare doi chieu</t>
+  </si>
+  <si>
+    <t>exposed kham pha trung bay de lo ra</t>
+  </si>
+  <si>
+    <t>movement phong trao</t>
+  </si>
+  <si>
+    <t>segment bo phan</t>
+  </si>
+  <si>
+    <t>responsible chiu trach nhiem</t>
+  </si>
+  <si>
+    <t>reflect phan chieu doi lai</t>
+  </si>
+  <si>
+    <t>capabilities kha nang</t>
+  </si>
+  <si>
+    <t>specify chi dinh</t>
+  </si>
+  <si>
+    <t>temperature nhiet do</t>
+  </si>
+  <si>
+    <t>ties quan he</t>
+  </si>
+  <si>
+    <t>publish cong bo</t>
+  </si>
+  <si>
+    <t>integer so nguyen</t>
+  </si>
+  <si>
+    <t>peremeter chu vi</t>
+  </si>
+  <si>
+    <t>segment bo  phan</t>
+  </si>
+  <si>
+    <t>schedule lich trinh</t>
   </si>
 </sst>
 </file>
@@ -629,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,10 +754,10 @@
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44" customWidth="1"/>
     <col min="8" max="8" width="46.140625" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
     <col min="11" max="11" width="26.5703125" customWidth="1"/>
     <col min="12" max="12" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.85546875" customWidth="1"/>
@@ -1897,6 +2008,688 @@
       </c>
       <c r="T22" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M26" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26" t="s">
+        <v>112</v>
+      </c>
+      <c r="O26" t="s">
+        <v>113</v>
+      </c>
+      <c r="P26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>115</v>
+      </c>
+      <c r="R26" t="s">
+        <v>116</v>
+      </c>
+      <c r="S26" t="s">
+        <v>117</v>
+      </c>
+      <c r="T26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" t="s">
+        <v>109</v>
+      </c>
+      <c r="K27" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M27" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>115</v>
+      </c>
+      <c r="R27" t="s">
+        <v>116</v>
+      </c>
+      <c r="S27" t="s">
+        <v>117</v>
+      </c>
+      <c r="T27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" t="s">
+        <v>111</v>
+      </c>
+      <c r="M28" t="s">
+        <v>121</v>
+      </c>
+      <c r="N28" t="s">
+        <v>112</v>
+      </c>
+      <c r="O28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>115</v>
+      </c>
+      <c r="R28" t="s">
+        <v>116</v>
+      </c>
+      <c r="S28" t="s">
+        <v>117</v>
+      </c>
+      <c r="T28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" t="s">
+        <v>111</v>
+      </c>
+      <c r="M29" t="s">
+        <v>121</v>
+      </c>
+      <c r="N29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>115</v>
+      </c>
+      <c r="R29" t="s">
+        <v>116</v>
+      </c>
+      <c r="S29" t="s">
+        <v>117</v>
+      </c>
+      <c r="T29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30" t="s">
+        <v>110</v>
+      </c>
+      <c r="L30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M30" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" t="s">
+        <v>112</v>
+      </c>
+      <c r="O30" t="s">
+        <v>113</v>
+      </c>
+      <c r="P30" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>115</v>
+      </c>
+      <c r="R30" t="s">
+        <v>116</v>
+      </c>
+      <c r="S30" t="s">
+        <v>117</v>
+      </c>
+      <c r="T30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" t="s">
+        <v>110</v>
+      </c>
+      <c r="L31" t="s">
+        <v>111</v>
+      </c>
+      <c r="M31" t="s">
+        <v>121</v>
+      </c>
+      <c r="N31" t="s">
+        <v>112</v>
+      </c>
+      <c r="O31" t="s">
+        <v>113</v>
+      </c>
+      <c r="P31" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>115</v>
+      </c>
+      <c r="R31" t="s">
+        <v>116</v>
+      </c>
+      <c r="S31" t="s">
+        <v>117</v>
+      </c>
+      <c r="T31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K32" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32" t="s">
+        <v>111</v>
+      </c>
+      <c r="M32" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" t="s">
+        <v>112</v>
+      </c>
+      <c r="O32" t="s">
+        <v>113</v>
+      </c>
+      <c r="P32" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>115</v>
+      </c>
+      <c r="R32" t="s">
+        <v>116</v>
+      </c>
+      <c r="S32" t="s">
+        <v>117</v>
+      </c>
+      <c r="T32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N33" t="s">
+        <v>112</v>
+      </c>
+      <c r="O33" t="s">
+        <v>113</v>
+      </c>
+      <c r="P33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>115</v>
+      </c>
+      <c r="R33" t="s">
+        <v>116</v>
+      </c>
+      <c r="S33" t="s">
+        <v>117</v>
+      </c>
+      <c r="T33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" t="s">
+        <v>110</v>
+      </c>
+      <c r="L34" t="s">
+        <v>111</v>
+      </c>
+      <c r="M34" t="s">
+        <v>121</v>
+      </c>
+      <c r="N34" t="s">
+        <v>112</v>
+      </c>
+      <c r="O34" t="s">
+        <v>113</v>
+      </c>
+      <c r="P34" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>115</v>
+      </c>
+      <c r="R34" t="s">
+        <v>116</v>
+      </c>
+      <c r="S34" t="s">
+        <v>117</v>
+      </c>
+      <c r="T34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" t="s">
+        <v>110</v>
+      </c>
+      <c r="L35" t="s">
+        <v>111</v>
+      </c>
+      <c r="M35" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" t="s">
+        <v>112</v>
+      </c>
+      <c r="O35" t="s">
+        <v>113</v>
+      </c>
+      <c r="P35" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>115</v>
+      </c>
+      <c r="R35" t="s">
+        <v>116</v>
+      </c>
+      <c r="S35" t="s">
+        <v>117</v>
+      </c>
+      <c r="T35" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="158">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -382,13 +382,121 @@
   </si>
   <si>
     <t>schedule lich trinh</t>
+  </si>
+  <si>
+    <t>Geek: dam me</t>
+  </si>
+  <si>
+    <t>Demonstrate: chung minh</t>
+  </si>
+  <si>
+    <t>Figure: nhan vat</t>
+  </si>
+  <si>
+    <t>Associated: lien ket,dua vao</t>
+  </si>
+  <si>
+    <t>Aspects: cac khia canh,dien mao</t>
+  </si>
+  <si>
+    <t>Perform: nhiem vu,thuc hanh</t>
+  </si>
+  <si>
+    <t>104 Authentication: xac thuc,cong nhan</t>
+  </si>
+  <si>
+    <t>98 confusing:mo ho,lon xon</t>
+  </si>
+  <si>
+    <t>93 unordered: khong co thu tu</t>
+  </si>
+  <si>
+    <t>91 probably: co le</t>
+  </si>
+  <si>
+    <t>79 conflict : xung dot,va cham</t>
+  </si>
+  <si>
+    <t>68 skeleton : bo khung,bo xuong</t>
+  </si>
+  <si>
+    <t>49 preference : ưu tiên</t>
+  </si>
+  <si>
+    <t>43 avoid : tránh</t>
+  </si>
+  <si>
+    <t>112 Existing: hien co,hien tai</t>
+  </si>
+  <si>
+    <t>Inherit: thua ke</t>
+  </si>
+  <si>
+    <t>geek dam me</t>
+  </si>
+  <si>
+    <t>demonstrate chung minh</t>
+  </si>
+  <si>
+    <t>figure nhan vat</t>
+  </si>
+  <si>
+    <t>associated lien ket dua vao</t>
+  </si>
+  <si>
+    <t>aspects cac khia canh dien mao</t>
+  </si>
+  <si>
+    <t>Individual: ca nhan</t>
+  </si>
+  <si>
+    <t>individual ca nhan</t>
+  </si>
+  <si>
+    <t>perform nhiem vu thuc hanh</t>
+  </si>
+  <si>
+    <t>authentication xac thuc cong nhan</t>
+  </si>
+  <si>
+    <t>probably co le</t>
+  </si>
+  <si>
+    <t>confusing mo ho lon xon</t>
+  </si>
+  <si>
+    <t>97 containts: tranh chap</t>
+  </si>
+  <si>
+    <t>containts tranh chap</t>
+  </si>
+  <si>
+    <t>conflict xung dot va cham</t>
+  </si>
+  <si>
+    <t>preference uu tien</t>
+  </si>
+  <si>
+    <t>avoid tranh</t>
+  </si>
+  <si>
+    <t>skeleton bo khung bo xuong</t>
+  </si>
+  <si>
+    <t>existing hien co hien tai</t>
+  </si>
+  <si>
+    <t>inherit thua ke</t>
+  </si>
+  <si>
+    <t>aspects khia canh dien mao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +513,12 @@
     </font>
     <font>
       <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -430,13 +544,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,13 +877,13 @@
     <col min="10" max="10" width="29.7109375" customWidth="1"/>
     <col min="11" max="11" width="26.5703125" customWidth="1"/>
     <col min="12" max="12" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" customWidth="1"/>
     <col min="14" max="14" width="31.85546875" customWidth="1"/>
     <col min="15" max="15" width="28.140625" customWidth="1"/>
     <col min="16" max="16" width="22.42578125" customWidth="1"/>
     <col min="17" max="17" width="33.7109375" customWidth="1"/>
-    <col min="18" max="18" width="23.7109375" customWidth="1"/>
-    <col min="19" max="19" width="27" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="31.140625" customWidth="1"/>
     <col min="20" max="20" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2690,6 +2807,688 @@
       </c>
       <c r="T35" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" t="s">
+        <v>147</v>
+      </c>
+      <c r="J39" t="s">
+        <v>148</v>
+      </c>
+      <c r="K39" t="s">
+        <v>150</v>
+      </c>
+      <c r="L39" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" t="s">
+        <v>151</v>
+      </c>
+      <c r="O39" t="s">
+        <v>152</v>
+      </c>
+      <c r="P39" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>154</v>
+      </c>
+      <c r="R39" t="s">
+        <v>29</v>
+      </c>
+      <c r="S39" t="s">
+        <v>155</v>
+      </c>
+      <c r="T39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I40" t="s">
+        <v>147</v>
+      </c>
+      <c r="J40" t="s">
+        <v>148</v>
+      </c>
+      <c r="K40" t="s">
+        <v>150</v>
+      </c>
+      <c r="L40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
+        <v>151</v>
+      </c>
+      <c r="O40" t="s">
+        <v>152</v>
+      </c>
+      <c r="P40" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>154</v>
+      </c>
+      <c r="R40" t="s">
+        <v>29</v>
+      </c>
+      <c r="S40" t="s">
+        <v>155</v>
+      </c>
+      <c r="T40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" t="s">
+        <v>146</v>
+      </c>
+      <c r="I41" t="s">
+        <v>147</v>
+      </c>
+      <c r="J41" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" t="s">
+        <v>150</v>
+      </c>
+      <c r="L41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" t="s">
+        <v>151</v>
+      </c>
+      <c r="O41" t="s">
+        <v>152</v>
+      </c>
+      <c r="P41" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>154</v>
+      </c>
+      <c r="R41" t="s">
+        <v>29</v>
+      </c>
+      <c r="S41" t="s">
+        <v>155</v>
+      </c>
+      <c r="T41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" t="s">
+        <v>150</v>
+      </c>
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O42" t="s">
+        <v>152</v>
+      </c>
+      <c r="P42" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>154</v>
+      </c>
+      <c r="R42" t="s">
+        <v>29</v>
+      </c>
+      <c r="S42" t="s">
+        <v>155</v>
+      </c>
+      <c r="T42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" t="s">
+        <v>148</v>
+      </c>
+      <c r="K43" t="s">
+        <v>150</v>
+      </c>
+      <c r="L43" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" t="s">
+        <v>151</v>
+      </c>
+      <c r="O43" t="s">
+        <v>152</v>
+      </c>
+      <c r="P43" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>154</v>
+      </c>
+      <c r="R43" t="s">
+        <v>29</v>
+      </c>
+      <c r="S43" t="s">
+        <v>155</v>
+      </c>
+      <c r="T43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" t="s">
+        <v>148</v>
+      </c>
+      <c r="K44" t="s">
+        <v>150</v>
+      </c>
+      <c r="L44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" t="s">
+        <v>151</v>
+      </c>
+      <c r="O44" t="s">
+        <v>152</v>
+      </c>
+      <c r="P44" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>154</v>
+      </c>
+      <c r="R44" t="s">
+        <v>29</v>
+      </c>
+      <c r="S44" t="s">
+        <v>155</v>
+      </c>
+      <c r="T44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" t="s">
+        <v>145</v>
+      </c>
+      <c r="H45" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" t="s">
+        <v>147</v>
+      </c>
+      <c r="J45" t="s">
+        <v>148</v>
+      </c>
+      <c r="K45" t="s">
+        <v>150</v>
+      </c>
+      <c r="L45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" t="s">
+        <v>151</v>
+      </c>
+      <c r="O45" t="s">
+        <v>152</v>
+      </c>
+      <c r="P45" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>154</v>
+      </c>
+      <c r="R45" t="s">
+        <v>29</v>
+      </c>
+      <c r="S45" t="s">
+        <v>155</v>
+      </c>
+      <c r="T45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" t="s">
+        <v>145</v>
+      </c>
+      <c r="H46" t="s">
+        <v>146</v>
+      </c>
+      <c r="I46" t="s">
+        <v>147</v>
+      </c>
+      <c r="J46" t="s">
+        <v>148</v>
+      </c>
+      <c r="K46" t="s">
+        <v>150</v>
+      </c>
+      <c r="L46" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" t="s">
+        <v>151</v>
+      </c>
+      <c r="O46" t="s">
+        <v>152</v>
+      </c>
+      <c r="P46" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>154</v>
+      </c>
+      <c r="R46" t="s">
+        <v>29</v>
+      </c>
+      <c r="S46" t="s">
+        <v>155</v>
+      </c>
+      <c r="T46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" t="s">
+        <v>148</v>
+      </c>
+      <c r="K47" t="s">
+        <v>150</v>
+      </c>
+      <c r="L47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" t="s">
+        <v>151</v>
+      </c>
+      <c r="O47" t="s">
+        <v>152</v>
+      </c>
+      <c r="P47" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>154</v>
+      </c>
+      <c r="R47" t="s">
+        <v>29</v>
+      </c>
+      <c r="S47" t="s">
+        <v>155</v>
+      </c>
+      <c r="T47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" t="s">
+        <v>145</v>
+      </c>
+      <c r="H48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I48" t="s">
+        <v>147</v>
+      </c>
+      <c r="J48" t="s">
+        <v>148</v>
+      </c>
+      <c r="K48" t="s">
+        <v>150</v>
+      </c>
+      <c r="L48" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" t="s">
+        <v>151</v>
+      </c>
+      <c r="O48" t="s">
+        <v>152</v>
+      </c>
+      <c r="P48" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>154</v>
+      </c>
+      <c r="R48" t="s">
+        <v>29</v>
+      </c>
+      <c r="S48" t="s">
+        <v>155</v>
+      </c>
+      <c r="T48" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$51:$T$60</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="196">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -490,6 +493,120 @@
   </si>
   <si>
     <t>aspects khia canh dien mao</t>
+  </si>
+  <si>
+    <t>Throughout: khap noi,moi noi</t>
+  </si>
+  <si>
+    <t>Context: boi canh</t>
+  </si>
+  <si>
+    <t>Pervasive: tran lan</t>
+  </si>
+  <si>
+    <t>Either: hoac</t>
+  </si>
+  <si>
+    <t>Illustration: hinh minh hoa</t>
+  </si>
+  <si>
+    <t>Execute: hoan thanh,lam xong</t>
+  </si>
+  <si>
+    <t>Blueprint: ban ve thiet ke</t>
+  </si>
+  <si>
+    <t>Specify: chi dinh,chi ro</t>
+  </si>
+  <si>
+    <t>113 Precision: do chinh xac</t>
+  </si>
+  <si>
+    <t>105 Portable: di dong,co the dem di</t>
+  </si>
+  <si>
+    <t>92 certain: nhat dinh,it nhieu,chac chan</t>
+  </si>
+  <si>
+    <t>73 Ideally : ly tuong nhat</t>
+  </si>
+  <si>
+    <t>42 pitfalls : cạm bẫy</t>
+  </si>
+  <si>
+    <t>33 associates  : cộng sự</t>
+  </si>
+  <si>
+    <t>28 consists  : bao gồm</t>
+  </si>
+  <si>
+    <t>29 specific  : riêng</t>
+  </si>
+  <si>
+    <t>8 receipt : biên lai</t>
+  </si>
+  <si>
+    <t>1 term :  kỳ hạn,chỉ đinh</t>
+  </si>
+  <si>
+    <t>6 directly : trực tiếp,ngay lập tức</t>
+  </si>
+  <si>
+    <t>throughout khap noi moi noi</t>
+  </si>
+  <si>
+    <t>context boi canh</t>
+  </si>
+  <si>
+    <t>directly truc tiep ngay lap tuc</t>
+  </si>
+  <si>
+    <t>pervasive tran lan</t>
+  </si>
+  <si>
+    <t>illustration hinh minh hoa</t>
+  </si>
+  <si>
+    <t>portable di dong co the dem di</t>
+  </si>
+  <si>
+    <t>certain nhat dinh it nhieu chac chan</t>
+  </si>
+  <si>
+    <t>ideally ly tuong nhat</t>
+  </si>
+  <si>
+    <t>precision do chinh xac</t>
+  </si>
+  <si>
+    <t>specify chi dinh chi ro</t>
+  </si>
+  <si>
+    <t>execute hoan thanh lam xong</t>
+  </si>
+  <si>
+    <t>pitfalls cam bay</t>
+  </si>
+  <si>
+    <t>associates cong su</t>
+  </si>
+  <si>
+    <t>consists bao gom</t>
+  </si>
+  <si>
+    <t>specific rieng</t>
+  </si>
+  <si>
+    <t>receipt bien lai</t>
+  </si>
+  <si>
+    <t>term ky han chi dinh</t>
+  </si>
+  <si>
+    <t>either hoac</t>
+  </si>
+  <si>
+    <t>blueprint ban ve thiet ke</t>
   </si>
 </sst>
 </file>
@@ -857,17 +974,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -881,7 +998,7 @@
     <col min="14" max="14" width="31.85546875" customWidth="1"/>
     <col min="15" max="15" width="28.140625" customWidth="1"/>
     <col min="16" max="16" width="22.42578125" customWidth="1"/>
-    <col min="17" max="17" width="33.7109375" customWidth="1"/>
+    <col min="17" max="17" width="35.140625" customWidth="1"/>
     <col min="18" max="18" width="24.85546875" customWidth="1"/>
     <col min="19" max="19" width="31.140625" customWidth="1"/>
     <col min="20" max="20" width="24.140625" customWidth="1"/>
@@ -3491,7 +3608,695 @@
         <v>156</v>
       </c>
     </row>
+    <row r="51" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52" t="s">
+        <v>195</v>
+      </c>
+      <c r="G52" t="s">
+        <v>182</v>
+      </c>
+      <c r="H52" t="s">
+        <v>183</v>
+      </c>
+      <c r="I52" t="s">
+        <v>184</v>
+      </c>
+      <c r="J52" t="s">
+        <v>185</v>
+      </c>
+      <c r="K52" t="s">
+        <v>186</v>
+      </c>
+      <c r="L52" t="s">
+        <v>187</v>
+      </c>
+      <c r="M52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N52" t="s">
+        <v>189</v>
+      </c>
+      <c r="O52" t="s">
+        <v>190</v>
+      </c>
+      <c r="P52" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>30</v>
+      </c>
+      <c r="R52" t="s">
+        <v>192</v>
+      </c>
+      <c r="S52" t="s">
+        <v>193</v>
+      </c>
+      <c r="T52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" t="s">
+        <v>195</v>
+      </c>
+      <c r="G53" t="s">
+        <v>182</v>
+      </c>
+      <c r="H53" t="s">
+        <v>183</v>
+      </c>
+      <c r="I53" t="s">
+        <v>184</v>
+      </c>
+      <c r="J53" t="s">
+        <v>185</v>
+      </c>
+      <c r="K53" t="s">
+        <v>186</v>
+      </c>
+      <c r="L53" t="s">
+        <v>187</v>
+      </c>
+      <c r="M53" t="s">
+        <v>188</v>
+      </c>
+      <c r="N53" t="s">
+        <v>189</v>
+      </c>
+      <c r="O53" t="s">
+        <v>190</v>
+      </c>
+      <c r="P53" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>30</v>
+      </c>
+      <c r="R53" t="s">
+        <v>192</v>
+      </c>
+      <c r="S53" t="s">
+        <v>193</v>
+      </c>
+      <c r="T53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54" t="s">
+        <v>182</v>
+      </c>
+      <c r="H54" t="s">
+        <v>183</v>
+      </c>
+      <c r="I54" t="s">
+        <v>184</v>
+      </c>
+      <c r="J54" t="s">
+        <v>185</v>
+      </c>
+      <c r="K54" t="s">
+        <v>186</v>
+      </c>
+      <c r="L54" t="s">
+        <v>187</v>
+      </c>
+      <c r="M54" t="s">
+        <v>188</v>
+      </c>
+      <c r="N54" t="s">
+        <v>189</v>
+      </c>
+      <c r="O54" t="s">
+        <v>190</v>
+      </c>
+      <c r="P54" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>30</v>
+      </c>
+      <c r="R54" t="s">
+        <v>192</v>
+      </c>
+      <c r="S54" t="s">
+        <v>193</v>
+      </c>
+      <c r="T54" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" t="s">
+        <v>181</v>
+      </c>
+      <c r="F55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" t="s">
+        <v>182</v>
+      </c>
+      <c r="H55" t="s">
+        <v>183</v>
+      </c>
+      <c r="I55" t="s">
+        <v>184</v>
+      </c>
+      <c r="J55" t="s">
+        <v>185</v>
+      </c>
+      <c r="K55" t="s">
+        <v>186</v>
+      </c>
+      <c r="L55" t="s">
+        <v>187</v>
+      </c>
+      <c r="M55" t="s">
+        <v>188</v>
+      </c>
+      <c r="N55" t="s">
+        <v>189</v>
+      </c>
+      <c r="O55" t="s">
+        <v>190</v>
+      </c>
+      <c r="P55" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>30</v>
+      </c>
+      <c r="R55" t="s">
+        <v>192</v>
+      </c>
+      <c r="S55" t="s">
+        <v>193</v>
+      </c>
+      <c r="T55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" t="s">
+        <v>195</v>
+      </c>
+      <c r="G56" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" t="s">
+        <v>183</v>
+      </c>
+      <c r="I56" t="s">
+        <v>184</v>
+      </c>
+      <c r="J56" t="s">
+        <v>185</v>
+      </c>
+      <c r="K56" t="s">
+        <v>186</v>
+      </c>
+      <c r="L56" t="s">
+        <v>187</v>
+      </c>
+      <c r="M56" t="s">
+        <v>188</v>
+      </c>
+      <c r="N56" t="s">
+        <v>189</v>
+      </c>
+      <c r="O56" t="s">
+        <v>190</v>
+      </c>
+      <c r="P56" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>30</v>
+      </c>
+      <c r="R56" t="s">
+        <v>192</v>
+      </c>
+      <c r="S56" t="s">
+        <v>193</v>
+      </c>
+      <c r="T56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" t="s">
+        <v>182</v>
+      </c>
+      <c r="H57" t="s">
+        <v>183</v>
+      </c>
+      <c r="I57" t="s">
+        <v>184</v>
+      </c>
+      <c r="J57" t="s">
+        <v>185</v>
+      </c>
+      <c r="K57" t="s">
+        <v>186</v>
+      </c>
+      <c r="L57" t="s">
+        <v>187</v>
+      </c>
+      <c r="M57" t="s">
+        <v>188</v>
+      </c>
+      <c r="N57" t="s">
+        <v>189</v>
+      </c>
+      <c r="O57" t="s">
+        <v>190</v>
+      </c>
+      <c r="P57" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>30</v>
+      </c>
+      <c r="R57" t="s">
+        <v>192</v>
+      </c>
+      <c r="S57" t="s">
+        <v>193</v>
+      </c>
+      <c r="T57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" t="s">
+        <v>195</v>
+      </c>
+      <c r="G58" t="s">
+        <v>182</v>
+      </c>
+      <c r="H58" t="s">
+        <v>183</v>
+      </c>
+      <c r="I58" t="s">
+        <v>184</v>
+      </c>
+      <c r="J58" t="s">
+        <v>185</v>
+      </c>
+      <c r="K58" t="s">
+        <v>186</v>
+      </c>
+      <c r="L58" t="s">
+        <v>187</v>
+      </c>
+      <c r="M58" t="s">
+        <v>188</v>
+      </c>
+      <c r="N58" t="s">
+        <v>189</v>
+      </c>
+      <c r="O58" t="s">
+        <v>190</v>
+      </c>
+      <c r="P58" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>30</v>
+      </c>
+      <c r="R58" t="s">
+        <v>192</v>
+      </c>
+      <c r="S58" t="s">
+        <v>193</v>
+      </c>
+      <c r="T58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" t="s">
+        <v>181</v>
+      </c>
+      <c r="F59" t="s">
+        <v>195</v>
+      </c>
+      <c r="G59" t="s">
+        <v>182</v>
+      </c>
+      <c r="H59" t="s">
+        <v>183</v>
+      </c>
+      <c r="I59" t="s">
+        <v>184</v>
+      </c>
+      <c r="J59" t="s">
+        <v>185</v>
+      </c>
+      <c r="K59" t="s">
+        <v>186</v>
+      </c>
+      <c r="L59" t="s">
+        <v>187</v>
+      </c>
+      <c r="M59" t="s">
+        <v>188</v>
+      </c>
+      <c r="N59" t="s">
+        <v>189</v>
+      </c>
+      <c r="O59" t="s">
+        <v>190</v>
+      </c>
+      <c r="P59" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>30</v>
+      </c>
+      <c r="R59" t="s">
+        <v>192</v>
+      </c>
+      <c r="S59" t="s">
+        <v>193</v>
+      </c>
+      <c r="T59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" t="s">
+        <v>182</v>
+      </c>
+      <c r="H60" t="s">
+        <v>183</v>
+      </c>
+      <c r="I60" t="s">
+        <v>184</v>
+      </c>
+      <c r="J60" t="s">
+        <v>185</v>
+      </c>
+      <c r="K60" t="s">
+        <v>186</v>
+      </c>
+      <c r="L60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M60" t="s">
+        <v>188</v>
+      </c>
+      <c r="N60" t="s">
+        <v>189</v>
+      </c>
+      <c r="O60" t="s">
+        <v>190</v>
+      </c>
+      <c r="P60" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>30</v>
+      </c>
+      <c r="R60" t="s">
+        <v>192</v>
+      </c>
+      <c r="S60" t="s">
+        <v>193</v>
+      </c>
+      <c r="T60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" t="s">
+        <v>182</v>
+      </c>
+      <c r="H61" t="s">
+        <v>183</v>
+      </c>
+      <c r="I61" t="s">
+        <v>184</v>
+      </c>
+      <c r="J61" t="s">
+        <v>185</v>
+      </c>
+      <c r="K61" t="s">
+        <v>186</v>
+      </c>
+      <c r="L61" t="s">
+        <v>187</v>
+      </c>
+      <c r="M61" t="s">
+        <v>188</v>
+      </c>
+      <c r="N61" t="s">
+        <v>189</v>
+      </c>
+      <c r="O61" t="s">
+        <v>190</v>
+      </c>
+      <c r="P61" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R61" t="s">
+        <v>192</v>
+      </c>
+      <c r="S61" t="s">
+        <v>193</v>
+      </c>
+      <c r="T61" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A51:T60">
+    <sortState ref="A52:T60">
+      <sortCondition descending="1" ref="T51:T60"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="231">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -607,6 +607,111 @@
   </si>
   <si>
     <t>blueprint ban ve thiet ke</t>
+  </si>
+  <si>
+    <t>Append: chap them,noi them</t>
+  </si>
+  <si>
+    <t>Distinct: khac biet</t>
+  </si>
+  <si>
+    <t>Protocol: giao thuc</t>
+  </si>
+  <si>
+    <t>Sequel: phan tiep theo</t>
+  </si>
+  <si>
+    <t>Identified: xac dinh</t>
+  </si>
+  <si>
+    <t>Nowadays: ngay nay</t>
+  </si>
+  <si>
+    <t>Handled: xu ly</t>
+  </si>
+  <si>
+    <t>Propagate: lan ra truyen ra</t>
+  </si>
+  <si>
+    <t>Explicitly: ro rang</t>
+  </si>
+  <si>
+    <t>Affecting: anh huong den</t>
+  </si>
+  <si>
+    <t>85 definitely : chac chan</t>
+  </si>
+  <si>
+    <t>37 simulate  : mô phỏng</t>
+  </si>
+  <si>
+    <t>55 instance : trường hợp,ví dụ</t>
+  </si>
+  <si>
+    <t>71 critical : phan doan,phe binh,chi trich</t>
+  </si>
+  <si>
+    <t>69 simultaneously : dong thoi</t>
+  </si>
+  <si>
+    <t>54 enroll : ghi danh</t>
+  </si>
+  <si>
+    <t>38 current : hiện hành</t>
+  </si>
+  <si>
+    <t>instance truong hop vi du</t>
+  </si>
+  <si>
+    <t>enroll ghi danh</t>
+  </si>
+  <si>
+    <t>current hien hanh</t>
+  </si>
+  <si>
+    <t>simultaneously dong thoi</t>
+  </si>
+  <si>
+    <t>critical phan doan phe binh chi trich</t>
+  </si>
+  <si>
+    <t>distinct khac biet</t>
+  </si>
+  <si>
+    <t>protocol giao thuc</t>
+  </si>
+  <si>
+    <t>sequel phan tiep theo</t>
+  </si>
+  <si>
+    <t>identified xac dinh</t>
+  </si>
+  <si>
+    <t>propagate lan ra truyen ra</t>
+  </si>
+  <si>
+    <t>handled xu ly</t>
+  </si>
+  <si>
+    <t>nowadays ngay nay</t>
+  </si>
+  <si>
+    <t>affecting anh huong den</t>
+  </si>
+  <si>
+    <t>explicitly ro rang</t>
+  </si>
+  <si>
+    <t>definitely chac chan</t>
+  </si>
+  <si>
+    <t>simulate mo phong</t>
+  </si>
+  <si>
+    <t>append chap them noi them</t>
+  </si>
+  <si>
+    <t>instance  truong hop vi du</t>
   </si>
 </sst>
 </file>
@@ -974,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1106,7 @@
     <col min="17" max="17" width="35.140625" customWidth="1"/>
     <col min="18" max="18" width="24.85546875" customWidth="1"/>
     <col min="19" max="19" width="31.140625" customWidth="1"/>
-    <col min="20" max="20" width="24.140625" customWidth="1"/>
+    <col min="20" max="20" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.3">
@@ -4289,6 +4394,688 @@
       </c>
       <c r="T61" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" t="s">
+        <v>215</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s">
+        <v>216</v>
+      </c>
+      <c r="H65" t="s">
+        <v>217</v>
+      </c>
+      <c r="I65" t="s">
+        <v>218</v>
+      </c>
+      <c r="J65" t="s">
+        <v>219</v>
+      </c>
+      <c r="K65" t="s">
+        <v>220</v>
+      </c>
+      <c r="L65" t="s">
+        <v>36</v>
+      </c>
+      <c r="M65" t="s">
+        <v>221</v>
+      </c>
+      <c r="N65" t="s">
+        <v>222</v>
+      </c>
+      <c r="O65" t="s">
+        <v>223</v>
+      </c>
+      <c r="P65" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>225</v>
+      </c>
+      <c r="R65" t="s">
+        <v>226</v>
+      </c>
+      <c r="S65" t="s">
+        <v>227</v>
+      </c>
+      <c r="T65" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" t="s">
+        <v>213</v>
+      </c>
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" t="s">
+        <v>215</v>
+      </c>
+      <c r="F66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s">
+        <v>216</v>
+      </c>
+      <c r="H66" t="s">
+        <v>217</v>
+      </c>
+      <c r="I66" t="s">
+        <v>218</v>
+      </c>
+      <c r="J66" t="s">
+        <v>219</v>
+      </c>
+      <c r="K66" t="s">
+        <v>220</v>
+      </c>
+      <c r="L66" t="s">
+        <v>36</v>
+      </c>
+      <c r="M66" t="s">
+        <v>221</v>
+      </c>
+      <c r="N66" t="s">
+        <v>222</v>
+      </c>
+      <c r="O66" t="s">
+        <v>223</v>
+      </c>
+      <c r="P66" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>225</v>
+      </c>
+      <c r="R66" t="s">
+        <v>226</v>
+      </c>
+      <c r="S66" t="s">
+        <v>227</v>
+      </c>
+      <c r="T66" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" t="s">
+        <v>214</v>
+      </c>
+      <c r="E67" t="s">
+        <v>215</v>
+      </c>
+      <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
+        <v>216</v>
+      </c>
+      <c r="H67" t="s">
+        <v>217</v>
+      </c>
+      <c r="I67" t="s">
+        <v>218</v>
+      </c>
+      <c r="J67" t="s">
+        <v>219</v>
+      </c>
+      <c r="K67" t="s">
+        <v>220</v>
+      </c>
+      <c r="L67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M67" t="s">
+        <v>221</v>
+      </c>
+      <c r="N67" t="s">
+        <v>222</v>
+      </c>
+      <c r="O67" t="s">
+        <v>223</v>
+      </c>
+      <c r="P67" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>225</v>
+      </c>
+      <c r="R67" t="s">
+        <v>226</v>
+      </c>
+      <c r="S67" t="s">
+        <v>227</v>
+      </c>
+      <c r="T67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" t="s">
+        <v>215</v>
+      </c>
+      <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
+        <v>216</v>
+      </c>
+      <c r="H68" t="s">
+        <v>217</v>
+      </c>
+      <c r="I68" t="s">
+        <v>218</v>
+      </c>
+      <c r="J68" t="s">
+        <v>219</v>
+      </c>
+      <c r="K68" t="s">
+        <v>220</v>
+      </c>
+      <c r="L68" t="s">
+        <v>36</v>
+      </c>
+      <c r="M68" t="s">
+        <v>221</v>
+      </c>
+      <c r="N68" t="s">
+        <v>222</v>
+      </c>
+      <c r="O68" t="s">
+        <v>223</v>
+      </c>
+      <c r="P68" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>225</v>
+      </c>
+      <c r="R68" t="s">
+        <v>226</v>
+      </c>
+      <c r="S68" t="s">
+        <v>227</v>
+      </c>
+      <c r="T68" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" t="s">
+        <v>215</v>
+      </c>
+      <c r="F69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s">
+        <v>216</v>
+      </c>
+      <c r="H69" t="s">
+        <v>217</v>
+      </c>
+      <c r="I69" t="s">
+        <v>218</v>
+      </c>
+      <c r="J69" t="s">
+        <v>219</v>
+      </c>
+      <c r="K69" t="s">
+        <v>220</v>
+      </c>
+      <c r="L69" t="s">
+        <v>36</v>
+      </c>
+      <c r="M69" t="s">
+        <v>221</v>
+      </c>
+      <c r="N69" t="s">
+        <v>222</v>
+      </c>
+      <c r="O69" t="s">
+        <v>223</v>
+      </c>
+      <c r="P69" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>225</v>
+      </c>
+      <c r="R69" t="s">
+        <v>226</v>
+      </c>
+      <c r="S69" t="s">
+        <v>227</v>
+      </c>
+      <c r="T69" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" t="s">
+        <v>215</v>
+      </c>
+      <c r="F70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
+        <v>216</v>
+      </c>
+      <c r="H70" t="s">
+        <v>217</v>
+      </c>
+      <c r="I70" t="s">
+        <v>218</v>
+      </c>
+      <c r="J70" t="s">
+        <v>219</v>
+      </c>
+      <c r="K70" t="s">
+        <v>220</v>
+      </c>
+      <c r="L70" t="s">
+        <v>36</v>
+      </c>
+      <c r="M70" t="s">
+        <v>221</v>
+      </c>
+      <c r="N70" t="s">
+        <v>222</v>
+      </c>
+      <c r="O70" t="s">
+        <v>223</v>
+      </c>
+      <c r="P70" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>225</v>
+      </c>
+      <c r="R70" t="s">
+        <v>226</v>
+      </c>
+      <c r="S70" t="s">
+        <v>227</v>
+      </c>
+      <c r="T70" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
+        <v>214</v>
+      </c>
+      <c r="E71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s">
+        <v>216</v>
+      </c>
+      <c r="H71" t="s">
+        <v>217</v>
+      </c>
+      <c r="I71" t="s">
+        <v>218</v>
+      </c>
+      <c r="J71" t="s">
+        <v>219</v>
+      </c>
+      <c r="K71" t="s">
+        <v>220</v>
+      </c>
+      <c r="L71" t="s">
+        <v>36</v>
+      </c>
+      <c r="M71" t="s">
+        <v>221</v>
+      </c>
+      <c r="N71" t="s">
+        <v>222</v>
+      </c>
+      <c r="O71" t="s">
+        <v>223</v>
+      </c>
+      <c r="P71" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>225</v>
+      </c>
+      <c r="R71" t="s">
+        <v>226</v>
+      </c>
+      <c r="S71" t="s">
+        <v>227</v>
+      </c>
+      <c r="T71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" t="s">
+        <v>215</v>
+      </c>
+      <c r="F72" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s">
+        <v>216</v>
+      </c>
+      <c r="H72" t="s">
+        <v>217</v>
+      </c>
+      <c r="I72" t="s">
+        <v>218</v>
+      </c>
+      <c r="J72" t="s">
+        <v>219</v>
+      </c>
+      <c r="K72" t="s">
+        <v>220</v>
+      </c>
+      <c r="L72" t="s">
+        <v>36</v>
+      </c>
+      <c r="M72" t="s">
+        <v>221</v>
+      </c>
+      <c r="N72" t="s">
+        <v>222</v>
+      </c>
+      <c r="O72" t="s">
+        <v>223</v>
+      </c>
+      <c r="P72" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>225</v>
+      </c>
+      <c r="R72" t="s">
+        <v>226</v>
+      </c>
+      <c r="S72" t="s">
+        <v>227</v>
+      </c>
+      <c r="T72" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s">
+        <v>216</v>
+      </c>
+      <c r="H73" t="s">
+        <v>217</v>
+      </c>
+      <c r="I73" t="s">
+        <v>218</v>
+      </c>
+      <c r="J73" t="s">
+        <v>219</v>
+      </c>
+      <c r="K73" t="s">
+        <v>220</v>
+      </c>
+      <c r="L73" t="s">
+        <v>36</v>
+      </c>
+      <c r="M73" t="s">
+        <v>221</v>
+      </c>
+      <c r="N73" t="s">
+        <v>222</v>
+      </c>
+      <c r="O73" t="s">
+        <v>223</v>
+      </c>
+      <c r="P73" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>225</v>
+      </c>
+      <c r="R73" t="s">
+        <v>226</v>
+      </c>
+      <c r="S73" t="s">
+        <v>227</v>
+      </c>
+      <c r="T73" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" t="s">
+        <v>215</v>
+      </c>
+      <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s">
+        <v>216</v>
+      </c>
+      <c r="H74" t="s">
+        <v>217</v>
+      </c>
+      <c r="I74" t="s">
+        <v>218</v>
+      </c>
+      <c r="J74" t="s">
+        <v>219</v>
+      </c>
+      <c r="K74" t="s">
+        <v>220</v>
+      </c>
+      <c r="L74" t="s">
+        <v>36</v>
+      </c>
+      <c r="M74" t="s">
+        <v>221</v>
+      </c>
+      <c r="N74" t="s">
+        <v>222</v>
+      </c>
+      <c r="O74" t="s">
+        <v>223</v>
+      </c>
+      <c r="P74" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>225</v>
+      </c>
+      <c r="R74" t="s">
+        <v>226</v>
+      </c>
+      <c r="S74" t="s">
+        <v>227</v>
+      </c>
+      <c r="T74" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="265">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -712,6 +712,108 @@
   </si>
   <si>
     <t>instance  truong hop vi du</t>
+  </si>
+  <si>
+    <t>28 concept : khái niệm,ý tưởng</t>
+  </si>
+  <si>
+    <t>11 associates  : cộng sự</t>
+  </si>
+  <si>
+    <t>44 describe : diễn tả</t>
+  </si>
+  <si>
+    <t>66 fragments : những mảnh vỡ</t>
+  </si>
+  <si>
+    <t>110 prepare : chuẩn bị</t>
+  </si>
+  <si>
+    <t>137 require : yêu cầu</t>
+  </si>
+  <si>
+    <t>146 segment : bộ phận</t>
+  </si>
+  <si>
+    <t>174 variables : biến số</t>
+  </si>
+  <si>
+    <t>32 Arrange : sắp xếp,bố trí,hòa giải</t>
+  </si>
+  <si>
+    <t>19 handy : khéo léo,tiện dụng,dễ cầm.</t>
+  </si>
+  <si>
+    <t>Concerns: moi quan tam</t>
+  </si>
+  <si>
+    <t>80 colon : dau hai cham “:”</t>
+  </si>
+  <si>
+    <t>107 Aspects: dien mao,than thai,canh quan</t>
+  </si>
+  <si>
+    <t>100 comparisons: so sanh</t>
+  </si>
+  <si>
+    <t>59  instance : trường hợp,ví dụ</t>
+  </si>
+  <si>
+    <t>14 Associativity : kết hợp</t>
+  </si>
+  <si>
+    <t>166 terms : điều kiện,kỳ hạn</t>
+  </si>
+  <si>
+    <t>153 simulate  : mô phỏng</t>
+  </si>
+  <si>
+    <t>concept khai niem y tuong</t>
+  </si>
+  <si>
+    <t>describe dien ta</t>
+  </si>
+  <si>
+    <t>prepare chuan bi</t>
+  </si>
+  <si>
+    <t>fragments nhung manh vo</t>
+  </si>
+  <si>
+    <t>concerns moi quan tam</t>
+  </si>
+  <si>
+    <t>arrange sap xep bo tri hoa giai</t>
+  </si>
+  <si>
+    <t>require yeu cau</t>
+  </si>
+  <si>
+    <t>variables bien so</t>
+  </si>
+  <si>
+    <t>comparisons so sanh</t>
+  </si>
+  <si>
+    <t>aspects dien mao than thai canh quan</t>
+  </si>
+  <si>
+    <t>colon dau hai cham</t>
+  </si>
+  <si>
+    <t>17 retirement : nghỉ hưu,rút quân,bỏ cuộc</t>
+  </si>
+  <si>
+    <t>retirement nghi huu rut quan bo cuoc</t>
+  </si>
+  <si>
+    <t>terms dieu kien ky han</t>
+  </si>
+  <si>
+    <t>associativity ket hop</t>
+  </si>
+  <si>
+    <t>handly kheo leo tien dung de cam</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,13 +1202,13 @@
     <col min="11" max="11" width="26.5703125" customWidth="1"/>
     <col min="12" max="12" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.7109375" customWidth="1"/>
-    <col min="14" max="14" width="31.85546875" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" customWidth="1"/>
-    <col min="17" max="17" width="35.140625" customWidth="1"/>
-    <col min="18" max="18" width="24.85546875" customWidth="1"/>
+    <col min="14" max="14" width="46" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" customWidth="1"/>
+    <col min="16" max="16" width="27.7109375" customWidth="1"/>
+    <col min="17" max="17" width="45.5703125" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" customWidth="1"/>
     <col min="19" max="19" width="31.140625" customWidth="1"/>
-    <col min="20" max="20" width="27" customWidth="1"/>
+    <col min="20" max="20" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.3">
@@ -5076,6 +5178,750 @@
       </c>
       <c r="T74" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>249</v>
+      </c>
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" t="s">
+        <v>252</v>
+      </c>
+      <c r="F78" t="s">
+        <v>253</v>
+      </c>
+      <c r="G78" t="s">
+        <v>254</v>
+      </c>
+      <c r="H78" t="s">
+        <v>264</v>
+      </c>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+      <c r="J78" t="s">
+        <v>33</v>
+      </c>
+      <c r="K78" t="s">
+        <v>255</v>
+      </c>
+      <c r="L78" t="s">
+        <v>256</v>
+      </c>
+      <c r="M78" t="s">
+        <v>257</v>
+      </c>
+      <c r="N78" t="s">
+        <v>258</v>
+      </c>
+      <c r="O78" t="s">
+        <v>259</v>
+      </c>
+      <c r="P78" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>261</v>
+      </c>
+      <c r="R78" t="s">
+        <v>262</v>
+      </c>
+      <c r="S78" t="s">
+        <v>263</v>
+      </c>
+      <c r="T78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" t="s">
+        <v>250</v>
+      </c>
+      <c r="D79" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79" t="s">
+        <v>252</v>
+      </c>
+      <c r="F79" t="s">
+        <v>253</v>
+      </c>
+      <c r="G79" t="s">
+        <v>254</v>
+      </c>
+      <c r="H79" t="s">
+        <v>264</v>
+      </c>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+      <c r="J79" t="s">
+        <v>33</v>
+      </c>
+      <c r="K79" t="s">
+        <v>255</v>
+      </c>
+      <c r="L79" t="s">
+        <v>256</v>
+      </c>
+      <c r="M79" t="s">
+        <v>257</v>
+      </c>
+      <c r="N79" t="s">
+        <v>258</v>
+      </c>
+      <c r="O79" t="s">
+        <v>259</v>
+      </c>
+      <c r="P79" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>261</v>
+      </c>
+      <c r="R79" t="s">
+        <v>262</v>
+      </c>
+      <c r="S79" t="s">
+        <v>263</v>
+      </c>
+      <c r="T79" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" t="s">
+        <v>250</v>
+      </c>
+      <c r="D80" t="s">
+        <v>251</v>
+      </c>
+      <c r="E80" t="s">
+        <v>252</v>
+      </c>
+      <c r="F80" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80" t="s">
+        <v>254</v>
+      </c>
+      <c r="H80" t="s">
+        <v>264</v>
+      </c>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+      <c r="J80" t="s">
+        <v>33</v>
+      </c>
+      <c r="K80" t="s">
+        <v>255</v>
+      </c>
+      <c r="L80" t="s">
+        <v>256</v>
+      </c>
+      <c r="M80" t="s">
+        <v>257</v>
+      </c>
+      <c r="N80" t="s">
+        <v>258</v>
+      </c>
+      <c r="O80" t="s">
+        <v>259</v>
+      </c>
+      <c r="P80" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>261</v>
+      </c>
+      <c r="R80" t="s">
+        <v>262</v>
+      </c>
+      <c r="S80" t="s">
+        <v>263</v>
+      </c>
+      <c r="T80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" t="s">
+        <v>250</v>
+      </c>
+      <c r="D81" t="s">
+        <v>251</v>
+      </c>
+      <c r="E81" t="s">
+        <v>252</v>
+      </c>
+      <c r="F81" t="s">
+        <v>253</v>
+      </c>
+      <c r="G81" t="s">
+        <v>254</v>
+      </c>
+      <c r="H81" t="s">
+        <v>264</v>
+      </c>
+      <c r="I81" t="s">
+        <v>110</v>
+      </c>
+      <c r="J81" t="s">
+        <v>33</v>
+      </c>
+      <c r="K81" t="s">
+        <v>255</v>
+      </c>
+      <c r="L81" t="s">
+        <v>256</v>
+      </c>
+      <c r="M81" t="s">
+        <v>257</v>
+      </c>
+      <c r="N81" t="s">
+        <v>258</v>
+      </c>
+      <c r="O81" t="s">
+        <v>259</v>
+      </c>
+      <c r="P81" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>261</v>
+      </c>
+      <c r="R81" t="s">
+        <v>262</v>
+      </c>
+      <c r="S81" t="s">
+        <v>263</v>
+      </c>
+      <c r="T81" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>249</v>
+      </c>
+      <c r="B82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" t="s">
+        <v>251</v>
+      </c>
+      <c r="E82" t="s">
+        <v>252</v>
+      </c>
+      <c r="F82" t="s">
+        <v>253</v>
+      </c>
+      <c r="G82" t="s">
+        <v>254</v>
+      </c>
+      <c r="H82" t="s">
+        <v>264</v>
+      </c>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+      <c r="J82" t="s">
+        <v>33</v>
+      </c>
+      <c r="K82" t="s">
+        <v>255</v>
+      </c>
+      <c r="L82" t="s">
+        <v>256</v>
+      </c>
+      <c r="M82" t="s">
+        <v>257</v>
+      </c>
+      <c r="N82" t="s">
+        <v>258</v>
+      </c>
+      <c r="O82" t="s">
+        <v>259</v>
+      </c>
+      <c r="P82" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>261</v>
+      </c>
+      <c r="R82" t="s">
+        <v>262</v>
+      </c>
+      <c r="S82" t="s">
+        <v>263</v>
+      </c>
+      <c r="T82" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>249</v>
+      </c>
+      <c r="B83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" t="s">
+        <v>250</v>
+      </c>
+      <c r="D83" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" t="s">
+        <v>252</v>
+      </c>
+      <c r="F83" t="s">
+        <v>253</v>
+      </c>
+      <c r="G83" t="s">
+        <v>254</v>
+      </c>
+      <c r="H83" t="s">
+        <v>264</v>
+      </c>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+      <c r="J83" t="s">
+        <v>33</v>
+      </c>
+      <c r="K83" t="s">
+        <v>255</v>
+      </c>
+      <c r="L83" t="s">
+        <v>256</v>
+      </c>
+      <c r="M83" t="s">
+        <v>257</v>
+      </c>
+      <c r="N83" t="s">
+        <v>258</v>
+      </c>
+      <c r="O83" t="s">
+        <v>259</v>
+      </c>
+      <c r="P83" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>261</v>
+      </c>
+      <c r="R83" t="s">
+        <v>262</v>
+      </c>
+      <c r="S83" t="s">
+        <v>263</v>
+      </c>
+      <c r="T83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E84" t="s">
+        <v>252</v>
+      </c>
+      <c r="F84" t="s">
+        <v>253</v>
+      </c>
+      <c r="G84" t="s">
+        <v>254</v>
+      </c>
+      <c r="H84" t="s">
+        <v>264</v>
+      </c>
+      <c r="I84" t="s">
+        <v>110</v>
+      </c>
+      <c r="J84" t="s">
+        <v>33</v>
+      </c>
+      <c r="K84" t="s">
+        <v>255</v>
+      </c>
+      <c r="L84" t="s">
+        <v>256</v>
+      </c>
+      <c r="M84" t="s">
+        <v>257</v>
+      </c>
+      <c r="N84" t="s">
+        <v>258</v>
+      </c>
+      <c r="O84" t="s">
+        <v>259</v>
+      </c>
+      <c r="P84" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>261</v>
+      </c>
+      <c r="R84" t="s">
+        <v>262</v>
+      </c>
+      <c r="S84" t="s">
+        <v>263</v>
+      </c>
+      <c r="T84" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" t="s">
+        <v>250</v>
+      </c>
+      <c r="D85" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" t="s">
+        <v>252</v>
+      </c>
+      <c r="F85" t="s">
+        <v>253</v>
+      </c>
+      <c r="G85" t="s">
+        <v>254</v>
+      </c>
+      <c r="H85" t="s">
+        <v>264</v>
+      </c>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+      <c r="J85" t="s">
+        <v>33</v>
+      </c>
+      <c r="K85" t="s">
+        <v>255</v>
+      </c>
+      <c r="L85" t="s">
+        <v>256</v>
+      </c>
+      <c r="M85" t="s">
+        <v>257</v>
+      </c>
+      <c r="N85" t="s">
+        <v>258</v>
+      </c>
+      <c r="O85" t="s">
+        <v>259</v>
+      </c>
+      <c r="P85" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>261</v>
+      </c>
+      <c r="R85" t="s">
+        <v>262</v>
+      </c>
+      <c r="S85" t="s">
+        <v>263</v>
+      </c>
+      <c r="T85" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" t="s">
+        <v>250</v>
+      </c>
+      <c r="D86" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86" t="s">
+        <v>252</v>
+      </c>
+      <c r="F86" t="s">
+        <v>253</v>
+      </c>
+      <c r="G86" t="s">
+        <v>254</v>
+      </c>
+      <c r="H86" t="s">
+        <v>264</v>
+      </c>
+      <c r="I86" t="s">
+        <v>110</v>
+      </c>
+      <c r="J86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K86" t="s">
+        <v>255</v>
+      </c>
+      <c r="L86" t="s">
+        <v>256</v>
+      </c>
+      <c r="M86" t="s">
+        <v>257</v>
+      </c>
+      <c r="N86" t="s">
+        <v>258</v>
+      </c>
+      <c r="O86" t="s">
+        <v>259</v>
+      </c>
+      <c r="P86" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>261</v>
+      </c>
+      <c r="R86" t="s">
+        <v>262</v>
+      </c>
+      <c r="S86" t="s">
+        <v>263</v>
+      </c>
+      <c r="T86" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>249</v>
+      </c>
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" t="s">
+        <v>250</v>
+      </c>
+      <c r="D87" t="s">
+        <v>251</v>
+      </c>
+      <c r="E87" t="s">
+        <v>252</v>
+      </c>
+      <c r="F87" t="s">
+        <v>253</v>
+      </c>
+      <c r="G87" t="s">
+        <v>254</v>
+      </c>
+      <c r="H87" t="s">
+        <v>264</v>
+      </c>
+      <c r="I87" t="s">
+        <v>110</v>
+      </c>
+      <c r="J87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K87" t="s">
+        <v>255</v>
+      </c>
+      <c r="L87" t="s">
+        <v>256</v>
+      </c>
+      <c r="M87" t="s">
+        <v>257</v>
+      </c>
+      <c r="N87" t="s">
+        <v>258</v>
+      </c>
+      <c r="O87" t="s">
+        <v>259</v>
+      </c>
+      <c r="P87" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>261</v>
+      </c>
+      <c r="R87" t="s">
+        <v>262</v>
+      </c>
+      <c r="S87" t="s">
+        <v>263</v>
+      </c>
+      <c r="T87" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>249</v>
+      </c>
+      <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" t="s">
+        <v>250</v>
+      </c>
+      <c r="D88" t="s">
+        <v>251</v>
+      </c>
+      <c r="E88" t="s">
+        <v>252</v>
+      </c>
+      <c r="F88" t="s">
+        <v>253</v>
+      </c>
+      <c r="G88" t="s">
+        <v>254</v>
+      </c>
+      <c r="H88" t="s">
+        <v>264</v>
+      </c>
+      <c r="I88" t="s">
+        <v>110</v>
+      </c>
+      <c r="J88" t="s">
+        <v>33</v>
+      </c>
+      <c r="K88" t="s">
+        <v>255</v>
+      </c>
+      <c r="L88" t="s">
+        <v>256</v>
+      </c>
+      <c r="M88" t="s">
+        <v>257</v>
+      </c>
+      <c r="N88" t="s">
+        <v>258</v>
+      </c>
+      <c r="O88" t="s">
+        <v>259</v>
+      </c>
+      <c r="P88" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>261</v>
+      </c>
+      <c r="R88" t="s">
+        <v>262</v>
+      </c>
+      <c r="S88" t="s">
+        <v>263</v>
+      </c>
+      <c r="T88" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="300">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -814,13 +814,118 @@
   </si>
   <si>
     <t>handly kheo leo tien dung de cam</t>
+  </si>
+  <si>
+    <t>60 expands : mở rộng,lớn lên</t>
+  </si>
+  <si>
+    <t>4 approach : tiếp cận</t>
+  </si>
+  <si>
+    <t>41 define : định nghĩa</t>
+  </si>
+  <si>
+    <t>71 guarantee : bảo lãnh,bảo đảm,bảo hành</t>
+  </si>
+  <si>
+    <t>116 props : thuộc tính</t>
+  </si>
+  <si>
+    <t>45 interpolation: nội suy,sự thêm vào</t>
+  </si>
+  <si>
+    <t>89 adult: nguoi lon  (nguoi truong thanh)</t>
+  </si>
+  <si>
+    <t>available: co san</t>
+  </si>
+  <si>
+    <t>shrink: rut lai,co lai</t>
+  </si>
+  <si>
+    <t>least: it nhat,nho nhat</t>
+  </si>
+  <si>
+    <t>various:  da dang</t>
+  </si>
+  <si>
+    <t>dummy: hinh nom,vat gia tao</t>
+  </si>
+  <si>
+    <t>supervises: giam sat</t>
+  </si>
+  <si>
+    <t>seem: hinh nhu,duong nhu</t>
+  </si>
+  <si>
+    <t>immediate: ngay lap tuc</t>
+  </si>
+  <si>
+    <t>hierarchy : he thong cap bac</t>
+  </si>
+  <si>
+    <t>152 similar : giống(trông giống)</t>
+  </si>
+  <si>
+    <t>122 purpose : mục đích,kế hoạch,ý muốn</t>
+  </si>
+  <si>
+    <t>expands mo rong lon len</t>
+  </si>
+  <si>
+    <t>immediate ngay lap tuc</t>
+  </si>
+  <si>
+    <t>define dinh nghia</t>
+  </si>
+  <si>
+    <t>approach tiep can</t>
+  </si>
+  <si>
+    <t>hierarchy he thong cap bac</t>
+  </si>
+  <si>
+    <t>props thuoc tinh</t>
+  </si>
+  <si>
+    <t>purpose muc dich ke hoach y muon</t>
+  </si>
+  <si>
+    <t>guarantee bao lanh bao dam bao hanh</t>
+  </si>
+  <si>
+    <t>shrink rut lai co lai</t>
+  </si>
+  <si>
+    <t>seem hinh nhu duong nhu</t>
+  </si>
+  <si>
+    <t>supervises giam sat</t>
+  </si>
+  <si>
+    <t>interpolation noi suy su them vao</t>
+  </si>
+  <si>
+    <t>similar giong trong giong</t>
+  </si>
+  <si>
+    <t>available co san</t>
+  </si>
+  <si>
+    <t>various da dang</t>
+  </si>
+  <si>
+    <t>least it nhat nho nhat</t>
+  </si>
+  <si>
+    <t>dummy hinh nom vat gia tao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,6 +952,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -868,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -879,6 +990,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="P77" workbookViewId="0">
+      <selection activeCell="T100" sqref="T100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,7 +1323,7 @@
     <col min="12" max="12" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.7109375" customWidth="1"/>
     <col min="14" max="14" width="46" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" customWidth="1"/>
+    <col min="15" max="15" width="33.42578125" customWidth="1"/>
     <col min="16" max="16" width="27.7109375" customWidth="1"/>
     <col min="17" max="17" width="45.5703125" customWidth="1"/>
     <col min="18" max="18" width="30.7109375" customWidth="1"/>
@@ -5922,6 +6042,626 @@
       </c>
       <c r="T88" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="R91" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="S91" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="T91" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>283</v>
+      </c>
+      <c r="B92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" t="s">
+        <v>285</v>
+      </c>
+      <c r="D92" t="s">
+        <v>286</v>
+      </c>
+      <c r="E92" t="s">
+        <v>287</v>
+      </c>
+      <c r="F92" t="s">
+        <v>288</v>
+      </c>
+      <c r="G92" t="s">
+        <v>289</v>
+      </c>
+      <c r="H92" t="s">
+        <v>290</v>
+      </c>
+      <c r="I92" t="s">
+        <v>38</v>
+      </c>
+      <c r="J92" t="s">
+        <v>37</v>
+      </c>
+      <c r="K92" t="s">
+        <v>291</v>
+      </c>
+      <c r="L92" t="s">
+        <v>292</v>
+      </c>
+      <c r="M92" t="s">
+        <v>293</v>
+      </c>
+      <c r="N92" t="s">
+        <v>294</v>
+      </c>
+      <c r="O92" t="s">
+        <v>295</v>
+      </c>
+      <c r="P92" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>25</v>
+      </c>
+      <c r="R92" t="s">
+        <v>297</v>
+      </c>
+      <c r="S92" t="s">
+        <v>298</v>
+      </c>
+      <c r="T92" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>283</v>
+      </c>
+      <c r="B93" t="s">
+        <v>284</v>
+      </c>
+      <c r="C93" t="s">
+        <v>285</v>
+      </c>
+      <c r="D93" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" t="s">
+        <v>287</v>
+      </c>
+      <c r="F93" t="s">
+        <v>288</v>
+      </c>
+      <c r="G93" t="s">
+        <v>289</v>
+      </c>
+      <c r="H93" t="s">
+        <v>290</v>
+      </c>
+      <c r="I93" t="s">
+        <v>38</v>
+      </c>
+      <c r="J93" t="s">
+        <v>37</v>
+      </c>
+      <c r="K93" t="s">
+        <v>291</v>
+      </c>
+      <c r="L93" t="s">
+        <v>292</v>
+      </c>
+      <c r="M93" t="s">
+        <v>293</v>
+      </c>
+      <c r="N93" t="s">
+        <v>294</v>
+      </c>
+      <c r="O93" t="s">
+        <v>295</v>
+      </c>
+      <c r="P93" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>25</v>
+      </c>
+      <c r="R93" t="s">
+        <v>297</v>
+      </c>
+      <c r="S93" t="s">
+        <v>298</v>
+      </c>
+      <c r="T93" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>283</v>
+      </c>
+      <c r="B94" t="s">
+        <v>284</v>
+      </c>
+      <c r="C94" t="s">
+        <v>285</v>
+      </c>
+      <c r="D94" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" t="s">
+        <v>287</v>
+      </c>
+      <c r="F94" t="s">
+        <v>288</v>
+      </c>
+      <c r="G94" t="s">
+        <v>289</v>
+      </c>
+      <c r="H94" t="s">
+        <v>290</v>
+      </c>
+      <c r="I94" t="s">
+        <v>38</v>
+      </c>
+      <c r="J94" t="s">
+        <v>37</v>
+      </c>
+      <c r="K94" t="s">
+        <v>291</v>
+      </c>
+      <c r="L94" t="s">
+        <v>292</v>
+      </c>
+      <c r="M94" t="s">
+        <v>293</v>
+      </c>
+      <c r="N94" t="s">
+        <v>294</v>
+      </c>
+      <c r="O94" t="s">
+        <v>295</v>
+      </c>
+      <c r="P94" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>25</v>
+      </c>
+      <c r="R94" t="s">
+        <v>297</v>
+      </c>
+      <c r="S94" t="s">
+        <v>298</v>
+      </c>
+      <c r="T94" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>283</v>
+      </c>
+      <c r="B95" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" t="s">
+        <v>285</v>
+      </c>
+      <c r="D95" t="s">
+        <v>286</v>
+      </c>
+      <c r="E95" t="s">
+        <v>287</v>
+      </c>
+      <c r="F95" t="s">
+        <v>288</v>
+      </c>
+      <c r="G95" t="s">
+        <v>289</v>
+      </c>
+      <c r="H95" t="s">
+        <v>290</v>
+      </c>
+      <c r="I95" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" t="s">
+        <v>37</v>
+      </c>
+      <c r="K95" t="s">
+        <v>291</v>
+      </c>
+      <c r="L95" t="s">
+        <v>292</v>
+      </c>
+      <c r="M95" t="s">
+        <v>293</v>
+      </c>
+      <c r="N95" t="s">
+        <v>294</v>
+      </c>
+      <c r="O95" t="s">
+        <v>295</v>
+      </c>
+      <c r="P95" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>25</v>
+      </c>
+      <c r="R95" t="s">
+        <v>297</v>
+      </c>
+      <c r="S95" t="s">
+        <v>298</v>
+      </c>
+      <c r="T95" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>283</v>
+      </c>
+      <c r="B96" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" t="s">
+        <v>285</v>
+      </c>
+      <c r="D96" t="s">
+        <v>286</v>
+      </c>
+      <c r="E96" t="s">
+        <v>287</v>
+      </c>
+      <c r="F96" t="s">
+        <v>288</v>
+      </c>
+      <c r="G96" t="s">
+        <v>289</v>
+      </c>
+      <c r="H96" t="s">
+        <v>290</v>
+      </c>
+      <c r="I96" t="s">
+        <v>38</v>
+      </c>
+      <c r="J96" t="s">
+        <v>37</v>
+      </c>
+      <c r="K96" t="s">
+        <v>291</v>
+      </c>
+      <c r="L96" t="s">
+        <v>292</v>
+      </c>
+      <c r="M96" t="s">
+        <v>293</v>
+      </c>
+      <c r="N96" t="s">
+        <v>294</v>
+      </c>
+      <c r="O96" t="s">
+        <v>295</v>
+      </c>
+      <c r="P96" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>25</v>
+      </c>
+      <c r="R96" t="s">
+        <v>297</v>
+      </c>
+      <c r="S96" t="s">
+        <v>298</v>
+      </c>
+      <c r="T96" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>283</v>
+      </c>
+      <c r="B97" t="s">
+        <v>284</v>
+      </c>
+      <c r="C97" t="s">
+        <v>285</v>
+      </c>
+      <c r="D97" t="s">
+        <v>286</v>
+      </c>
+      <c r="E97" t="s">
+        <v>287</v>
+      </c>
+      <c r="F97" t="s">
+        <v>288</v>
+      </c>
+      <c r="G97" t="s">
+        <v>289</v>
+      </c>
+      <c r="H97" t="s">
+        <v>290</v>
+      </c>
+      <c r="I97" t="s">
+        <v>38</v>
+      </c>
+      <c r="J97" t="s">
+        <v>37</v>
+      </c>
+      <c r="K97" t="s">
+        <v>291</v>
+      </c>
+      <c r="L97" t="s">
+        <v>292</v>
+      </c>
+      <c r="M97" t="s">
+        <v>293</v>
+      </c>
+      <c r="N97" t="s">
+        <v>294</v>
+      </c>
+      <c r="O97" t="s">
+        <v>295</v>
+      </c>
+      <c r="P97" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>25</v>
+      </c>
+      <c r="R97" t="s">
+        <v>297</v>
+      </c>
+      <c r="S97" t="s">
+        <v>298</v>
+      </c>
+      <c r="T97" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" t="s">
+        <v>285</v>
+      </c>
+      <c r="D98" t="s">
+        <v>286</v>
+      </c>
+      <c r="E98" t="s">
+        <v>287</v>
+      </c>
+      <c r="F98" t="s">
+        <v>288</v>
+      </c>
+      <c r="G98" t="s">
+        <v>289</v>
+      </c>
+      <c r="H98" t="s">
+        <v>290</v>
+      </c>
+      <c r="I98" t="s">
+        <v>38</v>
+      </c>
+      <c r="J98" t="s">
+        <v>37</v>
+      </c>
+      <c r="K98" t="s">
+        <v>291</v>
+      </c>
+      <c r="L98" t="s">
+        <v>292</v>
+      </c>
+      <c r="M98" t="s">
+        <v>293</v>
+      </c>
+      <c r="N98" t="s">
+        <v>294</v>
+      </c>
+      <c r="O98" t="s">
+        <v>295</v>
+      </c>
+      <c r="P98" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>25</v>
+      </c>
+      <c r="R98" t="s">
+        <v>297</v>
+      </c>
+      <c r="S98" t="s">
+        <v>298</v>
+      </c>
+      <c r="T98" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>283</v>
+      </c>
+      <c r="B99" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" t="s">
+        <v>285</v>
+      </c>
+      <c r="D99" t="s">
+        <v>286</v>
+      </c>
+      <c r="E99" t="s">
+        <v>287</v>
+      </c>
+      <c r="F99" t="s">
+        <v>288</v>
+      </c>
+      <c r="G99" t="s">
+        <v>289</v>
+      </c>
+      <c r="H99" t="s">
+        <v>290</v>
+      </c>
+      <c r="I99" t="s">
+        <v>38</v>
+      </c>
+      <c r="J99" t="s">
+        <v>37</v>
+      </c>
+      <c r="K99" t="s">
+        <v>291</v>
+      </c>
+      <c r="L99" t="s">
+        <v>292</v>
+      </c>
+      <c r="M99" t="s">
+        <v>293</v>
+      </c>
+      <c r="N99" t="s">
+        <v>294</v>
+      </c>
+      <c r="O99" t="s">
+        <v>295</v>
+      </c>
+      <c r="P99" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>25</v>
+      </c>
+      <c r="R99" t="s">
+        <v>297</v>
+      </c>
+      <c r="S99" t="s">
+        <v>298</v>
+      </c>
+      <c r="T99" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>283</v>
+      </c>
+      <c r="B100" t="s">
+        <v>284</v>
+      </c>
+      <c r="C100" t="s">
+        <v>285</v>
+      </c>
+      <c r="D100" t="s">
+        <v>286</v>
+      </c>
+      <c r="E100" t="s">
+        <v>287</v>
+      </c>
+      <c r="F100" t="s">
+        <v>288</v>
+      </c>
+      <c r="G100" t="s">
+        <v>289</v>
+      </c>
+      <c r="H100" t="s">
+        <v>290</v>
+      </c>
+      <c r="I100" t="s">
+        <v>38</v>
+      </c>
+      <c r="J100" t="s">
+        <v>37</v>
+      </c>
+      <c r="K100" t="s">
+        <v>291</v>
+      </c>
+      <c r="L100" t="s">
+        <v>292</v>
+      </c>
+      <c r="M100" t="s">
+        <v>293</v>
+      </c>
+      <c r="N100" t="s">
+        <v>294</v>
+      </c>
+      <c r="O100" t="s">
+        <v>295</v>
+      </c>
+      <c r="P100" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>25</v>
+      </c>
+      <c r="R100" t="s">
+        <v>297</v>
+      </c>
+      <c r="S100" t="s">
+        <v>298</v>
+      </c>
+      <c r="T100" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="337">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -919,6 +919,117 @@
   </si>
   <si>
     <t>dummy hinh nom vat gia tao</t>
+  </si>
+  <si>
+    <t>Init: trong do</t>
+  </si>
+  <si>
+    <t>Propagation: lan truyen</t>
+  </si>
+  <si>
+    <t>prototype: nguyen mau</t>
+  </si>
+  <si>
+    <t>protocol: giao thuc</t>
+  </si>
+  <si>
+    <t>Prevent: ngan chan,ngan can</t>
+  </si>
+  <si>
+    <t>Clause: menh de,dieu le</t>
+  </si>
+  <si>
+    <t>Performing: bieu dien,thuc hien</t>
+  </si>
+  <si>
+    <t>Explained: giai thich</t>
+  </si>
+  <si>
+    <t>Coordinates: toa do</t>
+  </si>
+  <si>
+    <t>Authorization: uy quyen</t>
+  </si>
+  <si>
+    <t>Occur: xay ra</t>
+  </si>
+  <si>
+    <t>interval: khoang thoi gian</t>
+  </si>
+  <si>
+    <t>response: phan ung,phan hoi</t>
+  </si>
+  <si>
+    <t>constantly: lien tuc</t>
+  </si>
+  <si>
+    <t>concentrate: tap hop,tap trung</t>
+  </si>
+  <si>
+    <t>Geeks: chuyen vien may tinh</t>
+  </si>
+  <si>
+    <t>149 separate : tách rời</t>
+  </si>
+  <si>
+    <t>109 preference : ưu tiên</t>
+  </si>
+  <si>
+    <t>83 insert : chèn</t>
+  </si>
+  <si>
+    <t>init trong do</t>
+  </si>
+  <si>
+    <t>propagation lan truyen</t>
+  </si>
+  <si>
+    <t>prototype nguyen mau</t>
+  </si>
+  <si>
+    <t>prevent ngan chan</t>
+  </si>
+  <si>
+    <t>clause menh de dieu le</t>
+  </si>
+  <si>
+    <t>performing bieu dien thuc hien</t>
+  </si>
+  <si>
+    <t>explained giai thich</t>
+  </si>
+  <si>
+    <t>coordinates toa do</t>
+  </si>
+  <si>
+    <t>authorization uy quyen</t>
+  </si>
+  <si>
+    <t>occur xay ra</t>
+  </si>
+  <si>
+    <t>interval khoang thoi gian</t>
+  </si>
+  <si>
+    <t>response phan ung phan hoi</t>
+  </si>
+  <si>
+    <t>constantly lien tuc</t>
+  </si>
+  <si>
+    <t>regular thuong xuyen deu dan</t>
+  </si>
+  <si>
+    <t>regular:thuong xuyen,deu dan</t>
+  </si>
+  <si>
+    <t>geeks chuyen vien may tinh</t>
+  </si>
+  <si>
+    <t>concentrate tap hop tap trung</t>
+  </si>
+  <si>
+    <t>insert chen</t>
   </si>
 </sst>
 </file>
@@ -1301,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P77" workbookViewId="0">
-      <selection activeCell="T100" sqref="T100"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6662,6 +6773,812 @@
       </c>
       <c r="T100" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" t="s">
+        <v>302</v>
+      </c>
+      <c r="D103" t="s">
+        <v>303</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G103" t="s">
+        <v>306</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O103" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="S103" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>319</v>
+      </c>
+      <c r="B104" t="s">
+        <v>320</v>
+      </c>
+      <c r="C104" t="s">
+        <v>321</v>
+      </c>
+      <c r="D104" t="s">
+        <v>219</v>
+      </c>
+      <c r="E104" t="s">
+        <v>322</v>
+      </c>
+      <c r="F104" t="s">
+        <v>323</v>
+      </c>
+      <c r="G104" t="s">
+        <v>324</v>
+      </c>
+      <c r="H104" t="s">
+        <v>325</v>
+      </c>
+      <c r="I104" t="s">
+        <v>326</v>
+      </c>
+      <c r="J104" t="s">
+        <v>327</v>
+      </c>
+      <c r="K104" t="s">
+        <v>328</v>
+      </c>
+      <c r="L104" t="s">
+        <v>329</v>
+      </c>
+      <c r="M104" t="s">
+        <v>330</v>
+      </c>
+      <c r="N104" t="s">
+        <v>334</v>
+      </c>
+      <c r="O104" t="s">
+        <v>332</v>
+      </c>
+      <c r="P104" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>335</v>
+      </c>
+      <c r="R104" t="s">
+        <v>73</v>
+      </c>
+      <c r="S104" t="s">
+        <v>152</v>
+      </c>
+      <c r="T104" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>319</v>
+      </c>
+      <c r="B105" t="s">
+        <v>320</v>
+      </c>
+      <c r="C105" t="s">
+        <v>321</v>
+      </c>
+      <c r="D105" t="s">
+        <v>219</v>
+      </c>
+      <c r="E105" t="s">
+        <v>322</v>
+      </c>
+      <c r="F105" t="s">
+        <v>323</v>
+      </c>
+      <c r="G105" t="s">
+        <v>324</v>
+      </c>
+      <c r="H105" t="s">
+        <v>325</v>
+      </c>
+      <c r="I105" t="s">
+        <v>326</v>
+      </c>
+      <c r="J105" t="s">
+        <v>327</v>
+      </c>
+      <c r="K105" t="s">
+        <v>328</v>
+      </c>
+      <c r="L105" t="s">
+        <v>329</v>
+      </c>
+      <c r="M105" t="s">
+        <v>330</v>
+      </c>
+      <c r="N105" t="s">
+        <v>334</v>
+      </c>
+      <c r="O105" t="s">
+        <v>332</v>
+      </c>
+      <c r="P105" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>335</v>
+      </c>
+      <c r="R105" t="s">
+        <v>73</v>
+      </c>
+      <c r="S105" t="s">
+        <v>152</v>
+      </c>
+      <c r="T105" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>319</v>
+      </c>
+      <c r="B106" t="s">
+        <v>320</v>
+      </c>
+      <c r="C106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D106" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" t="s">
+        <v>322</v>
+      </c>
+      <c r="F106" t="s">
+        <v>323</v>
+      </c>
+      <c r="G106" t="s">
+        <v>324</v>
+      </c>
+      <c r="H106" t="s">
+        <v>325</v>
+      </c>
+      <c r="I106" t="s">
+        <v>326</v>
+      </c>
+      <c r="J106" t="s">
+        <v>327</v>
+      </c>
+      <c r="K106" t="s">
+        <v>328</v>
+      </c>
+      <c r="L106" t="s">
+        <v>329</v>
+      </c>
+      <c r="M106" t="s">
+        <v>330</v>
+      </c>
+      <c r="N106" t="s">
+        <v>334</v>
+      </c>
+      <c r="O106" t="s">
+        <v>332</v>
+      </c>
+      <c r="P106" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>335</v>
+      </c>
+      <c r="R106" t="s">
+        <v>73</v>
+      </c>
+      <c r="S106" t="s">
+        <v>152</v>
+      </c>
+      <c r="T106" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>319</v>
+      </c>
+      <c r="B107" t="s">
+        <v>320</v>
+      </c>
+      <c r="C107" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107" t="s">
+        <v>219</v>
+      </c>
+      <c r="E107" t="s">
+        <v>322</v>
+      </c>
+      <c r="F107" t="s">
+        <v>323</v>
+      </c>
+      <c r="G107" t="s">
+        <v>324</v>
+      </c>
+      <c r="H107" t="s">
+        <v>325</v>
+      </c>
+      <c r="I107" t="s">
+        <v>326</v>
+      </c>
+      <c r="J107" t="s">
+        <v>327</v>
+      </c>
+      <c r="K107" t="s">
+        <v>328</v>
+      </c>
+      <c r="L107" t="s">
+        <v>329</v>
+      </c>
+      <c r="M107" t="s">
+        <v>330</v>
+      </c>
+      <c r="N107" t="s">
+        <v>334</v>
+      </c>
+      <c r="O107" t="s">
+        <v>332</v>
+      </c>
+      <c r="P107" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>335</v>
+      </c>
+      <c r="R107" t="s">
+        <v>73</v>
+      </c>
+      <c r="S107" t="s">
+        <v>152</v>
+      </c>
+      <c r="T107" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>319</v>
+      </c>
+      <c r="B108" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" t="s">
+        <v>321</v>
+      </c>
+      <c r="D108" t="s">
+        <v>219</v>
+      </c>
+      <c r="E108" t="s">
+        <v>322</v>
+      </c>
+      <c r="F108" t="s">
+        <v>323</v>
+      </c>
+      <c r="G108" t="s">
+        <v>324</v>
+      </c>
+      <c r="H108" t="s">
+        <v>325</v>
+      </c>
+      <c r="I108" t="s">
+        <v>326</v>
+      </c>
+      <c r="J108" t="s">
+        <v>327</v>
+      </c>
+      <c r="K108" t="s">
+        <v>328</v>
+      </c>
+      <c r="L108" t="s">
+        <v>329</v>
+      </c>
+      <c r="M108" t="s">
+        <v>330</v>
+      </c>
+      <c r="N108" t="s">
+        <v>334</v>
+      </c>
+      <c r="O108" t="s">
+        <v>332</v>
+      </c>
+      <c r="P108" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>335</v>
+      </c>
+      <c r="R108" t="s">
+        <v>73</v>
+      </c>
+      <c r="S108" t="s">
+        <v>152</v>
+      </c>
+      <c r="T108" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>319</v>
+      </c>
+      <c r="B109" t="s">
+        <v>320</v>
+      </c>
+      <c r="C109" t="s">
+        <v>321</v>
+      </c>
+      <c r="D109" t="s">
+        <v>219</v>
+      </c>
+      <c r="E109" t="s">
+        <v>322</v>
+      </c>
+      <c r="F109" t="s">
+        <v>323</v>
+      </c>
+      <c r="G109" t="s">
+        <v>324</v>
+      </c>
+      <c r="H109" t="s">
+        <v>325</v>
+      </c>
+      <c r="I109" t="s">
+        <v>326</v>
+      </c>
+      <c r="J109" t="s">
+        <v>327</v>
+      </c>
+      <c r="K109" t="s">
+        <v>328</v>
+      </c>
+      <c r="L109" t="s">
+        <v>329</v>
+      </c>
+      <c r="M109" t="s">
+        <v>330</v>
+      </c>
+      <c r="N109" t="s">
+        <v>334</v>
+      </c>
+      <c r="O109" t="s">
+        <v>332</v>
+      </c>
+      <c r="P109" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>335</v>
+      </c>
+      <c r="R109" t="s">
+        <v>73</v>
+      </c>
+      <c r="S109" t="s">
+        <v>152</v>
+      </c>
+      <c r="T109" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>319</v>
+      </c>
+      <c r="B110" t="s">
+        <v>320</v>
+      </c>
+      <c r="C110" t="s">
+        <v>321</v>
+      </c>
+      <c r="D110" t="s">
+        <v>219</v>
+      </c>
+      <c r="E110" t="s">
+        <v>322</v>
+      </c>
+      <c r="F110" t="s">
+        <v>323</v>
+      </c>
+      <c r="G110" t="s">
+        <v>324</v>
+      </c>
+      <c r="H110" t="s">
+        <v>325</v>
+      </c>
+      <c r="I110" t="s">
+        <v>326</v>
+      </c>
+      <c r="J110" t="s">
+        <v>327</v>
+      </c>
+      <c r="K110" t="s">
+        <v>328</v>
+      </c>
+      <c r="L110" t="s">
+        <v>329</v>
+      </c>
+      <c r="M110" t="s">
+        <v>330</v>
+      </c>
+      <c r="N110" t="s">
+        <v>334</v>
+      </c>
+      <c r="O110" t="s">
+        <v>332</v>
+      </c>
+      <c r="P110" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>335</v>
+      </c>
+      <c r="R110" t="s">
+        <v>73</v>
+      </c>
+      <c r="S110" t="s">
+        <v>152</v>
+      </c>
+      <c r="T110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>319</v>
+      </c>
+      <c r="B111" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111" t="s">
+        <v>321</v>
+      </c>
+      <c r="D111" t="s">
+        <v>219</v>
+      </c>
+      <c r="E111" t="s">
+        <v>322</v>
+      </c>
+      <c r="F111" t="s">
+        <v>323</v>
+      </c>
+      <c r="G111" t="s">
+        <v>324</v>
+      </c>
+      <c r="H111" t="s">
+        <v>325</v>
+      </c>
+      <c r="I111" t="s">
+        <v>326</v>
+      </c>
+      <c r="J111" t="s">
+        <v>327</v>
+      </c>
+      <c r="K111" t="s">
+        <v>328</v>
+      </c>
+      <c r="L111" t="s">
+        <v>329</v>
+      </c>
+      <c r="M111" t="s">
+        <v>330</v>
+      </c>
+      <c r="N111" t="s">
+        <v>334</v>
+      </c>
+      <c r="O111" t="s">
+        <v>332</v>
+      </c>
+      <c r="P111" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>335</v>
+      </c>
+      <c r="R111" t="s">
+        <v>73</v>
+      </c>
+      <c r="S111" t="s">
+        <v>152</v>
+      </c>
+      <c r="T111" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>319</v>
+      </c>
+      <c r="B112" t="s">
+        <v>320</v>
+      </c>
+      <c r="C112" t="s">
+        <v>321</v>
+      </c>
+      <c r="D112" t="s">
+        <v>219</v>
+      </c>
+      <c r="E112" t="s">
+        <v>322</v>
+      </c>
+      <c r="F112" t="s">
+        <v>323</v>
+      </c>
+      <c r="G112" t="s">
+        <v>324</v>
+      </c>
+      <c r="H112" t="s">
+        <v>325</v>
+      </c>
+      <c r="I112" t="s">
+        <v>326</v>
+      </c>
+      <c r="J112" t="s">
+        <v>327</v>
+      </c>
+      <c r="K112" t="s">
+        <v>328</v>
+      </c>
+      <c r="L112" t="s">
+        <v>329</v>
+      </c>
+      <c r="M112" t="s">
+        <v>330</v>
+      </c>
+      <c r="N112" t="s">
+        <v>334</v>
+      </c>
+      <c r="O112" t="s">
+        <v>332</v>
+      </c>
+      <c r="P112" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>335</v>
+      </c>
+      <c r="R112" t="s">
+        <v>73</v>
+      </c>
+      <c r="S112" t="s">
+        <v>152</v>
+      </c>
+      <c r="T112" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>319</v>
+      </c>
+      <c r="B113" t="s">
+        <v>320</v>
+      </c>
+      <c r="C113" t="s">
+        <v>321</v>
+      </c>
+      <c r="D113" t="s">
+        <v>219</v>
+      </c>
+      <c r="E113" t="s">
+        <v>322</v>
+      </c>
+      <c r="F113" t="s">
+        <v>323</v>
+      </c>
+      <c r="G113" t="s">
+        <v>324</v>
+      </c>
+      <c r="H113" t="s">
+        <v>325</v>
+      </c>
+      <c r="I113" t="s">
+        <v>326</v>
+      </c>
+      <c r="J113" t="s">
+        <v>327</v>
+      </c>
+      <c r="K113" t="s">
+        <v>328</v>
+      </c>
+      <c r="L113" t="s">
+        <v>329</v>
+      </c>
+      <c r="M113" t="s">
+        <v>330</v>
+      </c>
+      <c r="N113" t="s">
+        <v>334</v>
+      </c>
+      <c r="O113" t="s">
+        <v>332</v>
+      </c>
+      <c r="P113" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>335</v>
+      </c>
+      <c r="R113" t="s">
+        <v>73</v>
+      </c>
+      <c r="S113" t="s">
+        <v>152</v>
+      </c>
+      <c r="T113" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>319</v>
+      </c>
+      <c r="B114" t="s">
+        <v>320</v>
+      </c>
+      <c r="C114" t="s">
+        <v>321</v>
+      </c>
+      <c r="D114" t="s">
+        <v>219</v>
+      </c>
+      <c r="E114" t="s">
+        <v>322</v>
+      </c>
+      <c r="F114" t="s">
+        <v>323</v>
+      </c>
+      <c r="G114" t="s">
+        <v>324</v>
+      </c>
+      <c r="H114" t="s">
+        <v>325</v>
+      </c>
+      <c r="I114" t="s">
+        <v>326</v>
+      </c>
+      <c r="J114" t="s">
+        <v>327</v>
+      </c>
+      <c r="K114" t="s">
+        <v>328</v>
+      </c>
+      <c r="L114" t="s">
+        <v>329</v>
+      </c>
+      <c r="M114" t="s">
+        <v>330</v>
+      </c>
+      <c r="N114" t="s">
+        <v>334</v>
+      </c>
+      <c r="O114" t="s">
+        <v>332</v>
+      </c>
+      <c r="P114" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>335</v>
+      </c>
+      <c r="R114" t="s">
+        <v>73</v>
+      </c>
+      <c r="S114" t="s">
+        <v>152</v>
+      </c>
+      <c r="T114" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>319</v>
+      </c>
+      <c r="B115" t="s">
+        <v>320</v>
+      </c>
+      <c r="C115" t="s">
+        <v>321</v>
+      </c>
+      <c r="D115" t="s">
+        <v>219</v>
+      </c>
+      <c r="E115" t="s">
+        <v>322</v>
+      </c>
+      <c r="F115" t="s">
+        <v>323</v>
+      </c>
+      <c r="G115" t="s">
+        <v>324</v>
+      </c>
+      <c r="H115" t="s">
+        <v>325</v>
+      </c>
+      <c r="I115" t="s">
+        <v>326</v>
+      </c>
+      <c r="J115" t="s">
+        <v>327</v>
+      </c>
+      <c r="K115" t="s">
+        <v>328</v>
+      </c>
+      <c r="L115" t="s">
+        <v>329</v>
+      </c>
+      <c r="M115" t="s">
+        <v>330</v>
+      </c>
+      <c r="N115" t="s">
+        <v>334</v>
+      </c>
+      <c r="O115" t="s">
+        <v>332</v>
+      </c>
+      <c r="P115" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>335</v>
+      </c>
+      <c r="R115" t="s">
+        <v>73</v>
+      </c>
+      <c r="S115" t="s">
+        <v>152</v>
+      </c>
+      <c r="T115" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="372">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -1030,6 +1030,111 @@
   </si>
   <si>
     <t>insert chen</t>
+  </si>
+  <si>
+    <t>Associated: lien ket</t>
+  </si>
+  <si>
+    <t>Individual: ca nhan, rieng tu</t>
+  </si>
+  <si>
+    <t>Aspects: cac khia canh</t>
+  </si>
+  <si>
+    <t>Criteria: tieu chi,tieu chuan</t>
+  </si>
+  <si>
+    <t>Omit: bo sot</t>
+  </si>
+  <si>
+    <t>Alter: thay doi,sua doi</t>
+  </si>
+  <si>
+    <t>Decision: phan quyet,quyet dinh</t>
+  </si>
+  <si>
+    <t>Triggered: kich hoat</t>
+  </si>
+  <si>
+    <t>Responsible: chiu trach nhiem</t>
+  </si>
+  <si>
+    <t>116 Concatenation: gan ghep,su lien he</t>
+  </si>
+  <si>
+    <t>159 state : trạng thái</t>
+  </si>
+  <si>
+    <t>72 hard-coded : mã hóa cứng</t>
+  </si>
+  <si>
+    <t>70 generic : chung</t>
+  </si>
+  <si>
+    <t>65 frag : miếng</t>
+  </si>
+  <si>
+    <t>63 foundation : nền tảng</t>
+  </si>
+  <si>
+    <t>90 interpolation: nội suy,sự thêm vào</t>
+  </si>
+  <si>
+    <t>68 generate: tạo ra</t>
+  </si>
+  <si>
+    <t>concatenation gan ghep su lien he</t>
+  </si>
+  <si>
+    <t>individual ca nhan rieng tu</t>
+  </si>
+  <si>
+    <t>aspects cac khia canh</t>
+  </si>
+  <si>
+    <t>criteria tieu chi tieu chuan</t>
+  </si>
+  <si>
+    <t>decision phan quyet quyet dinh</t>
+  </si>
+  <si>
+    <t>reponsible chiu trach nhiem</t>
+  </si>
+  <si>
+    <t>omit bo sot</t>
+  </si>
+  <si>
+    <t>triggered kich hoat</t>
+  </si>
+  <si>
+    <t>alter thay doi sua doi</t>
+  </si>
+  <si>
+    <t>associated lien ket</t>
+  </si>
+  <si>
+    <t>state trang thai</t>
+  </si>
+  <si>
+    <t>hard-coded ma hoa cung</t>
+  </si>
+  <si>
+    <t>generic chung</t>
+  </si>
+  <si>
+    <t>frag mieng</t>
+  </si>
+  <si>
+    <t>foundation nen tang</t>
+  </si>
+  <si>
+    <t>purchase mua tua vao bam vao</t>
+  </si>
+  <si>
+    <t>120 purchase : mua,tựa vào,bám vào</t>
+  </si>
+  <si>
+    <t>generate tao ra</t>
   </si>
 </sst>
 </file>
@@ -1412,15 +1517,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="P104" workbookViewId="0">
+      <selection activeCell="T127" sqref="T127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
@@ -1438,7 +1543,7 @@
     <col min="16" max="16" width="27.7109375" customWidth="1"/>
     <col min="17" max="17" width="45.5703125" customWidth="1"/>
     <col min="18" max="18" width="30.7109375" customWidth="1"/>
-    <col min="19" max="19" width="31.140625" customWidth="1"/>
+    <col min="19" max="19" width="38.7109375" customWidth="1"/>
     <col min="20" max="20" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7579,6 +7684,626 @@
       </c>
       <c r="T115" t="s">
         <v>336</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="T118" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>354</v>
+      </c>
+      <c r="B119" t="s">
+        <v>355</v>
+      </c>
+      <c r="C119" t="s">
+        <v>181</v>
+      </c>
+      <c r="D119" t="s">
+        <v>356</v>
+      </c>
+      <c r="E119" t="s">
+        <v>357</v>
+      </c>
+      <c r="F119" t="s">
+        <v>323</v>
+      </c>
+      <c r="G119" t="s">
+        <v>358</v>
+      </c>
+      <c r="H119" t="s">
+        <v>359</v>
+      </c>
+      <c r="I119" t="s">
+        <v>360</v>
+      </c>
+      <c r="J119" t="s">
+        <v>361</v>
+      </c>
+      <c r="K119" t="s">
+        <v>362</v>
+      </c>
+      <c r="L119" t="s">
+        <v>363</v>
+      </c>
+      <c r="M119" t="s">
+        <v>364</v>
+      </c>
+      <c r="N119" t="s">
+        <v>365</v>
+      </c>
+      <c r="O119" t="s">
+        <v>366</v>
+      </c>
+      <c r="P119" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>294</v>
+      </c>
+      <c r="R119" t="s">
+        <v>368</v>
+      </c>
+      <c r="S119" t="s">
+        <v>369</v>
+      </c>
+      <c r="T119" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>354</v>
+      </c>
+      <c r="B120" t="s">
+        <v>355</v>
+      </c>
+      <c r="C120" t="s">
+        <v>181</v>
+      </c>
+      <c r="D120" t="s">
+        <v>356</v>
+      </c>
+      <c r="E120" t="s">
+        <v>357</v>
+      </c>
+      <c r="F120" t="s">
+        <v>323</v>
+      </c>
+      <c r="G120" t="s">
+        <v>358</v>
+      </c>
+      <c r="H120" t="s">
+        <v>111</v>
+      </c>
+      <c r="I120" t="s">
+        <v>360</v>
+      </c>
+      <c r="J120" t="s">
+        <v>361</v>
+      </c>
+      <c r="K120" t="s">
+        <v>362</v>
+      </c>
+      <c r="L120" t="s">
+        <v>363</v>
+      </c>
+      <c r="M120" t="s">
+        <v>364</v>
+      </c>
+      <c r="N120" t="s">
+        <v>365</v>
+      </c>
+      <c r="O120" t="s">
+        <v>366</v>
+      </c>
+      <c r="P120" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>294</v>
+      </c>
+      <c r="R120" t="s">
+        <v>368</v>
+      </c>
+      <c r="S120" t="s">
+        <v>369</v>
+      </c>
+      <c r="T120" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>354</v>
+      </c>
+      <c r="B121" t="s">
+        <v>355</v>
+      </c>
+      <c r="C121" t="s">
+        <v>181</v>
+      </c>
+      <c r="D121" t="s">
+        <v>356</v>
+      </c>
+      <c r="E121" t="s">
+        <v>357</v>
+      </c>
+      <c r="F121" t="s">
+        <v>323</v>
+      </c>
+      <c r="G121" t="s">
+        <v>358</v>
+      </c>
+      <c r="H121" t="s">
+        <v>111</v>
+      </c>
+      <c r="I121" t="s">
+        <v>360</v>
+      </c>
+      <c r="J121" t="s">
+        <v>361</v>
+      </c>
+      <c r="K121" t="s">
+        <v>362</v>
+      </c>
+      <c r="L121" t="s">
+        <v>363</v>
+      </c>
+      <c r="M121" t="s">
+        <v>364</v>
+      </c>
+      <c r="N121" t="s">
+        <v>365</v>
+      </c>
+      <c r="O121" t="s">
+        <v>366</v>
+      </c>
+      <c r="P121" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>294</v>
+      </c>
+      <c r="R121" t="s">
+        <v>368</v>
+      </c>
+      <c r="S121" t="s">
+        <v>369</v>
+      </c>
+      <c r="T121" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>354</v>
+      </c>
+      <c r="B122" t="s">
+        <v>355</v>
+      </c>
+      <c r="C122" t="s">
+        <v>181</v>
+      </c>
+      <c r="D122" t="s">
+        <v>356</v>
+      </c>
+      <c r="E122" t="s">
+        <v>357</v>
+      </c>
+      <c r="F122" t="s">
+        <v>323</v>
+      </c>
+      <c r="G122" t="s">
+        <v>358</v>
+      </c>
+      <c r="H122" t="s">
+        <v>111</v>
+      </c>
+      <c r="I122" t="s">
+        <v>360</v>
+      </c>
+      <c r="J122" t="s">
+        <v>361</v>
+      </c>
+      <c r="K122" t="s">
+        <v>362</v>
+      </c>
+      <c r="L122" t="s">
+        <v>363</v>
+      </c>
+      <c r="M122" t="s">
+        <v>364</v>
+      </c>
+      <c r="N122" t="s">
+        <v>365</v>
+      </c>
+      <c r="O122" t="s">
+        <v>366</v>
+      </c>
+      <c r="P122" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>294</v>
+      </c>
+      <c r="R122" t="s">
+        <v>368</v>
+      </c>
+      <c r="S122" t="s">
+        <v>369</v>
+      </c>
+      <c r="T122" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>354</v>
+      </c>
+      <c r="B123" t="s">
+        <v>355</v>
+      </c>
+      <c r="C123" t="s">
+        <v>181</v>
+      </c>
+      <c r="D123" t="s">
+        <v>356</v>
+      </c>
+      <c r="E123" t="s">
+        <v>357</v>
+      </c>
+      <c r="F123" t="s">
+        <v>323</v>
+      </c>
+      <c r="G123" t="s">
+        <v>358</v>
+      </c>
+      <c r="H123" t="s">
+        <v>111</v>
+      </c>
+      <c r="I123" t="s">
+        <v>360</v>
+      </c>
+      <c r="J123" t="s">
+        <v>361</v>
+      </c>
+      <c r="K123" t="s">
+        <v>362</v>
+      </c>
+      <c r="L123" t="s">
+        <v>363</v>
+      </c>
+      <c r="M123" t="s">
+        <v>364</v>
+      </c>
+      <c r="N123" t="s">
+        <v>365</v>
+      </c>
+      <c r="O123" t="s">
+        <v>366</v>
+      </c>
+      <c r="P123" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>294</v>
+      </c>
+      <c r="R123" t="s">
+        <v>368</v>
+      </c>
+      <c r="S123" t="s">
+        <v>369</v>
+      </c>
+      <c r="T123" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>354</v>
+      </c>
+      <c r="B124" t="s">
+        <v>355</v>
+      </c>
+      <c r="C124" t="s">
+        <v>181</v>
+      </c>
+      <c r="D124" t="s">
+        <v>356</v>
+      </c>
+      <c r="E124" t="s">
+        <v>357</v>
+      </c>
+      <c r="F124" t="s">
+        <v>323</v>
+      </c>
+      <c r="G124" t="s">
+        <v>358</v>
+      </c>
+      <c r="H124" t="s">
+        <v>111</v>
+      </c>
+      <c r="I124" t="s">
+        <v>360</v>
+      </c>
+      <c r="J124" t="s">
+        <v>361</v>
+      </c>
+      <c r="K124" t="s">
+        <v>362</v>
+      </c>
+      <c r="L124" t="s">
+        <v>363</v>
+      </c>
+      <c r="M124" t="s">
+        <v>364</v>
+      </c>
+      <c r="N124" t="s">
+        <v>365</v>
+      </c>
+      <c r="O124" t="s">
+        <v>366</v>
+      </c>
+      <c r="P124" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>294</v>
+      </c>
+      <c r="R124" t="s">
+        <v>368</v>
+      </c>
+      <c r="S124" t="s">
+        <v>369</v>
+      </c>
+      <c r="T124" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>354</v>
+      </c>
+      <c r="B125" t="s">
+        <v>355</v>
+      </c>
+      <c r="C125" t="s">
+        <v>181</v>
+      </c>
+      <c r="D125" t="s">
+        <v>356</v>
+      </c>
+      <c r="E125" t="s">
+        <v>357</v>
+      </c>
+      <c r="F125" t="s">
+        <v>323</v>
+      </c>
+      <c r="G125" t="s">
+        <v>358</v>
+      </c>
+      <c r="H125" t="s">
+        <v>111</v>
+      </c>
+      <c r="I125" t="s">
+        <v>360</v>
+      </c>
+      <c r="J125" t="s">
+        <v>361</v>
+      </c>
+      <c r="K125" t="s">
+        <v>362</v>
+      </c>
+      <c r="L125" t="s">
+        <v>363</v>
+      </c>
+      <c r="M125" t="s">
+        <v>364</v>
+      </c>
+      <c r="N125" t="s">
+        <v>365</v>
+      </c>
+      <c r="O125" t="s">
+        <v>366</v>
+      </c>
+      <c r="P125" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>294</v>
+      </c>
+      <c r="R125" t="s">
+        <v>368</v>
+      </c>
+      <c r="S125" t="s">
+        <v>369</v>
+      </c>
+      <c r="T125" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>354</v>
+      </c>
+      <c r="B126" t="s">
+        <v>355</v>
+      </c>
+      <c r="C126" t="s">
+        <v>181</v>
+      </c>
+      <c r="D126" t="s">
+        <v>356</v>
+      </c>
+      <c r="E126" t="s">
+        <v>357</v>
+      </c>
+      <c r="F126" t="s">
+        <v>323</v>
+      </c>
+      <c r="G126" t="s">
+        <v>358</v>
+      </c>
+      <c r="H126" t="s">
+        <v>111</v>
+      </c>
+      <c r="I126" t="s">
+        <v>360</v>
+      </c>
+      <c r="J126" t="s">
+        <v>361</v>
+      </c>
+      <c r="K126" t="s">
+        <v>362</v>
+      </c>
+      <c r="L126" t="s">
+        <v>363</v>
+      </c>
+      <c r="M126" t="s">
+        <v>364</v>
+      </c>
+      <c r="N126" t="s">
+        <v>365</v>
+      </c>
+      <c r="O126" t="s">
+        <v>366</v>
+      </c>
+      <c r="P126" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>294</v>
+      </c>
+      <c r="R126" t="s">
+        <v>368</v>
+      </c>
+      <c r="S126" t="s">
+        <v>369</v>
+      </c>
+      <c r="T126" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>354</v>
+      </c>
+      <c r="B127" t="s">
+        <v>355</v>
+      </c>
+      <c r="C127" t="s">
+        <v>181</v>
+      </c>
+      <c r="D127" t="s">
+        <v>356</v>
+      </c>
+      <c r="E127" t="s">
+        <v>357</v>
+      </c>
+      <c r="F127" t="s">
+        <v>323</v>
+      </c>
+      <c r="G127" t="s">
+        <v>358</v>
+      </c>
+      <c r="H127" t="s">
+        <v>111</v>
+      </c>
+      <c r="I127" t="s">
+        <v>360</v>
+      </c>
+      <c r="J127" t="s">
+        <v>361</v>
+      </c>
+      <c r="K127" t="s">
+        <v>362</v>
+      </c>
+      <c r="L127" t="s">
+        <v>363</v>
+      </c>
+      <c r="M127" t="s">
+        <v>364</v>
+      </c>
+      <c r="N127" t="s">
+        <v>365</v>
+      </c>
+      <c r="O127" t="s">
+        <v>366</v>
+      </c>
+      <c r="P127" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>294</v>
+      </c>
+      <c r="R127" t="s">
+        <v>368</v>
+      </c>
+      <c r="S127" t="s">
+        <v>369</v>
+      </c>
+      <c r="T127" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="393">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -1135,6 +1135,69 @@
   </si>
   <si>
     <t>generate tao ra</t>
+  </si>
+  <si>
+    <t>Honk: bam coi</t>
+  </si>
+  <si>
+    <t>Prewritten: viet san</t>
+  </si>
+  <si>
+    <t>Divided: chia,phan chia</t>
+  </si>
+  <si>
+    <t>Related: lien quan,co dinh dang</t>
+  </si>
+  <si>
+    <t>Sensitive: nhay cam</t>
+  </si>
+  <si>
+    <t>62 synchronously  : dong bo</t>
+  </si>
+  <si>
+    <t>Parentheses: dau ngoac don ()</t>
+  </si>
+  <si>
+    <t>36 course : khóa học</t>
+  </si>
+  <si>
+    <t>26 Composer: nhà soạn nhạc</t>
+  </si>
+  <si>
+    <t>131 reference : tài liệu tham khảo</t>
+  </si>
+  <si>
+    <t>honk bam coi</t>
+  </si>
+  <si>
+    <t>composer nha soan nhac</t>
+  </si>
+  <si>
+    <t>divided phan chia</t>
+  </si>
+  <si>
+    <t>prewritten viet san</t>
+  </si>
+  <si>
+    <t>related lien quan co dinh dang</t>
+  </si>
+  <si>
+    <t>sensitive nhay cam</t>
+  </si>
+  <si>
+    <t>parantheses dau ngoac don</t>
+  </si>
+  <si>
+    <t>reference tai lieu tham khao</t>
+  </si>
+  <si>
+    <t>course khoa hoc</t>
+  </si>
+  <si>
+    <t>synchronously dong bo</t>
+  </si>
+  <si>
+    <t>parentheses dau ngoac don</t>
   </si>
 </sst>
 </file>
@@ -1517,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P104" workbookViewId="0">
-      <selection activeCell="T127" sqref="T127"/>
+    <sheetView tabSelected="1" topLeftCell="F116" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,7 +1598,7 @@
     <col min="8" max="8" width="46.140625" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" customWidth="1"/>
     <col min="10" max="10" width="29.7109375" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
     <col min="12" max="12" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.7109375" customWidth="1"/>
     <col min="14" max="14" width="46" customWidth="1"/>
@@ -8304,6 +8367,166 @@
       </c>
       <c r="T127" t="s">
         <v>371</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>382</v>
+      </c>
+      <c r="B131" t="s">
+        <v>383</v>
+      </c>
+      <c r="C131" t="s">
+        <v>384</v>
+      </c>
+      <c r="D131" t="s">
+        <v>385</v>
+      </c>
+      <c r="E131" t="s">
+        <v>386</v>
+      </c>
+      <c r="F131" t="s">
+        <v>387</v>
+      </c>
+      <c r="G131" t="s">
+        <v>388</v>
+      </c>
+      <c r="H131" t="s">
+        <v>389</v>
+      </c>
+      <c r="I131" t="s">
+        <v>390</v>
+      </c>
+      <c r="J131" t="s">
+        <v>34</v>
+      </c>
+      <c r="K131" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>382</v>
+      </c>
+      <c r="B132" t="s">
+        <v>383</v>
+      </c>
+      <c r="C132" t="s">
+        <v>384</v>
+      </c>
+      <c r="D132" t="s">
+        <v>385</v>
+      </c>
+      <c r="E132" t="s">
+        <v>386</v>
+      </c>
+      <c r="F132" t="s">
+        <v>387</v>
+      </c>
+      <c r="G132" t="s">
+        <v>392</v>
+      </c>
+      <c r="H132" t="s">
+        <v>389</v>
+      </c>
+      <c r="I132" t="s">
+        <v>390</v>
+      </c>
+      <c r="J132" t="s">
+        <v>34</v>
+      </c>
+      <c r="K132" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>382</v>
+      </c>
+      <c r="B133" t="s">
+        <v>383</v>
+      </c>
+      <c r="C133" t="s">
+        <v>384</v>
+      </c>
+      <c r="D133" t="s">
+        <v>385</v>
+      </c>
+      <c r="E133" t="s">
+        <v>386</v>
+      </c>
+      <c r="F133" t="s">
+        <v>387</v>
+      </c>
+      <c r="G133" t="s">
+        <v>392</v>
+      </c>
+      <c r="H133" t="s">
+        <v>389</v>
+      </c>
+      <c r="I133" t="s">
+        <v>390</v>
+      </c>
+      <c r="J133" t="s">
+        <v>34</v>
+      </c>
+      <c r="K133" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>387</v>
+      </c>
+      <c r="G134" t="s">
+        <v>392</v>
+      </c>
+      <c r="H134" t="s">
+        <v>389</v>
+      </c>
+      <c r="I134" t="s">
+        <v>390</v>
+      </c>
+      <c r="J134" t="s">
+        <v>34</v>
+      </c>
+      <c r="K134" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laquy\OneDrive\Desktop\laquythi.github.io\NOTE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="598"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="466">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -1198,12 +1203,231 @@
   </si>
   <si>
     <t>parentheses dau ngoac don</t>
+  </si>
+  <si>
+    <t>62 Associative: lien ket</t>
+  </si>
+  <si>
+    <t>60 Strict: Nghiem ngat</t>
+  </si>
+  <si>
+    <t>57 Besides: ngoai ra</t>
+  </si>
+  <si>
+    <t>53 Moreover: hon the nua</t>
+  </si>
+  <si>
+    <t>51 Lighter: nhe hon</t>
+  </si>
+  <si>
+    <t>48 Approach: tiep can</t>
+  </si>
+  <si>
+    <t>41 Fascinated: say me,cuon hut</t>
+  </si>
+  <si>
+    <t>37 Manipulate: van dung</t>
+  </si>
+  <si>
+    <t>34 Exceptions: ngoai le</t>
+  </si>
+  <si>
+    <t>30 Retain: giu lai</t>
+  </si>
+  <si>
+    <t>28 Achieve: hoan thanh</t>
+  </si>
+  <si>
+    <t>31 Blueprint: ban ve thiet ke</t>
+  </si>
+  <si>
+    <t>33 Occurs: xay ra</t>
+  </si>
+  <si>
+    <t>40 Appends: bo sung</t>
+  </si>
+  <si>
+    <t>38 Comparison: so sanh</t>
+  </si>
+  <si>
+    <t>47 Throughout: khap noi,moi noi</t>
+  </si>
+  <si>
+    <t>56 Perform: bieu dien,trinh bay</t>
+  </si>
+  <si>
+    <t>61 Strict mode: che do Nghiem ngat</t>
+  </si>
+  <si>
+    <t>52 Wondering: tu hoi</t>
+  </si>
+  <si>
+    <t>appends bo sung</t>
+  </si>
+  <si>
+    <t>comparison so sanh</t>
+  </si>
+  <si>
+    <t>occurs xay ra</t>
+  </si>
+  <si>
+    <t>associative lien ket</t>
+  </si>
+  <si>
+    <t>perform bieu dien trinh bay</t>
+  </si>
+  <si>
+    <t>strict mode che do nghiem ngat</t>
+  </si>
+  <si>
+    <t>strict nghiem ngat</t>
+  </si>
+  <si>
+    <t>besides ngoai ra</t>
+  </si>
+  <si>
+    <t>moreover hon the nua</t>
+  </si>
+  <si>
+    <t>lighter nhe hon</t>
+  </si>
+  <si>
+    <t>fascinated say me cuon hut</t>
+  </si>
+  <si>
+    <t>manipulate van dung</t>
+  </si>
+  <si>
+    <t>wondering tu hoi</t>
+  </si>
+  <si>
+    <t>retain giu lai</t>
+  </si>
+  <si>
+    <t>achieve hoan thanh</t>
+  </si>
+  <si>
+    <t>exceptions ngoai le</t>
+  </si>
+  <si>
+    <t>8 Diagram: bieu do</t>
+  </si>
+  <si>
+    <t>diagram bieu do</t>
+  </si>
+  <si>
+    <t>Inspecting: kiem tra,xem xet</t>
+  </si>
+  <si>
+    <t>Immutable: bat bien</t>
+  </si>
+  <si>
+    <t>Prepared: chuan bi</t>
+  </si>
+  <si>
+    <t>Prevent: ngan chan</t>
+  </si>
+  <si>
+    <t>Isolated: bi co lap</t>
+  </si>
+  <si>
+    <t>Stranger: nguoi la</t>
+  </si>
+  <si>
+    <t>Integrating: tich hop</t>
+  </si>
+  <si>
+    <t>Compares: so sanh,doi chieu</t>
+  </si>
+  <si>
+    <t>Embraces: vay quanh,bao quanh</t>
+  </si>
+  <si>
+    <t>Inherently: von co</t>
+  </si>
+  <si>
+    <t>Superset: thay the</t>
+  </si>
+  <si>
+    <t>Entity: thuc the</t>
+  </si>
+  <si>
+    <t>Desired: mong muon,thinh cau</t>
+  </si>
+  <si>
+    <t>Neither: cung khong</t>
+  </si>
+  <si>
+    <t>Below: phia duoi</t>
+  </si>
+  <si>
+    <t>Represents: dai dien,tuong trung</t>
+  </si>
+  <si>
+    <t>Pattern: mau,khuon mau</t>
+  </si>
+  <si>
+    <t>inspecting kiem tra xem xet</t>
+  </si>
+  <si>
+    <t>immutable bat bien</t>
+  </si>
+  <si>
+    <t>prepared chuan bi</t>
+  </si>
+  <si>
+    <t>isolated bi co lap</t>
+  </si>
+  <si>
+    <t>stranger nguoi la</t>
+  </si>
+  <si>
+    <t>integrating tich hop</t>
+  </si>
+  <si>
+    <t>compares so sanh doi chieu</t>
+  </si>
+  <si>
+    <t>entity thuc the</t>
+  </si>
+  <si>
+    <t>superset thay the</t>
+  </si>
+  <si>
+    <t>inherently von co</t>
+  </si>
+  <si>
+    <t>embraces vay quanh bao quanh</t>
+  </si>
+  <si>
+    <t>desired mong muon thinh cau</t>
+  </si>
+  <si>
+    <t>neither cung khong</t>
+  </si>
+  <si>
+    <t>below phia duoi</t>
+  </si>
+  <si>
+    <t>represents dai dien tuong trung</t>
+  </si>
+  <si>
+    <t>pattern mau khuon mau</t>
+  </si>
+  <si>
+    <t>neither cung ko</t>
+  </si>
+  <si>
+    <t>contributor nguoi dong gop</t>
+  </si>
+  <si>
+    <t>Contributor: nguoi dong gop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1289,6 +1513,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1336,7 +1563,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1371,7 +1598,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1580,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V134"/>
+  <dimension ref="A1:V162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F116" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" topLeftCell="P148" workbookViewId="0">
+      <selection activeCell="T162" sqref="T162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8369,7 +8596,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>372</v>
       </c>
@@ -8404,7 +8631,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>382</v>
       </c>
@@ -8439,7 +8666,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>382</v>
       </c>
@@ -8474,7 +8701,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>382</v>
       </c>
@@ -8509,7 +8736,22 @@
         <v>391</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>382</v>
+      </c>
+      <c r="B134" t="s">
+        <v>383</v>
+      </c>
+      <c r="C134" t="s">
+        <v>384</v>
+      </c>
+      <c r="D134" t="s">
+        <v>385</v>
+      </c>
+      <c r="E134" t="s">
+        <v>386</v>
+      </c>
       <c r="F134" t="s">
         <v>387</v>
       </c>
@@ -8527,6 +8769,1432 @@
       </c>
       <c r="K134" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="S138" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="T138" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>195</v>
+      </c>
+      <c r="B139" t="s">
+        <v>412</v>
+      </c>
+      <c r="C139" t="s">
+        <v>413</v>
+      </c>
+      <c r="D139" t="s">
+        <v>414</v>
+      </c>
+      <c r="E139" t="s">
+        <v>177</v>
+      </c>
+      <c r="F139" t="s">
+        <v>415</v>
+      </c>
+      <c r="G139" t="s">
+        <v>416</v>
+      </c>
+      <c r="H139" t="s">
+        <v>417</v>
+      </c>
+      <c r="I139" t="s">
+        <v>418</v>
+      </c>
+      <c r="J139" t="s">
+        <v>419</v>
+      </c>
+      <c r="K139" t="s">
+        <v>420</v>
+      </c>
+      <c r="L139" t="s">
+        <v>429</v>
+      </c>
+      <c r="M139" t="s">
+        <v>421</v>
+      </c>
+      <c r="N139" t="s">
+        <v>422</v>
+      </c>
+      <c r="O139" t="s">
+        <v>286</v>
+      </c>
+      <c r="P139" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>424</v>
+      </c>
+      <c r="R139" t="s">
+        <v>427</v>
+      </c>
+      <c r="S139" t="s">
+        <v>425</v>
+      </c>
+      <c r="T139" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>195</v>
+      </c>
+      <c r="B140" t="s">
+        <v>412</v>
+      </c>
+      <c r="C140" t="s">
+        <v>413</v>
+      </c>
+      <c r="D140" t="s">
+        <v>414</v>
+      </c>
+      <c r="E140" t="s">
+        <v>177</v>
+      </c>
+      <c r="F140" t="s">
+        <v>415</v>
+      </c>
+      <c r="G140" t="s">
+        <v>416</v>
+      </c>
+      <c r="H140" t="s">
+        <v>417</v>
+      </c>
+      <c r="I140" t="s">
+        <v>418</v>
+      </c>
+      <c r="J140" t="s">
+        <v>419</v>
+      </c>
+      <c r="K140" t="s">
+        <v>420</v>
+      </c>
+      <c r="L140" t="s">
+        <v>429</v>
+      </c>
+      <c r="M140" t="s">
+        <v>421</v>
+      </c>
+      <c r="N140" t="s">
+        <v>422</v>
+      </c>
+      <c r="O140" t="s">
+        <v>286</v>
+      </c>
+      <c r="P140" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>424</v>
+      </c>
+      <c r="R140" t="s">
+        <v>427</v>
+      </c>
+      <c r="S140" t="s">
+        <v>425</v>
+      </c>
+      <c r="T140" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>195</v>
+      </c>
+      <c r="B141" t="s">
+        <v>412</v>
+      </c>
+      <c r="C141" t="s">
+        <v>413</v>
+      </c>
+      <c r="D141" t="s">
+        <v>414</v>
+      </c>
+      <c r="E141" t="s">
+        <v>177</v>
+      </c>
+      <c r="F141" t="s">
+        <v>415</v>
+      </c>
+      <c r="G141" t="s">
+        <v>416</v>
+      </c>
+      <c r="H141" t="s">
+        <v>417</v>
+      </c>
+      <c r="I141" t="s">
+        <v>418</v>
+      </c>
+      <c r="J141" t="s">
+        <v>419</v>
+      </c>
+      <c r="K141" t="s">
+        <v>420</v>
+      </c>
+      <c r="L141" t="s">
+        <v>429</v>
+      </c>
+      <c r="M141" t="s">
+        <v>421</v>
+      </c>
+      <c r="N141" t="s">
+        <v>422</v>
+      </c>
+      <c r="O141" t="s">
+        <v>286</v>
+      </c>
+      <c r="P141" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>424</v>
+      </c>
+      <c r="R141" t="s">
+        <v>427</v>
+      </c>
+      <c r="S141" t="s">
+        <v>425</v>
+      </c>
+      <c r="T141" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>195</v>
+      </c>
+      <c r="B142" t="s">
+        <v>412</v>
+      </c>
+      <c r="C142" t="s">
+        <v>413</v>
+      </c>
+      <c r="D142" t="s">
+        <v>414</v>
+      </c>
+      <c r="E142" t="s">
+        <v>177</v>
+      </c>
+      <c r="F142" t="s">
+        <v>415</v>
+      </c>
+      <c r="G142" t="s">
+        <v>416</v>
+      </c>
+      <c r="H142" t="s">
+        <v>417</v>
+      </c>
+      <c r="I142" t="s">
+        <v>418</v>
+      </c>
+      <c r="J142" t="s">
+        <v>419</v>
+      </c>
+      <c r="K142" t="s">
+        <v>420</v>
+      </c>
+      <c r="L142" t="s">
+        <v>429</v>
+      </c>
+      <c r="M142" t="s">
+        <v>421</v>
+      </c>
+      <c r="N142" t="s">
+        <v>422</v>
+      </c>
+      <c r="O142" t="s">
+        <v>286</v>
+      </c>
+      <c r="P142" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>424</v>
+      </c>
+      <c r="R142" t="s">
+        <v>427</v>
+      </c>
+      <c r="S142" t="s">
+        <v>425</v>
+      </c>
+      <c r="T142" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>195</v>
+      </c>
+      <c r="B143" t="s">
+        <v>412</v>
+      </c>
+      <c r="C143" t="s">
+        <v>413</v>
+      </c>
+      <c r="D143" t="s">
+        <v>414</v>
+      </c>
+      <c r="E143" t="s">
+        <v>177</v>
+      </c>
+      <c r="F143" t="s">
+        <v>415</v>
+      </c>
+      <c r="G143" t="s">
+        <v>416</v>
+      </c>
+      <c r="H143" t="s">
+        <v>417</v>
+      </c>
+      <c r="I143" t="s">
+        <v>418</v>
+      </c>
+      <c r="J143" t="s">
+        <v>419</v>
+      </c>
+      <c r="K143" t="s">
+        <v>420</v>
+      </c>
+      <c r="L143" t="s">
+        <v>429</v>
+      </c>
+      <c r="M143" t="s">
+        <v>421</v>
+      </c>
+      <c r="N143" t="s">
+        <v>422</v>
+      </c>
+      <c r="O143" t="s">
+        <v>286</v>
+      </c>
+      <c r="P143" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>424</v>
+      </c>
+      <c r="R143" t="s">
+        <v>427</v>
+      </c>
+      <c r="S143" t="s">
+        <v>425</v>
+      </c>
+      <c r="T143" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>195</v>
+      </c>
+      <c r="B144" t="s">
+        <v>412</v>
+      </c>
+      <c r="C144" t="s">
+        <v>413</v>
+      </c>
+      <c r="D144" t="s">
+        <v>414</v>
+      </c>
+      <c r="E144" t="s">
+        <v>177</v>
+      </c>
+      <c r="F144" t="s">
+        <v>415</v>
+      </c>
+      <c r="G144" t="s">
+        <v>416</v>
+      </c>
+      <c r="H144" t="s">
+        <v>417</v>
+      </c>
+      <c r="I144" t="s">
+        <v>418</v>
+      </c>
+      <c r="J144" t="s">
+        <v>419</v>
+      </c>
+      <c r="K144" t="s">
+        <v>420</v>
+      </c>
+      <c r="L144" t="s">
+        <v>429</v>
+      </c>
+      <c r="M144" t="s">
+        <v>421</v>
+      </c>
+      <c r="N144" t="s">
+        <v>422</v>
+      </c>
+      <c r="O144" t="s">
+        <v>286</v>
+      </c>
+      <c r="P144" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>424</v>
+      </c>
+      <c r="R144" t="s">
+        <v>427</v>
+      </c>
+      <c r="S144" t="s">
+        <v>425</v>
+      </c>
+      <c r="T144" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>195</v>
+      </c>
+      <c r="B145" t="s">
+        <v>412</v>
+      </c>
+      <c r="C145" t="s">
+        <v>413</v>
+      </c>
+      <c r="D145" t="s">
+        <v>414</v>
+      </c>
+      <c r="E145" t="s">
+        <v>177</v>
+      </c>
+      <c r="F145" t="s">
+        <v>415</v>
+      </c>
+      <c r="G145" t="s">
+        <v>416</v>
+      </c>
+      <c r="H145" t="s">
+        <v>417</v>
+      </c>
+      <c r="I145" t="s">
+        <v>418</v>
+      </c>
+      <c r="J145" t="s">
+        <v>419</v>
+      </c>
+      <c r="K145" t="s">
+        <v>420</v>
+      </c>
+      <c r="L145" t="s">
+        <v>429</v>
+      </c>
+      <c r="M145" t="s">
+        <v>421</v>
+      </c>
+      <c r="N145" t="s">
+        <v>422</v>
+      </c>
+      <c r="O145" t="s">
+        <v>286</v>
+      </c>
+      <c r="P145" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>424</v>
+      </c>
+      <c r="R145" t="s">
+        <v>427</v>
+      </c>
+      <c r="S145" t="s">
+        <v>425</v>
+      </c>
+      <c r="T145" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>195</v>
+      </c>
+      <c r="B146" t="s">
+        <v>412</v>
+      </c>
+      <c r="C146" t="s">
+        <v>413</v>
+      </c>
+      <c r="D146" t="s">
+        <v>414</v>
+      </c>
+      <c r="E146" t="s">
+        <v>177</v>
+      </c>
+      <c r="F146" t="s">
+        <v>415</v>
+      </c>
+      <c r="G146" t="s">
+        <v>416</v>
+      </c>
+      <c r="H146" t="s">
+        <v>417</v>
+      </c>
+      <c r="I146" t="s">
+        <v>418</v>
+      </c>
+      <c r="J146" t="s">
+        <v>419</v>
+      </c>
+      <c r="K146" t="s">
+        <v>420</v>
+      </c>
+      <c r="L146" t="s">
+        <v>429</v>
+      </c>
+      <c r="M146" t="s">
+        <v>421</v>
+      </c>
+      <c r="N146" t="s">
+        <v>422</v>
+      </c>
+      <c r="O146" t="s">
+        <v>286</v>
+      </c>
+      <c r="P146" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>424</v>
+      </c>
+      <c r="R146" t="s">
+        <v>427</v>
+      </c>
+      <c r="S146" t="s">
+        <v>425</v>
+      </c>
+      <c r="T146" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>195</v>
+      </c>
+      <c r="B147" t="s">
+        <v>412</v>
+      </c>
+      <c r="C147" t="s">
+        <v>413</v>
+      </c>
+      <c r="D147" t="s">
+        <v>414</v>
+      </c>
+      <c r="E147" t="s">
+        <v>177</v>
+      </c>
+      <c r="F147" t="s">
+        <v>415</v>
+      </c>
+      <c r="G147" t="s">
+        <v>416</v>
+      </c>
+      <c r="H147" t="s">
+        <v>417</v>
+      </c>
+      <c r="I147" t="s">
+        <v>418</v>
+      </c>
+      <c r="J147" t="s">
+        <v>419</v>
+      </c>
+      <c r="K147" t="s">
+        <v>420</v>
+      </c>
+      <c r="L147" t="s">
+        <v>429</v>
+      </c>
+      <c r="M147" t="s">
+        <v>421</v>
+      </c>
+      <c r="N147" t="s">
+        <v>422</v>
+      </c>
+      <c r="O147" t="s">
+        <v>286</v>
+      </c>
+      <c r="P147" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>424</v>
+      </c>
+      <c r="R147" t="s">
+        <v>427</v>
+      </c>
+      <c r="S147" t="s">
+        <v>425</v>
+      </c>
+      <c r="T147" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>195</v>
+      </c>
+      <c r="B148" t="s">
+        <v>412</v>
+      </c>
+      <c r="C148" t="s">
+        <v>413</v>
+      </c>
+      <c r="D148" t="s">
+        <v>414</v>
+      </c>
+      <c r="E148" t="s">
+        <v>177</v>
+      </c>
+      <c r="F148" t="s">
+        <v>415</v>
+      </c>
+      <c r="G148" t="s">
+        <v>416</v>
+      </c>
+      <c r="H148" t="s">
+        <v>417</v>
+      </c>
+      <c r="I148" t="s">
+        <v>418</v>
+      </c>
+      <c r="J148" t="s">
+        <v>419</v>
+      </c>
+      <c r="K148" t="s">
+        <v>420</v>
+      </c>
+      <c r="L148" t="s">
+        <v>429</v>
+      </c>
+      <c r="M148" t="s">
+        <v>421</v>
+      </c>
+      <c r="N148" t="s">
+        <v>422</v>
+      </c>
+      <c r="O148" t="s">
+        <v>286</v>
+      </c>
+      <c r="P148" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>424</v>
+      </c>
+      <c r="R148" t="s">
+        <v>427</v>
+      </c>
+      <c r="S148" t="s">
+        <v>425</v>
+      </c>
+      <c r="T148" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B151" t="s">
+        <v>431</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q151" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="T151" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>447</v>
+      </c>
+      <c r="B152" t="s">
+        <v>448</v>
+      </c>
+      <c r="C152" t="s">
+        <v>449</v>
+      </c>
+      <c r="D152" t="s">
+        <v>322</v>
+      </c>
+      <c r="E152" t="s">
+        <v>450</v>
+      </c>
+      <c r="F152" t="s">
+        <v>451</v>
+      </c>
+      <c r="G152" t="s">
+        <v>452</v>
+      </c>
+      <c r="H152" t="s">
+        <v>453</v>
+      </c>
+      <c r="I152" t="s">
+        <v>454</v>
+      </c>
+      <c r="J152" t="s">
+        <v>455</v>
+      </c>
+      <c r="K152" t="s">
+        <v>456</v>
+      </c>
+      <c r="L152" t="s">
+        <v>457</v>
+      </c>
+      <c r="M152" t="s">
+        <v>223</v>
+      </c>
+      <c r="N152" t="s">
+        <v>464</v>
+      </c>
+      <c r="O152" t="s">
+        <v>458</v>
+      </c>
+      <c r="P152" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>459</v>
+      </c>
+      <c r="R152" t="s">
+        <v>460</v>
+      </c>
+      <c r="S152" t="s">
+        <v>461</v>
+      </c>
+      <c r="T152" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>447</v>
+      </c>
+      <c r="B153" t="s">
+        <v>448</v>
+      </c>
+      <c r="C153" t="s">
+        <v>449</v>
+      </c>
+      <c r="D153" t="s">
+        <v>322</v>
+      </c>
+      <c r="E153" t="s">
+        <v>450</v>
+      </c>
+      <c r="F153" t="s">
+        <v>451</v>
+      </c>
+      <c r="G153" t="s">
+        <v>452</v>
+      </c>
+      <c r="H153" t="s">
+        <v>453</v>
+      </c>
+      <c r="I153" t="s">
+        <v>454</v>
+      </c>
+      <c r="J153" t="s">
+        <v>455</v>
+      </c>
+      <c r="K153" t="s">
+        <v>456</v>
+      </c>
+      <c r="L153" t="s">
+        <v>457</v>
+      </c>
+      <c r="M153" t="s">
+        <v>223</v>
+      </c>
+      <c r="N153" t="s">
+        <v>464</v>
+      </c>
+      <c r="O153" t="s">
+        <v>458</v>
+      </c>
+      <c r="P153" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>463</v>
+      </c>
+      <c r="R153" t="s">
+        <v>460</v>
+      </c>
+      <c r="S153" t="s">
+        <v>461</v>
+      </c>
+      <c r="T153" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>447</v>
+      </c>
+      <c r="B154" t="s">
+        <v>448</v>
+      </c>
+      <c r="C154" t="s">
+        <v>449</v>
+      </c>
+      <c r="D154" t="s">
+        <v>322</v>
+      </c>
+      <c r="E154" t="s">
+        <v>450</v>
+      </c>
+      <c r="F154" t="s">
+        <v>451</v>
+      </c>
+      <c r="G154" t="s">
+        <v>452</v>
+      </c>
+      <c r="H154" t="s">
+        <v>453</v>
+      </c>
+      <c r="I154" t="s">
+        <v>454</v>
+      </c>
+      <c r="J154" t="s">
+        <v>455</v>
+      </c>
+      <c r="K154" t="s">
+        <v>456</v>
+      </c>
+      <c r="L154" t="s">
+        <v>457</v>
+      </c>
+      <c r="M154" t="s">
+        <v>223</v>
+      </c>
+      <c r="N154" t="s">
+        <v>464</v>
+      </c>
+      <c r="O154" t="s">
+        <v>458</v>
+      </c>
+      <c r="P154" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>463</v>
+      </c>
+      <c r="R154" t="s">
+        <v>460</v>
+      </c>
+      <c r="S154" t="s">
+        <v>461</v>
+      </c>
+      <c r="T154" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>447</v>
+      </c>
+      <c r="B155" t="s">
+        <v>448</v>
+      </c>
+      <c r="C155" t="s">
+        <v>449</v>
+      </c>
+      <c r="D155" t="s">
+        <v>322</v>
+      </c>
+      <c r="E155" t="s">
+        <v>450</v>
+      </c>
+      <c r="F155" t="s">
+        <v>451</v>
+      </c>
+      <c r="G155" t="s">
+        <v>452</v>
+      </c>
+      <c r="H155" t="s">
+        <v>453</v>
+      </c>
+      <c r="I155" t="s">
+        <v>454</v>
+      </c>
+      <c r="J155" t="s">
+        <v>455</v>
+      </c>
+      <c r="K155" t="s">
+        <v>456</v>
+      </c>
+      <c r="L155" t="s">
+        <v>457</v>
+      </c>
+      <c r="M155" t="s">
+        <v>223</v>
+      </c>
+      <c r="N155" t="s">
+        <v>464</v>
+      </c>
+      <c r="O155" t="s">
+        <v>458</v>
+      </c>
+      <c r="P155" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>463</v>
+      </c>
+      <c r="R155" t="s">
+        <v>460</v>
+      </c>
+      <c r="S155" t="s">
+        <v>461</v>
+      </c>
+      <c r="T155" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>447</v>
+      </c>
+      <c r="B156" t="s">
+        <v>448</v>
+      </c>
+      <c r="C156" t="s">
+        <v>449</v>
+      </c>
+      <c r="D156" t="s">
+        <v>322</v>
+      </c>
+      <c r="E156" t="s">
+        <v>450</v>
+      </c>
+      <c r="F156" t="s">
+        <v>451</v>
+      </c>
+      <c r="G156" t="s">
+        <v>452</v>
+      </c>
+      <c r="H156" t="s">
+        <v>453</v>
+      </c>
+      <c r="I156" t="s">
+        <v>454</v>
+      </c>
+      <c r="J156" t="s">
+        <v>455</v>
+      </c>
+      <c r="K156" t="s">
+        <v>456</v>
+      </c>
+      <c r="L156" t="s">
+        <v>457</v>
+      </c>
+      <c r="M156" t="s">
+        <v>223</v>
+      </c>
+      <c r="N156" t="s">
+        <v>464</v>
+      </c>
+      <c r="O156" t="s">
+        <v>458</v>
+      </c>
+      <c r="P156" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>463</v>
+      </c>
+      <c r="R156" t="s">
+        <v>460</v>
+      </c>
+      <c r="S156" t="s">
+        <v>461</v>
+      </c>
+      <c r="T156" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>447</v>
+      </c>
+      <c r="B157" t="s">
+        <v>448</v>
+      </c>
+      <c r="C157" t="s">
+        <v>449</v>
+      </c>
+      <c r="D157" t="s">
+        <v>322</v>
+      </c>
+      <c r="E157" t="s">
+        <v>450</v>
+      </c>
+      <c r="F157" t="s">
+        <v>451</v>
+      </c>
+      <c r="G157" t="s">
+        <v>452</v>
+      </c>
+      <c r="H157" t="s">
+        <v>453</v>
+      </c>
+      <c r="I157" t="s">
+        <v>454</v>
+      </c>
+      <c r="J157" t="s">
+        <v>455</v>
+      </c>
+      <c r="K157" t="s">
+        <v>456</v>
+      </c>
+      <c r="L157" t="s">
+        <v>457</v>
+      </c>
+      <c r="M157" t="s">
+        <v>223</v>
+      </c>
+      <c r="N157" t="s">
+        <v>464</v>
+      </c>
+      <c r="O157" t="s">
+        <v>458</v>
+      </c>
+      <c r="P157" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>463</v>
+      </c>
+      <c r="R157" t="s">
+        <v>460</v>
+      </c>
+      <c r="S157" t="s">
+        <v>461</v>
+      </c>
+      <c r="T157" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>447</v>
+      </c>
+      <c r="B158" t="s">
+        <v>448</v>
+      </c>
+      <c r="C158" t="s">
+        <v>449</v>
+      </c>
+      <c r="D158" t="s">
+        <v>322</v>
+      </c>
+      <c r="E158" t="s">
+        <v>450</v>
+      </c>
+      <c r="F158" t="s">
+        <v>451</v>
+      </c>
+      <c r="G158" t="s">
+        <v>452</v>
+      </c>
+      <c r="H158" t="s">
+        <v>453</v>
+      </c>
+      <c r="I158" t="s">
+        <v>454</v>
+      </c>
+      <c r="J158" t="s">
+        <v>455</v>
+      </c>
+      <c r="K158" t="s">
+        <v>456</v>
+      </c>
+      <c r="L158" t="s">
+        <v>457</v>
+      </c>
+      <c r="M158" t="s">
+        <v>223</v>
+      </c>
+      <c r="N158" t="s">
+        <v>464</v>
+      </c>
+      <c r="O158" t="s">
+        <v>458</v>
+      </c>
+      <c r="P158" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>463</v>
+      </c>
+      <c r="R158" t="s">
+        <v>460</v>
+      </c>
+      <c r="S158" t="s">
+        <v>461</v>
+      </c>
+      <c r="T158" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B159" t="s">
+        <v>448</v>
+      </c>
+      <c r="C159" t="s">
+        <v>449</v>
+      </c>
+      <c r="D159" t="s">
+        <v>322</v>
+      </c>
+      <c r="E159" t="s">
+        <v>450</v>
+      </c>
+      <c r="F159" t="s">
+        <v>451</v>
+      </c>
+      <c r="G159" t="s">
+        <v>452</v>
+      </c>
+      <c r="H159" t="s">
+        <v>453</v>
+      </c>
+      <c r="I159" t="s">
+        <v>454</v>
+      </c>
+      <c r="J159" t="s">
+        <v>455</v>
+      </c>
+      <c r="K159" t="s">
+        <v>456</v>
+      </c>
+      <c r="L159" t="s">
+        <v>457</v>
+      </c>
+      <c r="M159" t="s">
+        <v>223</v>
+      </c>
+      <c r="N159" t="s">
+        <v>464</v>
+      </c>
+      <c r="O159" t="s">
+        <v>458</v>
+      </c>
+      <c r="P159" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>463</v>
+      </c>
+      <c r="R159" t="s">
+        <v>460</v>
+      </c>
+      <c r="S159" t="s">
+        <v>461</v>
+      </c>
+      <c r="T159" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>447</v>
+      </c>
+      <c r="B160" t="s">
+        <v>448</v>
+      </c>
+      <c r="C160" t="s">
+        <v>449</v>
+      </c>
+      <c r="D160" t="s">
+        <v>322</v>
+      </c>
+      <c r="E160" t="s">
+        <v>450</v>
+      </c>
+      <c r="F160" t="s">
+        <v>451</v>
+      </c>
+      <c r="G160" t="s">
+        <v>452</v>
+      </c>
+      <c r="H160" t="s">
+        <v>453</v>
+      </c>
+      <c r="I160" t="s">
+        <v>454</v>
+      </c>
+      <c r="J160" t="s">
+        <v>455</v>
+      </c>
+      <c r="K160" t="s">
+        <v>456</v>
+      </c>
+      <c r="L160" t="s">
+        <v>457</v>
+      </c>
+      <c r="M160" t="s">
+        <v>223</v>
+      </c>
+      <c r="N160" t="s">
+        <v>464</v>
+      </c>
+      <c r="O160" t="s">
+        <v>458</v>
+      </c>
+      <c r="P160" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>463</v>
+      </c>
+      <c r="R160" t="s">
+        <v>460</v>
+      </c>
+      <c r="S160" t="s">
+        <v>461</v>
+      </c>
+      <c r="T160" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>447</v>
+      </c>
+      <c r="B161" t="s">
+        <v>448</v>
+      </c>
+      <c r="C161" t="s">
+        <v>449</v>
+      </c>
+      <c r="D161" t="s">
+        <v>322</v>
+      </c>
+      <c r="E161" t="s">
+        <v>450</v>
+      </c>
+      <c r="F161" t="s">
+        <v>451</v>
+      </c>
+      <c r="G161" t="s">
+        <v>452</v>
+      </c>
+      <c r="H161" t="s">
+        <v>453</v>
+      </c>
+      <c r="I161" t="s">
+        <v>454</v>
+      </c>
+      <c r="J161" t="s">
+        <v>455</v>
+      </c>
+      <c r="K161" t="s">
+        <v>456</v>
+      </c>
+      <c r="L161" t="s">
+        <v>457</v>
+      </c>
+      <c r="M161" t="s">
+        <v>223</v>
+      </c>
+      <c r="N161" t="s">
+        <v>464</v>
+      </c>
+      <c r="O161" t="s">
+        <v>458</v>
+      </c>
+      <c r="P161" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>463</v>
+      </c>
+      <c r="R161" t="s">
+        <v>460</v>
+      </c>
+      <c r="S161" t="s">
+        <v>461</v>
+      </c>
+      <c r="T161" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>447</v>
+      </c>
+      <c r="B162" t="s">
+        <v>448</v>
+      </c>
+      <c r="C162" t="s">
+        <v>449</v>
+      </c>
+      <c r="D162" t="s">
+        <v>322</v>
+      </c>
+      <c r="E162" t="s">
+        <v>450</v>
+      </c>
+      <c r="F162" t="s">
+        <v>451</v>
+      </c>
+      <c r="G162" t="s">
+        <v>452</v>
+      </c>
+      <c r="H162" t="s">
+        <v>453</v>
+      </c>
+      <c r="I162" t="s">
+        <v>454</v>
+      </c>
+      <c r="J162" t="s">
+        <v>455</v>
+      </c>
+      <c r="K162" t="s">
+        <v>456</v>
+      </c>
+      <c r="L162" t="s">
+        <v>457</v>
+      </c>
+      <c r="M162" t="s">
+        <v>223</v>
+      </c>
+      <c r="N162" t="s">
+        <v>464</v>
+      </c>
+      <c r="O162" t="s">
+        <v>458</v>
+      </c>
+      <c r="P162" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>463</v>
+      </c>
+      <c r="R162" t="s">
+        <v>460</v>
+      </c>
+      <c r="S162" t="s">
+        <v>461</v>
+      </c>
+      <c r="T162" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="541">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -1422,6 +1422,231 @@
   </si>
   <si>
     <t>Contributor: nguoi dong gop</t>
+  </si>
+  <si>
+    <t>Opinion: y kien</t>
+  </si>
+  <si>
+    <t>Contrast: tuong phan,doi lap</t>
+  </si>
+  <si>
+    <t>Attempt: co gang</t>
+  </si>
+  <si>
+    <t>Further: them nua</t>
+  </si>
+  <si>
+    <t>Extracting: trich xuat</t>
+  </si>
+  <si>
+    <t>Efficiently: hieu qua</t>
+  </si>
+  <si>
+    <t>Recap: tom tat</t>
+  </si>
+  <si>
+    <t>50 Suspect: nghi ngo</t>
+  </si>
+  <si>
+    <t>42 Announced: cong bo,bao cao</t>
+  </si>
+  <si>
+    <t>36 Sequence: su noi tiep</t>
+  </si>
+  <si>
+    <t>44 Misalignment: sap xep sai</t>
+  </si>
+  <si>
+    <t>29 Consider: xem xet</t>
+  </si>
+  <si>
+    <t>21 Hybrid: hon hop</t>
+  </si>
+  <si>
+    <t>15 Mechanism: co che</t>
+  </si>
+  <si>
+    <t>7 Situation: vi tri,tinh hinh</t>
+  </si>
+  <si>
+    <t>19 Instance: vi du</t>
+  </si>
+  <si>
+    <t>22 Allows: cho phep</t>
+  </si>
+  <si>
+    <t>26 Pressing: buc xuc</t>
+  </si>
+  <si>
+    <t>opinion y kien</t>
+  </si>
+  <si>
+    <t>contrast tuong phan doi lap</t>
+  </si>
+  <si>
+    <t>attempt co gang</t>
+  </si>
+  <si>
+    <t>further them nua</t>
+  </si>
+  <si>
+    <t>extracting trich xuat</t>
+  </si>
+  <si>
+    <t>efficiently hieu qua</t>
+  </si>
+  <si>
+    <t>suspect nghi ngo</t>
+  </si>
+  <si>
+    <t>sequence su noi tiep</t>
+  </si>
+  <si>
+    <t>recap tom tat</t>
+  </si>
+  <si>
+    <t>announced cong bo bao cao</t>
+  </si>
+  <si>
+    <t>consider xem xet</t>
+  </si>
+  <si>
+    <t>hybrid hon hop</t>
+  </si>
+  <si>
+    <t>mechanism co che</t>
+  </si>
+  <si>
+    <t>pressing buc xuc</t>
+  </si>
+  <si>
+    <t>allows cho phep</t>
+  </si>
+  <si>
+    <t>situation vi tri tinh hinh</t>
+  </si>
+  <si>
+    <t>instance vi du</t>
+  </si>
+  <si>
+    <t>contract tuong phan doi lap</t>
+  </si>
+  <si>
+    <t>misalignment sap xep sai</t>
+  </si>
+  <si>
+    <t>misalignment sap xep lai</t>
+  </si>
+  <si>
+    <t>Buffer: dem</t>
+  </si>
+  <si>
+    <t>Manipulating: dieu khien,thao tung</t>
+  </si>
+  <si>
+    <t>Exploit: khai thac</t>
+  </si>
+  <si>
+    <t>Several: phan biet,rieng biet</t>
+  </si>
+  <si>
+    <t>Useful: huu ich</t>
+  </si>
+  <si>
+    <t>Amount: so luong,so tien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regardless: bat ke </t>
+  </si>
+  <si>
+    <t>Pairs: doi,cap</t>
+  </si>
+  <si>
+    <t>Bookmark: danh dau</t>
+  </si>
+  <si>
+    <t>Invisible: ko the nhin thay,vo hinh</t>
+  </si>
+  <si>
+    <t>59 Loosely: nhe nhang</t>
+  </si>
+  <si>
+    <t>Proper: dung,hop ly,hop le</t>
+  </si>
+  <si>
+    <t>Vulnerability: nhuoc diem,de bi ton thuong</t>
+  </si>
+  <si>
+    <t>46 Reflection: phan anh</t>
+  </si>
+  <si>
+    <t>54 Compatible: tuong thich</t>
+  </si>
+  <si>
+    <t>55 Improvements: cai tien</t>
+  </si>
+  <si>
+    <t>43 Confusion: sat nghiep,that bai</t>
+  </si>
+  <si>
+    <t>24 Composition: thanh phan</t>
+  </si>
+  <si>
+    <t>35 Further: them nua</t>
+  </si>
+  <si>
+    <t>proper dung hop ly hop le</t>
+  </si>
+  <si>
+    <t>exploit khai thac</t>
+  </si>
+  <si>
+    <t>useful huu ich</t>
+  </si>
+  <si>
+    <t>several phan biet rieng biet</t>
+  </si>
+  <si>
+    <t>manipulating dieu khien thao tung</t>
+  </si>
+  <si>
+    <t>composition thanh phan</t>
+  </si>
+  <si>
+    <t>confusion sat nghiep that bai</t>
+  </si>
+  <si>
+    <t>amount so luong so tien</t>
+  </si>
+  <si>
+    <t>regardless bat ke</t>
+  </si>
+  <si>
+    <t>bookmark danh dau</t>
+  </si>
+  <si>
+    <t>pairs doi cap</t>
+  </si>
+  <si>
+    <t>invisible ko the nhin thay vo hinh</t>
+  </si>
+  <si>
+    <t>loosely nhe nhang</t>
+  </si>
+  <si>
+    <t>buffer dem</t>
+  </si>
+  <si>
+    <t>vulnerability nhuoc diem de bi ton thuong</t>
+  </si>
+  <si>
+    <t>reflection phan anh</t>
+  </si>
+  <si>
+    <t>compatible tuong thich</t>
+  </si>
+  <si>
+    <t>improvement cai tien</t>
   </si>
 </sst>
 </file>
@@ -1807,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V162"/>
+  <dimension ref="A1:V192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P148" workbookViewId="0">
-      <selection activeCell="T162" sqref="T162"/>
+    <sheetView tabSelected="1" topLeftCell="P172" workbookViewId="0">
+      <selection activeCell="T192" sqref="T192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10195,6 +10420,1518 @@
       </c>
       <c r="T162" t="s">
         <v>462</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>484</v>
+      </c>
+      <c r="B167" t="s">
+        <v>218</v>
+      </c>
+      <c r="C167" t="s">
+        <v>485</v>
+      </c>
+      <c r="D167" t="s">
+        <v>486</v>
+      </c>
+      <c r="E167" t="s">
+        <v>487</v>
+      </c>
+      <c r="F167" t="s">
+        <v>488</v>
+      </c>
+      <c r="G167" t="s">
+        <v>489</v>
+      </c>
+      <c r="H167" t="s">
+        <v>502</v>
+      </c>
+      <c r="I167" t="s">
+        <v>490</v>
+      </c>
+      <c r="J167" t="s">
+        <v>491</v>
+      </c>
+      <c r="K167" t="s">
+        <v>492</v>
+      </c>
+      <c r="L167" t="s">
+        <v>493</v>
+      </c>
+      <c r="M167" t="s">
+        <v>494</v>
+      </c>
+      <c r="O167" t="s">
+        <v>495</v>
+      </c>
+      <c r="P167" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>497</v>
+      </c>
+      <c r="R167" t="s">
+        <v>498</v>
+      </c>
+      <c r="S167" t="s">
+        <v>499</v>
+      </c>
+      <c r="T167" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>484</v>
+      </c>
+      <c r="B168" t="s">
+        <v>218</v>
+      </c>
+      <c r="C168" t="s">
+        <v>501</v>
+      </c>
+      <c r="D168" t="s">
+        <v>486</v>
+      </c>
+      <c r="E168" t="s">
+        <v>487</v>
+      </c>
+      <c r="F168" t="s">
+        <v>488</v>
+      </c>
+      <c r="G168" t="s">
+        <v>489</v>
+      </c>
+      <c r="H168" t="s">
+        <v>503</v>
+      </c>
+      <c r="I168" t="s">
+        <v>490</v>
+      </c>
+      <c r="J168" t="s">
+        <v>491</v>
+      </c>
+      <c r="K168" t="s">
+        <v>492</v>
+      </c>
+      <c r="L168" t="s">
+        <v>493</v>
+      </c>
+      <c r="M168" t="s">
+        <v>494</v>
+      </c>
+      <c r="O168" t="s">
+        <v>495</v>
+      </c>
+      <c r="P168" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>497</v>
+      </c>
+      <c r="R168" t="s">
+        <v>498</v>
+      </c>
+      <c r="S168" t="s">
+        <v>499</v>
+      </c>
+      <c r="T168" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>484</v>
+      </c>
+      <c r="B169" t="s">
+        <v>218</v>
+      </c>
+      <c r="C169" t="s">
+        <v>501</v>
+      </c>
+      <c r="D169" t="s">
+        <v>486</v>
+      </c>
+      <c r="E169" t="s">
+        <v>487</v>
+      </c>
+      <c r="F169" t="s">
+        <v>488</v>
+      </c>
+      <c r="G169" t="s">
+        <v>489</v>
+      </c>
+      <c r="H169" t="s">
+        <v>503</v>
+      </c>
+      <c r="I169" t="s">
+        <v>490</v>
+      </c>
+      <c r="J169" t="s">
+        <v>491</v>
+      </c>
+      <c r="K169" t="s">
+        <v>492</v>
+      </c>
+      <c r="L169" t="s">
+        <v>493</v>
+      </c>
+      <c r="M169" t="s">
+        <v>494</v>
+      </c>
+      <c r="O169" t="s">
+        <v>495</v>
+      </c>
+      <c r="P169" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>497</v>
+      </c>
+      <c r="R169" t="s">
+        <v>498</v>
+      </c>
+      <c r="S169" t="s">
+        <v>499</v>
+      </c>
+      <c r="T169" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>484</v>
+      </c>
+      <c r="B170" t="s">
+        <v>218</v>
+      </c>
+      <c r="C170" t="s">
+        <v>501</v>
+      </c>
+      <c r="D170" t="s">
+        <v>486</v>
+      </c>
+      <c r="E170" t="s">
+        <v>487</v>
+      </c>
+      <c r="F170" t="s">
+        <v>488</v>
+      </c>
+      <c r="G170" t="s">
+        <v>489</v>
+      </c>
+      <c r="H170" t="s">
+        <v>503</v>
+      </c>
+      <c r="I170" t="s">
+        <v>490</v>
+      </c>
+      <c r="J170" t="s">
+        <v>491</v>
+      </c>
+      <c r="K170" t="s">
+        <v>492</v>
+      </c>
+      <c r="L170" t="s">
+        <v>493</v>
+      </c>
+      <c r="M170" t="s">
+        <v>494</v>
+      </c>
+      <c r="O170" t="s">
+        <v>495</v>
+      </c>
+      <c r="P170" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>497</v>
+      </c>
+      <c r="R170" t="s">
+        <v>498</v>
+      </c>
+      <c r="S170" t="s">
+        <v>499</v>
+      </c>
+      <c r="T170" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>484</v>
+      </c>
+      <c r="B171" t="s">
+        <v>218</v>
+      </c>
+      <c r="C171" t="s">
+        <v>501</v>
+      </c>
+      <c r="D171" t="s">
+        <v>486</v>
+      </c>
+      <c r="E171" t="s">
+        <v>487</v>
+      </c>
+      <c r="F171" t="s">
+        <v>488</v>
+      </c>
+      <c r="G171" t="s">
+        <v>489</v>
+      </c>
+      <c r="H171" t="s">
+        <v>503</v>
+      </c>
+      <c r="I171" t="s">
+        <v>490</v>
+      </c>
+      <c r="J171" t="s">
+        <v>491</v>
+      </c>
+      <c r="K171" t="s">
+        <v>492</v>
+      </c>
+      <c r="L171" t="s">
+        <v>493</v>
+      </c>
+      <c r="M171" t="s">
+        <v>494</v>
+      </c>
+      <c r="O171" t="s">
+        <v>495</v>
+      </c>
+      <c r="P171" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>497</v>
+      </c>
+      <c r="R171" t="s">
+        <v>498</v>
+      </c>
+      <c r="S171" t="s">
+        <v>499</v>
+      </c>
+      <c r="T171" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>484</v>
+      </c>
+      <c r="B172" t="s">
+        <v>218</v>
+      </c>
+      <c r="C172" t="s">
+        <v>501</v>
+      </c>
+      <c r="D172" t="s">
+        <v>486</v>
+      </c>
+      <c r="E172" t="s">
+        <v>487</v>
+      </c>
+      <c r="F172" t="s">
+        <v>488</v>
+      </c>
+      <c r="G172" t="s">
+        <v>489</v>
+      </c>
+      <c r="H172" t="s">
+        <v>503</v>
+      </c>
+      <c r="I172" t="s">
+        <v>490</v>
+      </c>
+      <c r="J172" t="s">
+        <v>491</v>
+      </c>
+      <c r="K172" t="s">
+        <v>492</v>
+      </c>
+      <c r="L172" t="s">
+        <v>493</v>
+      </c>
+      <c r="M172" t="s">
+        <v>494</v>
+      </c>
+      <c r="O172" t="s">
+        <v>495</v>
+      </c>
+      <c r="P172" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>497</v>
+      </c>
+      <c r="R172" t="s">
+        <v>498</v>
+      </c>
+      <c r="S172" t="s">
+        <v>499</v>
+      </c>
+      <c r="T172" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>484</v>
+      </c>
+      <c r="B173" t="s">
+        <v>218</v>
+      </c>
+      <c r="C173" t="s">
+        <v>501</v>
+      </c>
+      <c r="D173" t="s">
+        <v>486</v>
+      </c>
+      <c r="E173" t="s">
+        <v>487</v>
+      </c>
+      <c r="F173" t="s">
+        <v>488</v>
+      </c>
+      <c r="G173" t="s">
+        <v>489</v>
+      </c>
+      <c r="H173" t="s">
+        <v>503</v>
+      </c>
+      <c r="I173" t="s">
+        <v>490</v>
+      </c>
+      <c r="J173" t="s">
+        <v>491</v>
+      </c>
+      <c r="K173" t="s">
+        <v>492</v>
+      </c>
+      <c r="L173" t="s">
+        <v>493</v>
+      </c>
+      <c r="M173" t="s">
+        <v>494</v>
+      </c>
+      <c r="O173" t="s">
+        <v>495</v>
+      </c>
+      <c r="P173" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>497</v>
+      </c>
+      <c r="R173" t="s">
+        <v>498</v>
+      </c>
+      <c r="S173" t="s">
+        <v>499</v>
+      </c>
+      <c r="T173" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>484</v>
+      </c>
+      <c r="B174" t="s">
+        <v>218</v>
+      </c>
+      <c r="C174" t="s">
+        <v>501</v>
+      </c>
+      <c r="D174" t="s">
+        <v>486</v>
+      </c>
+      <c r="E174" t="s">
+        <v>487</v>
+      </c>
+      <c r="F174" t="s">
+        <v>488</v>
+      </c>
+      <c r="G174" t="s">
+        <v>489</v>
+      </c>
+      <c r="H174" t="s">
+        <v>503</v>
+      </c>
+      <c r="I174" t="s">
+        <v>490</v>
+      </c>
+      <c r="J174" t="s">
+        <v>491</v>
+      </c>
+      <c r="K174" t="s">
+        <v>492</v>
+      </c>
+      <c r="L174" t="s">
+        <v>493</v>
+      </c>
+      <c r="M174" t="s">
+        <v>494</v>
+      </c>
+      <c r="O174" t="s">
+        <v>495</v>
+      </c>
+      <c r="P174" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>497</v>
+      </c>
+      <c r="R174" t="s">
+        <v>498</v>
+      </c>
+      <c r="S174" t="s">
+        <v>499</v>
+      </c>
+      <c r="T174" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>484</v>
+      </c>
+      <c r="B175" t="s">
+        <v>218</v>
+      </c>
+      <c r="C175" t="s">
+        <v>501</v>
+      </c>
+      <c r="D175" t="s">
+        <v>486</v>
+      </c>
+      <c r="E175" t="s">
+        <v>487</v>
+      </c>
+      <c r="F175" t="s">
+        <v>488</v>
+      </c>
+      <c r="G175" t="s">
+        <v>489</v>
+      </c>
+      <c r="H175" t="s">
+        <v>503</v>
+      </c>
+      <c r="I175" t="s">
+        <v>490</v>
+      </c>
+      <c r="J175" t="s">
+        <v>491</v>
+      </c>
+      <c r="K175" t="s">
+        <v>492</v>
+      </c>
+      <c r="L175" t="s">
+        <v>493</v>
+      </c>
+      <c r="M175" t="s">
+        <v>494</v>
+      </c>
+      <c r="O175" t="s">
+        <v>495</v>
+      </c>
+      <c r="P175" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>497</v>
+      </c>
+      <c r="R175" t="s">
+        <v>498</v>
+      </c>
+      <c r="S175" t="s">
+        <v>499</v>
+      </c>
+      <c r="T175" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>484</v>
+      </c>
+      <c r="B176" t="s">
+        <v>218</v>
+      </c>
+      <c r="C176" t="s">
+        <v>501</v>
+      </c>
+      <c r="D176" t="s">
+        <v>486</v>
+      </c>
+      <c r="E176" t="s">
+        <v>487</v>
+      </c>
+      <c r="F176" t="s">
+        <v>488</v>
+      </c>
+      <c r="G176" t="s">
+        <v>489</v>
+      </c>
+      <c r="H176" t="s">
+        <v>503</v>
+      </c>
+      <c r="I176" t="s">
+        <v>490</v>
+      </c>
+      <c r="J176" t="s">
+        <v>491</v>
+      </c>
+      <c r="K176" t="s">
+        <v>492</v>
+      </c>
+      <c r="L176" t="s">
+        <v>493</v>
+      </c>
+      <c r="M176" t="s">
+        <v>494</v>
+      </c>
+      <c r="O176" t="s">
+        <v>495</v>
+      </c>
+      <c r="P176" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>497</v>
+      </c>
+      <c r="R176" t="s">
+        <v>498</v>
+      </c>
+      <c r="S176" t="s">
+        <v>499</v>
+      </c>
+      <c r="T176" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>484</v>
+      </c>
+      <c r="B177" t="s">
+        <v>218</v>
+      </c>
+      <c r="C177" t="s">
+        <v>501</v>
+      </c>
+      <c r="D177" t="s">
+        <v>486</v>
+      </c>
+      <c r="E177" t="s">
+        <v>487</v>
+      </c>
+      <c r="F177" t="s">
+        <v>488</v>
+      </c>
+      <c r="G177" t="s">
+        <v>489</v>
+      </c>
+      <c r="H177" t="s">
+        <v>503</v>
+      </c>
+      <c r="I177" t="s">
+        <v>490</v>
+      </c>
+      <c r="J177" t="s">
+        <v>491</v>
+      </c>
+      <c r="K177" t="s">
+        <v>492</v>
+      </c>
+      <c r="L177" t="s">
+        <v>493</v>
+      </c>
+      <c r="M177" t="s">
+        <v>494</v>
+      </c>
+      <c r="O177" t="s">
+        <v>495</v>
+      </c>
+      <c r="P177" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>497</v>
+      </c>
+      <c r="R177" t="s">
+        <v>498</v>
+      </c>
+      <c r="S177" t="s">
+        <v>499</v>
+      </c>
+      <c r="T177" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>484</v>
+      </c>
+      <c r="B178" t="s">
+        <v>218</v>
+      </c>
+      <c r="C178" t="s">
+        <v>501</v>
+      </c>
+      <c r="D178" t="s">
+        <v>486</v>
+      </c>
+      <c r="E178" t="s">
+        <v>487</v>
+      </c>
+      <c r="F178" t="s">
+        <v>488</v>
+      </c>
+      <c r="G178" t="s">
+        <v>489</v>
+      </c>
+      <c r="H178" t="s">
+        <v>503</v>
+      </c>
+      <c r="I178" t="s">
+        <v>490</v>
+      </c>
+      <c r="J178" t="s">
+        <v>491</v>
+      </c>
+      <c r="K178" t="s">
+        <v>492</v>
+      </c>
+      <c r="L178" t="s">
+        <v>493</v>
+      </c>
+      <c r="M178" t="s">
+        <v>494</v>
+      </c>
+      <c r="O178" t="s">
+        <v>495</v>
+      </c>
+      <c r="P178" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>497</v>
+      </c>
+      <c r="R178" t="s">
+        <v>498</v>
+      </c>
+      <c r="S178" t="s">
+        <v>499</v>
+      </c>
+      <c r="T178" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="T181" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>523</v>
+      </c>
+      <c r="B182" t="s">
+        <v>524</v>
+      </c>
+      <c r="C182" t="s">
+        <v>525</v>
+      </c>
+      <c r="D182" t="s">
+        <v>526</v>
+      </c>
+      <c r="E182" t="s">
+        <v>527</v>
+      </c>
+      <c r="F182" t="s">
+        <v>387</v>
+      </c>
+      <c r="G182" t="s">
+        <v>528</v>
+      </c>
+      <c r="H182" t="s">
+        <v>529</v>
+      </c>
+      <c r="I182" t="s">
+        <v>487</v>
+      </c>
+      <c r="J182" t="s">
+        <v>530</v>
+      </c>
+      <c r="K182" t="s">
+        <v>531</v>
+      </c>
+      <c r="L182" t="s">
+        <v>532</v>
+      </c>
+      <c r="M182" t="s">
+        <v>533</v>
+      </c>
+      <c r="N182" t="s">
+        <v>534</v>
+      </c>
+      <c r="O182" t="s">
+        <v>535</v>
+      </c>
+      <c r="P182" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>537</v>
+      </c>
+      <c r="R182" t="s">
+        <v>538</v>
+      </c>
+      <c r="S182" t="s">
+        <v>539</v>
+      </c>
+      <c r="T182" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>523</v>
+      </c>
+      <c r="B183" t="s">
+        <v>524</v>
+      </c>
+      <c r="C183" t="s">
+        <v>525</v>
+      </c>
+      <c r="D183" t="s">
+        <v>526</v>
+      </c>
+      <c r="E183" t="s">
+        <v>527</v>
+      </c>
+      <c r="F183" t="s">
+        <v>387</v>
+      </c>
+      <c r="G183" t="s">
+        <v>528</v>
+      </c>
+      <c r="H183" t="s">
+        <v>529</v>
+      </c>
+      <c r="I183" t="s">
+        <v>487</v>
+      </c>
+      <c r="J183" t="s">
+        <v>530</v>
+      </c>
+      <c r="K183" t="s">
+        <v>531</v>
+      </c>
+      <c r="L183" t="s">
+        <v>532</v>
+      </c>
+      <c r="M183" t="s">
+        <v>533</v>
+      </c>
+      <c r="N183" t="s">
+        <v>534</v>
+      </c>
+      <c r="O183" t="s">
+        <v>535</v>
+      </c>
+      <c r="P183" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>537</v>
+      </c>
+      <c r="R183" t="s">
+        <v>538</v>
+      </c>
+      <c r="S183" t="s">
+        <v>539</v>
+      </c>
+      <c r="T183" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>523</v>
+      </c>
+      <c r="B184" t="s">
+        <v>524</v>
+      </c>
+      <c r="C184" t="s">
+        <v>525</v>
+      </c>
+      <c r="D184" t="s">
+        <v>526</v>
+      </c>
+      <c r="E184" t="s">
+        <v>527</v>
+      </c>
+      <c r="F184" t="s">
+        <v>387</v>
+      </c>
+      <c r="G184" t="s">
+        <v>528</v>
+      </c>
+      <c r="H184" t="s">
+        <v>529</v>
+      </c>
+      <c r="I184" t="s">
+        <v>487</v>
+      </c>
+      <c r="J184" t="s">
+        <v>530</v>
+      </c>
+      <c r="K184" t="s">
+        <v>531</v>
+      </c>
+      <c r="L184" t="s">
+        <v>532</v>
+      </c>
+      <c r="M184" t="s">
+        <v>533</v>
+      </c>
+      <c r="N184" t="s">
+        <v>534</v>
+      </c>
+      <c r="O184" t="s">
+        <v>535</v>
+      </c>
+      <c r="P184" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>537</v>
+      </c>
+      <c r="R184" t="s">
+        <v>538</v>
+      </c>
+      <c r="S184" t="s">
+        <v>539</v>
+      </c>
+      <c r="T184" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>523</v>
+      </c>
+      <c r="B185" t="s">
+        <v>524</v>
+      </c>
+      <c r="C185" t="s">
+        <v>525</v>
+      </c>
+      <c r="D185" t="s">
+        <v>526</v>
+      </c>
+      <c r="E185" t="s">
+        <v>527</v>
+      </c>
+      <c r="F185" t="s">
+        <v>387</v>
+      </c>
+      <c r="G185" t="s">
+        <v>528</v>
+      </c>
+      <c r="H185" t="s">
+        <v>529</v>
+      </c>
+      <c r="I185" t="s">
+        <v>487</v>
+      </c>
+      <c r="J185" t="s">
+        <v>530</v>
+      </c>
+      <c r="K185" t="s">
+        <v>531</v>
+      </c>
+      <c r="L185" t="s">
+        <v>532</v>
+      </c>
+      <c r="M185" t="s">
+        <v>533</v>
+      </c>
+      <c r="N185" t="s">
+        <v>534</v>
+      </c>
+      <c r="O185" t="s">
+        <v>535</v>
+      </c>
+      <c r="P185" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>537</v>
+      </c>
+      <c r="R185" t="s">
+        <v>538</v>
+      </c>
+      <c r="S185" t="s">
+        <v>539</v>
+      </c>
+      <c r="T185" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>523</v>
+      </c>
+      <c r="B186" t="s">
+        <v>524</v>
+      </c>
+      <c r="C186" t="s">
+        <v>525</v>
+      </c>
+      <c r="D186" t="s">
+        <v>526</v>
+      </c>
+      <c r="E186" t="s">
+        <v>527</v>
+      </c>
+      <c r="F186" t="s">
+        <v>387</v>
+      </c>
+      <c r="G186" t="s">
+        <v>528</v>
+      </c>
+      <c r="H186" t="s">
+        <v>529</v>
+      </c>
+      <c r="I186" t="s">
+        <v>487</v>
+      </c>
+      <c r="J186" t="s">
+        <v>530</v>
+      </c>
+      <c r="K186" t="s">
+        <v>531</v>
+      </c>
+      <c r="L186" t="s">
+        <v>532</v>
+      </c>
+      <c r="M186" t="s">
+        <v>533</v>
+      </c>
+      <c r="N186" t="s">
+        <v>534</v>
+      </c>
+      <c r="O186" t="s">
+        <v>535</v>
+      </c>
+      <c r="P186" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>537</v>
+      </c>
+      <c r="R186" t="s">
+        <v>538</v>
+      </c>
+      <c r="S186" t="s">
+        <v>539</v>
+      </c>
+      <c r="T186" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>523</v>
+      </c>
+      <c r="B187" t="s">
+        <v>524</v>
+      </c>
+      <c r="C187" t="s">
+        <v>525</v>
+      </c>
+      <c r="D187" t="s">
+        <v>526</v>
+      </c>
+      <c r="E187" t="s">
+        <v>527</v>
+      </c>
+      <c r="F187" t="s">
+        <v>387</v>
+      </c>
+      <c r="G187" t="s">
+        <v>528</v>
+      </c>
+      <c r="H187" t="s">
+        <v>529</v>
+      </c>
+      <c r="I187" t="s">
+        <v>487</v>
+      </c>
+      <c r="J187" t="s">
+        <v>530</v>
+      </c>
+      <c r="K187" t="s">
+        <v>531</v>
+      </c>
+      <c r="L187" t="s">
+        <v>532</v>
+      </c>
+      <c r="M187" t="s">
+        <v>533</v>
+      </c>
+      <c r="N187" t="s">
+        <v>534</v>
+      </c>
+      <c r="O187" t="s">
+        <v>535</v>
+      </c>
+      <c r="P187" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>537</v>
+      </c>
+      <c r="R187" t="s">
+        <v>538</v>
+      </c>
+      <c r="S187" t="s">
+        <v>539</v>
+      </c>
+      <c r="T187" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>523</v>
+      </c>
+      <c r="B188" t="s">
+        <v>524</v>
+      </c>
+      <c r="C188" t="s">
+        <v>525</v>
+      </c>
+      <c r="D188" t="s">
+        <v>526</v>
+      </c>
+      <c r="E188" t="s">
+        <v>527</v>
+      </c>
+      <c r="F188" t="s">
+        <v>387</v>
+      </c>
+      <c r="G188" t="s">
+        <v>528</v>
+      </c>
+      <c r="H188" t="s">
+        <v>529</v>
+      </c>
+      <c r="I188" t="s">
+        <v>487</v>
+      </c>
+      <c r="J188" t="s">
+        <v>530</v>
+      </c>
+      <c r="K188" t="s">
+        <v>531</v>
+      </c>
+      <c r="L188" t="s">
+        <v>532</v>
+      </c>
+      <c r="M188" t="s">
+        <v>533</v>
+      </c>
+      <c r="N188" t="s">
+        <v>534</v>
+      </c>
+      <c r="O188" t="s">
+        <v>535</v>
+      </c>
+      <c r="P188" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>537</v>
+      </c>
+      <c r="R188" t="s">
+        <v>538</v>
+      </c>
+      <c r="S188" t="s">
+        <v>539</v>
+      </c>
+      <c r="T188" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>523</v>
+      </c>
+      <c r="B189" t="s">
+        <v>524</v>
+      </c>
+      <c r="C189" t="s">
+        <v>525</v>
+      </c>
+      <c r="D189" t="s">
+        <v>526</v>
+      </c>
+      <c r="E189" t="s">
+        <v>527</v>
+      </c>
+      <c r="F189" t="s">
+        <v>387</v>
+      </c>
+      <c r="G189" t="s">
+        <v>528</v>
+      </c>
+      <c r="H189" t="s">
+        <v>529</v>
+      </c>
+      <c r="I189" t="s">
+        <v>487</v>
+      </c>
+      <c r="J189" t="s">
+        <v>530</v>
+      </c>
+      <c r="K189" t="s">
+        <v>531</v>
+      </c>
+      <c r="L189" t="s">
+        <v>532</v>
+      </c>
+      <c r="M189" t="s">
+        <v>533</v>
+      </c>
+      <c r="N189" t="s">
+        <v>534</v>
+      </c>
+      <c r="O189" t="s">
+        <v>535</v>
+      </c>
+      <c r="P189" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>537</v>
+      </c>
+      <c r="R189" t="s">
+        <v>538</v>
+      </c>
+      <c r="S189" t="s">
+        <v>539</v>
+      </c>
+      <c r="T189" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>523</v>
+      </c>
+      <c r="B190" t="s">
+        <v>524</v>
+      </c>
+      <c r="C190" t="s">
+        <v>525</v>
+      </c>
+      <c r="D190" t="s">
+        <v>526</v>
+      </c>
+      <c r="E190" t="s">
+        <v>527</v>
+      </c>
+      <c r="F190" t="s">
+        <v>387</v>
+      </c>
+      <c r="G190" t="s">
+        <v>528</v>
+      </c>
+      <c r="H190" t="s">
+        <v>529</v>
+      </c>
+      <c r="I190" t="s">
+        <v>487</v>
+      </c>
+      <c r="J190" t="s">
+        <v>530</v>
+      </c>
+      <c r="K190" t="s">
+        <v>531</v>
+      </c>
+      <c r="L190" t="s">
+        <v>532</v>
+      </c>
+      <c r="M190" t="s">
+        <v>533</v>
+      </c>
+      <c r="N190" t="s">
+        <v>534</v>
+      </c>
+      <c r="O190" t="s">
+        <v>535</v>
+      </c>
+      <c r="P190" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>537</v>
+      </c>
+      <c r="R190" t="s">
+        <v>538</v>
+      </c>
+      <c r="S190" t="s">
+        <v>539</v>
+      </c>
+      <c r="T190" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>523</v>
+      </c>
+      <c r="B191" t="s">
+        <v>524</v>
+      </c>
+      <c r="C191" t="s">
+        <v>525</v>
+      </c>
+      <c r="D191" t="s">
+        <v>526</v>
+      </c>
+      <c r="E191" t="s">
+        <v>527</v>
+      </c>
+      <c r="F191" t="s">
+        <v>387</v>
+      </c>
+      <c r="G191" t="s">
+        <v>528</v>
+      </c>
+      <c r="H191" t="s">
+        <v>529</v>
+      </c>
+      <c r="I191" t="s">
+        <v>487</v>
+      </c>
+      <c r="J191" t="s">
+        <v>530</v>
+      </c>
+      <c r="K191" t="s">
+        <v>531</v>
+      </c>
+      <c r="L191" t="s">
+        <v>532</v>
+      </c>
+      <c r="M191" t="s">
+        <v>533</v>
+      </c>
+      <c r="N191" t="s">
+        <v>534</v>
+      </c>
+      <c r="O191" t="s">
+        <v>535</v>
+      </c>
+      <c r="P191" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>537</v>
+      </c>
+      <c r="R191" t="s">
+        <v>538</v>
+      </c>
+      <c r="S191" t="s">
+        <v>539</v>
+      </c>
+      <c r="T191" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>523</v>
+      </c>
+      <c r="B192" t="s">
+        <v>524</v>
+      </c>
+      <c r="C192" t="s">
+        <v>525</v>
+      </c>
+      <c r="D192" t="s">
+        <v>526</v>
+      </c>
+      <c r="E192" t="s">
+        <v>527</v>
+      </c>
+      <c r="F192" t="s">
+        <v>387</v>
+      </c>
+      <c r="G192" t="s">
+        <v>528</v>
+      </c>
+      <c r="H192" t="s">
+        <v>529</v>
+      </c>
+      <c r="I192" t="s">
+        <v>487</v>
+      </c>
+      <c r="J192" t="s">
+        <v>530</v>
+      </c>
+      <c r="K192" t="s">
+        <v>531</v>
+      </c>
+      <c r="L192" t="s">
+        <v>532</v>
+      </c>
+      <c r="M192" t="s">
+        <v>533</v>
+      </c>
+      <c r="N192" t="s">
+        <v>534</v>
+      </c>
+      <c r="O192" t="s">
+        <v>535</v>
+      </c>
+      <c r="P192" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>537</v>
+      </c>
+      <c r="R192" t="s">
+        <v>538</v>
+      </c>
+      <c r="S192" t="s">
+        <v>539</v>
+      </c>
+      <c r="T192" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="580">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -1647,6 +1647,123 @@
   </si>
   <si>
     <t>improvement cai tien</t>
+  </si>
+  <si>
+    <t>Confusing: lon xon,gay nham lan</t>
+  </si>
+  <si>
+    <t>Vanish: tan bien,bien mat</t>
+  </si>
+  <si>
+    <t>Restriction: su han che</t>
+  </si>
+  <si>
+    <t>Expiration: het han</t>
+  </si>
+  <si>
+    <t>Illegal: trai luat,bat hop phap</t>
+  </si>
+  <si>
+    <t>Isset: ngay lap tuc</t>
+  </si>
+  <si>
+    <t>Individually: ca nhan</t>
+  </si>
+  <si>
+    <t>Easier: de dang hon</t>
+  </si>
+  <si>
+    <t>Determine: muc dich,xac dinh,dut khoat</t>
+  </si>
+  <si>
+    <t>32 Specify: chi dinh</t>
+  </si>
+  <si>
+    <t>45 Iterators: vong lap</t>
+  </si>
+  <si>
+    <t>Quicker: nhanh hon</t>
+  </si>
+  <si>
+    <t>14 Entire: toan bo,tron ven</t>
+  </si>
+  <si>
+    <t>12 Restricted: han che</t>
+  </si>
+  <si>
+    <t>13 Discussed: thao luan</t>
+  </si>
+  <si>
+    <t>9 Assigning: phan cong,chi dinh</t>
+  </si>
+  <si>
+    <t>3 Intentionally: co chu dich</t>
+  </si>
+  <si>
+    <t>5 Stock: co phan</t>
+  </si>
+  <si>
+    <t>18 Impact: va cham,dung cham</t>
+  </si>
+  <si>
+    <t>27 Accelerator: thuc giuc</t>
+  </si>
+  <si>
+    <t>confusing lon xon gay nham lan</t>
+  </si>
+  <si>
+    <t>vanish tan bien bien mat</t>
+  </si>
+  <si>
+    <t>restriction su han che</t>
+  </si>
+  <si>
+    <t>expiration het han</t>
+  </si>
+  <si>
+    <t>illegal trai luat bat hop phap</t>
+  </si>
+  <si>
+    <t>isset ngay lap tuc</t>
+  </si>
+  <si>
+    <t>individually ca nhan</t>
+  </si>
+  <si>
+    <t>determine muc dich xac dinh dut khoat</t>
+  </si>
+  <si>
+    <t>easier de dang hon</t>
+  </si>
+  <si>
+    <t>iterators vong lap</t>
+  </si>
+  <si>
+    <t>quicker nhanh hon</t>
+  </si>
+  <si>
+    <t>entire toan bo tron ven</t>
+  </si>
+  <si>
+    <t>assigning phan cong chi dinh</t>
+  </si>
+  <si>
+    <t>restricted han che</t>
+  </si>
+  <si>
+    <t>discussed thao luan</t>
+  </si>
+  <si>
+    <t>intentionally co chu dich</t>
+  </si>
+  <si>
+    <t>stock co phan</t>
+  </si>
+  <si>
+    <t>impact va cham dung cham</t>
+  </si>
+  <si>
+    <t>accelerator thuc giuc</t>
   </si>
 </sst>
 </file>
@@ -2032,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V192"/>
+  <dimension ref="A1:V207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P172" workbookViewId="0">
-      <selection activeCell="T192" sqref="T192"/>
+    <sheetView tabSelected="1" topLeftCell="P187" workbookViewId="0">
+      <selection activeCell="T207" sqref="T207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11932,6 +12049,812 @@
       </c>
       <c r="T192" t="s">
         <v>540</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q195" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="R195" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="S195" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="T195" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>561</v>
+      </c>
+      <c r="B196" t="s">
+        <v>562</v>
+      </c>
+      <c r="C196" t="s">
+        <v>563</v>
+      </c>
+      <c r="D196" t="s">
+        <v>564</v>
+      </c>
+      <c r="E196" t="s">
+        <v>565</v>
+      </c>
+      <c r="F196" t="s">
+        <v>566</v>
+      </c>
+      <c r="G196" t="s">
+        <v>567</v>
+      </c>
+      <c r="H196" t="s">
+        <v>568</v>
+      </c>
+      <c r="I196" t="s">
+        <v>569</v>
+      </c>
+      <c r="J196" t="s">
+        <v>114</v>
+      </c>
+      <c r="K196" t="s">
+        <v>570</v>
+      </c>
+      <c r="L196" t="s">
+        <v>571</v>
+      </c>
+      <c r="M196" t="s">
+        <v>572</v>
+      </c>
+      <c r="N196" t="s">
+        <v>573</v>
+      </c>
+      <c r="O196" t="s">
+        <v>574</v>
+      </c>
+      <c r="P196" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>576</v>
+      </c>
+      <c r="R196" t="s">
+        <v>577</v>
+      </c>
+      <c r="S196" t="s">
+        <v>578</v>
+      </c>
+      <c r="T196" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>561</v>
+      </c>
+      <c r="B197" t="s">
+        <v>562</v>
+      </c>
+      <c r="C197" t="s">
+        <v>563</v>
+      </c>
+      <c r="D197" t="s">
+        <v>564</v>
+      </c>
+      <c r="E197" t="s">
+        <v>565</v>
+      </c>
+      <c r="F197" t="s">
+        <v>566</v>
+      </c>
+      <c r="G197" t="s">
+        <v>567</v>
+      </c>
+      <c r="H197" t="s">
+        <v>568</v>
+      </c>
+      <c r="I197" t="s">
+        <v>569</v>
+      </c>
+      <c r="J197" t="s">
+        <v>114</v>
+      </c>
+      <c r="K197" t="s">
+        <v>570</v>
+      </c>
+      <c r="L197" t="s">
+        <v>571</v>
+      </c>
+      <c r="M197" t="s">
+        <v>572</v>
+      </c>
+      <c r="N197" t="s">
+        <v>573</v>
+      </c>
+      <c r="O197" t="s">
+        <v>574</v>
+      </c>
+      <c r="P197" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>576</v>
+      </c>
+      <c r="R197" t="s">
+        <v>577</v>
+      </c>
+      <c r="S197" t="s">
+        <v>578</v>
+      </c>
+      <c r="T197" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>561</v>
+      </c>
+      <c r="B198" t="s">
+        <v>562</v>
+      </c>
+      <c r="C198" t="s">
+        <v>563</v>
+      </c>
+      <c r="D198" t="s">
+        <v>564</v>
+      </c>
+      <c r="E198" t="s">
+        <v>565</v>
+      </c>
+      <c r="F198" t="s">
+        <v>566</v>
+      </c>
+      <c r="G198" t="s">
+        <v>567</v>
+      </c>
+      <c r="H198" t="s">
+        <v>568</v>
+      </c>
+      <c r="I198" t="s">
+        <v>569</v>
+      </c>
+      <c r="J198" t="s">
+        <v>114</v>
+      </c>
+      <c r="K198" t="s">
+        <v>570</v>
+      </c>
+      <c r="L198" t="s">
+        <v>571</v>
+      </c>
+      <c r="M198" t="s">
+        <v>572</v>
+      </c>
+      <c r="N198" t="s">
+        <v>573</v>
+      </c>
+      <c r="O198" t="s">
+        <v>574</v>
+      </c>
+      <c r="P198" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>576</v>
+      </c>
+      <c r="R198" t="s">
+        <v>577</v>
+      </c>
+      <c r="S198" t="s">
+        <v>578</v>
+      </c>
+      <c r="T198" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>561</v>
+      </c>
+      <c r="B199" t="s">
+        <v>562</v>
+      </c>
+      <c r="C199" t="s">
+        <v>563</v>
+      </c>
+      <c r="D199" t="s">
+        <v>564</v>
+      </c>
+      <c r="E199" t="s">
+        <v>565</v>
+      </c>
+      <c r="F199" t="s">
+        <v>566</v>
+      </c>
+      <c r="G199" t="s">
+        <v>567</v>
+      </c>
+      <c r="H199" t="s">
+        <v>568</v>
+      </c>
+      <c r="I199" t="s">
+        <v>569</v>
+      </c>
+      <c r="J199" t="s">
+        <v>114</v>
+      </c>
+      <c r="K199" t="s">
+        <v>570</v>
+      </c>
+      <c r="L199" t="s">
+        <v>571</v>
+      </c>
+      <c r="M199" t="s">
+        <v>572</v>
+      </c>
+      <c r="N199" t="s">
+        <v>573</v>
+      </c>
+      <c r="O199" t="s">
+        <v>574</v>
+      </c>
+      <c r="P199" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>576</v>
+      </c>
+      <c r="R199" t="s">
+        <v>577</v>
+      </c>
+      <c r="S199" t="s">
+        <v>578</v>
+      </c>
+      <c r="T199" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>561</v>
+      </c>
+      <c r="B200" t="s">
+        <v>562</v>
+      </c>
+      <c r="C200" t="s">
+        <v>563</v>
+      </c>
+      <c r="D200" t="s">
+        <v>564</v>
+      </c>
+      <c r="E200" t="s">
+        <v>565</v>
+      </c>
+      <c r="F200" t="s">
+        <v>566</v>
+      </c>
+      <c r="G200" t="s">
+        <v>567</v>
+      </c>
+      <c r="H200" t="s">
+        <v>568</v>
+      </c>
+      <c r="I200" t="s">
+        <v>569</v>
+      </c>
+      <c r="J200" t="s">
+        <v>114</v>
+      </c>
+      <c r="K200" t="s">
+        <v>570</v>
+      </c>
+      <c r="L200" t="s">
+        <v>571</v>
+      </c>
+      <c r="M200" t="s">
+        <v>572</v>
+      </c>
+      <c r="N200" t="s">
+        <v>573</v>
+      </c>
+      <c r="O200" t="s">
+        <v>574</v>
+      </c>
+      <c r="P200" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>576</v>
+      </c>
+      <c r="R200" t="s">
+        <v>577</v>
+      </c>
+      <c r="S200" t="s">
+        <v>578</v>
+      </c>
+      <c r="T200" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>561</v>
+      </c>
+      <c r="B201" t="s">
+        <v>562</v>
+      </c>
+      <c r="C201" t="s">
+        <v>563</v>
+      </c>
+      <c r="D201" t="s">
+        <v>564</v>
+      </c>
+      <c r="E201" t="s">
+        <v>565</v>
+      </c>
+      <c r="F201" t="s">
+        <v>566</v>
+      </c>
+      <c r="G201" t="s">
+        <v>567</v>
+      </c>
+      <c r="H201" t="s">
+        <v>568</v>
+      </c>
+      <c r="I201" t="s">
+        <v>569</v>
+      </c>
+      <c r="J201" t="s">
+        <v>114</v>
+      </c>
+      <c r="K201" t="s">
+        <v>570</v>
+      </c>
+      <c r="L201" t="s">
+        <v>571</v>
+      </c>
+      <c r="M201" t="s">
+        <v>572</v>
+      </c>
+      <c r="N201" t="s">
+        <v>573</v>
+      </c>
+      <c r="O201" t="s">
+        <v>574</v>
+      </c>
+      <c r="P201" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>576</v>
+      </c>
+      <c r="R201" t="s">
+        <v>577</v>
+      </c>
+      <c r="S201" t="s">
+        <v>578</v>
+      </c>
+      <c r="T201" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>561</v>
+      </c>
+      <c r="B202" t="s">
+        <v>562</v>
+      </c>
+      <c r="C202" t="s">
+        <v>563</v>
+      </c>
+      <c r="D202" t="s">
+        <v>564</v>
+      </c>
+      <c r="E202" t="s">
+        <v>565</v>
+      </c>
+      <c r="F202" t="s">
+        <v>566</v>
+      </c>
+      <c r="G202" t="s">
+        <v>567</v>
+      </c>
+      <c r="H202" t="s">
+        <v>568</v>
+      </c>
+      <c r="I202" t="s">
+        <v>569</v>
+      </c>
+      <c r="J202" t="s">
+        <v>114</v>
+      </c>
+      <c r="K202" t="s">
+        <v>570</v>
+      </c>
+      <c r="L202" t="s">
+        <v>571</v>
+      </c>
+      <c r="M202" t="s">
+        <v>572</v>
+      </c>
+      <c r="N202" t="s">
+        <v>573</v>
+      </c>
+      <c r="O202" t="s">
+        <v>574</v>
+      </c>
+      <c r="P202" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>576</v>
+      </c>
+      <c r="R202" t="s">
+        <v>577</v>
+      </c>
+      <c r="S202" t="s">
+        <v>578</v>
+      </c>
+      <c r="T202" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>561</v>
+      </c>
+      <c r="B203" t="s">
+        <v>562</v>
+      </c>
+      <c r="C203" t="s">
+        <v>563</v>
+      </c>
+      <c r="D203" t="s">
+        <v>564</v>
+      </c>
+      <c r="E203" t="s">
+        <v>565</v>
+      </c>
+      <c r="F203" t="s">
+        <v>566</v>
+      </c>
+      <c r="G203" t="s">
+        <v>567</v>
+      </c>
+      <c r="H203" t="s">
+        <v>568</v>
+      </c>
+      <c r="I203" t="s">
+        <v>569</v>
+      </c>
+      <c r="J203" t="s">
+        <v>114</v>
+      </c>
+      <c r="K203" t="s">
+        <v>570</v>
+      </c>
+      <c r="L203" t="s">
+        <v>571</v>
+      </c>
+      <c r="M203" t="s">
+        <v>572</v>
+      </c>
+      <c r="N203" t="s">
+        <v>573</v>
+      </c>
+      <c r="O203" t="s">
+        <v>574</v>
+      </c>
+      <c r="P203" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>576</v>
+      </c>
+      <c r="R203" t="s">
+        <v>577</v>
+      </c>
+      <c r="S203" t="s">
+        <v>578</v>
+      </c>
+      <c r="T203" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>561</v>
+      </c>
+      <c r="B204" t="s">
+        <v>562</v>
+      </c>
+      <c r="C204" t="s">
+        <v>563</v>
+      </c>
+      <c r="D204" t="s">
+        <v>564</v>
+      </c>
+      <c r="E204" t="s">
+        <v>565</v>
+      </c>
+      <c r="F204" t="s">
+        <v>566</v>
+      </c>
+      <c r="G204" t="s">
+        <v>567</v>
+      </c>
+      <c r="H204" t="s">
+        <v>568</v>
+      </c>
+      <c r="I204" t="s">
+        <v>569</v>
+      </c>
+      <c r="J204" t="s">
+        <v>114</v>
+      </c>
+      <c r="K204" t="s">
+        <v>570</v>
+      </c>
+      <c r="L204" t="s">
+        <v>571</v>
+      </c>
+      <c r="M204" t="s">
+        <v>572</v>
+      </c>
+      <c r="N204" t="s">
+        <v>573</v>
+      </c>
+      <c r="O204" t="s">
+        <v>574</v>
+      </c>
+      <c r="P204" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>576</v>
+      </c>
+      <c r="R204" t="s">
+        <v>577</v>
+      </c>
+      <c r="S204" t="s">
+        <v>578</v>
+      </c>
+      <c r="T204" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>561</v>
+      </c>
+      <c r="B205" t="s">
+        <v>562</v>
+      </c>
+      <c r="C205" t="s">
+        <v>563</v>
+      </c>
+      <c r="D205" t="s">
+        <v>564</v>
+      </c>
+      <c r="E205" t="s">
+        <v>565</v>
+      </c>
+      <c r="F205" t="s">
+        <v>566</v>
+      </c>
+      <c r="G205" t="s">
+        <v>567</v>
+      </c>
+      <c r="H205" t="s">
+        <v>568</v>
+      </c>
+      <c r="I205" t="s">
+        <v>569</v>
+      </c>
+      <c r="J205" t="s">
+        <v>114</v>
+      </c>
+      <c r="K205" t="s">
+        <v>570</v>
+      </c>
+      <c r="L205" t="s">
+        <v>571</v>
+      </c>
+      <c r="M205" t="s">
+        <v>572</v>
+      </c>
+      <c r="N205" t="s">
+        <v>573</v>
+      </c>
+      <c r="O205" t="s">
+        <v>574</v>
+      </c>
+      <c r="P205" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>576</v>
+      </c>
+      <c r="R205" t="s">
+        <v>577</v>
+      </c>
+      <c r="S205" t="s">
+        <v>578</v>
+      </c>
+      <c r="T205" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>561</v>
+      </c>
+      <c r="B206" t="s">
+        <v>562</v>
+      </c>
+      <c r="C206" t="s">
+        <v>563</v>
+      </c>
+      <c r="D206" t="s">
+        <v>564</v>
+      </c>
+      <c r="E206" t="s">
+        <v>565</v>
+      </c>
+      <c r="F206" t="s">
+        <v>566</v>
+      </c>
+      <c r="G206" t="s">
+        <v>567</v>
+      </c>
+      <c r="H206" t="s">
+        <v>568</v>
+      </c>
+      <c r="I206" t="s">
+        <v>569</v>
+      </c>
+      <c r="J206" t="s">
+        <v>114</v>
+      </c>
+      <c r="K206" t="s">
+        <v>570</v>
+      </c>
+      <c r="L206" t="s">
+        <v>571</v>
+      </c>
+      <c r="M206" t="s">
+        <v>572</v>
+      </c>
+      <c r="N206" t="s">
+        <v>573</v>
+      </c>
+      <c r="O206" t="s">
+        <v>574</v>
+      </c>
+      <c r="P206" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>576</v>
+      </c>
+      <c r="R206" t="s">
+        <v>577</v>
+      </c>
+      <c r="S206" t="s">
+        <v>578</v>
+      </c>
+      <c r="T206" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>561</v>
+      </c>
+      <c r="B207" t="s">
+        <v>562</v>
+      </c>
+      <c r="C207" t="s">
+        <v>563</v>
+      </c>
+      <c r="D207" t="s">
+        <v>564</v>
+      </c>
+      <c r="E207" t="s">
+        <v>565</v>
+      </c>
+      <c r="F207" t="s">
+        <v>566</v>
+      </c>
+      <c r="G207" t="s">
+        <v>567</v>
+      </c>
+      <c r="H207" t="s">
+        <v>568</v>
+      </c>
+      <c r="I207" t="s">
+        <v>569</v>
+      </c>
+      <c r="J207" t="s">
+        <v>114</v>
+      </c>
+      <c r="K207" t="s">
+        <v>570</v>
+      </c>
+      <c r="L207" t="s">
+        <v>571</v>
+      </c>
+      <c r="M207" t="s">
+        <v>572</v>
+      </c>
+      <c r="N207" t="s">
+        <v>573</v>
+      </c>
+      <c r="O207" t="s">
+        <v>574</v>
+      </c>
+      <c r="P207" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>576</v>
+      </c>
+      <c r="R207" t="s">
+        <v>577</v>
+      </c>
+      <c r="S207" t="s">
+        <v>578</v>
+      </c>
+      <c r="T207" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="613">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -1764,6 +1764,105 @@
   </si>
   <si>
     <t>accelerator thuc giuc</t>
+  </si>
+  <si>
+    <t>1 Encapsulation: dong goi</t>
+  </si>
+  <si>
+    <t>4 Illustrate: minh hoa</t>
+  </si>
+  <si>
+    <t>6 Stockkeeper: thu kho</t>
+  </si>
+  <si>
+    <t>17 Visibility: hien thi,trong thay duoc</t>
+  </si>
+  <si>
+    <t>Shrink: co lai</t>
+  </si>
+  <si>
+    <t>Wrap: bao,boc</t>
+  </si>
+  <si>
+    <t>23 Aggregation: tong hop</t>
+  </si>
+  <si>
+    <t>25 Abstraction: truu tuong</t>
+  </si>
+  <si>
+    <t>39 Concatenation: ghep,su lien he</t>
+  </si>
+  <si>
+    <t>58 Statements: cac cau lenh</t>
+  </si>
+  <si>
+    <t>Hierarchical: thu bac,cap bac</t>
+  </si>
+  <si>
+    <t>2 Unintentionally: vo y,vo tinh</t>
+  </si>
+  <si>
+    <t>37 curly braces : dấu ngoặc nhọn { }</t>
+  </si>
+  <si>
+    <t>visualization : hình dung,nhắc lại,gợi lại</t>
+  </si>
+  <si>
+    <t>Negative: phu dinh,tieu cuc,gia tri am(-)</t>
+  </si>
+  <si>
+    <t>Acquires: mua lai,tom duoc</t>
+  </si>
+  <si>
+    <t>encapsulation dong goi</t>
+  </si>
+  <si>
+    <t>illustrate minh hoa</t>
+  </si>
+  <si>
+    <t>stockkeeper thu kho</t>
+  </si>
+  <si>
+    <t>shrink co lai</t>
+  </si>
+  <si>
+    <t>visibility hien thi,trong thay duoc</t>
+  </si>
+  <si>
+    <t>curly braces dau ngoac nhon</t>
+  </si>
+  <si>
+    <t>statements cac cau lenh</t>
+  </si>
+  <si>
+    <t>concatenation su lien he</t>
+  </si>
+  <si>
+    <t>abstraction truu tuong</t>
+  </si>
+  <si>
+    <t>aggregation tong hop</t>
+  </si>
+  <si>
+    <t>hierarchical thu bac cap bac</t>
+  </si>
+  <si>
+    <t>unintetionally vo y vo tinh</t>
+  </si>
+  <si>
+    <t>unintentionally vo y vo tinh</t>
+  </si>
+  <si>
+    <t>wrap bao boc</t>
+  </si>
+  <si>
+    <t>visualization hinh dung nhac lai goi lai</t>
+  </si>
+  <si>
+    <t>negative phu dinh tieu cuc gia tri am</t>
+  </si>
+  <si>
+    <t>acquires mua lai tom duoc</t>
   </si>
 </sst>
 </file>
@@ -2149,10 +2248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V207"/>
+  <dimension ref="A1:V221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P187" workbookViewId="0">
-      <selection activeCell="T207" sqref="T207"/>
+    <sheetView tabSelected="1" topLeftCell="O206" workbookViewId="0">
+      <selection activeCell="P221" sqref="P221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,17 +2261,17 @@
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" customWidth="1"/>
     <col min="7" max="7" width="44" customWidth="1"/>
     <col min="8" max="8" width="46.140625" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" customWidth="1"/>
     <col min="10" max="10" width="29.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1"/>
     <col min="12" max="12" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.7109375" customWidth="1"/>
     <col min="14" max="14" width="46" customWidth="1"/>
-    <col min="15" max="15" width="33.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.7109375" customWidth="1"/>
+    <col min="15" max="15" width="41.85546875" customWidth="1"/>
+    <col min="16" max="16" width="30" customWidth="1"/>
     <col min="17" max="17" width="45.5703125" customWidth="1"/>
     <col min="18" max="18" width="30.7109375" customWidth="1"/>
     <col min="19" max="19" width="38.7109375" customWidth="1"/>
@@ -12855,6 +12954,606 @@
       </c>
       <c r="T207" t="s">
         <v>579</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="N210" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="O210" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="P210" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>596</v>
+      </c>
+      <c r="B211" t="s">
+        <v>597</v>
+      </c>
+      <c r="C211" t="s">
+        <v>598</v>
+      </c>
+      <c r="D211" t="s">
+        <v>599</v>
+      </c>
+      <c r="E211" t="s">
+        <v>600</v>
+      </c>
+      <c r="F211" t="s">
+        <v>601</v>
+      </c>
+      <c r="G211" t="s">
+        <v>602</v>
+      </c>
+      <c r="H211" t="s">
+        <v>603</v>
+      </c>
+      <c r="I211" t="s">
+        <v>604</v>
+      </c>
+      <c r="J211" t="s">
+        <v>605</v>
+      </c>
+      <c r="K211" t="s">
+        <v>606</v>
+      </c>
+      <c r="L211" t="s">
+        <v>607</v>
+      </c>
+      <c r="M211" t="s">
+        <v>609</v>
+      </c>
+      <c r="N211" t="s">
+        <v>610</v>
+      </c>
+      <c r="O211" t="s">
+        <v>611</v>
+      </c>
+      <c r="P211" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>596</v>
+      </c>
+      <c r="B212" t="s">
+        <v>597</v>
+      </c>
+      <c r="C212" t="s">
+        <v>598</v>
+      </c>
+      <c r="D212" t="s">
+        <v>599</v>
+      </c>
+      <c r="E212" t="s">
+        <v>600</v>
+      </c>
+      <c r="F212" t="s">
+        <v>601</v>
+      </c>
+      <c r="G212" t="s">
+        <v>602</v>
+      </c>
+      <c r="H212" t="s">
+        <v>603</v>
+      </c>
+      <c r="I212" t="s">
+        <v>604</v>
+      </c>
+      <c r="J212" t="s">
+        <v>605</v>
+      </c>
+      <c r="K212" t="s">
+        <v>606</v>
+      </c>
+      <c r="L212" t="s">
+        <v>608</v>
+      </c>
+      <c r="M212" t="s">
+        <v>609</v>
+      </c>
+      <c r="N212" t="s">
+        <v>610</v>
+      </c>
+      <c r="O212" t="s">
+        <v>611</v>
+      </c>
+      <c r="P212" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>596</v>
+      </c>
+      <c r="B213" t="s">
+        <v>597</v>
+      </c>
+      <c r="C213" t="s">
+        <v>598</v>
+      </c>
+      <c r="D213" t="s">
+        <v>599</v>
+      </c>
+      <c r="E213" t="s">
+        <v>600</v>
+      </c>
+      <c r="F213" t="s">
+        <v>601</v>
+      </c>
+      <c r="G213" t="s">
+        <v>602</v>
+      </c>
+      <c r="H213" t="s">
+        <v>603</v>
+      </c>
+      <c r="I213" t="s">
+        <v>604</v>
+      </c>
+      <c r="J213" t="s">
+        <v>605</v>
+      </c>
+      <c r="K213" t="s">
+        <v>606</v>
+      </c>
+      <c r="L213" t="s">
+        <v>608</v>
+      </c>
+      <c r="M213" t="s">
+        <v>609</v>
+      </c>
+      <c r="N213" t="s">
+        <v>610</v>
+      </c>
+      <c r="O213" t="s">
+        <v>611</v>
+      </c>
+      <c r="P213" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>596</v>
+      </c>
+      <c r="B214" t="s">
+        <v>597</v>
+      </c>
+      <c r="C214" t="s">
+        <v>598</v>
+      </c>
+      <c r="D214" t="s">
+        <v>599</v>
+      </c>
+      <c r="E214" t="s">
+        <v>600</v>
+      </c>
+      <c r="F214" t="s">
+        <v>601</v>
+      </c>
+      <c r="G214" t="s">
+        <v>602</v>
+      </c>
+      <c r="H214" t="s">
+        <v>603</v>
+      </c>
+      <c r="I214" t="s">
+        <v>604</v>
+      </c>
+      <c r="J214" t="s">
+        <v>605</v>
+      </c>
+      <c r="K214" t="s">
+        <v>606</v>
+      </c>
+      <c r="L214" t="s">
+        <v>608</v>
+      </c>
+      <c r="M214" t="s">
+        <v>609</v>
+      </c>
+      <c r="N214" t="s">
+        <v>610</v>
+      </c>
+      <c r="O214" t="s">
+        <v>611</v>
+      </c>
+      <c r="P214" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>596</v>
+      </c>
+      <c r="B215" t="s">
+        <v>597</v>
+      </c>
+      <c r="C215" t="s">
+        <v>598</v>
+      </c>
+      <c r="D215" t="s">
+        <v>599</v>
+      </c>
+      <c r="E215" t="s">
+        <v>600</v>
+      </c>
+      <c r="F215" t="s">
+        <v>601</v>
+      </c>
+      <c r="G215" t="s">
+        <v>602</v>
+      </c>
+      <c r="H215" t="s">
+        <v>603</v>
+      </c>
+      <c r="I215" t="s">
+        <v>604</v>
+      </c>
+      <c r="J215" t="s">
+        <v>605</v>
+      </c>
+      <c r="K215" t="s">
+        <v>606</v>
+      </c>
+      <c r="L215" t="s">
+        <v>608</v>
+      </c>
+      <c r="M215" t="s">
+        <v>609</v>
+      </c>
+      <c r="N215" t="s">
+        <v>610</v>
+      </c>
+      <c r="O215" t="s">
+        <v>611</v>
+      </c>
+      <c r="P215" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>596</v>
+      </c>
+      <c r="B216" t="s">
+        <v>597</v>
+      </c>
+      <c r="C216" t="s">
+        <v>598</v>
+      </c>
+      <c r="D216" t="s">
+        <v>599</v>
+      </c>
+      <c r="E216" t="s">
+        <v>600</v>
+      </c>
+      <c r="F216" t="s">
+        <v>601</v>
+      </c>
+      <c r="G216" t="s">
+        <v>602</v>
+      </c>
+      <c r="H216" t="s">
+        <v>603</v>
+      </c>
+      <c r="I216" t="s">
+        <v>604</v>
+      </c>
+      <c r="J216" t="s">
+        <v>605</v>
+      </c>
+      <c r="K216" t="s">
+        <v>606</v>
+      </c>
+      <c r="L216" t="s">
+        <v>608</v>
+      </c>
+      <c r="M216" t="s">
+        <v>609</v>
+      </c>
+      <c r="N216" t="s">
+        <v>610</v>
+      </c>
+      <c r="O216" t="s">
+        <v>611</v>
+      </c>
+      <c r="P216" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>596</v>
+      </c>
+      <c r="B217" t="s">
+        <v>597</v>
+      </c>
+      <c r="C217" t="s">
+        <v>598</v>
+      </c>
+      <c r="D217" t="s">
+        <v>599</v>
+      </c>
+      <c r="E217" t="s">
+        <v>600</v>
+      </c>
+      <c r="F217" t="s">
+        <v>601</v>
+      </c>
+      <c r="G217" t="s">
+        <v>602</v>
+      </c>
+      <c r="H217" t="s">
+        <v>603</v>
+      </c>
+      <c r="I217" t="s">
+        <v>604</v>
+      </c>
+      <c r="J217" t="s">
+        <v>605</v>
+      </c>
+      <c r="K217" t="s">
+        <v>606</v>
+      </c>
+      <c r="L217" t="s">
+        <v>608</v>
+      </c>
+      <c r="M217" t="s">
+        <v>609</v>
+      </c>
+      <c r="N217" t="s">
+        <v>610</v>
+      </c>
+      <c r="O217" t="s">
+        <v>611</v>
+      </c>
+      <c r="P217" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>596</v>
+      </c>
+      <c r="B218" t="s">
+        <v>597</v>
+      </c>
+      <c r="C218" t="s">
+        <v>598</v>
+      </c>
+      <c r="D218" t="s">
+        <v>599</v>
+      </c>
+      <c r="E218" t="s">
+        <v>600</v>
+      </c>
+      <c r="F218" t="s">
+        <v>601</v>
+      </c>
+      <c r="G218" t="s">
+        <v>602</v>
+      </c>
+      <c r="H218" t="s">
+        <v>603</v>
+      </c>
+      <c r="I218" t="s">
+        <v>604</v>
+      </c>
+      <c r="J218" t="s">
+        <v>605</v>
+      </c>
+      <c r="K218" t="s">
+        <v>606</v>
+      </c>
+      <c r="L218" t="s">
+        <v>608</v>
+      </c>
+      <c r="M218" t="s">
+        <v>609</v>
+      </c>
+      <c r="N218" t="s">
+        <v>610</v>
+      </c>
+      <c r="O218" t="s">
+        <v>611</v>
+      </c>
+      <c r="P218" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>596</v>
+      </c>
+      <c r="B219" t="s">
+        <v>597</v>
+      </c>
+      <c r="C219" t="s">
+        <v>598</v>
+      </c>
+      <c r="D219" t="s">
+        <v>599</v>
+      </c>
+      <c r="E219" t="s">
+        <v>600</v>
+      </c>
+      <c r="F219" t="s">
+        <v>601</v>
+      </c>
+      <c r="G219" t="s">
+        <v>602</v>
+      </c>
+      <c r="H219" t="s">
+        <v>603</v>
+      </c>
+      <c r="I219" t="s">
+        <v>604</v>
+      </c>
+      <c r="J219" t="s">
+        <v>605</v>
+      </c>
+      <c r="K219" t="s">
+        <v>606</v>
+      </c>
+      <c r="L219" t="s">
+        <v>608</v>
+      </c>
+      <c r="M219" t="s">
+        <v>609</v>
+      </c>
+      <c r="N219" t="s">
+        <v>610</v>
+      </c>
+      <c r="O219" t="s">
+        <v>611</v>
+      </c>
+      <c r="P219" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>596</v>
+      </c>
+      <c r="B220" t="s">
+        <v>597</v>
+      </c>
+      <c r="C220" t="s">
+        <v>598</v>
+      </c>
+      <c r="D220" t="s">
+        <v>599</v>
+      </c>
+      <c r="E220" t="s">
+        <v>600</v>
+      </c>
+      <c r="F220" t="s">
+        <v>601</v>
+      </c>
+      <c r="G220" t="s">
+        <v>602</v>
+      </c>
+      <c r="H220" t="s">
+        <v>603</v>
+      </c>
+      <c r="I220" t="s">
+        <v>604</v>
+      </c>
+      <c r="J220" t="s">
+        <v>605</v>
+      </c>
+      <c r="K220" t="s">
+        <v>606</v>
+      </c>
+      <c r="L220" t="s">
+        <v>608</v>
+      </c>
+      <c r="M220" t="s">
+        <v>609</v>
+      </c>
+      <c r="N220" t="s">
+        <v>610</v>
+      </c>
+      <c r="O220" t="s">
+        <v>611</v>
+      </c>
+      <c r="P220" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>596</v>
+      </c>
+      <c r="B221" t="s">
+        <v>597</v>
+      </c>
+      <c r="C221" t="s">
+        <v>598</v>
+      </c>
+      <c r="D221" t="s">
+        <v>599</v>
+      </c>
+      <c r="E221" t="s">
+        <v>600</v>
+      </c>
+      <c r="F221" t="s">
+        <v>601</v>
+      </c>
+      <c r="G221" t="s">
+        <v>602</v>
+      </c>
+      <c r="H221" t="s">
+        <v>603</v>
+      </c>
+      <c r="I221" t="s">
+        <v>604</v>
+      </c>
+      <c r="J221" t="s">
+        <v>605</v>
+      </c>
+      <c r="K221" t="s">
+        <v>606</v>
+      </c>
+      <c r="L221" t="s">
+        <v>608</v>
+      </c>
+      <c r="M221" t="s">
+        <v>609</v>
+      </c>
+      <c r="N221" t="s">
+        <v>610</v>
+      </c>
+      <c r="O221" t="s">
+        <v>611</v>
+      </c>
+      <c r="P221" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="652">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -1863,6 +1863,123 @@
   </si>
   <si>
     <t>acquires mua lai tom duoc</t>
+  </si>
+  <si>
+    <t>attention: chu y</t>
+  </si>
+  <si>
+    <t>afield: ngoai khoi</t>
+  </si>
+  <si>
+    <t>swallow: nuot</t>
+  </si>
+  <si>
+    <t>prevent: ngan chan</t>
+  </si>
+  <si>
+    <t>tailor: tho may</t>
+  </si>
+  <si>
+    <t>Odd: so du,so le</t>
+  </si>
+  <si>
+    <t>Respond: tra loi</t>
+  </si>
+  <si>
+    <t>Queue: xep hang</t>
+  </si>
+  <si>
+    <t>Chaining: xich,troi</t>
+  </si>
+  <si>
+    <t>Ancestors: to tien</t>
+  </si>
+  <si>
+    <t>Traversing: di qua</t>
+  </si>
+  <si>
+    <t>Siblings: quan he ruot thit</t>
+  </si>
+  <si>
+    <t>Terminology: thuat ngu</t>
+  </si>
+  <si>
+    <t>Staffing: nhan su</t>
+  </si>
+  <si>
+    <t>Ambition: tham vong</t>
+  </si>
+  <si>
+    <t>Expertise: chuyen mon</t>
+  </si>
+  <si>
+    <t>Durability: do ben,do vung chac</t>
+  </si>
+  <si>
+    <t>Consistency: tinh nhat quan</t>
+  </si>
+  <si>
+    <t>Isolation: doc lap</t>
+  </si>
+  <si>
+    <t>attention chu y</t>
+  </si>
+  <si>
+    <t>afield ngoai khoi</t>
+  </si>
+  <si>
+    <t>swallow nuot</t>
+  </si>
+  <si>
+    <t>tailor tho may</t>
+  </si>
+  <si>
+    <t>odd so du so le</t>
+  </si>
+  <si>
+    <t>respond tra loi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respond tra loi </t>
+  </si>
+  <si>
+    <t>queue xep hang</t>
+  </si>
+  <si>
+    <t>chaining xich troi</t>
+  </si>
+  <si>
+    <t>ancestors to tien</t>
+  </si>
+  <si>
+    <t>traversing di qua</t>
+  </si>
+  <si>
+    <t>siblings quan he ruot thit</t>
+  </si>
+  <si>
+    <t>terminology thuat ngu</t>
+  </si>
+  <si>
+    <t>staffing nhan su</t>
+  </si>
+  <si>
+    <t>ambition tham vong</t>
+  </si>
+  <si>
+    <t>expertise chuyen mon</t>
+  </si>
+  <si>
+    <t>durability do ben do vung chac</t>
+  </si>
+  <si>
+    <t>duratibily do ben do vung chac</t>
+  </si>
+  <si>
+    <t>consistency tinh nhat quan</t>
+  </si>
+  <si>
+    <t>isolation doc lap</t>
   </si>
 </sst>
 </file>
@@ -2248,10 +2365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V221"/>
+  <dimension ref="A1:V236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O206" workbookViewId="0">
-      <selection activeCell="P221" sqref="P221"/>
+    <sheetView tabSelected="1" topLeftCell="P220" workbookViewId="0">
+      <selection activeCell="T236" sqref="T236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12956,7 +13073,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>580</v>
       </c>
@@ -13006,7 +13123,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>596</v>
       </c>
@@ -13056,7 +13173,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>596</v>
       </c>
@@ -13106,7 +13223,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>596</v>
       </c>
@@ -13156,7 +13273,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>596</v>
       </c>
@@ -13206,7 +13323,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>596</v>
       </c>
@@ -13256,7 +13373,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>596</v>
       </c>
@@ -13306,7 +13423,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>596</v>
       </c>
@@ -13356,7 +13473,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>596</v>
       </c>
@@ -13406,7 +13523,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>596</v>
       </c>
@@ -13456,7 +13573,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>596</v>
       </c>
@@ -13506,7 +13623,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>596</v>
       </c>
@@ -13554,6 +13671,812 @@
       </c>
       <c r="P221" t="s">
         <v>612</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>613</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="I224" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="J224" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="K224" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="L224" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="M224" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="N224" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="O224" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="P224" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q224" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="R224" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="S224" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="T224" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>632</v>
+      </c>
+      <c r="B225" t="s">
+        <v>633</v>
+      </c>
+      <c r="C225" t="s">
+        <v>634</v>
+      </c>
+      <c r="D225" t="s">
+        <v>322</v>
+      </c>
+      <c r="E225" t="s">
+        <v>635</v>
+      </c>
+      <c r="F225" t="s">
+        <v>73</v>
+      </c>
+      <c r="G225" t="s">
+        <v>636</v>
+      </c>
+      <c r="H225" t="s">
+        <v>637</v>
+      </c>
+      <c r="I225" t="s">
+        <v>639</v>
+      </c>
+      <c r="J225" t="s">
+        <v>640</v>
+      </c>
+      <c r="K225" t="s">
+        <v>641</v>
+      </c>
+      <c r="L225" t="s">
+        <v>642</v>
+      </c>
+      <c r="M225" t="s">
+        <v>643</v>
+      </c>
+      <c r="N225" t="s">
+        <v>644</v>
+      </c>
+      <c r="O225" t="s">
+        <v>645</v>
+      </c>
+      <c r="P225" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>647</v>
+      </c>
+      <c r="R225" t="s">
+        <v>648</v>
+      </c>
+      <c r="S225" t="s">
+        <v>650</v>
+      </c>
+      <c r="T225" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>632</v>
+      </c>
+      <c r="B226" t="s">
+        <v>633</v>
+      </c>
+      <c r="C226" t="s">
+        <v>634</v>
+      </c>
+      <c r="D226" t="s">
+        <v>322</v>
+      </c>
+      <c r="E226" t="s">
+        <v>635</v>
+      </c>
+      <c r="F226" t="s">
+        <v>73</v>
+      </c>
+      <c r="G226" t="s">
+        <v>636</v>
+      </c>
+      <c r="H226" t="s">
+        <v>637</v>
+      </c>
+      <c r="I226" t="s">
+        <v>639</v>
+      </c>
+      <c r="J226" t="s">
+        <v>640</v>
+      </c>
+      <c r="K226" t="s">
+        <v>641</v>
+      </c>
+      <c r="L226" t="s">
+        <v>642</v>
+      </c>
+      <c r="M226" t="s">
+        <v>643</v>
+      </c>
+      <c r="N226" t="s">
+        <v>644</v>
+      </c>
+      <c r="O226" t="s">
+        <v>645</v>
+      </c>
+      <c r="P226" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>647</v>
+      </c>
+      <c r="R226" t="s">
+        <v>649</v>
+      </c>
+      <c r="S226" t="s">
+        <v>650</v>
+      </c>
+      <c r="T226" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>632</v>
+      </c>
+      <c r="B227" t="s">
+        <v>633</v>
+      </c>
+      <c r="C227" t="s">
+        <v>634</v>
+      </c>
+      <c r="D227" t="s">
+        <v>322</v>
+      </c>
+      <c r="E227" t="s">
+        <v>635</v>
+      </c>
+      <c r="F227" t="s">
+        <v>73</v>
+      </c>
+      <c r="G227" t="s">
+        <v>636</v>
+      </c>
+      <c r="H227" t="s">
+        <v>637</v>
+      </c>
+      <c r="I227" t="s">
+        <v>639</v>
+      </c>
+      <c r="J227" t="s">
+        <v>640</v>
+      </c>
+      <c r="K227" t="s">
+        <v>641</v>
+      </c>
+      <c r="L227" t="s">
+        <v>642</v>
+      </c>
+      <c r="M227" t="s">
+        <v>643</v>
+      </c>
+      <c r="N227" t="s">
+        <v>644</v>
+      </c>
+      <c r="O227" t="s">
+        <v>645</v>
+      </c>
+      <c r="P227" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>647</v>
+      </c>
+      <c r="R227" t="s">
+        <v>649</v>
+      </c>
+      <c r="S227" t="s">
+        <v>650</v>
+      </c>
+      <c r="T227" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>632</v>
+      </c>
+      <c r="B228" t="s">
+        <v>633</v>
+      </c>
+      <c r="C228" t="s">
+        <v>634</v>
+      </c>
+      <c r="D228" t="s">
+        <v>322</v>
+      </c>
+      <c r="E228" t="s">
+        <v>635</v>
+      </c>
+      <c r="F228" t="s">
+        <v>73</v>
+      </c>
+      <c r="G228" t="s">
+        <v>636</v>
+      </c>
+      <c r="H228" t="s">
+        <v>638</v>
+      </c>
+      <c r="I228" t="s">
+        <v>639</v>
+      </c>
+      <c r="J228" t="s">
+        <v>640</v>
+      </c>
+      <c r="K228" t="s">
+        <v>641</v>
+      </c>
+      <c r="L228" t="s">
+        <v>642</v>
+      </c>
+      <c r="M228" t="s">
+        <v>643</v>
+      </c>
+      <c r="N228" t="s">
+        <v>644</v>
+      </c>
+      <c r="O228" t="s">
+        <v>645</v>
+      </c>
+      <c r="P228" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>647</v>
+      </c>
+      <c r="R228" t="s">
+        <v>649</v>
+      </c>
+      <c r="S228" t="s">
+        <v>650</v>
+      </c>
+      <c r="T228" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>632</v>
+      </c>
+      <c r="B229" t="s">
+        <v>633</v>
+      </c>
+      <c r="C229" t="s">
+        <v>634</v>
+      </c>
+      <c r="D229" t="s">
+        <v>322</v>
+      </c>
+      <c r="E229" t="s">
+        <v>635</v>
+      </c>
+      <c r="F229" t="s">
+        <v>73</v>
+      </c>
+      <c r="G229" t="s">
+        <v>636</v>
+      </c>
+      <c r="H229" t="s">
+        <v>637</v>
+      </c>
+      <c r="I229" t="s">
+        <v>639</v>
+      </c>
+      <c r="J229" t="s">
+        <v>640</v>
+      </c>
+      <c r="K229" t="s">
+        <v>641</v>
+      </c>
+      <c r="L229" t="s">
+        <v>642</v>
+      </c>
+      <c r="M229" t="s">
+        <v>643</v>
+      </c>
+      <c r="N229" t="s">
+        <v>644</v>
+      </c>
+      <c r="O229" t="s">
+        <v>645</v>
+      </c>
+      <c r="P229" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>647</v>
+      </c>
+      <c r="R229" t="s">
+        <v>649</v>
+      </c>
+      <c r="S229" t="s">
+        <v>650</v>
+      </c>
+      <c r="T229" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>632</v>
+      </c>
+      <c r="B230" t="s">
+        <v>633</v>
+      </c>
+      <c r="C230" t="s">
+        <v>634</v>
+      </c>
+      <c r="D230" t="s">
+        <v>322</v>
+      </c>
+      <c r="E230" t="s">
+        <v>635</v>
+      </c>
+      <c r="F230" t="s">
+        <v>73</v>
+      </c>
+      <c r="G230" t="s">
+        <v>636</v>
+      </c>
+      <c r="H230" t="s">
+        <v>637</v>
+      </c>
+      <c r="I230" t="s">
+        <v>639</v>
+      </c>
+      <c r="J230" t="s">
+        <v>640</v>
+      </c>
+      <c r="K230" t="s">
+        <v>641</v>
+      </c>
+      <c r="L230" t="s">
+        <v>642</v>
+      </c>
+      <c r="M230" t="s">
+        <v>643</v>
+      </c>
+      <c r="N230" t="s">
+        <v>644</v>
+      </c>
+      <c r="O230" t="s">
+        <v>645</v>
+      </c>
+      <c r="P230" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>647</v>
+      </c>
+      <c r="R230" t="s">
+        <v>649</v>
+      </c>
+      <c r="S230" t="s">
+        <v>650</v>
+      </c>
+      <c r="T230" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>632</v>
+      </c>
+      <c r="B231" t="s">
+        <v>633</v>
+      </c>
+      <c r="C231" t="s">
+        <v>634</v>
+      </c>
+      <c r="D231" t="s">
+        <v>322</v>
+      </c>
+      <c r="E231" t="s">
+        <v>635</v>
+      </c>
+      <c r="F231" t="s">
+        <v>73</v>
+      </c>
+      <c r="G231" t="s">
+        <v>636</v>
+      </c>
+      <c r="H231" t="s">
+        <v>637</v>
+      </c>
+      <c r="I231" t="s">
+        <v>639</v>
+      </c>
+      <c r="J231" t="s">
+        <v>640</v>
+      </c>
+      <c r="K231" t="s">
+        <v>641</v>
+      </c>
+      <c r="L231" t="s">
+        <v>642</v>
+      </c>
+      <c r="M231" t="s">
+        <v>643</v>
+      </c>
+      <c r="N231" t="s">
+        <v>644</v>
+      </c>
+      <c r="O231" t="s">
+        <v>645</v>
+      </c>
+      <c r="P231" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>647</v>
+      </c>
+      <c r="R231" t="s">
+        <v>649</v>
+      </c>
+      <c r="S231" t="s">
+        <v>650</v>
+      </c>
+      <c r="T231" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>632</v>
+      </c>
+      <c r="B232" t="s">
+        <v>633</v>
+      </c>
+      <c r="C232" t="s">
+        <v>634</v>
+      </c>
+      <c r="D232" t="s">
+        <v>322</v>
+      </c>
+      <c r="E232" t="s">
+        <v>635</v>
+      </c>
+      <c r="F232" t="s">
+        <v>73</v>
+      </c>
+      <c r="G232" t="s">
+        <v>636</v>
+      </c>
+      <c r="H232" t="s">
+        <v>637</v>
+      </c>
+      <c r="I232" t="s">
+        <v>639</v>
+      </c>
+      <c r="J232" t="s">
+        <v>640</v>
+      </c>
+      <c r="K232" t="s">
+        <v>641</v>
+      </c>
+      <c r="L232" t="s">
+        <v>642</v>
+      </c>
+      <c r="M232" t="s">
+        <v>643</v>
+      </c>
+      <c r="N232" t="s">
+        <v>644</v>
+      </c>
+      <c r="O232" t="s">
+        <v>645</v>
+      </c>
+      <c r="P232" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>647</v>
+      </c>
+      <c r="R232" t="s">
+        <v>649</v>
+      </c>
+      <c r="S232" t="s">
+        <v>650</v>
+      </c>
+      <c r="T232" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>632</v>
+      </c>
+      <c r="B233" t="s">
+        <v>633</v>
+      </c>
+      <c r="C233" t="s">
+        <v>634</v>
+      </c>
+      <c r="D233" t="s">
+        <v>322</v>
+      </c>
+      <c r="E233" t="s">
+        <v>635</v>
+      </c>
+      <c r="F233" t="s">
+        <v>73</v>
+      </c>
+      <c r="G233" t="s">
+        <v>636</v>
+      </c>
+      <c r="H233" t="s">
+        <v>637</v>
+      </c>
+      <c r="I233" t="s">
+        <v>639</v>
+      </c>
+      <c r="J233" t="s">
+        <v>640</v>
+      </c>
+      <c r="K233" t="s">
+        <v>641</v>
+      </c>
+      <c r="L233" t="s">
+        <v>642</v>
+      </c>
+      <c r="M233" t="s">
+        <v>643</v>
+      </c>
+      <c r="N233" t="s">
+        <v>644</v>
+      </c>
+      <c r="O233" t="s">
+        <v>645</v>
+      </c>
+      <c r="P233" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>647</v>
+      </c>
+      <c r="R233" t="s">
+        <v>649</v>
+      </c>
+      <c r="S233" t="s">
+        <v>650</v>
+      </c>
+      <c r="T233" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>632</v>
+      </c>
+      <c r="B234" t="s">
+        <v>633</v>
+      </c>
+      <c r="C234" t="s">
+        <v>634</v>
+      </c>
+      <c r="D234" t="s">
+        <v>322</v>
+      </c>
+      <c r="E234" t="s">
+        <v>635</v>
+      </c>
+      <c r="F234" t="s">
+        <v>73</v>
+      </c>
+      <c r="G234" t="s">
+        <v>636</v>
+      </c>
+      <c r="H234" t="s">
+        <v>637</v>
+      </c>
+      <c r="I234" t="s">
+        <v>639</v>
+      </c>
+      <c r="J234" t="s">
+        <v>640</v>
+      </c>
+      <c r="K234" t="s">
+        <v>641</v>
+      </c>
+      <c r="L234" t="s">
+        <v>642</v>
+      </c>
+      <c r="M234" t="s">
+        <v>643</v>
+      </c>
+      <c r="N234" t="s">
+        <v>644</v>
+      </c>
+      <c r="O234" t="s">
+        <v>645</v>
+      </c>
+      <c r="P234" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>647</v>
+      </c>
+      <c r="R234" t="s">
+        <v>649</v>
+      </c>
+      <c r="S234" t="s">
+        <v>650</v>
+      </c>
+      <c r="T234" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>632</v>
+      </c>
+      <c r="B235" t="s">
+        <v>633</v>
+      </c>
+      <c r="C235" t="s">
+        <v>634</v>
+      </c>
+      <c r="D235" t="s">
+        <v>322</v>
+      </c>
+      <c r="E235" t="s">
+        <v>635</v>
+      </c>
+      <c r="F235" t="s">
+        <v>73</v>
+      </c>
+      <c r="G235" t="s">
+        <v>636</v>
+      </c>
+      <c r="H235" t="s">
+        <v>637</v>
+      </c>
+      <c r="I235" t="s">
+        <v>639</v>
+      </c>
+      <c r="J235" t="s">
+        <v>640</v>
+      </c>
+      <c r="K235" t="s">
+        <v>641</v>
+      </c>
+      <c r="L235" t="s">
+        <v>642</v>
+      </c>
+      <c r="M235" t="s">
+        <v>643</v>
+      </c>
+      <c r="N235" t="s">
+        <v>644</v>
+      </c>
+      <c r="O235" t="s">
+        <v>645</v>
+      </c>
+      <c r="P235" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>647</v>
+      </c>
+      <c r="R235" t="s">
+        <v>649</v>
+      </c>
+      <c r="S235" t="s">
+        <v>650</v>
+      </c>
+      <c r="T235" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>632</v>
+      </c>
+      <c r="B236" t="s">
+        <v>633</v>
+      </c>
+      <c r="C236" t="s">
+        <v>634</v>
+      </c>
+      <c r="D236" t="s">
+        <v>322</v>
+      </c>
+      <c r="E236" t="s">
+        <v>635</v>
+      </c>
+      <c r="F236" t="s">
+        <v>73</v>
+      </c>
+      <c r="G236" t="s">
+        <v>636</v>
+      </c>
+      <c r="H236" t="s">
+        <v>637</v>
+      </c>
+      <c r="I236" t="s">
+        <v>639</v>
+      </c>
+      <c r="J236" t="s">
+        <v>640</v>
+      </c>
+      <c r="K236" t="s">
+        <v>641</v>
+      </c>
+      <c r="L236" t="s">
+        <v>642</v>
+      </c>
+      <c r="M236" t="s">
+        <v>643</v>
+      </c>
+      <c r="N236" t="s">
+        <v>644</v>
+      </c>
+      <c r="O236" t="s">
+        <v>645</v>
+      </c>
+      <c r="P236" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>647</v>
+      </c>
+      <c r="R236" t="s">
+        <v>649</v>
+      </c>
+      <c r="S236" t="s">
+        <v>650</v>
+      </c>
+      <c r="T236" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4194" uniqueCount="669">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -1980,6 +1980,57 @@
   </si>
   <si>
     <t>isolation doc lap</t>
+  </si>
+  <si>
+    <t>Concentration: su tap trung</t>
+  </si>
+  <si>
+    <t>Description: mo ta</t>
+  </si>
+  <si>
+    <t>Immediately: ngay lap tuc</t>
+  </si>
+  <si>
+    <t>Formed: hinh thanh</t>
+  </si>
+  <si>
+    <t>Stable: on dinh</t>
+  </si>
+  <si>
+    <t>Willingness: san sang</t>
+  </si>
+  <si>
+    <t>Agency: dai ly</t>
+  </si>
+  <si>
+    <t>excited: bi kich thich</t>
+  </si>
+  <si>
+    <t>concentration su tap trung</t>
+  </si>
+  <si>
+    <t>description mo ta</t>
+  </si>
+  <si>
+    <t>immediately ngay lap tuc</t>
+  </si>
+  <si>
+    <t>formed hinh thanh</t>
+  </si>
+  <si>
+    <t>stable on dinh</t>
+  </si>
+  <si>
+    <t>willingness san sang</t>
+  </si>
+  <si>
+    <t>willingess san sang</t>
+  </si>
+  <si>
+    <t>agency dai ly</t>
+  </si>
+  <si>
+    <t>excited bi kich thich</t>
   </si>
 </sst>
 </file>
@@ -2365,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V236"/>
+  <dimension ref="A1:V253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P220" workbookViewId="0">
-      <selection activeCell="T236" sqref="T236"/>
+    <sheetView tabSelected="1" topLeftCell="P238" workbookViewId="0">
+      <selection activeCell="T253" sqref="T253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14477,6 +14528,936 @@
       </c>
       <c r="T236" t="s">
         <v>651</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="I239" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K239" t="s">
+        <v>34</v>
+      </c>
+      <c r="L239" t="s">
+        <v>218</v>
+      </c>
+      <c r="M239" t="s">
+        <v>75</v>
+      </c>
+      <c r="N239" t="s">
+        <v>420</v>
+      </c>
+      <c r="O239" t="s">
+        <v>74</v>
+      </c>
+      <c r="P239" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>226</v>
+      </c>
+      <c r="R239" t="s">
+        <v>536</v>
+      </c>
+      <c r="S239" t="s">
+        <v>366</v>
+      </c>
+      <c r="T239" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>660</v>
+      </c>
+      <c r="B240" t="s">
+        <v>661</v>
+      </c>
+      <c r="C240" t="s">
+        <v>662</v>
+      </c>
+      <c r="D240" t="s">
+        <v>663</v>
+      </c>
+      <c r="E240" t="s">
+        <v>664</v>
+      </c>
+      <c r="F240" t="s">
+        <v>665</v>
+      </c>
+      <c r="G240" t="s">
+        <v>667</v>
+      </c>
+      <c r="H240" t="s">
+        <v>668</v>
+      </c>
+      <c r="I240" t="s">
+        <v>566</v>
+      </c>
+      <c r="J240" t="s">
+        <v>360</v>
+      </c>
+      <c r="K240" t="s">
+        <v>34</v>
+      </c>
+      <c r="L240" t="s">
+        <v>218</v>
+      </c>
+      <c r="M240" t="s">
+        <v>75</v>
+      </c>
+      <c r="N240" t="s">
+        <v>420</v>
+      </c>
+      <c r="O240" t="s">
+        <v>74</v>
+      </c>
+      <c r="P240" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>226</v>
+      </c>
+      <c r="R240" t="s">
+        <v>536</v>
+      </c>
+      <c r="S240" t="s">
+        <v>366</v>
+      </c>
+      <c r="T240" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>660</v>
+      </c>
+      <c r="B241" t="s">
+        <v>661</v>
+      </c>
+      <c r="C241" t="s">
+        <v>662</v>
+      </c>
+      <c r="D241" t="s">
+        <v>663</v>
+      </c>
+      <c r="E241" t="s">
+        <v>664</v>
+      </c>
+      <c r="F241" t="s">
+        <v>665</v>
+      </c>
+      <c r="G241" t="s">
+        <v>667</v>
+      </c>
+      <c r="H241" t="s">
+        <v>668</v>
+      </c>
+      <c r="I241" t="s">
+        <v>566</v>
+      </c>
+      <c r="J241" t="s">
+        <v>360</v>
+      </c>
+      <c r="K241" t="s">
+        <v>34</v>
+      </c>
+      <c r="L241" t="s">
+        <v>218</v>
+      </c>
+      <c r="M241" t="s">
+        <v>75</v>
+      </c>
+      <c r="N241" t="s">
+        <v>420</v>
+      </c>
+      <c r="O241" t="s">
+        <v>74</v>
+      </c>
+      <c r="P241" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>226</v>
+      </c>
+      <c r="R241" t="s">
+        <v>536</v>
+      </c>
+      <c r="S241" t="s">
+        <v>366</v>
+      </c>
+      <c r="T241" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>660</v>
+      </c>
+      <c r="B242" t="s">
+        <v>661</v>
+      </c>
+      <c r="C242" t="s">
+        <v>662</v>
+      </c>
+      <c r="D242" t="s">
+        <v>663</v>
+      </c>
+      <c r="E242" t="s">
+        <v>664</v>
+      </c>
+      <c r="F242" t="s">
+        <v>666</v>
+      </c>
+      <c r="G242" t="s">
+        <v>667</v>
+      </c>
+      <c r="H242" t="s">
+        <v>668</v>
+      </c>
+      <c r="I242" t="s">
+        <v>566</v>
+      </c>
+      <c r="J242" t="s">
+        <v>360</v>
+      </c>
+      <c r="K242" t="s">
+        <v>34</v>
+      </c>
+      <c r="L242" t="s">
+        <v>218</v>
+      </c>
+      <c r="M242" t="s">
+        <v>75</v>
+      </c>
+      <c r="N242" t="s">
+        <v>420</v>
+      </c>
+      <c r="O242" t="s">
+        <v>74</v>
+      </c>
+      <c r="P242" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>226</v>
+      </c>
+      <c r="R242" t="s">
+        <v>536</v>
+      </c>
+      <c r="S242" t="s">
+        <v>366</v>
+      </c>
+      <c r="T242" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>660</v>
+      </c>
+      <c r="B243" t="s">
+        <v>661</v>
+      </c>
+      <c r="C243" t="s">
+        <v>662</v>
+      </c>
+      <c r="D243" t="s">
+        <v>663</v>
+      </c>
+      <c r="E243" t="s">
+        <v>664</v>
+      </c>
+      <c r="F243" t="s">
+        <v>665</v>
+      </c>
+      <c r="G243" t="s">
+        <v>667</v>
+      </c>
+      <c r="H243" t="s">
+        <v>668</v>
+      </c>
+      <c r="I243" t="s">
+        <v>566</v>
+      </c>
+      <c r="J243" t="s">
+        <v>360</v>
+      </c>
+      <c r="K243" t="s">
+        <v>34</v>
+      </c>
+      <c r="L243" t="s">
+        <v>218</v>
+      </c>
+      <c r="M243" t="s">
+        <v>75</v>
+      </c>
+      <c r="N243" t="s">
+        <v>420</v>
+      </c>
+      <c r="O243" t="s">
+        <v>74</v>
+      </c>
+      <c r="P243" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>226</v>
+      </c>
+      <c r="R243" t="s">
+        <v>536</v>
+      </c>
+      <c r="S243" t="s">
+        <v>366</v>
+      </c>
+      <c r="T243" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>660</v>
+      </c>
+      <c r="B244" t="s">
+        <v>661</v>
+      </c>
+      <c r="C244" t="s">
+        <v>662</v>
+      </c>
+      <c r="D244" t="s">
+        <v>663</v>
+      </c>
+      <c r="E244" t="s">
+        <v>664</v>
+      </c>
+      <c r="F244" t="s">
+        <v>665</v>
+      </c>
+      <c r="G244" t="s">
+        <v>667</v>
+      </c>
+      <c r="H244" t="s">
+        <v>668</v>
+      </c>
+      <c r="I244" t="s">
+        <v>566</v>
+      </c>
+      <c r="J244" t="s">
+        <v>360</v>
+      </c>
+      <c r="K244" t="s">
+        <v>34</v>
+      </c>
+      <c r="L244" t="s">
+        <v>218</v>
+      </c>
+      <c r="M244" t="s">
+        <v>75</v>
+      </c>
+      <c r="N244" t="s">
+        <v>420</v>
+      </c>
+      <c r="O244" t="s">
+        <v>74</v>
+      </c>
+      <c r="P244" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>226</v>
+      </c>
+      <c r="R244" t="s">
+        <v>536</v>
+      </c>
+      <c r="S244" t="s">
+        <v>366</v>
+      </c>
+      <c r="T244" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>660</v>
+      </c>
+      <c r="B245" t="s">
+        <v>661</v>
+      </c>
+      <c r="C245" t="s">
+        <v>662</v>
+      </c>
+      <c r="D245" t="s">
+        <v>663</v>
+      </c>
+      <c r="E245" t="s">
+        <v>664</v>
+      </c>
+      <c r="F245" t="s">
+        <v>665</v>
+      </c>
+      <c r="G245" t="s">
+        <v>667</v>
+      </c>
+      <c r="H245" t="s">
+        <v>668</v>
+      </c>
+      <c r="I245" t="s">
+        <v>566</v>
+      </c>
+      <c r="J245" t="s">
+        <v>360</v>
+      </c>
+      <c r="K245" t="s">
+        <v>34</v>
+      </c>
+      <c r="L245" t="s">
+        <v>218</v>
+      </c>
+      <c r="M245" t="s">
+        <v>75</v>
+      </c>
+      <c r="N245" t="s">
+        <v>420</v>
+      </c>
+      <c r="O245" t="s">
+        <v>74</v>
+      </c>
+      <c r="P245" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>226</v>
+      </c>
+      <c r="R245" t="s">
+        <v>536</v>
+      </c>
+      <c r="S245" t="s">
+        <v>366</v>
+      </c>
+      <c r="T245" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>660</v>
+      </c>
+      <c r="B246" t="s">
+        <v>661</v>
+      </c>
+      <c r="C246" t="s">
+        <v>662</v>
+      </c>
+      <c r="D246" t="s">
+        <v>663</v>
+      </c>
+      <c r="E246" t="s">
+        <v>664</v>
+      </c>
+      <c r="F246" t="s">
+        <v>665</v>
+      </c>
+      <c r="G246" t="s">
+        <v>667</v>
+      </c>
+      <c r="H246" t="s">
+        <v>668</v>
+      </c>
+      <c r="I246" t="s">
+        <v>566</v>
+      </c>
+      <c r="J246" t="s">
+        <v>360</v>
+      </c>
+      <c r="K246" t="s">
+        <v>34</v>
+      </c>
+      <c r="L246" t="s">
+        <v>218</v>
+      </c>
+      <c r="M246" t="s">
+        <v>75</v>
+      </c>
+      <c r="N246" t="s">
+        <v>420</v>
+      </c>
+      <c r="O246" t="s">
+        <v>74</v>
+      </c>
+      <c r="P246" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>226</v>
+      </c>
+      <c r="R246" t="s">
+        <v>536</v>
+      </c>
+      <c r="S246" t="s">
+        <v>366</v>
+      </c>
+      <c r="T246" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>660</v>
+      </c>
+      <c r="B247" t="s">
+        <v>661</v>
+      </c>
+      <c r="C247" t="s">
+        <v>662</v>
+      </c>
+      <c r="D247" t="s">
+        <v>663</v>
+      </c>
+      <c r="E247" t="s">
+        <v>664</v>
+      </c>
+      <c r="F247" t="s">
+        <v>665</v>
+      </c>
+      <c r="G247" t="s">
+        <v>667</v>
+      </c>
+      <c r="H247" t="s">
+        <v>668</v>
+      </c>
+      <c r="I247" t="s">
+        <v>566</v>
+      </c>
+      <c r="J247" t="s">
+        <v>360</v>
+      </c>
+      <c r="K247" t="s">
+        <v>34</v>
+      </c>
+      <c r="L247" t="s">
+        <v>218</v>
+      </c>
+      <c r="M247" t="s">
+        <v>75</v>
+      </c>
+      <c r="N247" t="s">
+        <v>420</v>
+      </c>
+      <c r="O247" t="s">
+        <v>74</v>
+      </c>
+      <c r="P247" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>226</v>
+      </c>
+      <c r="R247" t="s">
+        <v>536</v>
+      </c>
+      <c r="S247" t="s">
+        <v>366</v>
+      </c>
+      <c r="T247" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>660</v>
+      </c>
+      <c r="B248" t="s">
+        <v>661</v>
+      </c>
+      <c r="C248" t="s">
+        <v>662</v>
+      </c>
+      <c r="D248" t="s">
+        <v>663</v>
+      </c>
+      <c r="E248" t="s">
+        <v>664</v>
+      </c>
+      <c r="F248" t="s">
+        <v>665</v>
+      </c>
+      <c r="G248" t="s">
+        <v>667</v>
+      </c>
+      <c r="H248" t="s">
+        <v>668</v>
+      </c>
+      <c r="I248" t="s">
+        <v>566</v>
+      </c>
+      <c r="J248" t="s">
+        <v>360</v>
+      </c>
+      <c r="K248" t="s">
+        <v>34</v>
+      </c>
+      <c r="L248" t="s">
+        <v>218</v>
+      </c>
+      <c r="M248" t="s">
+        <v>75</v>
+      </c>
+      <c r="N248" t="s">
+        <v>420</v>
+      </c>
+      <c r="O248" t="s">
+        <v>74</v>
+      </c>
+      <c r="P248" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>226</v>
+      </c>
+      <c r="R248" t="s">
+        <v>536</v>
+      </c>
+      <c r="S248" t="s">
+        <v>366</v>
+      </c>
+      <c r="T248" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>660</v>
+      </c>
+      <c r="B249" t="s">
+        <v>661</v>
+      </c>
+      <c r="C249" t="s">
+        <v>662</v>
+      </c>
+      <c r="D249" t="s">
+        <v>663</v>
+      </c>
+      <c r="E249" t="s">
+        <v>664</v>
+      </c>
+      <c r="F249" t="s">
+        <v>665</v>
+      </c>
+      <c r="G249" t="s">
+        <v>667</v>
+      </c>
+      <c r="H249" t="s">
+        <v>668</v>
+      </c>
+      <c r="I249" t="s">
+        <v>566</v>
+      </c>
+      <c r="J249" t="s">
+        <v>360</v>
+      </c>
+      <c r="K249" t="s">
+        <v>34</v>
+      </c>
+      <c r="L249" t="s">
+        <v>218</v>
+      </c>
+      <c r="M249" t="s">
+        <v>75</v>
+      </c>
+      <c r="N249" t="s">
+        <v>420</v>
+      </c>
+      <c r="O249" t="s">
+        <v>74</v>
+      </c>
+      <c r="P249" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>226</v>
+      </c>
+      <c r="R249" t="s">
+        <v>536</v>
+      </c>
+      <c r="S249" t="s">
+        <v>366</v>
+      </c>
+      <c r="T249" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>660</v>
+      </c>
+      <c r="B250" t="s">
+        <v>661</v>
+      </c>
+      <c r="C250" t="s">
+        <v>662</v>
+      </c>
+      <c r="D250" t="s">
+        <v>663</v>
+      </c>
+      <c r="E250" t="s">
+        <v>664</v>
+      </c>
+      <c r="F250" t="s">
+        <v>665</v>
+      </c>
+      <c r="G250" t="s">
+        <v>667</v>
+      </c>
+      <c r="H250" t="s">
+        <v>668</v>
+      </c>
+      <c r="I250" t="s">
+        <v>566</v>
+      </c>
+      <c r="J250" t="s">
+        <v>360</v>
+      </c>
+      <c r="K250" t="s">
+        <v>34</v>
+      </c>
+      <c r="L250" t="s">
+        <v>218</v>
+      </c>
+      <c r="M250" t="s">
+        <v>75</v>
+      </c>
+      <c r="N250" t="s">
+        <v>420</v>
+      </c>
+      <c r="O250" t="s">
+        <v>74</v>
+      </c>
+      <c r="P250" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>226</v>
+      </c>
+      <c r="R250" t="s">
+        <v>536</v>
+      </c>
+      <c r="S250" t="s">
+        <v>366</v>
+      </c>
+      <c r="T250" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>660</v>
+      </c>
+      <c r="B251" t="s">
+        <v>661</v>
+      </c>
+      <c r="C251" t="s">
+        <v>662</v>
+      </c>
+      <c r="D251" t="s">
+        <v>663</v>
+      </c>
+      <c r="E251" t="s">
+        <v>664</v>
+      </c>
+      <c r="F251" t="s">
+        <v>665</v>
+      </c>
+      <c r="G251" t="s">
+        <v>667</v>
+      </c>
+      <c r="H251" t="s">
+        <v>668</v>
+      </c>
+      <c r="I251" t="s">
+        <v>566</v>
+      </c>
+      <c r="J251" t="s">
+        <v>360</v>
+      </c>
+      <c r="K251" t="s">
+        <v>34</v>
+      </c>
+      <c r="L251" t="s">
+        <v>218</v>
+      </c>
+      <c r="M251" t="s">
+        <v>75</v>
+      </c>
+      <c r="N251" t="s">
+        <v>420</v>
+      </c>
+      <c r="O251" t="s">
+        <v>74</v>
+      </c>
+      <c r="P251" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>226</v>
+      </c>
+      <c r="R251" t="s">
+        <v>536</v>
+      </c>
+      <c r="S251" t="s">
+        <v>366</v>
+      </c>
+      <c r="T251" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>660</v>
+      </c>
+      <c r="B252" t="s">
+        <v>661</v>
+      </c>
+      <c r="C252" t="s">
+        <v>662</v>
+      </c>
+      <c r="D252" t="s">
+        <v>663</v>
+      </c>
+      <c r="E252" t="s">
+        <v>664</v>
+      </c>
+      <c r="F252" t="s">
+        <v>665</v>
+      </c>
+      <c r="G252" t="s">
+        <v>667</v>
+      </c>
+      <c r="H252" t="s">
+        <v>668</v>
+      </c>
+      <c r="I252" t="s">
+        <v>566</v>
+      </c>
+      <c r="J252" t="s">
+        <v>360</v>
+      </c>
+      <c r="K252" t="s">
+        <v>34</v>
+      </c>
+      <c r="L252" t="s">
+        <v>218</v>
+      </c>
+      <c r="M252" t="s">
+        <v>75</v>
+      </c>
+      <c r="N252" t="s">
+        <v>420</v>
+      </c>
+      <c r="O252" t="s">
+        <v>74</v>
+      </c>
+      <c r="P252" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>226</v>
+      </c>
+      <c r="R252" t="s">
+        <v>536</v>
+      </c>
+      <c r="S252" t="s">
+        <v>366</v>
+      </c>
+      <c r="T252" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>660</v>
+      </c>
+      <c r="B253" t="s">
+        <v>661</v>
+      </c>
+      <c r="C253" t="s">
+        <v>662</v>
+      </c>
+      <c r="D253" t="s">
+        <v>663</v>
+      </c>
+      <c r="E253" t="s">
+        <v>664</v>
+      </c>
+      <c r="F253" t="s">
+        <v>665</v>
+      </c>
+      <c r="G253" t="s">
+        <v>667</v>
+      </c>
+      <c r="H253" t="s">
+        <v>668</v>
+      </c>
+      <c r="I253" t="s">
+        <v>566</v>
+      </c>
+      <c r="J253" t="s">
+        <v>360</v>
+      </c>
+      <c r="K253" t="s">
+        <v>34</v>
+      </c>
+      <c r="L253" t="s">
+        <v>218</v>
+      </c>
+      <c r="M253" t="s">
+        <v>75</v>
+      </c>
+      <c r="N253" t="s">
+        <v>420</v>
+      </c>
+      <c r="O253" t="s">
+        <v>74</v>
+      </c>
+      <c r="P253" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>226</v>
+      </c>
+      <c r="R253" t="s">
+        <v>536</v>
+      </c>
+      <c r="S253" t="s">
+        <v>366</v>
+      </c>
+      <c r="T253" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7717" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7983" uniqueCount="709">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -2536,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V448"/>
+  <dimension ref="A1:V463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M338" workbookViewId="0">
-      <selection activeCell="O351" sqref="O351"/>
+    <sheetView tabSelected="1" topLeftCell="O356" workbookViewId="0">
+      <selection activeCell="S373" sqref="S373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21469,7 +21469,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>482</v>
       </c>
@@ -21528,7 +21528,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>482</v>
       </c>
@@ -21587,7 +21587,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>482</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>482</v>
       </c>
@@ -21705,7 +21705,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>482</v>
       </c>
@@ -21764,7 +21764,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>482</v>
       </c>
@@ -21823,4695 +21823,5521 @@
         <v>497</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F361" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="G361" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H361" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I361" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="J361" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="K361" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="L361" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="M361" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="N361" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="O361" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="P361" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q361" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="R361" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="S361" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="T361" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>482</v>
+      </c>
+      <c r="B360" t="s">
+        <v>216</v>
+      </c>
+      <c r="C360" t="s">
+        <v>499</v>
+      </c>
+      <c r="D360" t="s">
+        <v>484</v>
+      </c>
+      <c r="E360" t="s">
+        <v>485</v>
+      </c>
+      <c r="F360" t="s">
+        <v>486</v>
+      </c>
+      <c r="G360" t="s">
+        <v>487</v>
+      </c>
+      <c r="H360" t="s">
+        <v>501</v>
+      </c>
+      <c r="I360" t="s">
+        <v>488</v>
+      </c>
+      <c r="J360" t="s">
+        <v>489</v>
+      </c>
+      <c r="K360" t="s">
+        <v>490</v>
+      </c>
+      <c r="L360" t="s">
+        <v>491</v>
+      </c>
+      <c r="M360" t="s">
+        <v>492</v>
+      </c>
+      <c r="N360" t="s">
+        <v>498</v>
+      </c>
+      <c r="O360" t="s">
+        <v>493</v>
+      </c>
+      <c r="P360" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q360" t="s">
+        <v>495</v>
+      </c>
+      <c r="R360" t="s">
+        <v>496</v>
+      </c>
+      <c r="S360" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>482</v>
+      </c>
+      <c r="B361" t="s">
+        <v>216</v>
+      </c>
+      <c r="C361" t="s">
+        <v>499</v>
+      </c>
+      <c r="D361" t="s">
+        <v>484</v>
+      </c>
+      <c r="E361" t="s">
+        <v>485</v>
+      </c>
+      <c r="F361" t="s">
+        <v>486</v>
+      </c>
+      <c r="G361" t="s">
+        <v>487</v>
+      </c>
+      <c r="H361" t="s">
+        <v>501</v>
+      </c>
+      <c r="I361" t="s">
+        <v>488</v>
+      </c>
+      <c r="J361" t="s">
+        <v>489</v>
+      </c>
+      <c r="K361" t="s">
+        <v>490</v>
+      </c>
+      <c r="L361" t="s">
+        <v>491</v>
+      </c>
+      <c r="M361" t="s">
+        <v>492</v>
+      </c>
+      <c r="N361" t="s">
+        <v>498</v>
+      </c>
+      <c r="O361" t="s">
+        <v>493</v>
+      </c>
+      <c r="P361" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>495</v>
+      </c>
+      <c r="R361" t="s">
+        <v>496</v>
+      </c>
+      <c r="S361" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="B362" t="s">
-        <v>522</v>
+        <v>216</v>
       </c>
       <c r="C362" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="D362" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="E362" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="F362" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="G362" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="H362" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="I362" t="s">
+        <v>488</v>
+      </c>
+      <c r="J362" t="s">
+        <v>489</v>
+      </c>
+      <c r="K362" t="s">
+        <v>490</v>
+      </c>
+      <c r="L362" t="s">
+        <v>491</v>
+      </c>
+      <c r="M362" t="s">
+        <v>492</v>
+      </c>
+      <c r="N362" t="s">
+        <v>498</v>
+      </c>
+      <c r="O362" t="s">
+        <v>493</v>
+      </c>
+      <c r="P362" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q362" t="s">
+        <v>495</v>
+      </c>
+      <c r="R362" t="s">
+        <v>496</v>
+      </c>
+      <c r="S362" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>482</v>
+      </c>
+      <c r="B363" t="s">
+        <v>216</v>
+      </c>
+      <c r="C363" t="s">
+        <v>499</v>
+      </c>
+      <c r="D363" t="s">
+        <v>484</v>
+      </c>
+      <c r="E363" t="s">
         <v>485</v>
       </c>
-      <c r="J362" t="s">
-        <v>528</v>
-      </c>
-      <c r="K362" t="s">
-        <v>529</v>
-      </c>
-      <c r="L362" t="s">
-        <v>530</v>
-      </c>
-      <c r="M362" t="s">
-        <v>531</v>
-      </c>
-      <c r="N362" t="s">
-        <v>532</v>
-      </c>
-      <c r="O362" t="s">
-        <v>533</v>
-      </c>
-      <c r="P362" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q362" t="s">
-        <v>535</v>
-      </c>
-      <c r="R362" t="s">
-        <v>536</v>
-      </c>
-      <c r="S362" t="s">
-        <v>537</v>
-      </c>
-      <c r="T362" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>521</v>
-      </c>
-      <c r="B363" t="s">
-        <v>522</v>
-      </c>
-      <c r="C363" t="s">
-        <v>523</v>
-      </c>
-      <c r="D363" t="s">
-        <v>524</v>
-      </c>
-      <c r="E363" t="s">
-        <v>525</v>
-      </c>
       <c r="F363" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="G363" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="H363" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="I363" t="s">
+        <v>488</v>
+      </c>
+      <c r="J363" t="s">
+        <v>489</v>
+      </c>
+      <c r="K363" t="s">
+        <v>490</v>
+      </c>
+      <c r="L363" t="s">
+        <v>491</v>
+      </c>
+      <c r="M363" t="s">
+        <v>492</v>
+      </c>
+      <c r="N363" t="s">
+        <v>498</v>
+      </c>
+      <c r="O363" t="s">
+        <v>493</v>
+      </c>
+      <c r="P363" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q363" t="s">
+        <v>495</v>
+      </c>
+      <c r="R363" t="s">
+        <v>496</v>
+      </c>
+      <c r="S363" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>482</v>
+      </c>
+      <c r="B364" t="s">
+        <v>216</v>
+      </c>
+      <c r="C364" t="s">
+        <v>499</v>
+      </c>
+      <c r="D364" t="s">
+        <v>484</v>
+      </c>
+      <c r="E364" t="s">
         <v>485</v>
       </c>
-      <c r="J363" t="s">
-        <v>528</v>
-      </c>
-      <c r="K363" t="s">
-        <v>529</v>
-      </c>
-      <c r="L363" t="s">
-        <v>530</v>
-      </c>
-      <c r="M363" t="s">
-        <v>531</v>
-      </c>
-      <c r="N363" t="s">
-        <v>532</v>
-      </c>
-      <c r="O363" t="s">
-        <v>533</v>
-      </c>
-      <c r="P363" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q363" t="s">
-        <v>535</v>
-      </c>
-      <c r="R363" t="s">
-        <v>536</v>
-      </c>
-      <c r="S363" t="s">
-        <v>537</v>
-      </c>
-      <c r="T363" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>521</v>
-      </c>
-      <c r="B364" t="s">
-        <v>522</v>
-      </c>
-      <c r="C364" t="s">
-        <v>523</v>
-      </c>
-      <c r="D364" t="s">
-        <v>524</v>
-      </c>
-      <c r="E364" t="s">
-        <v>525</v>
-      </c>
       <c r="F364" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="G364" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="H364" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="I364" t="s">
+        <v>488</v>
+      </c>
+      <c r="J364" t="s">
+        <v>489</v>
+      </c>
+      <c r="K364" t="s">
+        <v>490</v>
+      </c>
+      <c r="L364" t="s">
+        <v>491</v>
+      </c>
+      <c r="M364" t="s">
+        <v>492</v>
+      </c>
+      <c r="N364" t="s">
+        <v>498</v>
+      </c>
+      <c r="O364" t="s">
+        <v>493</v>
+      </c>
+      <c r="P364" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>495</v>
+      </c>
+      <c r="R364" t="s">
+        <v>496</v>
+      </c>
+      <c r="S364" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>482</v>
+      </c>
+      <c r="B365" t="s">
+        <v>216</v>
+      </c>
+      <c r="C365" t="s">
+        <v>499</v>
+      </c>
+      <c r="D365" t="s">
+        <v>484</v>
+      </c>
+      <c r="E365" t="s">
         <v>485</v>
       </c>
-      <c r="J364" t="s">
-        <v>528</v>
-      </c>
-      <c r="K364" t="s">
-        <v>529</v>
-      </c>
-      <c r="L364" t="s">
-        <v>530</v>
-      </c>
-      <c r="M364" t="s">
-        <v>531</v>
-      </c>
-      <c r="N364" t="s">
-        <v>532</v>
-      </c>
-      <c r="O364" t="s">
-        <v>533</v>
-      </c>
-      <c r="P364" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q364" t="s">
-        <v>535</v>
-      </c>
-      <c r="R364" t="s">
-        <v>536</v>
-      </c>
-      <c r="S364" t="s">
-        <v>537</v>
-      </c>
-      <c r="T364" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>521</v>
-      </c>
-      <c r="B365" t="s">
-        <v>522</v>
-      </c>
-      <c r="C365" t="s">
-        <v>523</v>
-      </c>
-      <c r="D365" t="s">
-        <v>524</v>
-      </c>
-      <c r="E365" t="s">
-        <v>525</v>
-      </c>
       <c r="F365" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="G365" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="H365" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="I365" t="s">
+        <v>488</v>
+      </c>
+      <c r="J365" t="s">
+        <v>489</v>
+      </c>
+      <c r="K365" t="s">
+        <v>490</v>
+      </c>
+      <c r="L365" t="s">
+        <v>491</v>
+      </c>
+      <c r="M365" t="s">
+        <v>492</v>
+      </c>
+      <c r="N365" t="s">
+        <v>498</v>
+      </c>
+      <c r="O365" t="s">
+        <v>493</v>
+      </c>
+      <c r="P365" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q365" t="s">
+        <v>495</v>
+      </c>
+      <c r="R365" t="s">
+        <v>496</v>
+      </c>
+      <c r="S365" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>482</v>
+      </c>
+      <c r="B366" t="s">
+        <v>216</v>
+      </c>
+      <c r="C366" t="s">
+        <v>499</v>
+      </c>
+      <c r="D366" t="s">
+        <v>484</v>
+      </c>
+      <c r="E366" t="s">
         <v>485</v>
       </c>
-      <c r="J365" t="s">
-        <v>528</v>
-      </c>
-      <c r="K365" t="s">
-        <v>529</v>
-      </c>
-      <c r="L365" t="s">
-        <v>530</v>
-      </c>
-      <c r="M365" t="s">
-        <v>531</v>
-      </c>
-      <c r="N365" t="s">
-        <v>532</v>
-      </c>
-      <c r="O365" t="s">
-        <v>533</v>
-      </c>
-      <c r="P365" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q365" t="s">
-        <v>535</v>
-      </c>
-      <c r="R365" t="s">
-        <v>536</v>
-      </c>
-      <c r="S365" t="s">
-        <v>537</v>
-      </c>
-      <c r="T365" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>521</v>
-      </c>
-      <c r="B366" t="s">
-        <v>522</v>
-      </c>
-      <c r="C366" t="s">
-        <v>523</v>
-      </c>
-      <c r="D366" t="s">
-        <v>524</v>
-      </c>
-      <c r="E366" t="s">
-        <v>525</v>
-      </c>
       <c r="F366" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="G366" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="H366" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="I366" t="s">
+        <v>488</v>
+      </c>
+      <c r="J366" t="s">
+        <v>489</v>
+      </c>
+      <c r="K366" t="s">
+        <v>490</v>
+      </c>
+      <c r="L366" t="s">
+        <v>491</v>
+      </c>
+      <c r="M366" t="s">
+        <v>492</v>
+      </c>
+      <c r="N366" t="s">
+        <v>498</v>
+      </c>
+      <c r="O366" t="s">
+        <v>493</v>
+      </c>
+      <c r="P366" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>495</v>
+      </c>
+      <c r="R366" t="s">
+        <v>496</v>
+      </c>
+      <c r="S366" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>482</v>
+      </c>
+      <c r="B367" t="s">
+        <v>216</v>
+      </c>
+      <c r="C367" t="s">
+        <v>499</v>
+      </c>
+      <c r="D367" t="s">
+        <v>484</v>
+      </c>
+      <c r="E367" t="s">
         <v>485</v>
       </c>
-      <c r="J366" t="s">
-        <v>528</v>
-      </c>
-      <c r="K366" t="s">
-        <v>529</v>
-      </c>
-      <c r="L366" t="s">
-        <v>530</v>
-      </c>
-      <c r="M366" t="s">
-        <v>531</v>
-      </c>
-      <c r="N366" t="s">
-        <v>532</v>
-      </c>
-      <c r="O366" t="s">
-        <v>533</v>
-      </c>
-      <c r="P366" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q366" t="s">
-        <v>535</v>
-      </c>
-      <c r="R366" t="s">
-        <v>536</v>
-      </c>
-      <c r="S366" t="s">
-        <v>537</v>
-      </c>
-      <c r="T366" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>521</v>
-      </c>
-      <c r="B367" t="s">
-        <v>522</v>
-      </c>
-      <c r="C367" t="s">
-        <v>523</v>
-      </c>
-      <c r="D367" t="s">
-        <v>524</v>
-      </c>
-      <c r="E367" t="s">
-        <v>525</v>
-      </c>
       <c r="F367" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="G367" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="H367" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="I367" t="s">
+        <v>488</v>
+      </c>
+      <c r="J367" t="s">
+        <v>489</v>
+      </c>
+      <c r="K367" t="s">
+        <v>490</v>
+      </c>
+      <c r="L367" t="s">
+        <v>491</v>
+      </c>
+      <c r="M367" t="s">
+        <v>492</v>
+      </c>
+      <c r="N367" t="s">
+        <v>498</v>
+      </c>
+      <c r="O367" t="s">
+        <v>493</v>
+      </c>
+      <c r="P367" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>495</v>
+      </c>
+      <c r="R367" t="s">
+        <v>496</v>
+      </c>
+      <c r="S367" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>482</v>
+      </c>
+      <c r="B368" t="s">
+        <v>216</v>
+      </c>
+      <c r="C368" t="s">
+        <v>499</v>
+      </c>
+      <c r="D368" t="s">
+        <v>484</v>
+      </c>
+      <c r="E368" t="s">
         <v>485</v>
       </c>
-      <c r="J367" t="s">
-        <v>528</v>
-      </c>
-      <c r="K367" t="s">
-        <v>529</v>
-      </c>
-      <c r="L367" t="s">
-        <v>530</v>
-      </c>
-      <c r="M367" t="s">
-        <v>531</v>
-      </c>
-      <c r="N367" t="s">
-        <v>532</v>
-      </c>
-      <c r="O367" t="s">
-        <v>533</v>
-      </c>
-      <c r="P367" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q367" t="s">
-        <v>535</v>
-      </c>
-      <c r="R367" t="s">
-        <v>536</v>
-      </c>
-      <c r="S367" t="s">
-        <v>537</v>
-      </c>
-      <c r="T367" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>521</v>
-      </c>
-      <c r="B368" t="s">
-        <v>522</v>
-      </c>
-      <c r="C368" t="s">
-        <v>523</v>
-      </c>
-      <c r="D368" t="s">
-        <v>524</v>
-      </c>
-      <c r="E368" t="s">
-        <v>525</v>
-      </c>
       <c r="F368" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="G368" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="H368" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="I368" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="J368" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="K368" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="L368" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="M368" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="N368" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="O368" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="P368" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="Q368" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="R368" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="S368" t="s">
-        <v>537</v>
-      </c>
-      <c r="T368" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
     </row>
     <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="B369" t="s">
-        <v>522</v>
+        <v>216</v>
       </c>
       <c r="C369" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="D369" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="E369" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="F369" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="G369" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="H369" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="I369" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="J369" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="K369" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="L369" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="M369" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="N369" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="O369" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="P369" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="Q369" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="R369" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="S369" t="s">
-        <v>537</v>
-      </c>
-      <c r="T369" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
     </row>
     <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="B370" t="s">
-        <v>522</v>
+        <v>216</v>
       </c>
       <c r="C370" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="D370" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="E370" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="F370" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="G370" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="H370" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="I370" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="J370" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="K370" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="L370" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="M370" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="N370" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="O370" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="P370" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="Q370" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="R370" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="S370" t="s">
-        <v>537</v>
-      </c>
-      <c r="T370" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
     </row>
     <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="B371" t="s">
-        <v>522</v>
+        <v>216</v>
       </c>
       <c r="C371" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="D371" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="E371" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="F371" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="G371" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="H371" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="I371" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="J371" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="K371" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="L371" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="M371" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="N371" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="O371" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="P371" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="Q371" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="R371" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="S371" t="s">
-        <v>537</v>
-      </c>
-      <c r="T371" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
     </row>
     <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="B372" t="s">
-        <v>522</v>
+        <v>216</v>
       </c>
       <c r="C372" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="D372" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="E372" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="F372" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="G372" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="H372" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="I372" t="s">
+        <v>488</v>
+      </c>
+      <c r="J372" t="s">
+        <v>489</v>
+      </c>
+      <c r="K372" t="s">
+        <v>490</v>
+      </c>
+      <c r="L372" t="s">
+        <v>491</v>
+      </c>
+      <c r="M372" t="s">
+        <v>492</v>
+      </c>
+      <c r="N372" t="s">
+        <v>498</v>
+      </c>
+      <c r="O372" t="s">
+        <v>493</v>
+      </c>
+      <c r="P372" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q372" t="s">
+        <v>495</v>
+      </c>
+      <c r="R372" t="s">
+        <v>496</v>
+      </c>
+      <c r="S372" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>482</v>
+      </c>
+      <c r="B373" t="s">
+        <v>216</v>
+      </c>
+      <c r="C373" t="s">
+        <v>499</v>
+      </c>
+      <c r="D373" t="s">
+        <v>484</v>
+      </c>
+      <c r="E373" t="s">
         <v>485</v>
       </c>
-      <c r="J372" t="s">
-        <v>528</v>
-      </c>
-      <c r="K372" t="s">
-        <v>529</v>
-      </c>
-      <c r="L372" t="s">
-        <v>530</v>
-      </c>
-      <c r="M372" t="s">
-        <v>531</v>
-      </c>
-      <c r="N372" t="s">
-        <v>532</v>
-      </c>
-      <c r="O372" t="s">
-        <v>533</v>
-      </c>
-      <c r="P372" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q372" t="s">
-        <v>535</v>
-      </c>
-      <c r="R372" t="s">
-        <v>536</v>
-      </c>
-      <c r="S372" t="s">
-        <v>537</v>
-      </c>
-      <c r="T372" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="375" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A375" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D375" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F375" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G375" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H375" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I375" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="J375" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="K375" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="L375" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="M375" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="N375" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="O375" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="P375" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q375" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="R375" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="S375" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="T375" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>559</v>
-      </c>
-      <c r="B376" t="s">
-        <v>560</v>
-      </c>
-      <c r="C376" t="s">
-        <v>561</v>
-      </c>
-      <c r="D376" t="s">
-        <v>562</v>
-      </c>
-      <c r="E376" t="s">
-        <v>563</v>
-      </c>
-      <c r="F376" t="s">
-        <v>564</v>
-      </c>
-      <c r="G376" t="s">
-        <v>565</v>
-      </c>
-      <c r="H376" t="s">
-        <v>566</v>
-      </c>
-      <c r="I376" t="s">
-        <v>567</v>
-      </c>
-      <c r="J376" t="s">
-        <v>113</v>
-      </c>
-      <c r="K376" t="s">
-        <v>568</v>
-      </c>
-      <c r="L376" t="s">
-        <v>569</v>
-      </c>
-      <c r="M376" t="s">
-        <v>570</v>
-      </c>
-      <c r="N376" t="s">
-        <v>571</v>
-      </c>
-      <c r="O376" t="s">
-        <v>572</v>
-      </c>
-      <c r="P376" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q376" t="s">
-        <v>574</v>
-      </c>
-      <c r="R376" t="s">
-        <v>575</v>
-      </c>
-      <c r="S376" t="s">
-        <v>576</v>
-      </c>
-      <c r="T376" t="s">
-        <v>577</v>
+      <c r="F373" t="s">
+        <v>486</v>
+      </c>
+      <c r="G373" t="s">
+        <v>487</v>
+      </c>
+      <c r="H373" t="s">
+        <v>501</v>
+      </c>
+      <c r="I373" t="s">
+        <v>488</v>
+      </c>
+      <c r="J373" t="s">
+        <v>489</v>
+      </c>
+      <c r="K373" t="s">
+        <v>490</v>
+      </c>
+      <c r="L373" t="s">
+        <v>491</v>
+      </c>
+      <c r="M373" t="s">
+        <v>492</v>
+      </c>
+      <c r="N373" t="s">
+        <v>498</v>
+      </c>
+      <c r="O373" t="s">
+        <v>493</v>
+      </c>
+      <c r="P373" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q373" t="s">
+        <v>495</v>
+      </c>
+      <c r="R373" t="s">
+        <v>496</v>
+      </c>
+      <c r="S373" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I376" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J376" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K376" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="L376" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="M376" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="N376" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="O376" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="P376" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q376" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="R376" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="S376" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="T376" s="1" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B377" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C377" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D377" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E377" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F377" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G377" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H377" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I377" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J377" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K377" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L377" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M377" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N377" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="O377" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P377" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q377" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R377" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S377" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T377" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B378" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C378" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D378" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E378" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F378" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G378" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H378" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I378" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J378" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K378" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L378" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M378" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N378" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="O378" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P378" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q378" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R378" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S378" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T378" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B379" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C379" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D379" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E379" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F379" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G379" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H379" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I379" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J379" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K379" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L379" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M379" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N379" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="O379" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P379" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q379" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R379" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S379" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T379" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B380" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C380" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D380" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E380" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F380" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G380" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H380" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I380" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J380" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K380" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L380" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M380" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N380" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="O380" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P380" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q380" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R380" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S380" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T380" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B381" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C381" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D381" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E381" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F381" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G381" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H381" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I381" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J381" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K381" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L381" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M381" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N381" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="O381" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P381" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q381" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R381" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S381" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T381" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B382" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C382" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D382" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E382" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F382" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G382" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H382" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I382" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J382" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K382" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L382" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M382" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N382" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="O382" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P382" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q382" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R382" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S382" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T382" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B383" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C383" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D383" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E383" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F383" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G383" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H383" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I383" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J383" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K383" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L383" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M383" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N383" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="O383" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P383" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q383" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R383" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S383" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T383" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B384" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C384" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D384" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E384" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F384" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G384" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H384" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I384" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J384" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K384" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L384" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M384" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N384" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="O384" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P384" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q384" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R384" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S384" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T384" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B385" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C385" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D385" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E385" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F385" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G385" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H385" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I385" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J385" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K385" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L385" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M385" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N385" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="O385" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P385" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q385" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R385" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S385" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T385" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B386" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C386" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D386" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E386" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F386" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G386" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H386" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I386" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J386" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K386" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L386" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M386" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N386" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="O386" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P386" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q386" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R386" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S386" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T386" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B387" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C387" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D387" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E387" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F387" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G387" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H387" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I387" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J387" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K387" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L387" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M387" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N387" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="O387" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P387" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q387" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R387" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S387" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T387" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="390" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A390" s="1" t="s">
-        <v>578</v>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="390" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>582</v>
+        <v>541</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="F390" s="2" t="s">
-        <v>590</v>
+        <v>543</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>587</v>
+        <v>545</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>585</v>
+        <v>546</v>
       </c>
       <c r="J390" s="1" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="K390" s="1" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="L390" s="1" t="s">
-        <v>589</v>
+        <v>550</v>
       </c>
       <c r="M390" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="N390" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="O390" s="2" t="s">
-        <v>592</v>
+        <v>551</v>
+      </c>
+      <c r="N390" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O390" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="P390" s="1" t="s">
-        <v>593</v>
+        <v>553</v>
+      </c>
+      <c r="Q390" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="R390" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="S390" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="T390" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B391" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C391" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D391" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E391" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F391" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G391" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H391" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I391" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J391" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K391" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L391" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="M391" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N391" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O391" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P391" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>574</v>
+      </c>
+      <c r="R391" t="s">
+        <v>575</v>
+      </c>
+      <c r="S391" t="s">
+        <v>576</v>
+      </c>
+      <c r="T391" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B392" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C392" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D392" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E392" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F392" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G392" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H392" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I392" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J392" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K392" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L392" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M392" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N392" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O392" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P392" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q392" t="s">
+        <v>574</v>
+      </c>
+      <c r="R392" t="s">
+        <v>575</v>
+      </c>
+      <c r="S392" t="s">
+        <v>576</v>
+      </c>
+      <c r="T392" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B393" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C393" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D393" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E393" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F393" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G393" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H393" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I393" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J393" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K393" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L393" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M393" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N393" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O393" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P393" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>574</v>
+      </c>
+      <c r="R393" t="s">
+        <v>575</v>
+      </c>
+      <c r="S393" t="s">
+        <v>576</v>
+      </c>
+      <c r="T393" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B394" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C394" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D394" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E394" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F394" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G394" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H394" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I394" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J394" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K394" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L394" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M394" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N394" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O394" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P394" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q394" t="s">
+        <v>574</v>
+      </c>
+      <c r="R394" t="s">
+        <v>575</v>
+      </c>
+      <c r="S394" t="s">
+        <v>576</v>
+      </c>
+      <c r="T394" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B395" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C395" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D395" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E395" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F395" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G395" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H395" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I395" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J395" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K395" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L395" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M395" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N395" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O395" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P395" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q395" t="s">
+        <v>574</v>
+      </c>
+      <c r="R395" t="s">
+        <v>575</v>
+      </c>
+      <c r="S395" t="s">
+        <v>576</v>
+      </c>
+      <c r="T395" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B396" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C396" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D396" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E396" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F396" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G396" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H396" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I396" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J396" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K396" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L396" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M396" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N396" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O396" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P396" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q396" t="s">
+        <v>574</v>
+      </c>
+      <c r="R396" t="s">
+        <v>575</v>
+      </c>
+      <c r="S396" t="s">
+        <v>576</v>
+      </c>
+      <c r="T396" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B397" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C397" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D397" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E397" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F397" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G397" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H397" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I397" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J397" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K397" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L397" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M397" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N397" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O397" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P397" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>574</v>
+      </c>
+      <c r="R397" t="s">
+        <v>575</v>
+      </c>
+      <c r="S397" t="s">
+        <v>576</v>
+      </c>
+      <c r="T397" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B398" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C398" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D398" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E398" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F398" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G398" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H398" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I398" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J398" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K398" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L398" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M398" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N398" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O398" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P398" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>574</v>
+      </c>
+      <c r="R398" t="s">
+        <v>575</v>
+      </c>
+      <c r="S398" t="s">
+        <v>576</v>
+      </c>
+      <c r="T398" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B399" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C399" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D399" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E399" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F399" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G399" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H399" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I399" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J399" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K399" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L399" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M399" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N399" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O399" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P399" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q399" t="s">
+        <v>574</v>
+      </c>
+      <c r="R399" t="s">
+        <v>575</v>
+      </c>
+      <c r="S399" t="s">
+        <v>576</v>
+      </c>
+      <c r="T399" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B400" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C400" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D400" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E400" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F400" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G400" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H400" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I400" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J400" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K400" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L400" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M400" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N400" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O400" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P400" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q400" t="s">
+        <v>574</v>
+      </c>
+      <c r="R400" t="s">
+        <v>575</v>
+      </c>
+      <c r="S400" t="s">
+        <v>576</v>
+      </c>
+      <c r="T400" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B401" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C401" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D401" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E401" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F401" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G401" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H401" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I401" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J401" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K401" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L401" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M401" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N401" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O401" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P401" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>611</v>
-      </c>
-      <c r="B404" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="C404" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="D404" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="E404" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="F404" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G404" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="H404" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="I404" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="J404" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="K404" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="L404" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="M404" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="N404" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="O404" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="P404" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q404" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="R404" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="S404" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="T404" s="5" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>630</v>
-      </c>
-      <c r="B405" t="s">
-        <v>631</v>
-      </c>
-      <c r="C405" t="s">
-        <v>632</v>
-      </c>
-      <c r="D405" t="s">
-        <v>320</v>
-      </c>
-      <c r="E405" t="s">
-        <v>633</v>
-      </c>
-      <c r="F405" t="s">
-        <v>73</v>
-      </c>
-      <c r="G405" t="s">
-        <v>634</v>
-      </c>
-      <c r="H405" t="s">
-        <v>635</v>
-      </c>
-      <c r="I405" t="s">
-        <v>637</v>
-      </c>
-      <c r="J405" t="s">
-        <v>638</v>
-      </c>
-      <c r="K405" t="s">
-        <v>639</v>
-      </c>
-      <c r="L405" t="s">
-        <v>640</v>
-      </c>
-      <c r="M405" t="s">
-        <v>641</v>
-      </c>
-      <c r="N405" t="s">
-        <v>642</v>
-      </c>
-      <c r="O405" t="s">
-        <v>643</v>
-      </c>
-      <c r="P405" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q405" t="s">
-        <v>645</v>
-      </c>
-      <c r="R405" t="s">
-        <v>646</v>
-      </c>
-      <c r="S405" t="s">
-        <v>648</v>
-      </c>
-      <c r="T405" t="s">
-        <v>649</v>
+        <v>573</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>574</v>
+      </c>
+      <c r="R401" t="s">
+        <v>575</v>
+      </c>
+      <c r="S401" t="s">
+        <v>576</v>
+      </c>
+      <c r="T401" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>559</v>
+      </c>
+      <c r="B402" t="s">
+        <v>560</v>
+      </c>
+      <c r="C402" t="s">
+        <v>561</v>
+      </c>
+      <c r="D402" t="s">
+        <v>562</v>
+      </c>
+      <c r="E402" t="s">
+        <v>563</v>
+      </c>
+      <c r="F402" t="s">
+        <v>564</v>
+      </c>
+      <c r="G402" t="s">
+        <v>565</v>
+      </c>
+      <c r="H402" t="s">
+        <v>566</v>
+      </c>
+      <c r="I402" t="s">
+        <v>567</v>
+      </c>
+      <c r="J402" t="s">
+        <v>113</v>
+      </c>
+      <c r="K402" t="s">
+        <v>568</v>
+      </c>
+      <c r="L402" t="s">
+        <v>569</v>
+      </c>
+      <c r="M402" t="s">
+        <v>570</v>
+      </c>
+      <c r="N402" t="s">
+        <v>571</v>
+      </c>
+      <c r="O402" t="s">
+        <v>572</v>
+      </c>
+      <c r="P402" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>574</v>
+      </c>
+      <c r="R402" t="s">
+        <v>575</v>
+      </c>
+      <c r="S402" t="s">
+        <v>576</v>
+      </c>
+      <c r="T402" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="405" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I405" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="J405" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="K405" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="L405" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="M405" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="N405" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="O405" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="P405" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="406" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="B406" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="C406" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D406" t="s">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="E406" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="F406" t="s">
-        <v>73</v>
+        <v>599</v>
       </c>
       <c r="G406" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="H406" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="I406" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="J406" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="K406" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="L406" t="s">
-        <v>640</v>
+        <v>605</v>
       </c>
       <c r="M406" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="N406" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="O406" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="P406" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q406" t="s">
-        <v>645</v>
-      </c>
-      <c r="R406" t="s">
-        <v>647</v>
-      </c>
-      <c r="S406" t="s">
-        <v>648</v>
-      </c>
-      <c r="T406" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
     </row>
     <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="B407" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="C407" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D407" t="s">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="E407" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="F407" t="s">
-        <v>73</v>
+        <v>599</v>
       </c>
       <c r="G407" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="H407" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="I407" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="J407" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="K407" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="L407" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="M407" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="N407" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="O407" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="P407" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q407" t="s">
-        <v>645</v>
-      </c>
-      <c r="R407" t="s">
-        <v>647</v>
-      </c>
-      <c r="S407" t="s">
-        <v>648</v>
-      </c>
-      <c r="T407" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
     </row>
     <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="B408" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="C408" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D408" t="s">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="E408" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="F408" t="s">
-        <v>73</v>
+        <v>599</v>
       </c>
       <c r="G408" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="H408" t="s">
-        <v>636</v>
+        <v>601</v>
       </c>
       <c r="I408" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="J408" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="K408" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="L408" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="M408" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="N408" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="O408" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="P408" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q408" t="s">
-        <v>645</v>
-      </c>
-      <c r="R408" t="s">
-        <v>647</v>
-      </c>
-      <c r="S408" t="s">
-        <v>648</v>
-      </c>
-      <c r="T408" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
     </row>
     <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="B409" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="C409" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D409" t="s">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="E409" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="F409" t="s">
-        <v>73</v>
+        <v>599</v>
       </c>
       <c r="G409" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="H409" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="I409" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="J409" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="K409" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="L409" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="M409" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="N409" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="O409" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="P409" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q409" t="s">
-        <v>645</v>
-      </c>
-      <c r="R409" t="s">
-        <v>647</v>
-      </c>
-      <c r="S409" t="s">
-        <v>648</v>
-      </c>
-      <c r="T409" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
     </row>
     <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="B410" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="C410" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D410" t="s">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="E410" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="F410" t="s">
-        <v>73</v>
+        <v>599</v>
       </c>
       <c r="G410" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="H410" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="I410" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="J410" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="K410" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="L410" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="M410" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="N410" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="O410" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="P410" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q410" t="s">
-        <v>645</v>
-      </c>
-      <c r="R410" t="s">
-        <v>647</v>
-      </c>
-      <c r="S410" t="s">
-        <v>648</v>
-      </c>
-      <c r="T410" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
     </row>
     <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="B411" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="C411" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D411" t="s">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="E411" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="F411" t="s">
-        <v>73</v>
+        <v>599</v>
       </c>
       <c r="G411" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="H411" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="I411" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="J411" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="K411" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="L411" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="M411" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="N411" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="O411" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="P411" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q411" t="s">
-        <v>645</v>
-      </c>
-      <c r="R411" t="s">
-        <v>647</v>
-      </c>
-      <c r="S411" t="s">
-        <v>648</v>
-      </c>
-      <c r="T411" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
     </row>
     <row r="412" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="B412" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="C412" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D412" t="s">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="E412" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="F412" t="s">
-        <v>73</v>
+        <v>599</v>
       </c>
       <c r="G412" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="H412" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="I412" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="J412" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="K412" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="L412" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="M412" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="N412" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="O412" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="P412" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q412" t="s">
-        <v>645</v>
-      </c>
-      <c r="R412" t="s">
-        <v>647</v>
-      </c>
-      <c r="S412" t="s">
-        <v>648</v>
-      </c>
-      <c r="T412" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
     </row>
     <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="B413" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="C413" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D413" t="s">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="E413" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="F413" t="s">
-        <v>73</v>
+        <v>599</v>
       </c>
       <c r="G413" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="H413" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="I413" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="J413" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="K413" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="L413" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="M413" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="N413" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="O413" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="P413" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q413" t="s">
-        <v>645</v>
-      </c>
-      <c r="R413" t="s">
-        <v>647</v>
-      </c>
-      <c r="S413" t="s">
-        <v>648</v>
-      </c>
-      <c r="T413" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
     </row>
     <row r="414" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="B414" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="C414" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D414" t="s">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="E414" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="F414" t="s">
-        <v>73</v>
+        <v>599</v>
       </c>
       <c r="G414" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="H414" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="I414" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="J414" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="K414" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="L414" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="M414" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="N414" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="O414" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="P414" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q414" t="s">
-        <v>645</v>
-      </c>
-      <c r="R414" t="s">
-        <v>647</v>
-      </c>
-      <c r="S414" t="s">
-        <v>648</v>
-      </c>
-      <c r="T414" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
     </row>
     <row r="415" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="B415" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="C415" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D415" t="s">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="E415" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="F415" t="s">
-        <v>73</v>
+        <v>599</v>
       </c>
       <c r="G415" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="H415" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="I415" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="J415" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="K415" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="L415" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="M415" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="N415" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="O415" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="P415" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q415" t="s">
-        <v>645</v>
-      </c>
-      <c r="R415" t="s">
-        <v>647</v>
-      </c>
-      <c r="S415" t="s">
-        <v>648</v>
-      </c>
-      <c r="T415" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
     </row>
     <row r="416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="B416" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="C416" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D416" t="s">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="E416" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="F416" t="s">
-        <v>73</v>
+        <v>599</v>
       </c>
       <c r="G416" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="H416" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="I416" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="J416" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="K416" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="L416" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="M416" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="N416" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="O416" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="P416" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q416" t="s">
-        <v>645</v>
-      </c>
-      <c r="R416" t="s">
-        <v>647</v>
-      </c>
-      <c r="S416" t="s">
-        <v>648</v>
-      </c>
-      <c r="T416" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="419" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A419" s="5" t="s">
-        <v>650</v>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>611</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>651</v>
+        <v>612</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>652</v>
+        <v>613</v>
       </c>
       <c r="D419" s="5" t="s">
-        <v>653</v>
+        <v>614</v>
       </c>
       <c r="E419" s="5" t="s">
-        <v>654</v>
+        <v>615</v>
       </c>
       <c r="F419" s="5" t="s">
-        <v>655</v>
+        <v>54</v>
       </c>
       <c r="G419" s="5" t="s">
-        <v>656</v>
+        <v>616</v>
       </c>
       <c r="H419" s="5" t="s">
-        <v>657</v>
+        <v>617</v>
       </c>
       <c r="I419" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="J419" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="K419" t="s">
-        <v>34</v>
-      </c>
-      <c r="L419" t="s">
-        <v>216</v>
-      </c>
-      <c r="M419" t="s">
-        <v>75</v>
-      </c>
-      <c r="N419" t="s">
-        <v>418</v>
-      </c>
-      <c r="O419" t="s">
-        <v>74</v>
-      </c>
-      <c r="P419" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q419" t="s">
-        <v>224</v>
-      </c>
-      <c r="R419" t="s">
-        <v>534</v>
-      </c>
-      <c r="S419" t="s">
-        <v>364</v>
-      </c>
-      <c r="T419" t="s">
-        <v>493</v>
+        <v>618</v>
+      </c>
+      <c r="J419" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="K419" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="L419" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="M419" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="N419" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="O419" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="P419" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q419" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="R419" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="S419" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="T419" s="5" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="420" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="B420" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="C420" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="D420" t="s">
-        <v>661</v>
+        <v>320</v>
       </c>
       <c r="E420" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="F420" t="s">
-        <v>663</v>
+        <v>73</v>
       </c>
       <c r="G420" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="H420" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="I420" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J420" t="s">
-        <v>358</v>
+        <v>638</v>
       </c>
       <c r="K420" t="s">
-        <v>34</v>
+        <v>639</v>
       </c>
       <c r="L420" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="M420" t="s">
-        <v>75</v>
+        <v>641</v>
       </c>
       <c r="N420" t="s">
-        <v>418</v>
+        <v>642</v>
       </c>
       <c r="O420" t="s">
-        <v>74</v>
+        <v>643</v>
       </c>
       <c r="P420" t="s">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="Q420" t="s">
-        <v>224</v>
+        <v>645</v>
       </c>
       <c r="R420" t="s">
-        <v>534</v>
+        <v>646</v>
       </c>
       <c r="S420" t="s">
-        <v>364</v>
+        <v>648</v>
       </c>
       <c r="T420" t="s">
-        <v>493</v>
+        <v>649</v>
       </c>
     </row>
     <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="B421" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="C421" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="D421" t="s">
-        <v>661</v>
+        <v>320</v>
       </c>
       <c r="E421" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="F421" t="s">
-        <v>663</v>
+        <v>73</v>
       </c>
       <c r="G421" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="H421" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="I421" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J421" t="s">
-        <v>358</v>
+        <v>638</v>
       </c>
       <c r="K421" t="s">
-        <v>34</v>
+        <v>639</v>
       </c>
       <c r="L421" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="M421" t="s">
-        <v>75</v>
+        <v>641</v>
       </c>
       <c r="N421" t="s">
-        <v>418</v>
+        <v>642</v>
       </c>
       <c r="O421" t="s">
-        <v>74</v>
+        <v>643</v>
       </c>
       <c r="P421" t="s">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="Q421" t="s">
-        <v>224</v>
+        <v>645</v>
       </c>
       <c r="R421" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="S421" t="s">
-        <v>364</v>
+        <v>648</v>
       </c>
       <c r="T421" t="s">
-        <v>493</v>
+        <v>649</v>
       </c>
     </row>
     <row r="422" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="B422" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="C422" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="D422" t="s">
-        <v>661</v>
+        <v>320</v>
       </c>
       <c r="E422" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="F422" t="s">
-        <v>664</v>
+        <v>73</v>
       </c>
       <c r="G422" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="H422" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="I422" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J422" t="s">
-        <v>358</v>
+        <v>638</v>
       </c>
       <c r="K422" t="s">
-        <v>34</v>
+        <v>639</v>
       </c>
       <c r="L422" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="M422" t="s">
-        <v>75</v>
+        <v>641</v>
       </c>
       <c r="N422" t="s">
-        <v>418</v>
+        <v>642</v>
       </c>
       <c r="O422" t="s">
-        <v>74</v>
+        <v>643</v>
       </c>
       <c r="P422" t="s">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="Q422" t="s">
-        <v>224</v>
+        <v>645</v>
       </c>
       <c r="R422" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="S422" t="s">
-        <v>364</v>
+        <v>648</v>
       </c>
       <c r="T422" t="s">
-        <v>493</v>
+        <v>649</v>
       </c>
     </row>
     <row r="423" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="B423" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="C423" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="D423" t="s">
-        <v>661</v>
+        <v>320</v>
       </c>
       <c r="E423" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="F423" t="s">
-        <v>663</v>
+        <v>73</v>
       </c>
       <c r="G423" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="H423" t="s">
-        <v>666</v>
+        <v>636</v>
       </c>
       <c r="I423" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J423" t="s">
-        <v>358</v>
+        <v>638</v>
       </c>
       <c r="K423" t="s">
-        <v>34</v>
+        <v>639</v>
       </c>
       <c r="L423" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="M423" t="s">
-        <v>75</v>
+        <v>641</v>
       </c>
       <c r="N423" t="s">
-        <v>418</v>
+        <v>642</v>
       </c>
       <c r="O423" t="s">
-        <v>74</v>
+        <v>643</v>
       </c>
       <c r="P423" t="s">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="Q423" t="s">
-        <v>224</v>
+        <v>645</v>
       </c>
       <c r="R423" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="S423" t="s">
-        <v>364</v>
+        <v>648</v>
       </c>
       <c r="T423" t="s">
-        <v>493</v>
+        <v>649</v>
       </c>
     </row>
     <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="B424" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="C424" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="D424" t="s">
-        <v>661</v>
+        <v>320</v>
       </c>
       <c r="E424" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="F424" t="s">
-        <v>663</v>
+        <v>73</v>
       </c>
       <c r="G424" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="H424" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="I424" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J424" t="s">
-        <v>358</v>
+        <v>638</v>
       </c>
       <c r="K424" t="s">
-        <v>34</v>
+        <v>639</v>
       </c>
       <c r="L424" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="M424" t="s">
-        <v>75</v>
+        <v>641</v>
       </c>
       <c r="N424" t="s">
-        <v>418</v>
+        <v>642</v>
       </c>
       <c r="O424" t="s">
-        <v>74</v>
+        <v>643</v>
       </c>
       <c r="P424" t="s">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="Q424" t="s">
-        <v>224</v>
+        <v>645</v>
       </c>
       <c r="R424" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="S424" t="s">
-        <v>364</v>
+        <v>648</v>
       </c>
       <c r="T424" t="s">
-        <v>493</v>
+        <v>649</v>
       </c>
     </row>
     <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="B425" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="C425" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="D425" t="s">
-        <v>661</v>
+        <v>320</v>
       </c>
       <c r="E425" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="F425" t="s">
-        <v>663</v>
+        <v>73</v>
       </c>
       <c r="G425" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="H425" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="I425" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J425" t="s">
-        <v>358</v>
+        <v>638</v>
       </c>
       <c r="K425" t="s">
-        <v>34</v>
+        <v>639</v>
       </c>
       <c r="L425" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="M425" t="s">
-        <v>75</v>
+        <v>641</v>
       </c>
       <c r="N425" t="s">
-        <v>418</v>
+        <v>642</v>
       </c>
       <c r="O425" t="s">
-        <v>74</v>
+        <v>643</v>
       </c>
       <c r="P425" t="s">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="Q425" t="s">
-        <v>224</v>
+        <v>645</v>
       </c>
       <c r="R425" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="S425" t="s">
-        <v>364</v>
+        <v>648</v>
       </c>
       <c r="T425" t="s">
-        <v>493</v>
+        <v>649</v>
       </c>
     </row>
     <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="B426" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="C426" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="D426" t="s">
-        <v>661</v>
+        <v>320</v>
       </c>
       <c r="E426" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="F426" t="s">
-        <v>663</v>
+        <v>73</v>
       </c>
       <c r="G426" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="H426" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="I426" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J426" t="s">
-        <v>358</v>
+        <v>638</v>
       </c>
       <c r="K426" t="s">
-        <v>34</v>
+        <v>639</v>
       </c>
       <c r="L426" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="M426" t="s">
-        <v>75</v>
+        <v>641</v>
       </c>
       <c r="N426" t="s">
-        <v>418</v>
+        <v>642</v>
       </c>
       <c r="O426" t="s">
-        <v>74</v>
+        <v>643</v>
       </c>
       <c r="P426" t="s">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="Q426" t="s">
-        <v>224</v>
+        <v>645</v>
       </c>
       <c r="R426" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="S426" t="s">
-        <v>364</v>
+        <v>648</v>
       </c>
       <c r="T426" t="s">
-        <v>493</v>
+        <v>649</v>
       </c>
     </row>
     <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="B427" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="C427" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="D427" t="s">
-        <v>661</v>
+        <v>320</v>
       </c>
       <c r="E427" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="F427" t="s">
-        <v>663</v>
+        <v>73</v>
       </c>
       <c r="G427" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="H427" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="I427" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J427" t="s">
-        <v>358</v>
+        <v>638</v>
       </c>
       <c r="K427" t="s">
-        <v>34</v>
+        <v>639</v>
       </c>
       <c r="L427" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="M427" t="s">
-        <v>75</v>
+        <v>641</v>
       </c>
       <c r="N427" t="s">
-        <v>418</v>
+        <v>642</v>
       </c>
       <c r="O427" t="s">
-        <v>74</v>
+        <v>643</v>
       </c>
       <c r="P427" t="s">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="Q427" t="s">
-        <v>224</v>
+        <v>645</v>
       </c>
       <c r="R427" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="S427" t="s">
-        <v>364</v>
+        <v>648</v>
       </c>
       <c r="T427" t="s">
-        <v>493</v>
+        <v>649</v>
       </c>
     </row>
     <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="B428" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="C428" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="D428" t="s">
-        <v>661</v>
+        <v>320</v>
       </c>
       <c r="E428" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="F428" t="s">
-        <v>663</v>
+        <v>73</v>
       </c>
       <c r="G428" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="H428" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="I428" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J428" t="s">
-        <v>358</v>
+        <v>638</v>
       </c>
       <c r="K428" t="s">
-        <v>34</v>
+        <v>639</v>
       </c>
       <c r="L428" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="M428" t="s">
-        <v>75</v>
+        <v>641</v>
       </c>
       <c r="N428" t="s">
-        <v>418</v>
+        <v>642</v>
       </c>
       <c r="O428" t="s">
-        <v>74</v>
+        <v>643</v>
       </c>
       <c r="P428" t="s">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="Q428" t="s">
-        <v>224</v>
+        <v>645</v>
       </c>
       <c r="R428" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="S428" t="s">
-        <v>364</v>
+        <v>648</v>
       </c>
       <c r="T428" t="s">
-        <v>493</v>
+        <v>649</v>
       </c>
     </row>
     <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="B429" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="C429" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="D429" t="s">
-        <v>661</v>
+        <v>320</v>
       </c>
       <c r="E429" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="F429" t="s">
-        <v>663</v>
+        <v>73</v>
       </c>
       <c r="G429" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="H429" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="I429" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J429" t="s">
-        <v>358</v>
+        <v>638</v>
       </c>
       <c r="K429" t="s">
-        <v>34</v>
+        <v>639</v>
       </c>
       <c r="L429" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="M429" t="s">
-        <v>75</v>
+        <v>641</v>
       </c>
       <c r="N429" t="s">
-        <v>418</v>
+        <v>642</v>
       </c>
       <c r="O429" t="s">
-        <v>74</v>
+        <v>643</v>
       </c>
       <c r="P429" t="s">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="Q429" t="s">
-        <v>224</v>
+        <v>645</v>
       </c>
       <c r="R429" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="S429" t="s">
-        <v>364</v>
+        <v>648</v>
       </c>
       <c r="T429" t="s">
-        <v>493</v>
+        <v>649</v>
       </c>
     </row>
     <row r="430" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="B430" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="C430" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="D430" t="s">
-        <v>661</v>
+        <v>320</v>
       </c>
       <c r="E430" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="F430" t="s">
-        <v>663</v>
+        <v>73</v>
       </c>
       <c r="G430" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="H430" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="I430" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J430" t="s">
-        <v>358</v>
+        <v>638</v>
       </c>
       <c r="K430" t="s">
-        <v>34</v>
+        <v>639</v>
       </c>
       <c r="L430" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="M430" t="s">
-        <v>75</v>
+        <v>641</v>
       </c>
       <c r="N430" t="s">
-        <v>418</v>
+        <v>642</v>
       </c>
       <c r="O430" t="s">
-        <v>74</v>
+        <v>643</v>
       </c>
       <c r="P430" t="s">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="Q430" t="s">
-        <v>224</v>
+        <v>645</v>
       </c>
       <c r="R430" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="S430" t="s">
-        <v>364</v>
+        <v>648</v>
       </c>
       <c r="T430" t="s">
-        <v>493</v>
+        <v>649</v>
       </c>
     </row>
     <row r="431" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>630</v>
+      </c>
+      <c r="B431" t="s">
+        <v>631</v>
+      </c>
+      <c r="C431" t="s">
+        <v>632</v>
+      </c>
+      <c r="D431" t="s">
+        <v>320</v>
+      </c>
+      <c r="E431" t="s">
+        <v>633</v>
+      </c>
+      <c r="F431" t="s">
+        <v>73</v>
+      </c>
+      <c r="G431" t="s">
+        <v>634</v>
+      </c>
+      <c r="H431" t="s">
+        <v>635</v>
+      </c>
+      <c r="I431" t="s">
+        <v>637</v>
+      </c>
+      <c r="J431" t="s">
+        <v>638</v>
+      </c>
+      <c r="K431" t="s">
+        <v>639</v>
+      </c>
+      <c r="L431" t="s">
+        <v>640</v>
+      </c>
+      <c r="M431" t="s">
+        <v>641</v>
+      </c>
+      <c r="N431" t="s">
+        <v>642</v>
+      </c>
+      <c r="O431" t="s">
+        <v>643</v>
+      </c>
+      <c r="P431" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q431" t="s">
+        <v>645</v>
+      </c>
+      <c r="R431" t="s">
+        <v>647</v>
+      </c>
+      <c r="S431" t="s">
+        <v>648</v>
+      </c>
+      <c r="T431" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="434" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A434" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="G434" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H434" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="I434" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K434" t="s">
+        <v>34</v>
+      </c>
+      <c r="L434" t="s">
+        <v>216</v>
+      </c>
+      <c r="M434" t="s">
+        <v>75</v>
+      </c>
+      <c r="N434" t="s">
+        <v>418</v>
+      </c>
+      <c r="O434" t="s">
+        <v>74</v>
+      </c>
+      <c r="P434" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q434" t="s">
+        <v>224</v>
+      </c>
+      <c r="R434" t="s">
+        <v>534</v>
+      </c>
+      <c r="S434" t="s">
+        <v>364</v>
+      </c>
+      <c r="T434" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
         <v>658</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B435" t="s">
         <v>659</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C435" t="s">
         <v>660</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D435" t="s">
         <v>661</v>
       </c>
-      <c r="E431" t="s">
+      <c r="E435" t="s">
         <v>662</v>
       </c>
-      <c r="F431" t="s">
+      <c r="F435" t="s">
         <v>663</v>
       </c>
-      <c r="G431" t="s">
+      <c r="G435" t="s">
         <v>665</v>
       </c>
-      <c r="H431" t="s">
+      <c r="H435" t="s">
         <v>666</v>
       </c>
-      <c r="I431" t="s">
+      <c r="I435" t="s">
         <v>564</v>
       </c>
-      <c r="J431" t="s">
+      <c r="J435" t="s">
         <v>358</v>
       </c>
-      <c r="K431" t="s">
+      <c r="K435" t="s">
         <v>34</v>
       </c>
-      <c r="L431" t="s">
+      <c r="L435" t="s">
         <v>216</v>
       </c>
-      <c r="M431" t="s">
+      <c r="M435" t="s">
         <v>75</v>
       </c>
-      <c r="N431" t="s">
+      <c r="N435" t="s">
         <v>418</v>
       </c>
-      <c r="O431" t="s">
+      <c r="O435" t="s">
         <v>74</v>
       </c>
-      <c r="P431" t="s">
+      <c r="P435" t="s">
         <v>80</v>
       </c>
-      <c r="Q431" t="s">
+      <c r="Q435" t="s">
         <v>224</v>
       </c>
-      <c r="R431" t="s">
+      <c r="R435" t="s">
         <v>534</v>
       </c>
-      <c r="S431" t="s">
+      <c r="S435" t="s">
         <v>364</v>
       </c>
-      <c r="T431" t="s">
+      <c r="T435" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
         <v>658</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B436" t="s">
         <v>659</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C436" t="s">
         <v>660</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D436" t="s">
         <v>661</v>
       </c>
-      <c r="E432" t="s">
+      <c r="E436" t="s">
         <v>662</v>
       </c>
-      <c r="F432" t="s">
+      <c r="F436" t="s">
         <v>663</v>
       </c>
-      <c r="G432" t="s">
+      <c r="G436" t="s">
         <v>665</v>
       </c>
-      <c r="H432" t="s">
+      <c r="H436" t="s">
         <v>666</v>
       </c>
-      <c r="I432" t="s">
+      <c r="I436" t="s">
         <v>564</v>
       </c>
-      <c r="J432" t="s">
+      <c r="J436" t="s">
         <v>358</v>
       </c>
-      <c r="K432" t="s">
+      <c r="K436" t="s">
         <v>34</v>
       </c>
-      <c r="L432" t="s">
+      <c r="L436" t="s">
         <v>216</v>
       </c>
-      <c r="M432" t="s">
+      <c r="M436" t="s">
         <v>75</v>
       </c>
-      <c r="N432" t="s">
+      <c r="N436" t="s">
         <v>418</v>
       </c>
-      <c r="O432" t="s">
+      <c r="O436" t="s">
         <v>74</v>
       </c>
-      <c r="P432" t="s">
+      <c r="P436" t="s">
         <v>80</v>
       </c>
-      <c r="Q432" t="s">
+      <c r="Q436" t="s">
         <v>224</v>
       </c>
-      <c r="R432" t="s">
+      <c r="R436" t="s">
         <v>534</v>
       </c>
-      <c r="S432" t="s">
+      <c r="S436" t="s">
         <v>364</v>
       </c>
-      <c r="T432" t="s">
+      <c r="T436" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>658</v>
-      </c>
-      <c r="B433" t="s">
-        <v>659</v>
-      </c>
-      <c r="C433" t="s">
-        <v>660</v>
-      </c>
-      <c r="D433" t="s">
-        <v>661</v>
-      </c>
-      <c r="E433" t="s">
-        <v>662</v>
-      </c>
-      <c r="F433" t="s">
-        <v>663</v>
-      </c>
-      <c r="G433" t="s">
-        <v>665</v>
-      </c>
-      <c r="H433" t="s">
-        <v>666</v>
-      </c>
-      <c r="I433" t="s">
-        <v>564</v>
-      </c>
-      <c r="J433" t="s">
-        <v>358</v>
-      </c>
-      <c r="K433" t="s">
-        <v>34</v>
-      </c>
-      <c r="L433" t="s">
-        <v>216</v>
-      </c>
-      <c r="M433" t="s">
-        <v>75</v>
-      </c>
-      <c r="N433" t="s">
-        <v>418</v>
-      </c>
-      <c r="O433" t="s">
-        <v>74</v>
-      </c>
-      <c r="P433" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q433" t="s">
-        <v>224</v>
-      </c>
-      <c r="R433" t="s">
-        <v>534</v>
-      </c>
-      <c r="S433" t="s">
-        <v>364</v>
-      </c>
-      <c r="T433" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A436" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="B436" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="C436" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="D436" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="E436" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="F436" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="G436" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="H436" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="I436" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="J436" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="K436" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="L436" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="M436" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="N436" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="O436" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="P436" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q436" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="R436" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="S436" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="T436" s="5" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="437" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>29</v>
+        <v>658</v>
       </c>
       <c r="B437" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C437" t="s">
-        <v>104</v>
+        <v>660</v>
       </c>
       <c r="D437" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E437" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="F437" t="s">
-        <v>570</v>
+        <v>664</v>
       </c>
       <c r="G437" t="s">
-        <v>111</v>
+        <v>665</v>
       </c>
       <c r="H437" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="I437" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
       <c r="J437" t="s">
-        <v>692</v>
+        <v>358</v>
       </c>
       <c r="K437" t="s">
-        <v>693</v>
+        <v>34</v>
       </c>
       <c r="L437" t="s">
-        <v>694</v>
+        <v>216</v>
       </c>
       <c r="M437" t="s">
-        <v>695</v>
+        <v>75</v>
       </c>
       <c r="N437" t="s">
-        <v>696</v>
+        <v>418</v>
       </c>
       <c r="O437" t="s">
-        <v>697</v>
+        <v>74</v>
       </c>
       <c r="P437" t="s">
-        <v>698</v>
+        <v>80</v>
       </c>
       <c r="Q437" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="R437" t="s">
-        <v>700</v>
+        <v>534</v>
       </c>
       <c r="S437" t="s">
-        <v>701</v>
+        <v>364</v>
       </c>
       <c r="T437" t="s">
-        <v>702</v>
+        <v>493</v>
       </c>
     </row>
     <row r="438" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>29</v>
+        <v>658</v>
       </c>
       <c r="B438" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C438" t="s">
-        <v>104</v>
+        <v>660</v>
       </c>
       <c r="D438" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E438" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="F438" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
       <c r="G438" t="s">
-        <v>111</v>
+        <v>665</v>
       </c>
       <c r="H438" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="I438" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
       <c r="J438" t="s">
-        <v>692</v>
+        <v>358</v>
       </c>
       <c r="K438" t="s">
-        <v>693</v>
+        <v>34</v>
       </c>
       <c r="L438" t="s">
-        <v>694</v>
+        <v>216</v>
       </c>
       <c r="M438" t="s">
-        <v>695</v>
+        <v>75</v>
       </c>
       <c r="N438" t="s">
-        <v>696</v>
+        <v>418</v>
       </c>
       <c r="O438" t="s">
-        <v>697</v>
+        <v>74</v>
       </c>
       <c r="P438" t="s">
-        <v>698</v>
+        <v>80</v>
       </c>
       <c r="Q438" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="R438" t="s">
-        <v>700</v>
+        <v>534</v>
       </c>
       <c r="S438" t="s">
-        <v>701</v>
+        <v>364</v>
       </c>
       <c r="T438" t="s">
-        <v>702</v>
+        <v>493</v>
       </c>
     </row>
     <row r="439" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>29</v>
+        <v>658</v>
       </c>
       <c r="B439" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C439" t="s">
-        <v>104</v>
+        <v>660</v>
       </c>
       <c r="D439" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E439" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="F439" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
       <c r="G439" t="s">
-        <v>111</v>
+        <v>665</v>
       </c>
       <c r="H439" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="I439" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
       <c r="J439" t="s">
-        <v>692</v>
+        <v>358</v>
       </c>
       <c r="K439" t="s">
-        <v>693</v>
+        <v>34</v>
       </c>
       <c r="L439" t="s">
-        <v>694</v>
+        <v>216</v>
       </c>
       <c r="M439" t="s">
-        <v>695</v>
+        <v>75</v>
       </c>
       <c r="N439" t="s">
-        <v>696</v>
+        <v>418</v>
       </c>
       <c r="O439" t="s">
-        <v>697</v>
+        <v>74</v>
       </c>
       <c r="P439" t="s">
-        <v>698</v>
+        <v>80</v>
       </c>
       <c r="Q439" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="R439" t="s">
-        <v>700</v>
+        <v>534</v>
       </c>
       <c r="S439" t="s">
-        <v>701</v>
+        <v>364</v>
       </c>
       <c r="T439" t="s">
-        <v>702</v>
+        <v>493</v>
       </c>
     </row>
     <row r="440" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>29</v>
+        <v>658</v>
       </c>
       <c r="B440" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C440" t="s">
-        <v>104</v>
+        <v>660</v>
       </c>
       <c r="D440" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E440" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="F440" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
       <c r="G440" t="s">
-        <v>111</v>
+        <v>665</v>
       </c>
       <c r="H440" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="I440" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
       <c r="J440" t="s">
-        <v>692</v>
+        <v>358</v>
       </c>
       <c r="K440" t="s">
-        <v>693</v>
+        <v>34</v>
       </c>
       <c r="L440" t="s">
-        <v>694</v>
+        <v>216</v>
       </c>
       <c r="M440" t="s">
-        <v>695</v>
+        <v>75</v>
       </c>
       <c r="N440" t="s">
-        <v>696</v>
+        <v>418</v>
       </c>
       <c r="O440" t="s">
-        <v>697</v>
+        <v>74</v>
       </c>
       <c r="P440" t="s">
-        <v>698</v>
+        <v>80</v>
       </c>
       <c r="Q440" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="R440" t="s">
-        <v>700</v>
+        <v>534</v>
       </c>
       <c r="S440" t="s">
-        <v>701</v>
+        <v>364</v>
       </c>
       <c r="T440" t="s">
-        <v>702</v>
+        <v>493</v>
       </c>
     </row>
     <row r="441" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>29</v>
+        <v>658</v>
       </c>
       <c r="B441" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C441" t="s">
-        <v>104</v>
+        <v>660</v>
       </c>
       <c r="D441" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E441" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="F441" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
       <c r="G441" t="s">
-        <v>111</v>
+        <v>665</v>
       </c>
       <c r="H441" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="I441" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
       <c r="J441" t="s">
-        <v>692</v>
+        <v>358</v>
       </c>
       <c r="K441" t="s">
-        <v>693</v>
+        <v>34</v>
       </c>
       <c r="L441" t="s">
-        <v>694</v>
+        <v>216</v>
       </c>
       <c r="M441" t="s">
-        <v>695</v>
+        <v>75</v>
       </c>
       <c r="N441" t="s">
-        <v>696</v>
+        <v>418</v>
       </c>
       <c r="O441" t="s">
-        <v>697</v>
+        <v>74</v>
       </c>
       <c r="P441" t="s">
-        <v>698</v>
+        <v>80</v>
       </c>
       <c r="Q441" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="R441" t="s">
-        <v>700</v>
+        <v>534</v>
       </c>
       <c r="S441" t="s">
-        <v>701</v>
+        <v>364</v>
       </c>
       <c r="T441" t="s">
-        <v>702</v>
+        <v>493</v>
       </c>
     </row>
     <row r="442" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>29</v>
+        <v>658</v>
       </c>
       <c r="B442" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C442" t="s">
-        <v>104</v>
+        <v>660</v>
       </c>
       <c r="D442" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E442" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="F442" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
       <c r="G442" t="s">
-        <v>111</v>
+        <v>665</v>
       </c>
       <c r="H442" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="I442" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
       <c r="J442" t="s">
-        <v>692</v>
+        <v>358</v>
       </c>
       <c r="K442" t="s">
-        <v>693</v>
+        <v>34</v>
       </c>
       <c r="L442" t="s">
-        <v>694</v>
+        <v>216</v>
       </c>
       <c r="M442" t="s">
-        <v>695</v>
+        <v>75</v>
       </c>
       <c r="N442" t="s">
-        <v>696</v>
+        <v>418</v>
       </c>
       <c r="O442" t="s">
-        <v>697</v>
+        <v>74</v>
       </c>
       <c r="P442" t="s">
-        <v>698</v>
+        <v>80</v>
       </c>
       <c r="Q442" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="R442" t="s">
-        <v>700</v>
+        <v>534</v>
       </c>
       <c r="S442" t="s">
-        <v>701</v>
+        <v>364</v>
       </c>
       <c r="T442" t="s">
-        <v>702</v>
+        <v>493</v>
       </c>
     </row>
     <row r="443" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>29</v>
+        <v>658</v>
       </c>
       <c r="B443" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C443" t="s">
-        <v>104</v>
+        <v>660</v>
       </c>
       <c r="D443" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E443" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="F443" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
       <c r="G443" t="s">
-        <v>111</v>
+        <v>665</v>
       </c>
       <c r="H443" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="I443" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
       <c r="J443" t="s">
-        <v>692</v>
+        <v>358</v>
       </c>
       <c r="K443" t="s">
-        <v>693</v>
+        <v>34</v>
       </c>
       <c r="L443" t="s">
-        <v>694</v>
+        <v>216</v>
       </c>
       <c r="M443" t="s">
-        <v>695</v>
+        <v>75</v>
       </c>
       <c r="N443" t="s">
-        <v>696</v>
+        <v>418</v>
       </c>
       <c r="O443" t="s">
-        <v>697</v>
+        <v>74</v>
       </c>
       <c r="P443" t="s">
-        <v>698</v>
+        <v>80</v>
       </c>
       <c r="Q443" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="R443" t="s">
-        <v>700</v>
+        <v>534</v>
       </c>
       <c r="S443" t="s">
-        <v>701</v>
+        <v>364</v>
       </c>
       <c r="T443" t="s">
-        <v>702</v>
+        <v>493</v>
       </c>
     </row>
     <row r="444" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>29</v>
+        <v>658</v>
       </c>
       <c r="B444" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C444" t="s">
-        <v>104</v>
+        <v>660</v>
       </c>
       <c r="D444" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E444" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="F444" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
       <c r="G444" t="s">
-        <v>111</v>
+        <v>665</v>
       </c>
       <c r="H444" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="I444" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
       <c r="J444" t="s">
-        <v>692</v>
+        <v>358</v>
       </c>
       <c r="K444" t="s">
-        <v>693</v>
+        <v>34</v>
       </c>
       <c r="L444" t="s">
-        <v>694</v>
+        <v>216</v>
       </c>
       <c r="M444" t="s">
-        <v>695</v>
+        <v>75</v>
       </c>
       <c r="N444" t="s">
-        <v>696</v>
+        <v>418</v>
       </c>
       <c r="O444" t="s">
-        <v>697</v>
+        <v>74</v>
       </c>
       <c r="P444" t="s">
-        <v>698</v>
+        <v>80</v>
       </c>
       <c r="Q444" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="R444" t="s">
-        <v>700</v>
+        <v>534</v>
       </c>
       <c r="S444" t="s">
-        <v>701</v>
+        <v>364</v>
       </c>
       <c r="T444" t="s">
-        <v>702</v>
+        <v>493</v>
       </c>
     </row>
     <row r="445" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>29</v>
+        <v>658</v>
       </c>
       <c r="B445" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C445" t="s">
-        <v>104</v>
+        <v>660</v>
       </c>
       <c r="D445" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E445" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="F445" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
       <c r="G445" t="s">
-        <v>111</v>
+        <v>665</v>
       </c>
       <c r="H445" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="I445" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
       <c r="J445" t="s">
-        <v>692</v>
+        <v>358</v>
       </c>
       <c r="K445" t="s">
-        <v>693</v>
+        <v>34</v>
       </c>
       <c r="L445" t="s">
-        <v>694</v>
+        <v>216</v>
       </c>
       <c r="M445" t="s">
-        <v>695</v>
+        <v>75</v>
       </c>
       <c r="N445" t="s">
-        <v>696</v>
+        <v>418</v>
       </c>
       <c r="O445" t="s">
-        <v>697</v>
+        <v>74</v>
       </c>
       <c r="P445" t="s">
-        <v>698</v>
+        <v>80</v>
       </c>
       <c r="Q445" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="R445" t="s">
-        <v>700</v>
+        <v>534</v>
       </c>
       <c r="S445" t="s">
-        <v>701</v>
+        <v>364</v>
       </c>
       <c r="T445" t="s">
-        <v>702</v>
+        <v>493</v>
       </c>
     </row>
     <row r="446" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>29</v>
+        <v>658</v>
       </c>
       <c r="B446" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C446" t="s">
-        <v>104</v>
+        <v>660</v>
       </c>
       <c r="D446" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E446" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="F446" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
       <c r="G446" t="s">
-        <v>111</v>
+        <v>665</v>
       </c>
       <c r="H446" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="I446" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
       <c r="J446" t="s">
-        <v>692</v>
+        <v>358</v>
       </c>
       <c r="K446" t="s">
-        <v>693</v>
+        <v>34</v>
       </c>
       <c r="L446" t="s">
-        <v>694</v>
+        <v>216</v>
       </c>
       <c r="M446" t="s">
-        <v>695</v>
+        <v>75</v>
       </c>
       <c r="N446" t="s">
-        <v>696</v>
+        <v>418</v>
       </c>
       <c r="O446" t="s">
-        <v>697</v>
+        <v>74</v>
       </c>
       <c r="P446" t="s">
-        <v>698</v>
+        <v>80</v>
       </c>
       <c r="Q446" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="R446" t="s">
-        <v>700</v>
+        <v>534</v>
       </c>
       <c r="S446" t="s">
-        <v>701</v>
+        <v>364</v>
       </c>
       <c r="T446" t="s">
-        <v>702</v>
+        <v>493</v>
       </c>
     </row>
     <row r="447" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>29</v>
+        <v>658</v>
       </c>
       <c r="B447" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C447" t="s">
-        <v>104</v>
+        <v>660</v>
       </c>
       <c r="D447" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E447" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="F447" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
       <c r="G447" t="s">
-        <v>111</v>
+        <v>665</v>
       </c>
       <c r="H447" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="I447" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
       <c r="J447" t="s">
-        <v>692</v>
+        <v>358</v>
       </c>
       <c r="K447" t="s">
-        <v>693</v>
+        <v>34</v>
       </c>
       <c r="L447" t="s">
-        <v>694</v>
+        <v>216</v>
       </c>
       <c r="M447" t="s">
-        <v>695</v>
+        <v>75</v>
       </c>
       <c r="N447" t="s">
-        <v>696</v>
+        <v>418</v>
       </c>
       <c r="O447" t="s">
-        <v>697</v>
+        <v>74</v>
       </c>
       <c r="P447" t="s">
-        <v>698</v>
+        <v>80</v>
       </c>
       <c r="Q447" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="R447" t="s">
-        <v>700</v>
+        <v>534</v>
       </c>
       <c r="S447" t="s">
-        <v>701</v>
+        <v>364</v>
       </c>
       <c r="T447" t="s">
-        <v>702</v>
+        <v>493</v>
       </c>
     </row>
     <row r="448" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>658</v>
+      </c>
+      <c r="B448" t="s">
+        <v>659</v>
+      </c>
+      <c r="C448" t="s">
+        <v>660</v>
+      </c>
+      <c r="D448" t="s">
+        <v>661</v>
+      </c>
+      <c r="E448" t="s">
+        <v>662</v>
+      </c>
+      <c r="F448" t="s">
+        <v>663</v>
+      </c>
+      <c r="G448" t="s">
+        <v>665</v>
+      </c>
+      <c r="H448" t="s">
+        <v>666</v>
+      </c>
+      <c r="I448" t="s">
+        <v>564</v>
+      </c>
+      <c r="J448" t="s">
+        <v>358</v>
+      </c>
+      <c r="K448" t="s">
+        <v>34</v>
+      </c>
+      <c r="L448" t="s">
+        <v>216</v>
+      </c>
+      <c r="M448" t="s">
+        <v>75</v>
+      </c>
+      <c r="N448" t="s">
+        <v>418</v>
+      </c>
+      <c r="O448" t="s">
+        <v>74</v>
+      </c>
+      <c r="P448" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q448" t="s">
+        <v>224</v>
+      </c>
+      <c r="R448" t="s">
+        <v>534</v>
+      </c>
+      <c r="S448" t="s">
+        <v>364</v>
+      </c>
+      <c r="T448" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A451" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="D451" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="E451" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F451" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="G451" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="H451" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="I451" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="J451" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="K451" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="L451" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="M451" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="N451" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="O451" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="P451" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q451" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="R451" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="S451" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="T451" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
         <v>29</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B452" t="s">
         <v>686</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C452" t="s">
         <v>104</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D452" t="s">
         <v>687</v>
       </c>
-      <c r="E448" t="s">
+      <c r="E452" t="s">
+        <v>688</v>
+      </c>
+      <c r="F452" t="s">
+        <v>570</v>
+      </c>
+      <c r="G452" t="s">
+        <v>111</v>
+      </c>
+      <c r="H452" t="s">
+        <v>690</v>
+      </c>
+      <c r="I452" t="s">
+        <v>691</v>
+      </c>
+      <c r="J452" t="s">
+        <v>692</v>
+      </c>
+      <c r="K452" t="s">
+        <v>693</v>
+      </c>
+      <c r="L452" t="s">
+        <v>694</v>
+      </c>
+      <c r="M452" t="s">
+        <v>695</v>
+      </c>
+      <c r="N452" t="s">
+        <v>696</v>
+      </c>
+      <c r="O452" t="s">
+        <v>697</v>
+      </c>
+      <c r="P452" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q452" t="s">
+        <v>81</v>
+      </c>
+      <c r="R452" t="s">
+        <v>700</v>
+      </c>
+      <c r="S452" t="s">
+        <v>701</v>
+      </c>
+      <c r="T452" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>29</v>
+      </c>
+      <c r="B453" t="s">
+        <v>686</v>
+      </c>
+      <c r="C453" t="s">
+        <v>104</v>
+      </c>
+      <c r="D453" t="s">
+        <v>687</v>
+      </c>
+      <c r="E453" t="s">
+        <v>688</v>
+      </c>
+      <c r="F453" t="s">
+        <v>570</v>
+      </c>
+      <c r="G453" t="s">
+        <v>111</v>
+      </c>
+      <c r="H453" t="s">
+        <v>690</v>
+      </c>
+      <c r="I453" t="s">
+        <v>691</v>
+      </c>
+      <c r="J453" t="s">
+        <v>692</v>
+      </c>
+      <c r="K453" t="s">
+        <v>693</v>
+      </c>
+      <c r="L453" t="s">
+        <v>694</v>
+      </c>
+      <c r="M453" t="s">
+        <v>695</v>
+      </c>
+      <c r="N453" t="s">
+        <v>696</v>
+      </c>
+      <c r="O453" t="s">
+        <v>697</v>
+      </c>
+      <c r="P453" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q453" t="s">
+        <v>81</v>
+      </c>
+      <c r="R453" t="s">
+        <v>700</v>
+      </c>
+      <c r="S453" t="s">
+        <v>701</v>
+      </c>
+      <c r="T453" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>29</v>
+      </c>
+      <c r="B454" t="s">
+        <v>686</v>
+      </c>
+      <c r="C454" t="s">
+        <v>104</v>
+      </c>
+      <c r="D454" t="s">
+        <v>687</v>
+      </c>
+      <c r="E454" t="s">
+        <v>688</v>
+      </c>
+      <c r="F454" t="s">
+        <v>570</v>
+      </c>
+      <c r="G454" t="s">
+        <v>111</v>
+      </c>
+      <c r="H454" t="s">
+        <v>690</v>
+      </c>
+      <c r="I454" t="s">
+        <v>691</v>
+      </c>
+      <c r="J454" t="s">
+        <v>692</v>
+      </c>
+      <c r="K454" t="s">
+        <v>693</v>
+      </c>
+      <c r="L454" t="s">
+        <v>694</v>
+      </c>
+      <c r="M454" t="s">
+        <v>695</v>
+      </c>
+      <c r="N454" t="s">
+        <v>696</v>
+      </c>
+      <c r="O454" t="s">
+        <v>697</v>
+      </c>
+      <c r="P454" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q454" t="s">
+        <v>81</v>
+      </c>
+      <c r="R454" t="s">
+        <v>700</v>
+      </c>
+      <c r="S454" t="s">
+        <v>701</v>
+      </c>
+      <c r="T454" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>29</v>
+      </c>
+      <c r="B455" t="s">
+        <v>686</v>
+      </c>
+      <c r="C455" t="s">
+        <v>104</v>
+      </c>
+      <c r="D455" t="s">
+        <v>687</v>
+      </c>
+      <c r="E455" t="s">
+        <v>688</v>
+      </c>
+      <c r="F455" t="s">
+        <v>570</v>
+      </c>
+      <c r="G455" t="s">
+        <v>111</v>
+      </c>
+      <c r="H455" t="s">
+        <v>690</v>
+      </c>
+      <c r="I455" t="s">
+        <v>691</v>
+      </c>
+      <c r="J455" t="s">
+        <v>692</v>
+      </c>
+      <c r="K455" t="s">
+        <v>693</v>
+      </c>
+      <c r="L455" t="s">
+        <v>694</v>
+      </c>
+      <c r="M455" t="s">
+        <v>695</v>
+      </c>
+      <c r="N455" t="s">
+        <v>696</v>
+      </c>
+      <c r="O455" t="s">
+        <v>697</v>
+      </c>
+      <c r="P455" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q455" t="s">
+        <v>81</v>
+      </c>
+      <c r="R455" t="s">
+        <v>700</v>
+      </c>
+      <c r="S455" t="s">
+        <v>701</v>
+      </c>
+      <c r="T455" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>29</v>
+      </c>
+      <c r="B456" t="s">
+        <v>686</v>
+      </c>
+      <c r="C456" t="s">
+        <v>104</v>
+      </c>
+      <c r="D456" t="s">
+        <v>687</v>
+      </c>
+      <c r="E456" t="s">
+        <v>688</v>
+      </c>
+      <c r="F456" t="s">
+        <v>570</v>
+      </c>
+      <c r="G456" t="s">
+        <v>111</v>
+      </c>
+      <c r="H456" t="s">
+        <v>690</v>
+      </c>
+      <c r="I456" t="s">
+        <v>691</v>
+      </c>
+      <c r="J456" t="s">
+        <v>692</v>
+      </c>
+      <c r="K456" t="s">
+        <v>693</v>
+      </c>
+      <c r="L456" t="s">
+        <v>694</v>
+      </c>
+      <c r="M456" t="s">
+        <v>695</v>
+      </c>
+      <c r="N456" t="s">
+        <v>696</v>
+      </c>
+      <c r="O456" t="s">
+        <v>697</v>
+      </c>
+      <c r="P456" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q456" t="s">
+        <v>81</v>
+      </c>
+      <c r="R456" t="s">
+        <v>700</v>
+      </c>
+      <c r="S456" t="s">
+        <v>701</v>
+      </c>
+      <c r="T456" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>29</v>
+      </c>
+      <c r="B457" t="s">
+        <v>686</v>
+      </c>
+      <c r="C457" t="s">
+        <v>104</v>
+      </c>
+      <c r="D457" t="s">
+        <v>687</v>
+      </c>
+      <c r="E457" t="s">
+        <v>688</v>
+      </c>
+      <c r="F457" t="s">
+        <v>570</v>
+      </c>
+      <c r="G457" t="s">
+        <v>111</v>
+      </c>
+      <c r="H457" t="s">
+        <v>690</v>
+      </c>
+      <c r="I457" t="s">
+        <v>691</v>
+      </c>
+      <c r="J457" t="s">
+        <v>692</v>
+      </c>
+      <c r="K457" t="s">
+        <v>693</v>
+      </c>
+      <c r="L457" t="s">
+        <v>694</v>
+      </c>
+      <c r="M457" t="s">
+        <v>695</v>
+      </c>
+      <c r="N457" t="s">
+        <v>696</v>
+      </c>
+      <c r="O457" t="s">
+        <v>697</v>
+      </c>
+      <c r="P457" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q457" t="s">
+        <v>81</v>
+      </c>
+      <c r="R457" t="s">
+        <v>700</v>
+      </c>
+      <c r="S457" t="s">
+        <v>701</v>
+      </c>
+      <c r="T457" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>29</v>
+      </c>
+      <c r="B458" t="s">
+        <v>686</v>
+      </c>
+      <c r="C458" t="s">
+        <v>104</v>
+      </c>
+      <c r="D458" t="s">
+        <v>687</v>
+      </c>
+      <c r="E458" t="s">
+        <v>688</v>
+      </c>
+      <c r="F458" t="s">
+        <v>570</v>
+      </c>
+      <c r="G458" t="s">
+        <v>111</v>
+      </c>
+      <c r="H458" t="s">
+        <v>690</v>
+      </c>
+      <c r="I458" t="s">
+        <v>691</v>
+      </c>
+      <c r="J458" t="s">
+        <v>692</v>
+      </c>
+      <c r="K458" t="s">
+        <v>693</v>
+      </c>
+      <c r="L458" t="s">
+        <v>694</v>
+      </c>
+      <c r="M458" t="s">
+        <v>695</v>
+      </c>
+      <c r="N458" t="s">
+        <v>696</v>
+      </c>
+      <c r="O458" t="s">
+        <v>697</v>
+      </c>
+      <c r="P458" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q458" t="s">
+        <v>81</v>
+      </c>
+      <c r="R458" t="s">
+        <v>700</v>
+      </c>
+      <c r="S458" t="s">
+        <v>701</v>
+      </c>
+      <c r="T458" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>29</v>
+      </c>
+      <c r="B459" t="s">
+        <v>686</v>
+      </c>
+      <c r="C459" t="s">
+        <v>104</v>
+      </c>
+      <c r="D459" t="s">
+        <v>687</v>
+      </c>
+      <c r="E459" t="s">
+        <v>688</v>
+      </c>
+      <c r="F459" t="s">
+        <v>570</v>
+      </c>
+      <c r="G459" t="s">
+        <v>111</v>
+      </c>
+      <c r="H459" t="s">
+        <v>690</v>
+      </c>
+      <c r="I459" t="s">
+        <v>691</v>
+      </c>
+      <c r="J459" t="s">
+        <v>692</v>
+      </c>
+      <c r="K459" t="s">
+        <v>693</v>
+      </c>
+      <c r="L459" t="s">
+        <v>694</v>
+      </c>
+      <c r="M459" t="s">
+        <v>695</v>
+      </c>
+      <c r="N459" t="s">
+        <v>696</v>
+      </c>
+      <c r="O459" t="s">
+        <v>697</v>
+      </c>
+      <c r="P459" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q459" t="s">
+        <v>81</v>
+      </c>
+      <c r="R459" t="s">
+        <v>700</v>
+      </c>
+      <c r="S459" t="s">
+        <v>701</v>
+      </c>
+      <c r="T459" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>29</v>
+      </c>
+      <c r="B460" t="s">
+        <v>686</v>
+      </c>
+      <c r="C460" t="s">
+        <v>104</v>
+      </c>
+      <c r="D460" t="s">
+        <v>687</v>
+      </c>
+      <c r="E460" t="s">
+        <v>688</v>
+      </c>
+      <c r="F460" t="s">
+        <v>570</v>
+      </c>
+      <c r="G460" t="s">
+        <v>111</v>
+      </c>
+      <c r="H460" t="s">
+        <v>690</v>
+      </c>
+      <c r="I460" t="s">
+        <v>691</v>
+      </c>
+      <c r="J460" t="s">
+        <v>692</v>
+      </c>
+      <c r="K460" t="s">
+        <v>693</v>
+      </c>
+      <c r="L460" t="s">
+        <v>694</v>
+      </c>
+      <c r="M460" t="s">
+        <v>695</v>
+      </c>
+      <c r="N460" t="s">
+        <v>696</v>
+      </c>
+      <c r="O460" t="s">
+        <v>697</v>
+      </c>
+      <c r="P460" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q460" t="s">
+        <v>81</v>
+      </c>
+      <c r="R460" t="s">
+        <v>700</v>
+      </c>
+      <c r="S460" t="s">
+        <v>701</v>
+      </c>
+      <c r="T460" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>29</v>
+      </c>
+      <c r="B461" t="s">
+        <v>686</v>
+      </c>
+      <c r="C461" t="s">
+        <v>104</v>
+      </c>
+      <c r="D461" t="s">
+        <v>687</v>
+      </c>
+      <c r="E461" t="s">
+        <v>688</v>
+      </c>
+      <c r="F461" t="s">
+        <v>570</v>
+      </c>
+      <c r="G461" t="s">
+        <v>111</v>
+      </c>
+      <c r="H461" t="s">
+        <v>690</v>
+      </c>
+      <c r="I461" t="s">
+        <v>691</v>
+      </c>
+      <c r="J461" t="s">
+        <v>692</v>
+      </c>
+      <c r="K461" t="s">
+        <v>693</v>
+      </c>
+      <c r="L461" t="s">
+        <v>694</v>
+      </c>
+      <c r="M461" t="s">
+        <v>695</v>
+      </c>
+      <c r="N461" t="s">
+        <v>696</v>
+      </c>
+      <c r="O461" t="s">
+        <v>697</v>
+      </c>
+      <c r="P461" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q461" t="s">
+        <v>81</v>
+      </c>
+      <c r="R461" t="s">
+        <v>700</v>
+      </c>
+      <c r="S461" t="s">
+        <v>701</v>
+      </c>
+      <c r="T461" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>29</v>
+      </c>
+      <c r="B462" t="s">
+        <v>686</v>
+      </c>
+      <c r="C462" t="s">
+        <v>104</v>
+      </c>
+      <c r="D462" t="s">
+        <v>687</v>
+      </c>
+      <c r="E462" t="s">
+        <v>688</v>
+      </c>
+      <c r="F462" t="s">
+        <v>570</v>
+      </c>
+      <c r="G462" t="s">
+        <v>111</v>
+      </c>
+      <c r="H462" t="s">
+        <v>690</v>
+      </c>
+      <c r="I462" t="s">
+        <v>691</v>
+      </c>
+      <c r="J462" t="s">
+        <v>692</v>
+      </c>
+      <c r="K462" t="s">
+        <v>693</v>
+      </c>
+      <c r="L462" t="s">
+        <v>694</v>
+      </c>
+      <c r="M462" t="s">
+        <v>695</v>
+      </c>
+      <c r="N462" t="s">
+        <v>696</v>
+      </c>
+      <c r="O462" t="s">
+        <v>697</v>
+      </c>
+      <c r="P462" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q462" t="s">
+        <v>81</v>
+      </c>
+      <c r="R462" t="s">
+        <v>700</v>
+      </c>
+      <c r="S462" t="s">
+        <v>701</v>
+      </c>
+      <c r="T462" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>29</v>
+      </c>
+      <c r="B463" t="s">
+        <v>686</v>
+      </c>
+      <c r="C463" t="s">
+        <v>104</v>
+      </c>
+      <c r="D463" t="s">
+        <v>687</v>
+      </c>
+      <c r="E463" t="s">
         <v>689</v>
       </c>
-      <c r="F448" t="s">
+      <c r="F463" t="s">
         <v>570</v>
       </c>
-      <c r="G448" t="s">
+      <c r="G463" t="s">
         <v>111</v>
       </c>
-      <c r="H448" t="s">
+      <c r="H463" t="s">
         <v>690</v>
       </c>
-      <c r="I448" t="s">
+      <c r="I463" t="s">
         <v>691</v>
       </c>
-      <c r="J448" t="s">
+      <c r="J463" t="s">
         <v>692</v>
       </c>
-      <c r="K448" t="s">
+      <c r="K463" t="s">
         <v>693</v>
       </c>
-      <c r="L448" t="s">
+      <c r="L463" t="s">
         <v>694</v>
       </c>
-      <c r="M448" t="s">
+      <c r="M463" t="s">
         <v>695</v>
       </c>
-      <c r="N448" t="s">
+      <c r="N463" t="s">
         <v>696</v>
       </c>
-      <c r="O448" t="s">
+      <c r="O463" t="s">
         <v>697</v>
       </c>
-      <c r="P448" t="s">
+      <c r="P463" t="s">
         <v>698</v>
       </c>
-      <c r="Q448" t="s">
+      <c r="Q463" t="s">
         <v>81</v>
       </c>
-      <c r="R448" t="s">
+      <c r="R463" t="s">
         <v>700</v>
       </c>
-      <c r="S448" t="s">
+      <c r="S463" t="s">
         <v>701</v>
       </c>
-      <c r="T448" t="s">
+      <c r="T463" t="s">
         <v>702</v>
       </c>
     </row>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7983" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9251" uniqueCount="715">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -2151,6 +2151,24 @@
   </si>
   <si>
     <t>handly xu ly</t>
+  </si>
+  <si>
+    <t>userful huu ich</t>
+  </si>
+  <si>
+    <t>ivisible ko the nhin thay vo hinh</t>
+  </si>
+  <si>
+    <t>interators vong lap</t>
+  </si>
+  <si>
+    <t>intentionally co chu dinh</t>
+  </si>
+  <si>
+    <t>visibility hien thi trong thay duoc</t>
+  </si>
+  <si>
+    <t>abstration truu tuong</t>
   </si>
 </sst>
 </file>
@@ -2536,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V463"/>
+  <dimension ref="A1:V534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O356" workbookViewId="0">
-      <selection activeCell="S373" sqref="S373"/>
+    <sheetView tabSelected="1" topLeftCell="P502" workbookViewId="0">
+      <selection activeCell="T519" sqref="T519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23393,3951 +23411,7887 @@
         <v>538</v>
       </c>
     </row>
-    <row r="390" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A390" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D390" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="E390" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F390" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G390" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H390" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I390" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="J390" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="K390" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="L390" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="M390" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="N390" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="O390" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="P390" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q390" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="R390" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="S390" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="T390" s="1" t="s">
-        <v>558</v>
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>521</v>
+      </c>
+      <c r="B389" t="s">
+        <v>522</v>
+      </c>
+      <c r="C389" t="s">
+        <v>709</v>
+      </c>
+      <c r="D389" t="s">
+        <v>524</v>
+      </c>
+      <c r="E389" t="s">
+        <v>525</v>
+      </c>
+      <c r="F389" t="s">
+        <v>385</v>
+      </c>
+      <c r="G389" t="s">
+        <v>526</v>
+      </c>
+      <c r="H389" t="s">
+        <v>527</v>
+      </c>
+      <c r="I389" t="s">
+        <v>485</v>
+      </c>
+      <c r="J389" t="s">
+        <v>528</v>
+      </c>
+      <c r="K389" t="s">
+        <v>529</v>
+      </c>
+      <c r="L389" t="s">
+        <v>530</v>
+      </c>
+      <c r="M389" t="s">
+        <v>531</v>
+      </c>
+      <c r="N389" t="s">
+        <v>710</v>
+      </c>
+      <c r="O389" t="s">
+        <v>533</v>
+      </c>
+      <c r="P389" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>535</v>
+      </c>
+      <c r="R389" t="s">
+        <v>536</v>
+      </c>
+      <c r="S389" t="s">
+        <v>537</v>
+      </c>
+      <c r="T389" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>521</v>
+      </c>
+      <c r="B390" t="s">
+        <v>522</v>
+      </c>
+      <c r="C390" t="s">
+        <v>709</v>
+      </c>
+      <c r="D390" t="s">
+        <v>524</v>
+      </c>
+      <c r="E390" t="s">
+        <v>525</v>
+      </c>
+      <c r="F390" t="s">
+        <v>385</v>
+      </c>
+      <c r="G390" t="s">
+        <v>526</v>
+      </c>
+      <c r="H390" t="s">
+        <v>527</v>
+      </c>
+      <c r="I390" t="s">
+        <v>485</v>
+      </c>
+      <c r="J390" t="s">
+        <v>528</v>
+      </c>
+      <c r="K390" t="s">
+        <v>529</v>
+      </c>
+      <c r="L390" t="s">
+        <v>530</v>
+      </c>
+      <c r="M390" t="s">
+        <v>531</v>
+      </c>
+      <c r="N390" t="s">
+        <v>710</v>
+      </c>
+      <c r="O390" t="s">
+        <v>533</v>
+      </c>
+      <c r="P390" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>535</v>
+      </c>
+      <c r="R390" t="s">
+        <v>536</v>
+      </c>
+      <c r="S390" t="s">
+        <v>537</v>
+      </c>
+      <c r="T390" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B391" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C391" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D391" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E391" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F391" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G391" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H391" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I391" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J391" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K391" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L391" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M391" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N391" t="s">
-        <v>571</v>
+        <v>710</v>
       </c>
       <c r="O391" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P391" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q391" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R391" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S391" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T391" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B392" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C392" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D392" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E392" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F392" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G392" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H392" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I392" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J392" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K392" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L392" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M392" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N392" t="s">
-        <v>571</v>
+        <v>710</v>
       </c>
       <c r="O392" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P392" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q392" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R392" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S392" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T392" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B393" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C393" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D393" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E393" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F393" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G393" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H393" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I393" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J393" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K393" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L393" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M393" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N393" t="s">
-        <v>571</v>
+        <v>710</v>
       </c>
       <c r="O393" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P393" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q393" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R393" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S393" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T393" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B394" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C394" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D394" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E394" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F394" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G394" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H394" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I394" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J394" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K394" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L394" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M394" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N394" t="s">
-        <v>571</v>
+        <v>710</v>
       </c>
       <c r="O394" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P394" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q394" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R394" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S394" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T394" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B395" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C395" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D395" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E395" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F395" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G395" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H395" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I395" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J395" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K395" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L395" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M395" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N395" t="s">
-        <v>571</v>
+        <v>710</v>
       </c>
       <c r="O395" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P395" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q395" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R395" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S395" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T395" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B396" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C396" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D396" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E396" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F396" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G396" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H396" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I396" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J396" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K396" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L396" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M396" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N396" t="s">
-        <v>571</v>
+        <v>710</v>
       </c>
       <c r="O396" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P396" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q396" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R396" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S396" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T396" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B397" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C397" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D397" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E397" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F397" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G397" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H397" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I397" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J397" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K397" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L397" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M397" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N397" t="s">
-        <v>571</v>
+        <v>710</v>
       </c>
       <c r="O397" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P397" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q397" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R397" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S397" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T397" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B398" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C398" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D398" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E398" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F398" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G398" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H398" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I398" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J398" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K398" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L398" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M398" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N398" t="s">
-        <v>571</v>
+        <v>710</v>
       </c>
       <c r="O398" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P398" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q398" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R398" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S398" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T398" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B399" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C399" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D399" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E399" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F399" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G399" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H399" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I399" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J399" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K399" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L399" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M399" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N399" t="s">
-        <v>571</v>
+        <v>710</v>
       </c>
       <c r="O399" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P399" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q399" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R399" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S399" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T399" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B400" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C400" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="D400" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E400" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="F400" t="s">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="G400" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H400" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="I400" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="J400" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="K400" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="L400" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="M400" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="N400" t="s">
-        <v>571</v>
+        <v>710</v>
       </c>
       <c r="O400" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="P400" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q400" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="R400" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="S400" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="T400" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>521</v>
+      </c>
+      <c r="B401" t="s">
+        <v>522</v>
+      </c>
+      <c r="C401" t="s">
+        <v>523</v>
+      </c>
+      <c r="D401" t="s">
+        <v>524</v>
+      </c>
+      <c r="E401" t="s">
+        <v>525</v>
+      </c>
+      <c r="F401" t="s">
+        <v>385</v>
+      </c>
+      <c r="G401" t="s">
+        <v>526</v>
+      </c>
+      <c r="H401" t="s">
+        <v>527</v>
+      </c>
+      <c r="I401" t="s">
+        <v>485</v>
+      </c>
+      <c r="J401" t="s">
+        <v>528</v>
+      </c>
+      <c r="K401" t="s">
+        <v>529</v>
+      </c>
+      <c r="L401" t="s">
+        <v>530</v>
+      </c>
+      <c r="M401" t="s">
+        <v>531</v>
+      </c>
+      <c r="N401" t="s">
+        <v>710</v>
+      </c>
+      <c r="O401" t="s">
+        <v>533</v>
+      </c>
+      <c r="P401" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>535</v>
+      </c>
+      <c r="R401" t="s">
+        <v>536</v>
+      </c>
+      <c r="S401" t="s">
+        <v>537</v>
+      </c>
+      <c r="T401" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="404" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A404" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J404" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="K404" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="L404" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="M404" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="N404" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O404" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="P404" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q404" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="R404" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="S404" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="T404" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
         <v>559</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B405" t="s">
         <v>560</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C405" t="s">
         <v>561</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D405" t="s">
         <v>562</v>
       </c>
-      <c r="E401" t="s">
+      <c r="E405" t="s">
         <v>563</v>
       </c>
-      <c r="F401" t="s">
+      <c r="F405" t="s">
         <v>564</v>
       </c>
-      <c r="G401" t="s">
+      <c r="G405" t="s">
         <v>565</v>
       </c>
-      <c r="H401" t="s">
+      <c r="H405" t="s">
         <v>566</v>
       </c>
-      <c r="I401" t="s">
+      <c r="I405" t="s">
         <v>567</v>
       </c>
-      <c r="J401" t="s">
+      <c r="J405" t="s">
         <v>113</v>
       </c>
-      <c r="K401" t="s">
+      <c r="K405" t="s">
         <v>568</v>
       </c>
-      <c r="L401" t="s">
+      <c r="L405" t="s">
         <v>569</v>
       </c>
-      <c r="M401" t="s">
+      <c r="M405" t="s">
         <v>570</v>
       </c>
-      <c r="N401" t="s">
+      <c r="N405" t="s">
         <v>571</v>
       </c>
-      <c r="O401" t="s">
+      <c r="O405" t="s">
         <v>572</v>
       </c>
-      <c r="P401" t="s">
+      <c r="P405" t="s">
         <v>573</v>
       </c>
-      <c r="Q401" t="s">
+      <c r="Q405" t="s">
         <v>574</v>
       </c>
-      <c r="R401" t="s">
+      <c r="R405" t="s">
         <v>575</v>
       </c>
-      <c r="S401" t="s">
+      <c r="S405" t="s">
         <v>576</v>
       </c>
-      <c r="T401" t="s">
+      <c r="T405" t="s">
         <v>577</v>
-      </c>
-    </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>559</v>
-      </c>
-      <c r="B402" t="s">
-        <v>560</v>
-      </c>
-      <c r="C402" t="s">
-        <v>561</v>
-      </c>
-      <c r="D402" t="s">
-        <v>562</v>
-      </c>
-      <c r="E402" t="s">
-        <v>563</v>
-      </c>
-      <c r="F402" t="s">
-        <v>564</v>
-      </c>
-      <c r="G402" t="s">
-        <v>565</v>
-      </c>
-      <c r="H402" t="s">
-        <v>566</v>
-      </c>
-      <c r="I402" t="s">
-        <v>567</v>
-      </c>
-      <c r="J402" t="s">
-        <v>113</v>
-      </c>
-      <c r="K402" t="s">
-        <v>568</v>
-      </c>
-      <c r="L402" t="s">
-        <v>569</v>
-      </c>
-      <c r="M402" t="s">
-        <v>570</v>
-      </c>
-      <c r="N402" t="s">
-        <v>571</v>
-      </c>
-      <c r="O402" t="s">
-        <v>572</v>
-      </c>
-      <c r="P402" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q402" t="s">
-        <v>574</v>
-      </c>
-      <c r="R402" t="s">
-        <v>575</v>
-      </c>
-      <c r="S402" t="s">
-        <v>576</v>
-      </c>
-      <c r="T402" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="405" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A405" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="E405" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="F405" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="G405" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H405" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="I405" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="J405" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="K405" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="L405" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="M405" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="N405" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="O405" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="P405" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="406" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B406" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C406" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D406" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E406" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F406" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G406" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H406" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I406" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J406" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K406" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L406" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="M406" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N406" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O406" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P406" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>574</v>
+      </c>
+      <c r="R406" t="s">
+        <v>575</v>
+      </c>
+      <c r="S406" t="s">
+        <v>576</v>
+      </c>
+      <c r="T406" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B407" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C407" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D407" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E407" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F407" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G407" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H407" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I407" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J407" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K407" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L407" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M407" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N407" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O407" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P407" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q407" t="s">
+        <v>574</v>
+      </c>
+      <c r="R407" t="s">
+        <v>575</v>
+      </c>
+      <c r="S407" t="s">
+        <v>576</v>
+      </c>
+      <c r="T407" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B408" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C408" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D408" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E408" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F408" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G408" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H408" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I408" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J408" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K408" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L408" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M408" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N408" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O408" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P408" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q408" t="s">
+        <v>574</v>
+      </c>
+      <c r="R408" t="s">
+        <v>575</v>
+      </c>
+      <c r="S408" t="s">
+        <v>576</v>
+      </c>
+      <c r="T408" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B409" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C409" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D409" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E409" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F409" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G409" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H409" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I409" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J409" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K409" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L409" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M409" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N409" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O409" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P409" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q409" t="s">
+        <v>574</v>
+      </c>
+      <c r="R409" t="s">
+        <v>575</v>
+      </c>
+      <c r="S409" t="s">
+        <v>576</v>
+      </c>
+      <c r="T409" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B410" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C410" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D410" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E410" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F410" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G410" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H410" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I410" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J410" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K410" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L410" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M410" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N410" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O410" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P410" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>574</v>
+      </c>
+      <c r="R410" t="s">
+        <v>575</v>
+      </c>
+      <c r="S410" t="s">
+        <v>576</v>
+      </c>
+      <c r="T410" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B411" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C411" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D411" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E411" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F411" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G411" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H411" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I411" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J411" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K411" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L411" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M411" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N411" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O411" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P411" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q411" t="s">
+        <v>574</v>
+      </c>
+      <c r="R411" t="s">
+        <v>575</v>
+      </c>
+      <c r="S411" t="s">
+        <v>576</v>
+      </c>
+      <c r="T411" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="412" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B412" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C412" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D412" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E412" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F412" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G412" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H412" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I412" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J412" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K412" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L412" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M412" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N412" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O412" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P412" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q412" t="s">
+        <v>574</v>
+      </c>
+      <c r="R412" t="s">
+        <v>575</v>
+      </c>
+      <c r="S412" t="s">
+        <v>576</v>
+      </c>
+      <c r="T412" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B413" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C413" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D413" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E413" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F413" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G413" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H413" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I413" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J413" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K413" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L413" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M413" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N413" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O413" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P413" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q413" t="s">
+        <v>574</v>
+      </c>
+      <c r="R413" t="s">
+        <v>575</v>
+      </c>
+      <c r="S413" t="s">
+        <v>576</v>
+      </c>
+      <c r="T413" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="414" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B414" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C414" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D414" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E414" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F414" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G414" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H414" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I414" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J414" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K414" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L414" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M414" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N414" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O414" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P414" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q414" t="s">
+        <v>574</v>
+      </c>
+      <c r="R414" t="s">
+        <v>575</v>
+      </c>
+      <c r="S414" t="s">
+        <v>576</v>
+      </c>
+      <c r="T414" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="415" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B415" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C415" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D415" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E415" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F415" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G415" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H415" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I415" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J415" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K415" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L415" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M415" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N415" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O415" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P415" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q415" t="s">
+        <v>574</v>
+      </c>
+      <c r="R415" t="s">
+        <v>575</v>
+      </c>
+      <c r="S415" t="s">
+        <v>576</v>
+      </c>
+      <c r="T415" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B416" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C416" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D416" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="E416" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="F416" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="G416" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="H416" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I416" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="J416" t="s">
-        <v>603</v>
+        <v>113</v>
       </c>
       <c r="K416" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="L416" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="M416" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="N416" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="O416" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="P416" t="s">
-        <v>610</v>
+        <v>573</v>
+      </c>
+      <c r="Q416" t="s">
+        <v>574</v>
+      </c>
+      <c r="R416" t="s">
+        <v>575</v>
+      </c>
+      <c r="S416" t="s">
+        <v>576</v>
+      </c>
+      <c r="T416" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>559</v>
+      </c>
+      <c r="B418" t="s">
+        <v>560</v>
+      </c>
+      <c r="C418" t="s">
+        <v>561</v>
+      </c>
+      <c r="D418" t="s">
+        <v>562</v>
+      </c>
+      <c r="E418" t="s">
+        <v>563</v>
+      </c>
+      <c r="F418" t="s">
+        <v>564</v>
+      </c>
+      <c r="G418" t="s">
+        <v>565</v>
+      </c>
+      <c r="H418" t="s">
+        <v>566</v>
+      </c>
+      <c r="I418" t="s">
+        <v>567</v>
+      </c>
+      <c r="J418" t="s">
+        <v>113</v>
+      </c>
+      <c r="K418" t="s">
+        <v>711</v>
+      </c>
+      <c r="L418" t="s">
+        <v>569</v>
+      </c>
+      <c r="M418" t="s">
+        <v>570</v>
+      </c>
+      <c r="N418" t="s">
+        <v>571</v>
+      </c>
+      <c r="O418" t="s">
+        <v>572</v>
+      </c>
+      <c r="P418" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q418" t="s">
+        <v>574</v>
+      </c>
+      <c r="R418" t="s">
+        <v>575</v>
+      </c>
+      <c r="S418" t="s">
+        <v>576</v>
+      </c>
+      <c r="T418" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="419" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>611</v>
-      </c>
-      <c r="B419" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="C419" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="D419" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="E419" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="F419" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G419" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="H419" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="I419" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="J419" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="K419" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="L419" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="M419" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="N419" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="O419" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="P419" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q419" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="R419" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="S419" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="T419" s="5" t="s">
-        <v>629</v>
+        <v>559</v>
+      </c>
+      <c r="B419" t="s">
+        <v>560</v>
+      </c>
+      <c r="C419" t="s">
+        <v>561</v>
+      </c>
+      <c r="D419" t="s">
+        <v>562</v>
+      </c>
+      <c r="E419" t="s">
+        <v>563</v>
+      </c>
+      <c r="F419" t="s">
+        <v>564</v>
+      </c>
+      <c r="G419" t="s">
+        <v>565</v>
+      </c>
+      <c r="H419" t="s">
+        <v>566</v>
+      </c>
+      <c r="I419" t="s">
+        <v>567</v>
+      </c>
+      <c r="J419" t="s">
+        <v>113</v>
+      </c>
+      <c r="K419" t="s">
+        <v>711</v>
+      </c>
+      <c r="L419" t="s">
+        <v>569</v>
+      </c>
+      <c r="M419" t="s">
+        <v>570</v>
+      </c>
+      <c r="N419" t="s">
+        <v>571</v>
+      </c>
+      <c r="O419" t="s">
+        <v>572</v>
+      </c>
+      <c r="P419" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q419" t="s">
+        <v>574</v>
+      </c>
+      <c r="R419" t="s">
+        <v>575</v>
+      </c>
+      <c r="S419" t="s">
+        <v>576</v>
+      </c>
+      <c r="T419" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="420" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="B420" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
       <c r="C420" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="D420" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
       <c r="E420" t="s">
-        <v>633</v>
+        <v>563</v>
       </c>
       <c r="F420" t="s">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="G420" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="H420" t="s">
-        <v>635</v>
+        <v>566</v>
       </c>
       <c r="I420" t="s">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="J420" t="s">
-        <v>638</v>
+        <v>113</v>
       </c>
       <c r="K420" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="L420" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
       <c r="M420" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="N420" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="O420" t="s">
-        <v>643</v>
+        <v>572</v>
       </c>
       <c r="P420" t="s">
-        <v>644</v>
+        <v>573</v>
       </c>
       <c r="Q420" t="s">
-        <v>645</v>
+        <v>712</v>
       </c>
       <c r="R420" t="s">
-        <v>646</v>
+        <v>575</v>
       </c>
       <c r="S420" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="T420" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
     </row>
     <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="B421" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
       <c r="C421" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="D421" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
       <c r="E421" t="s">
-        <v>633</v>
+        <v>563</v>
       </c>
       <c r="F421" t="s">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="G421" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="H421" t="s">
-        <v>635</v>
+        <v>566</v>
       </c>
       <c r="I421" t="s">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="J421" t="s">
-        <v>638</v>
+        <v>113</v>
       </c>
       <c r="K421" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="L421" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
       <c r="M421" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="N421" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="O421" t="s">
-        <v>643</v>
+        <v>572</v>
       </c>
       <c r="P421" t="s">
-        <v>644</v>
+        <v>573</v>
       </c>
       <c r="Q421" t="s">
-        <v>645</v>
+        <v>574</v>
       </c>
       <c r="R421" t="s">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="S421" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="T421" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
     </row>
     <row r="422" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="B422" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
       <c r="C422" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="D422" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
       <c r="E422" t="s">
-        <v>633</v>
+        <v>563</v>
       </c>
       <c r="F422" t="s">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="G422" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="H422" t="s">
-        <v>635</v>
+        <v>566</v>
       </c>
       <c r="I422" t="s">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="J422" t="s">
-        <v>638</v>
+        <v>113</v>
       </c>
       <c r="K422" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="L422" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
       <c r="M422" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="N422" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="O422" t="s">
-        <v>643</v>
+        <v>572</v>
       </c>
       <c r="P422" t="s">
-        <v>644</v>
+        <v>573</v>
       </c>
       <c r="Q422" t="s">
-        <v>645</v>
+        <v>574</v>
       </c>
       <c r="R422" t="s">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="S422" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="T422" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
     </row>
     <row r="423" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="B423" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
       <c r="C423" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="D423" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
       <c r="E423" t="s">
-        <v>633</v>
+        <v>563</v>
       </c>
       <c r="F423" t="s">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="G423" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="H423" t="s">
-        <v>636</v>
+        <v>566</v>
       </c>
       <c r="I423" t="s">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="J423" t="s">
-        <v>638</v>
+        <v>113</v>
       </c>
       <c r="K423" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="L423" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
       <c r="M423" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="N423" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="O423" t="s">
-        <v>643</v>
+        <v>572</v>
       </c>
       <c r="P423" t="s">
-        <v>644</v>
+        <v>573</v>
       </c>
       <c r="Q423" t="s">
-        <v>645</v>
+        <v>574</v>
       </c>
       <c r="R423" t="s">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="S423" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="T423" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
     </row>
     <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="B424" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
       <c r="C424" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="D424" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
       <c r="E424" t="s">
-        <v>633</v>
+        <v>563</v>
       </c>
       <c r="F424" t="s">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="G424" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="H424" t="s">
-        <v>635</v>
+        <v>566</v>
       </c>
       <c r="I424" t="s">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="J424" t="s">
-        <v>638</v>
+        <v>113</v>
       </c>
       <c r="K424" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="L424" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
       <c r="M424" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="N424" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="O424" t="s">
-        <v>643</v>
+        <v>572</v>
       </c>
       <c r="P424" t="s">
-        <v>644</v>
+        <v>573</v>
       </c>
       <c r="Q424" t="s">
-        <v>645</v>
+        <v>574</v>
       </c>
       <c r="R424" t="s">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="S424" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="T424" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
     </row>
     <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="B425" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
       <c r="C425" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="D425" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
       <c r="E425" t="s">
-        <v>633</v>
+        <v>563</v>
       </c>
       <c r="F425" t="s">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="G425" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="H425" t="s">
-        <v>635</v>
+        <v>566</v>
       </c>
       <c r="I425" t="s">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="J425" t="s">
-        <v>638</v>
+        <v>113</v>
       </c>
       <c r="K425" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="L425" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
       <c r="M425" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="N425" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="O425" t="s">
-        <v>643</v>
+        <v>572</v>
       </c>
       <c r="P425" t="s">
-        <v>644</v>
+        <v>573</v>
       </c>
       <c r="Q425" t="s">
-        <v>645</v>
+        <v>574</v>
       </c>
       <c r="R425" t="s">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="S425" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="T425" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
     </row>
     <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="B426" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
       <c r="C426" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="D426" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
       <c r="E426" t="s">
-        <v>633</v>
+        <v>563</v>
       </c>
       <c r="F426" t="s">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="G426" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="H426" t="s">
-        <v>635</v>
+        <v>566</v>
       </c>
       <c r="I426" t="s">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="J426" t="s">
-        <v>638</v>
+        <v>113</v>
       </c>
       <c r="K426" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="L426" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
       <c r="M426" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="N426" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="O426" t="s">
-        <v>643</v>
+        <v>572</v>
       </c>
       <c r="P426" t="s">
-        <v>644</v>
+        <v>573</v>
       </c>
       <c r="Q426" t="s">
-        <v>645</v>
+        <v>574</v>
       </c>
       <c r="R426" t="s">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="S426" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="T426" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
     </row>
     <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="B427" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
       <c r="C427" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="D427" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
       <c r="E427" t="s">
-        <v>633</v>
+        <v>563</v>
       </c>
       <c r="F427" t="s">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="G427" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="H427" t="s">
-        <v>635</v>
+        <v>566</v>
       </c>
       <c r="I427" t="s">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="J427" t="s">
-        <v>638</v>
+        <v>113</v>
       </c>
       <c r="K427" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="L427" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
       <c r="M427" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="N427" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="O427" t="s">
-        <v>643</v>
+        <v>572</v>
       </c>
       <c r="P427" t="s">
-        <v>644</v>
+        <v>573</v>
       </c>
       <c r="Q427" t="s">
-        <v>645</v>
+        <v>574</v>
       </c>
       <c r="R427" t="s">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="S427" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="T427" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
     </row>
     <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="B428" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
       <c r="C428" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="D428" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
       <c r="E428" t="s">
-        <v>633</v>
+        <v>563</v>
       </c>
       <c r="F428" t="s">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="G428" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="H428" t="s">
-        <v>635</v>
+        <v>566</v>
       </c>
       <c r="I428" t="s">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="J428" t="s">
-        <v>638</v>
+        <v>113</v>
       </c>
       <c r="K428" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="L428" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
       <c r="M428" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="N428" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="O428" t="s">
-        <v>643</v>
+        <v>572</v>
       </c>
       <c r="P428" t="s">
-        <v>644</v>
+        <v>573</v>
       </c>
       <c r="Q428" t="s">
-        <v>645</v>
+        <v>574</v>
       </c>
       <c r="R428" t="s">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="S428" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="T428" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
     </row>
     <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="B429" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
       <c r="C429" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="D429" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
       <c r="E429" t="s">
-        <v>633</v>
+        <v>563</v>
       </c>
       <c r="F429" t="s">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="G429" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="H429" t="s">
-        <v>635</v>
+        <v>566</v>
       </c>
       <c r="I429" t="s">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="J429" t="s">
-        <v>638</v>
+        <v>113</v>
       </c>
       <c r="K429" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="L429" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
       <c r="M429" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="N429" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="O429" t="s">
-        <v>643</v>
+        <v>572</v>
       </c>
       <c r="P429" t="s">
-        <v>644</v>
+        <v>573</v>
       </c>
       <c r="Q429" t="s">
-        <v>645</v>
+        <v>574</v>
       </c>
       <c r="R429" t="s">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="S429" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="T429" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
     </row>
     <row r="430" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="B430" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
       <c r="C430" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="D430" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
       <c r="E430" t="s">
-        <v>633</v>
+        <v>563</v>
       </c>
       <c r="F430" t="s">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="G430" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="H430" t="s">
-        <v>635</v>
+        <v>566</v>
       </c>
       <c r="I430" t="s">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="J430" t="s">
-        <v>638</v>
+        <v>113</v>
       </c>
       <c r="K430" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="L430" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
       <c r="M430" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="N430" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="O430" t="s">
-        <v>643</v>
+        <v>572</v>
       </c>
       <c r="P430" t="s">
-        <v>644</v>
+        <v>573</v>
       </c>
       <c r="Q430" t="s">
-        <v>645</v>
+        <v>574</v>
       </c>
       <c r="R430" t="s">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="S430" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="T430" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>630</v>
-      </c>
-      <c r="B431" t="s">
-        <v>631</v>
-      </c>
-      <c r="C431" t="s">
-        <v>632</v>
-      </c>
-      <c r="D431" t="s">
-        <v>320</v>
-      </c>
-      <c r="E431" t="s">
-        <v>633</v>
-      </c>
-      <c r="F431" t="s">
-        <v>73</v>
-      </c>
-      <c r="G431" t="s">
-        <v>634</v>
-      </c>
-      <c r="H431" t="s">
-        <v>635</v>
-      </c>
-      <c r="I431" t="s">
-        <v>637</v>
-      </c>
-      <c r="J431" t="s">
-        <v>638</v>
-      </c>
-      <c r="K431" t="s">
-        <v>639</v>
-      </c>
-      <c r="L431" t="s">
-        <v>640</v>
-      </c>
-      <c r="M431" t="s">
-        <v>641</v>
-      </c>
-      <c r="N431" t="s">
-        <v>642</v>
-      </c>
-      <c r="O431" t="s">
-        <v>643</v>
-      </c>
-      <c r="P431" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q431" t="s">
-        <v>645</v>
-      </c>
-      <c r="R431" t="s">
-        <v>647</v>
-      </c>
-      <c r="S431" t="s">
-        <v>648</v>
-      </c>
-      <c r="T431" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="434" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A434" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="B434" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="C434" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="D434" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="E434" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="F434" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="G434" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="H434" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="I434" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="J434" s="1" t="s">
-        <v>339</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="A433" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I433" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="K433" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="L433" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="M433" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="N433" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="O433" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="P433" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>594</v>
+      </c>
+      <c r="B434" t="s">
+        <v>595</v>
+      </c>
+      <c r="C434" t="s">
+        <v>596</v>
+      </c>
+      <c r="D434" t="s">
+        <v>597</v>
+      </c>
+      <c r="E434" t="s">
+        <v>598</v>
+      </c>
+      <c r="F434" t="s">
+        <v>599</v>
+      </c>
+      <c r="G434" t="s">
+        <v>600</v>
+      </c>
+      <c r="H434" t="s">
+        <v>601</v>
+      </c>
+      <c r="I434" t="s">
+        <v>602</v>
+      </c>
+      <c r="J434" t="s">
+        <v>603</v>
       </c>
       <c r="K434" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L434" t="s">
-        <v>216</v>
+        <v>605</v>
       </c>
       <c r="M434" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N434" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O434" t="s">
-        <v>74</v>
-      </c>
-      <c r="P434" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q434" t="s">
-        <v>224</v>
-      </c>
-      <c r="R434" t="s">
-        <v>534</v>
-      </c>
-      <c r="S434" t="s">
-        <v>364</v>
-      </c>
-      <c r="T434" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+      <c r="P434" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="B435" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C435" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D435" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="E435" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="F435" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="G435" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="H435" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="I435" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="J435" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="K435" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L435" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="M435" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N435" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O435" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="P435" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q435" t="s">
-        <v>224</v>
-      </c>
-      <c r="R435" t="s">
-        <v>534</v>
-      </c>
-      <c r="S435" t="s">
-        <v>364</v>
-      </c>
-      <c r="T435" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="B436" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C436" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D436" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="E436" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="F436" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="G436" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="H436" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="I436" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="J436" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="K436" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L436" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="M436" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N436" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O436" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="P436" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q436" t="s">
-        <v>224</v>
-      </c>
-      <c r="R436" t="s">
-        <v>534</v>
-      </c>
-      <c r="S436" t="s">
-        <v>364</v>
-      </c>
-      <c r="T436" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="B437" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C437" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D437" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="E437" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="F437" t="s">
-        <v>664</v>
+        <v>599</v>
       </c>
       <c r="G437" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="H437" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="I437" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="J437" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="K437" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L437" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="M437" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N437" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O437" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="P437" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q437" t="s">
-        <v>224</v>
-      </c>
-      <c r="R437" t="s">
-        <v>534</v>
-      </c>
-      <c r="S437" t="s">
-        <v>364</v>
-      </c>
-      <c r="T437" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="B438" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C438" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D438" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="E438" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="F438" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="G438" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="H438" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="I438" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="J438" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="K438" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L438" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="M438" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N438" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O438" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="P438" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q438" t="s">
-        <v>224</v>
-      </c>
-      <c r="R438" t="s">
-        <v>534</v>
-      </c>
-      <c r="S438" t="s">
-        <v>364</v>
-      </c>
-      <c r="T438" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="B439" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C439" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D439" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="E439" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="F439" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="G439" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="H439" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="I439" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="J439" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="K439" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L439" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="M439" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N439" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O439" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="P439" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q439" t="s">
-        <v>224</v>
-      </c>
-      <c r="R439" t="s">
-        <v>534</v>
-      </c>
-      <c r="S439" t="s">
-        <v>364</v>
-      </c>
-      <c r="T439" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="B440" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C440" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D440" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="E440" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="F440" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="G440" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="H440" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="I440" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="J440" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="K440" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L440" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="M440" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N440" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O440" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="P440" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q440" t="s">
-        <v>224</v>
-      </c>
-      <c r="R440" t="s">
-        <v>534</v>
-      </c>
-      <c r="S440" t="s">
-        <v>364</v>
-      </c>
-      <c r="T440" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="B441" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C441" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D441" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="E441" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="F441" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="G441" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="H441" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="I441" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="J441" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="K441" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L441" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="M441" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N441" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O441" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="P441" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q441" t="s">
-        <v>224</v>
-      </c>
-      <c r="R441" t="s">
-        <v>534</v>
-      </c>
-      <c r="S441" t="s">
-        <v>364</v>
-      </c>
-      <c r="T441" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="B442" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C442" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D442" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="E442" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="F442" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="G442" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="H442" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="I442" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="J442" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="K442" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L442" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="M442" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N442" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O442" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="P442" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q442" t="s">
-        <v>224</v>
-      </c>
-      <c r="R442" t="s">
-        <v>534</v>
-      </c>
-      <c r="S442" t="s">
-        <v>364</v>
-      </c>
-      <c r="T442" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="B443" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C443" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D443" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="E443" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="F443" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="G443" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="H443" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="I443" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="J443" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="K443" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L443" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="M443" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N443" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O443" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="P443" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q443" t="s">
-        <v>224</v>
-      </c>
-      <c r="R443" t="s">
-        <v>534</v>
-      </c>
-      <c r="S443" t="s">
-        <v>364</v>
-      </c>
-      <c r="T443" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="B444" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C444" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D444" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="E444" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="F444" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="G444" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="H444" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="I444" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="J444" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="K444" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L444" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="M444" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N444" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O444" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="P444" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q444" t="s">
-        <v>224</v>
-      </c>
-      <c r="R444" t="s">
-        <v>534</v>
-      </c>
-      <c r="S444" t="s">
-        <v>364</v>
-      </c>
-      <c r="T444" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>658</v>
-      </c>
-      <c r="B445" t="s">
-        <v>659</v>
-      </c>
-      <c r="C445" t="s">
-        <v>660</v>
-      </c>
-      <c r="D445" t="s">
-        <v>661</v>
-      </c>
-      <c r="E445" t="s">
-        <v>662</v>
-      </c>
-      <c r="F445" t="s">
-        <v>663</v>
-      </c>
-      <c r="G445" t="s">
-        <v>665</v>
-      </c>
-      <c r="H445" t="s">
-        <v>666</v>
-      </c>
-      <c r="I445" t="s">
-        <v>564</v>
-      </c>
-      <c r="J445" t="s">
-        <v>358</v>
-      </c>
-      <c r="K445" t="s">
-        <v>34</v>
-      </c>
-      <c r="L445" t="s">
-        <v>216</v>
-      </c>
-      <c r="M445" t="s">
-        <v>75</v>
-      </c>
-      <c r="N445" t="s">
-        <v>418</v>
-      </c>
-      <c r="O445" t="s">
-        <v>74</v>
-      </c>
-      <c r="P445" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q445" t="s">
-        <v>224</v>
-      </c>
-      <c r="R445" t="s">
-        <v>534</v>
-      </c>
-      <c r="S445" t="s">
-        <v>364</v>
-      </c>
-      <c r="T445" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="B446" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C446" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D446" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="E446" t="s">
-        <v>662</v>
+        <v>713</v>
       </c>
       <c r="F446" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="G446" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="H446" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="I446" t="s">
-        <v>564</v>
+        <v>714</v>
       </c>
       <c r="J446" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="K446" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L446" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="M446" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N446" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O446" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="P446" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q446" t="s">
-        <v>224</v>
-      </c>
-      <c r="R446" t="s">
-        <v>534</v>
-      </c>
-      <c r="S446" t="s">
-        <v>364</v>
-      </c>
-      <c r="T446" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="B447" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C447" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D447" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="E447" t="s">
-        <v>662</v>
+        <v>713</v>
       </c>
       <c r="F447" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="G447" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="H447" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="I447" t="s">
-        <v>564</v>
+        <v>714</v>
       </c>
       <c r="J447" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="K447" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L447" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="M447" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N447" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O447" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="P447" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q447" t="s">
-        <v>224</v>
-      </c>
-      <c r="R447" t="s">
-        <v>534</v>
-      </c>
-      <c r="S447" t="s">
-        <v>364</v>
-      </c>
-      <c r="T447" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="B448" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C448" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="D448" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="E448" t="s">
-        <v>662</v>
+        <v>713</v>
       </c>
       <c r="F448" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="G448" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="H448" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="I448" t="s">
-        <v>564</v>
+        <v>714</v>
       </c>
       <c r="J448" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="K448" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="L448" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="M448" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="N448" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="O448" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
       <c r="P448" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q448" t="s">
-        <v>224</v>
-      </c>
-      <c r="R448" t="s">
-        <v>534</v>
-      </c>
-      <c r="S448" t="s">
-        <v>364</v>
-      </c>
-      <c r="T448" t="s">
-        <v>493</v>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>594</v>
+      </c>
+      <c r="B449" t="s">
+        <v>595</v>
+      </c>
+      <c r="C449" t="s">
+        <v>596</v>
+      </c>
+      <c r="D449" t="s">
+        <v>597</v>
+      </c>
+      <c r="E449" t="s">
+        <v>713</v>
+      </c>
+      <c r="F449" t="s">
+        <v>599</v>
+      </c>
+      <c r="G449" t="s">
+        <v>600</v>
+      </c>
+      <c r="H449" t="s">
+        <v>601</v>
+      </c>
+      <c r="I449" t="s">
+        <v>714</v>
+      </c>
+      <c r="J449" t="s">
+        <v>603</v>
+      </c>
+      <c r="K449" t="s">
+        <v>604</v>
+      </c>
+      <c r="L449" t="s">
+        <v>606</v>
+      </c>
+      <c r="M449" t="s">
+        <v>607</v>
+      </c>
+      <c r="N449" t="s">
+        <v>608</v>
+      </c>
+      <c r="O449" t="s">
+        <v>609</v>
+      </c>
+      <c r="P449" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>594</v>
+      </c>
+      <c r="B450" t="s">
+        <v>595</v>
+      </c>
+      <c r="C450" t="s">
+        <v>596</v>
+      </c>
+      <c r="D450" t="s">
+        <v>597</v>
+      </c>
+      <c r="E450" t="s">
+        <v>713</v>
+      </c>
+      <c r="F450" t="s">
+        <v>599</v>
+      </c>
+      <c r="G450" t="s">
+        <v>600</v>
+      </c>
+      <c r="H450" t="s">
+        <v>601</v>
+      </c>
+      <c r="I450" t="s">
+        <v>714</v>
+      </c>
+      <c r="J450" t="s">
+        <v>603</v>
+      </c>
+      <c r="K450" t="s">
+        <v>604</v>
+      </c>
+      <c r="L450" t="s">
+        <v>606</v>
+      </c>
+      <c r="M450" t="s">
+        <v>607</v>
+      </c>
+      <c r="N450" t="s">
+        <v>608</v>
+      </c>
+      <c r="O450" t="s">
+        <v>609</v>
+      </c>
+      <c r="P450" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="451" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A451" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="B451" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="C451" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="D451" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="E451" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="F451" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="G451" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="H451" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="I451" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="J451" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="K451" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="L451" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="M451" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="N451" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="O451" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="P451" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q451" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="R451" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="S451" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="T451" s="5" t="s">
-        <v>685</v>
+      <c r="A451" t="s">
+        <v>594</v>
+      </c>
+      <c r="B451" t="s">
+        <v>595</v>
+      </c>
+      <c r="C451" t="s">
+        <v>596</v>
+      </c>
+      <c r="D451" t="s">
+        <v>597</v>
+      </c>
+      <c r="E451" t="s">
+        <v>713</v>
+      </c>
+      <c r="F451" t="s">
+        <v>599</v>
+      </c>
+      <c r="G451" t="s">
+        <v>600</v>
+      </c>
+      <c r="H451" t="s">
+        <v>601</v>
+      </c>
+      <c r="I451" t="s">
+        <v>714</v>
+      </c>
+      <c r="J451" t="s">
+        <v>603</v>
+      </c>
+      <c r="K451" t="s">
+        <v>604</v>
+      </c>
+      <c r="L451" t="s">
+        <v>606</v>
+      </c>
+      <c r="M451" t="s">
+        <v>607</v>
+      </c>
+      <c r="N451" t="s">
+        <v>608</v>
+      </c>
+      <c r="O451" t="s">
+        <v>609</v>
+      </c>
+      <c r="P451" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="452" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="B452" t="s">
-        <v>686</v>
+        <v>595</v>
       </c>
       <c r="C452" t="s">
-        <v>104</v>
+        <v>596</v>
       </c>
       <c r="D452" t="s">
-        <v>687</v>
+        <v>597</v>
       </c>
       <c r="E452" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F452" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="G452" t="s">
-        <v>111</v>
+        <v>600</v>
       </c>
       <c r="H452" t="s">
-        <v>690</v>
+        <v>601</v>
       </c>
       <c r="I452" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="J452" t="s">
-        <v>692</v>
+        <v>603</v>
       </c>
       <c r="K452" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
       <c r="L452" t="s">
-        <v>694</v>
+        <v>606</v>
       </c>
       <c r="M452" t="s">
-        <v>695</v>
+        <v>607</v>
       </c>
       <c r="N452" t="s">
-        <v>696</v>
+        <v>608</v>
       </c>
       <c r="O452" t="s">
-        <v>697</v>
+        <v>609</v>
       </c>
       <c r="P452" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q452" t="s">
-        <v>81</v>
-      </c>
-      <c r="R452" t="s">
-        <v>700</v>
-      </c>
-      <c r="S452" t="s">
-        <v>701</v>
-      </c>
-      <c r="T452" t="s">
-        <v>702</v>
+        <v>610</v>
       </c>
     </row>
     <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="B453" t="s">
-        <v>686</v>
+        <v>595</v>
       </c>
       <c r="C453" t="s">
-        <v>104</v>
+        <v>596</v>
       </c>
       <c r="D453" t="s">
-        <v>687</v>
+        <v>597</v>
       </c>
       <c r="E453" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F453" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="G453" t="s">
-        <v>111</v>
+        <v>600</v>
       </c>
       <c r="H453" t="s">
-        <v>690</v>
+        <v>601</v>
       </c>
       <c r="I453" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="J453" t="s">
-        <v>692</v>
+        <v>603</v>
       </c>
       <c r="K453" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
       <c r="L453" t="s">
-        <v>694</v>
+        <v>606</v>
       </c>
       <c r="M453" t="s">
-        <v>695</v>
+        <v>607</v>
       </c>
       <c r="N453" t="s">
-        <v>696</v>
+        <v>608</v>
       </c>
       <c r="O453" t="s">
-        <v>697</v>
+        <v>609</v>
       </c>
       <c r="P453" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q453" t="s">
-        <v>81</v>
-      </c>
-      <c r="R453" t="s">
-        <v>700</v>
-      </c>
-      <c r="S453" t="s">
-        <v>701</v>
-      </c>
-      <c r="T453" t="s">
-        <v>702</v>
+        <v>610</v>
       </c>
     </row>
     <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="B454" t="s">
-        <v>686</v>
+        <v>595</v>
       </c>
       <c r="C454" t="s">
-        <v>104</v>
+        <v>596</v>
       </c>
       <c r="D454" t="s">
-        <v>687</v>
+        <v>597</v>
       </c>
       <c r="E454" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F454" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="G454" t="s">
-        <v>111</v>
+        <v>600</v>
       </c>
       <c r="H454" t="s">
-        <v>690</v>
+        <v>601</v>
       </c>
       <c r="I454" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="J454" t="s">
-        <v>692</v>
+        <v>603</v>
       </c>
       <c r="K454" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
       <c r="L454" t="s">
-        <v>694</v>
+        <v>606</v>
       </c>
       <c r="M454" t="s">
-        <v>695</v>
+        <v>607</v>
       </c>
       <c r="N454" t="s">
-        <v>696</v>
+        <v>608</v>
       </c>
       <c r="O454" t="s">
-        <v>697</v>
+        <v>609</v>
       </c>
       <c r="P454" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q454" t="s">
-        <v>81</v>
-      </c>
-      <c r="R454" t="s">
-        <v>700</v>
-      </c>
-      <c r="S454" t="s">
-        <v>701</v>
-      </c>
-      <c r="T454" t="s">
-        <v>702</v>
+        <v>610</v>
       </c>
     </row>
     <row r="455" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="B455" t="s">
-        <v>686</v>
+        <v>595</v>
       </c>
       <c r="C455" t="s">
-        <v>104</v>
+        <v>596</v>
       </c>
       <c r="D455" t="s">
-        <v>687</v>
+        <v>597</v>
       </c>
       <c r="E455" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F455" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="G455" t="s">
-        <v>111</v>
+        <v>600</v>
       </c>
       <c r="H455" t="s">
-        <v>690</v>
+        <v>601</v>
       </c>
       <c r="I455" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="J455" t="s">
-        <v>692</v>
+        <v>603</v>
       </c>
       <c r="K455" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
       <c r="L455" t="s">
-        <v>694</v>
+        <v>606</v>
       </c>
       <c r="M455" t="s">
-        <v>695</v>
+        <v>607</v>
       </c>
       <c r="N455" t="s">
-        <v>696</v>
+        <v>608</v>
       </c>
       <c r="O455" t="s">
-        <v>697</v>
+        <v>609</v>
       </c>
       <c r="P455" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q455" t="s">
-        <v>81</v>
-      </c>
-      <c r="R455" t="s">
-        <v>700</v>
-      </c>
-      <c r="S455" t="s">
-        <v>701</v>
-      </c>
-      <c r="T455" t="s">
-        <v>702</v>
+        <v>610</v>
       </c>
     </row>
     <row r="456" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="B456" t="s">
-        <v>686</v>
+        <v>595</v>
       </c>
       <c r="C456" t="s">
-        <v>104</v>
+        <v>596</v>
       </c>
       <c r="D456" t="s">
-        <v>687</v>
+        <v>597</v>
       </c>
       <c r="E456" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F456" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="G456" t="s">
-        <v>111</v>
+        <v>600</v>
       </c>
       <c r="H456" t="s">
-        <v>690</v>
+        <v>601</v>
       </c>
       <c r="I456" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="J456" t="s">
-        <v>692</v>
+        <v>603</v>
       </c>
       <c r="K456" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
       <c r="L456" t="s">
-        <v>694</v>
+        <v>606</v>
       </c>
       <c r="M456" t="s">
-        <v>695</v>
+        <v>607</v>
       </c>
       <c r="N456" t="s">
-        <v>696</v>
+        <v>608</v>
       </c>
       <c r="O456" t="s">
-        <v>697</v>
+        <v>609</v>
       </c>
       <c r="P456" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q456" t="s">
-        <v>81</v>
-      </c>
-      <c r="R456" t="s">
-        <v>700</v>
-      </c>
-      <c r="S456" t="s">
-        <v>701</v>
-      </c>
-      <c r="T456" t="s">
-        <v>702</v>
+        <v>610</v>
       </c>
     </row>
     <row r="457" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="B457" t="s">
-        <v>686</v>
+        <v>595</v>
       </c>
       <c r="C457" t="s">
-        <v>104</v>
+        <v>596</v>
       </c>
       <c r="D457" t="s">
-        <v>687</v>
+        <v>597</v>
       </c>
       <c r="E457" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F457" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="G457" t="s">
-        <v>111</v>
+        <v>600</v>
       </c>
       <c r="H457" t="s">
-        <v>690</v>
+        <v>601</v>
       </c>
       <c r="I457" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="J457" t="s">
-        <v>692</v>
+        <v>603</v>
       </c>
       <c r="K457" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
       <c r="L457" t="s">
-        <v>694</v>
+        <v>606</v>
       </c>
       <c r="M457" t="s">
-        <v>695</v>
+        <v>607</v>
       </c>
       <c r="N457" t="s">
-        <v>696</v>
+        <v>608</v>
       </c>
       <c r="O457" t="s">
-        <v>697</v>
+        <v>609</v>
       </c>
       <c r="P457" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q457" t="s">
-        <v>81</v>
-      </c>
-      <c r="R457" t="s">
-        <v>700</v>
-      </c>
-      <c r="S457" t="s">
-        <v>701</v>
-      </c>
-      <c r="T457" t="s">
-        <v>702</v>
+        <v>610</v>
       </c>
     </row>
     <row r="458" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="B458" t="s">
-        <v>686</v>
+        <v>595</v>
       </c>
       <c r="C458" t="s">
-        <v>104</v>
+        <v>596</v>
       </c>
       <c r="D458" t="s">
-        <v>687</v>
+        <v>597</v>
       </c>
       <c r="E458" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F458" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="G458" t="s">
-        <v>111</v>
+        <v>600</v>
       </c>
       <c r="H458" t="s">
-        <v>690</v>
+        <v>601</v>
       </c>
       <c r="I458" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="J458" t="s">
-        <v>692</v>
+        <v>603</v>
       </c>
       <c r="K458" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
       <c r="L458" t="s">
-        <v>694</v>
+        <v>606</v>
       </c>
       <c r="M458" t="s">
-        <v>695</v>
+        <v>607</v>
       </c>
       <c r="N458" t="s">
-        <v>696</v>
+        <v>608</v>
       </c>
       <c r="O458" t="s">
-        <v>697</v>
+        <v>609</v>
       </c>
       <c r="P458" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q458" t="s">
-        <v>81</v>
-      </c>
-      <c r="R458" t="s">
-        <v>700</v>
-      </c>
-      <c r="S458" t="s">
-        <v>701</v>
-      </c>
-      <c r="T458" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
-        <v>29</v>
-      </c>
-      <c r="B459" t="s">
-        <v>686</v>
-      </c>
-      <c r="C459" t="s">
-        <v>104</v>
-      </c>
-      <c r="D459" t="s">
-        <v>687</v>
-      </c>
-      <c r="E459" t="s">
-        <v>688</v>
-      </c>
-      <c r="F459" t="s">
-        <v>570</v>
-      </c>
-      <c r="G459" t="s">
-        <v>111</v>
-      </c>
-      <c r="H459" t="s">
-        <v>690</v>
-      </c>
-      <c r="I459" t="s">
-        <v>691</v>
-      </c>
-      <c r="J459" t="s">
-        <v>692</v>
-      </c>
-      <c r="K459" t="s">
-        <v>693</v>
-      </c>
-      <c r="L459" t="s">
-        <v>694</v>
-      </c>
-      <c r="M459" t="s">
-        <v>695</v>
-      </c>
-      <c r="N459" t="s">
-        <v>696</v>
-      </c>
-      <c r="O459" t="s">
-        <v>697</v>
-      </c>
-      <c r="P459" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q459" t="s">
-        <v>81</v>
-      </c>
-      <c r="R459" t="s">
-        <v>700</v>
-      </c>
-      <c r="S459" t="s">
-        <v>701</v>
-      </c>
-      <c r="T459" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>29</v>
-      </c>
-      <c r="B460" t="s">
-        <v>686</v>
-      </c>
-      <c r="C460" t="s">
-        <v>104</v>
-      </c>
-      <c r="D460" t="s">
-        <v>687</v>
-      </c>
-      <c r="E460" t="s">
-        <v>688</v>
-      </c>
-      <c r="F460" t="s">
-        <v>570</v>
-      </c>
-      <c r="G460" t="s">
-        <v>111</v>
-      </c>
-      <c r="H460" t="s">
-        <v>690</v>
-      </c>
-      <c r="I460" t="s">
-        <v>691</v>
-      </c>
-      <c r="J460" t="s">
-        <v>692</v>
-      </c>
-      <c r="K460" t="s">
-        <v>693</v>
-      </c>
-      <c r="L460" t="s">
-        <v>694</v>
-      </c>
-      <c r="M460" t="s">
-        <v>695</v>
-      </c>
-      <c r="N460" t="s">
-        <v>696</v>
-      </c>
-      <c r="O460" t="s">
-        <v>697</v>
-      </c>
-      <c r="P460" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q460" t="s">
-        <v>81</v>
-      </c>
-      <c r="R460" t="s">
-        <v>700</v>
-      </c>
-      <c r="S460" t="s">
-        <v>701</v>
-      </c>
-      <c r="T460" t="s">
-        <v>702</v>
+        <v>610</v>
       </c>
     </row>
     <row r="461" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>29</v>
-      </c>
-      <c r="B461" t="s">
-        <v>686</v>
-      </c>
-      <c r="C461" t="s">
-        <v>104</v>
-      </c>
-      <c r="D461" t="s">
-        <v>687</v>
-      </c>
-      <c r="E461" t="s">
-        <v>688</v>
-      </c>
-      <c r="F461" t="s">
-        <v>570</v>
-      </c>
-      <c r="G461" t="s">
-        <v>111</v>
-      </c>
-      <c r="H461" t="s">
-        <v>690</v>
-      </c>
-      <c r="I461" t="s">
-        <v>691</v>
-      </c>
-      <c r="J461" t="s">
-        <v>692</v>
-      </c>
-      <c r="K461" t="s">
-        <v>693</v>
-      </c>
-      <c r="L461" t="s">
-        <v>694</v>
-      </c>
-      <c r="M461" t="s">
-        <v>695</v>
-      </c>
-      <c r="N461" t="s">
-        <v>696</v>
-      </c>
-      <c r="O461" t="s">
-        <v>697</v>
-      </c>
-      <c r="P461" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q461" t="s">
-        <v>81</v>
-      </c>
-      <c r="R461" t="s">
-        <v>700</v>
-      </c>
-      <c r="S461" t="s">
-        <v>701</v>
-      </c>
-      <c r="T461" t="s">
-        <v>702</v>
+        <v>611</v>
+      </c>
+      <c r="B461" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D461" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="E461" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F461" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G461" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="H461" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I461" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="J461" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="K461" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="L461" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="M461" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="N461" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="O461" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="P461" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q461" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="R461" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="S461" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="T461" s="5" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="462" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>29</v>
+        <v>630</v>
       </c>
       <c r="B462" t="s">
-        <v>686</v>
+        <v>631</v>
       </c>
       <c r="C462" t="s">
-        <v>104</v>
+        <v>632</v>
       </c>
       <c r="D462" t="s">
-        <v>687</v>
+        <v>320</v>
       </c>
       <c r="E462" t="s">
-        <v>688</v>
+        <v>633</v>
       </c>
       <c r="F462" t="s">
-        <v>570</v>
+        <v>73</v>
       </c>
       <c r="G462" t="s">
-        <v>111</v>
+        <v>634</v>
       </c>
       <c r="H462" t="s">
-        <v>690</v>
+        <v>635</v>
       </c>
       <c r="I462" t="s">
-        <v>691</v>
+        <v>637</v>
       </c>
       <c r="J462" t="s">
-        <v>692</v>
+        <v>638</v>
       </c>
       <c r="K462" t="s">
-        <v>693</v>
+        <v>639</v>
       </c>
       <c r="L462" t="s">
-        <v>694</v>
+        <v>640</v>
       </c>
       <c r="M462" t="s">
-        <v>695</v>
+        <v>641</v>
       </c>
       <c r="N462" t="s">
-        <v>696</v>
+        <v>642</v>
       </c>
       <c r="O462" t="s">
-        <v>697</v>
+        <v>643</v>
       </c>
       <c r="P462" t="s">
-        <v>698</v>
+        <v>644</v>
       </c>
       <c r="Q462" t="s">
-        <v>81</v>
+        <v>645</v>
       </c>
       <c r="R462" t="s">
-        <v>700</v>
+        <v>646</v>
       </c>
       <c r="S462" t="s">
-        <v>701</v>
+        <v>648</v>
       </c>
       <c r="T462" t="s">
-        <v>702</v>
+        <v>649</v>
       </c>
     </row>
     <row r="463" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>630</v>
+      </c>
+      <c r="B463" t="s">
+        <v>631</v>
+      </c>
+      <c r="C463" t="s">
+        <v>632</v>
+      </c>
+      <c r="D463" t="s">
+        <v>320</v>
+      </c>
+      <c r="E463" t="s">
+        <v>633</v>
+      </c>
+      <c r="F463" t="s">
+        <v>73</v>
+      </c>
+      <c r="G463" t="s">
+        <v>634</v>
+      </c>
+      <c r="H463" t="s">
+        <v>635</v>
+      </c>
+      <c r="I463" t="s">
+        <v>637</v>
+      </c>
+      <c r="J463" t="s">
+        <v>638</v>
+      </c>
+      <c r="K463" t="s">
+        <v>639</v>
+      </c>
+      <c r="L463" t="s">
+        <v>640</v>
+      </c>
+      <c r="M463" t="s">
+        <v>641</v>
+      </c>
+      <c r="N463" t="s">
+        <v>642</v>
+      </c>
+      <c r="O463" t="s">
+        <v>643</v>
+      </c>
+      <c r="P463" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q463" t="s">
+        <v>645</v>
+      </c>
+      <c r="R463" t="s">
+        <v>647</v>
+      </c>
+      <c r="S463" t="s">
+        <v>648</v>
+      </c>
+      <c r="T463" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>630</v>
+      </c>
+      <c r="B464" t="s">
+        <v>631</v>
+      </c>
+      <c r="C464" t="s">
+        <v>632</v>
+      </c>
+      <c r="D464" t="s">
+        <v>320</v>
+      </c>
+      <c r="E464" t="s">
+        <v>633</v>
+      </c>
+      <c r="F464" t="s">
+        <v>73</v>
+      </c>
+      <c r="G464" t="s">
+        <v>634</v>
+      </c>
+      <c r="H464" t="s">
+        <v>635</v>
+      </c>
+      <c r="I464" t="s">
+        <v>637</v>
+      </c>
+      <c r="J464" t="s">
+        <v>638</v>
+      </c>
+      <c r="K464" t="s">
+        <v>639</v>
+      </c>
+      <c r="L464" t="s">
+        <v>640</v>
+      </c>
+      <c r="M464" t="s">
+        <v>641</v>
+      </c>
+      <c r="N464" t="s">
+        <v>642</v>
+      </c>
+      <c r="O464" t="s">
+        <v>643</v>
+      </c>
+      <c r="P464" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q464" t="s">
+        <v>645</v>
+      </c>
+      <c r="R464" t="s">
+        <v>647</v>
+      </c>
+      <c r="S464" t="s">
+        <v>648</v>
+      </c>
+      <c r="T464" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>630</v>
+      </c>
+      <c r="B465" t="s">
+        <v>631</v>
+      </c>
+      <c r="C465" t="s">
+        <v>632</v>
+      </c>
+      <c r="D465" t="s">
+        <v>320</v>
+      </c>
+      <c r="E465" t="s">
+        <v>633</v>
+      </c>
+      <c r="F465" t="s">
+        <v>73</v>
+      </c>
+      <c r="G465" t="s">
+        <v>634</v>
+      </c>
+      <c r="H465" t="s">
+        <v>636</v>
+      </c>
+      <c r="I465" t="s">
+        <v>637</v>
+      </c>
+      <c r="J465" t="s">
+        <v>638</v>
+      </c>
+      <c r="K465" t="s">
+        <v>639</v>
+      </c>
+      <c r="L465" t="s">
+        <v>640</v>
+      </c>
+      <c r="M465" t="s">
+        <v>641</v>
+      </c>
+      <c r="N465" t="s">
+        <v>642</v>
+      </c>
+      <c r="O465" t="s">
+        <v>643</v>
+      </c>
+      <c r="P465" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q465" t="s">
+        <v>645</v>
+      </c>
+      <c r="R465" t="s">
+        <v>647</v>
+      </c>
+      <c r="S465" t="s">
+        <v>648</v>
+      </c>
+      <c r="T465" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>630</v>
+      </c>
+      <c r="B466" t="s">
+        <v>631</v>
+      </c>
+      <c r="C466" t="s">
+        <v>632</v>
+      </c>
+      <c r="D466" t="s">
+        <v>320</v>
+      </c>
+      <c r="E466" t="s">
+        <v>633</v>
+      </c>
+      <c r="F466" t="s">
+        <v>73</v>
+      </c>
+      <c r="G466" t="s">
+        <v>634</v>
+      </c>
+      <c r="H466" t="s">
+        <v>635</v>
+      </c>
+      <c r="I466" t="s">
+        <v>637</v>
+      </c>
+      <c r="J466" t="s">
+        <v>638</v>
+      </c>
+      <c r="K466" t="s">
+        <v>639</v>
+      </c>
+      <c r="L466" t="s">
+        <v>640</v>
+      </c>
+      <c r="M466" t="s">
+        <v>641</v>
+      </c>
+      <c r="N466" t="s">
+        <v>642</v>
+      </c>
+      <c r="O466" t="s">
+        <v>643</v>
+      </c>
+      <c r="P466" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q466" t="s">
+        <v>645</v>
+      </c>
+      <c r="R466" t="s">
+        <v>647</v>
+      </c>
+      <c r="S466" t="s">
+        <v>648</v>
+      </c>
+      <c r="T466" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>630</v>
+      </c>
+      <c r="B467" t="s">
+        <v>631</v>
+      </c>
+      <c r="C467" t="s">
+        <v>632</v>
+      </c>
+      <c r="D467" t="s">
+        <v>320</v>
+      </c>
+      <c r="E467" t="s">
+        <v>633</v>
+      </c>
+      <c r="F467" t="s">
+        <v>73</v>
+      </c>
+      <c r="G467" t="s">
+        <v>634</v>
+      </c>
+      <c r="H467" t="s">
+        <v>635</v>
+      </c>
+      <c r="I467" t="s">
+        <v>637</v>
+      </c>
+      <c r="J467" t="s">
+        <v>638</v>
+      </c>
+      <c r="K467" t="s">
+        <v>639</v>
+      </c>
+      <c r="L467" t="s">
+        <v>640</v>
+      </c>
+      <c r="M467" t="s">
+        <v>641</v>
+      </c>
+      <c r="N467" t="s">
+        <v>642</v>
+      </c>
+      <c r="O467" t="s">
+        <v>643</v>
+      </c>
+      <c r="P467" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q467" t="s">
+        <v>645</v>
+      </c>
+      <c r="R467" t="s">
+        <v>647</v>
+      </c>
+      <c r="S467" t="s">
+        <v>648</v>
+      </c>
+      <c r="T467" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>630</v>
+      </c>
+      <c r="B468" t="s">
+        <v>631</v>
+      </c>
+      <c r="C468" t="s">
+        <v>632</v>
+      </c>
+      <c r="D468" t="s">
+        <v>320</v>
+      </c>
+      <c r="E468" t="s">
+        <v>633</v>
+      </c>
+      <c r="F468" t="s">
+        <v>73</v>
+      </c>
+      <c r="G468" t="s">
+        <v>634</v>
+      </c>
+      <c r="H468" t="s">
+        <v>635</v>
+      </c>
+      <c r="I468" t="s">
+        <v>637</v>
+      </c>
+      <c r="J468" t="s">
+        <v>638</v>
+      </c>
+      <c r="K468" t="s">
+        <v>639</v>
+      </c>
+      <c r="L468" t="s">
+        <v>640</v>
+      </c>
+      <c r="M468" t="s">
+        <v>641</v>
+      </c>
+      <c r="N468" t="s">
+        <v>642</v>
+      </c>
+      <c r="O468" t="s">
+        <v>643</v>
+      </c>
+      <c r="P468" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q468" t="s">
+        <v>645</v>
+      </c>
+      <c r="R468" t="s">
+        <v>647</v>
+      </c>
+      <c r="S468" t="s">
+        <v>648</v>
+      </c>
+      <c r="T468" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>630</v>
+      </c>
+      <c r="B469" t="s">
+        <v>631</v>
+      </c>
+      <c r="C469" t="s">
+        <v>632</v>
+      </c>
+      <c r="D469" t="s">
+        <v>320</v>
+      </c>
+      <c r="E469" t="s">
+        <v>633</v>
+      </c>
+      <c r="F469" t="s">
+        <v>73</v>
+      </c>
+      <c r="G469" t="s">
+        <v>634</v>
+      </c>
+      <c r="H469" t="s">
+        <v>635</v>
+      </c>
+      <c r="I469" t="s">
+        <v>637</v>
+      </c>
+      <c r="J469" t="s">
+        <v>638</v>
+      </c>
+      <c r="K469" t="s">
+        <v>639</v>
+      </c>
+      <c r="L469" t="s">
+        <v>640</v>
+      </c>
+      <c r="M469" t="s">
+        <v>641</v>
+      </c>
+      <c r="N469" t="s">
+        <v>642</v>
+      </c>
+      <c r="O469" t="s">
+        <v>643</v>
+      </c>
+      <c r="P469" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q469" t="s">
+        <v>645</v>
+      </c>
+      <c r="R469" t="s">
+        <v>647</v>
+      </c>
+      <c r="S469" t="s">
+        <v>648</v>
+      </c>
+      <c r="T469" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>630</v>
+      </c>
+      <c r="B470" t="s">
+        <v>631</v>
+      </c>
+      <c r="C470" t="s">
+        <v>632</v>
+      </c>
+      <c r="D470" t="s">
+        <v>320</v>
+      </c>
+      <c r="E470" t="s">
+        <v>633</v>
+      </c>
+      <c r="F470" t="s">
+        <v>73</v>
+      </c>
+      <c r="G470" t="s">
+        <v>634</v>
+      </c>
+      <c r="H470" t="s">
+        <v>635</v>
+      </c>
+      <c r="I470" t="s">
+        <v>637</v>
+      </c>
+      <c r="J470" t="s">
+        <v>638</v>
+      </c>
+      <c r="K470" t="s">
+        <v>639</v>
+      </c>
+      <c r="L470" t="s">
+        <v>640</v>
+      </c>
+      <c r="M470" t="s">
+        <v>641</v>
+      </c>
+      <c r="N470" t="s">
+        <v>642</v>
+      </c>
+      <c r="O470" t="s">
+        <v>643</v>
+      </c>
+      <c r="P470" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q470" t="s">
+        <v>645</v>
+      </c>
+      <c r="R470" t="s">
+        <v>647</v>
+      </c>
+      <c r="S470" t="s">
+        <v>648</v>
+      </c>
+      <c r="T470" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>630</v>
+      </c>
+      <c r="B471" t="s">
+        <v>631</v>
+      </c>
+      <c r="C471" t="s">
+        <v>632</v>
+      </c>
+      <c r="D471" t="s">
+        <v>320</v>
+      </c>
+      <c r="E471" t="s">
+        <v>633</v>
+      </c>
+      <c r="F471" t="s">
+        <v>73</v>
+      </c>
+      <c r="G471" t="s">
+        <v>634</v>
+      </c>
+      <c r="H471" t="s">
+        <v>635</v>
+      </c>
+      <c r="I471" t="s">
+        <v>637</v>
+      </c>
+      <c r="J471" t="s">
+        <v>638</v>
+      </c>
+      <c r="K471" t="s">
+        <v>639</v>
+      </c>
+      <c r="L471" t="s">
+        <v>640</v>
+      </c>
+      <c r="M471" t="s">
+        <v>641</v>
+      </c>
+      <c r="N471" t="s">
+        <v>642</v>
+      </c>
+      <c r="O471" t="s">
+        <v>643</v>
+      </c>
+      <c r="P471" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q471" t="s">
+        <v>645</v>
+      </c>
+      <c r="R471" t="s">
+        <v>647</v>
+      </c>
+      <c r="S471" t="s">
+        <v>648</v>
+      </c>
+      <c r="T471" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>630</v>
+      </c>
+      <c r="B472" t="s">
+        <v>631</v>
+      </c>
+      <c r="C472" t="s">
+        <v>632</v>
+      </c>
+      <c r="D472" t="s">
+        <v>320</v>
+      </c>
+      <c r="E472" t="s">
+        <v>633</v>
+      </c>
+      <c r="F472" t="s">
+        <v>73</v>
+      </c>
+      <c r="G472" t="s">
+        <v>634</v>
+      </c>
+      <c r="H472" t="s">
+        <v>635</v>
+      </c>
+      <c r="I472" t="s">
+        <v>637</v>
+      </c>
+      <c r="J472" t="s">
+        <v>638</v>
+      </c>
+      <c r="K472" t="s">
+        <v>639</v>
+      </c>
+      <c r="L472" t="s">
+        <v>640</v>
+      </c>
+      <c r="M472" t="s">
+        <v>641</v>
+      </c>
+      <c r="N472" t="s">
+        <v>642</v>
+      </c>
+      <c r="O472" t="s">
+        <v>643</v>
+      </c>
+      <c r="P472" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q472" t="s">
+        <v>645</v>
+      </c>
+      <c r="R472" t="s">
+        <v>647</v>
+      </c>
+      <c r="S472" t="s">
+        <v>648</v>
+      </c>
+      <c r="T472" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>630</v>
+      </c>
+      <c r="B473" t="s">
+        <v>631</v>
+      </c>
+      <c r="C473" t="s">
+        <v>632</v>
+      </c>
+      <c r="D473" t="s">
+        <v>320</v>
+      </c>
+      <c r="E473" t="s">
+        <v>633</v>
+      </c>
+      <c r="F473" t="s">
+        <v>73</v>
+      </c>
+      <c r="G473" t="s">
+        <v>634</v>
+      </c>
+      <c r="H473" t="s">
+        <v>635</v>
+      </c>
+      <c r="I473" t="s">
+        <v>637</v>
+      </c>
+      <c r="J473" t="s">
+        <v>638</v>
+      </c>
+      <c r="K473" t="s">
+        <v>639</v>
+      </c>
+      <c r="L473" t="s">
+        <v>640</v>
+      </c>
+      <c r="M473" t="s">
+        <v>641</v>
+      </c>
+      <c r="N473" t="s">
+        <v>642</v>
+      </c>
+      <c r="O473" t="s">
+        <v>643</v>
+      </c>
+      <c r="P473" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q473" t="s">
+        <v>645</v>
+      </c>
+      <c r="R473" t="s">
+        <v>647</v>
+      </c>
+      <c r="S473" t="s">
+        <v>648</v>
+      </c>
+      <c r="T473" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>630</v>
+      </c>
+      <c r="B475" t="s">
+        <v>631</v>
+      </c>
+      <c r="C475" t="s">
+        <v>632</v>
+      </c>
+      <c r="D475" t="s">
+        <v>320</v>
+      </c>
+      <c r="E475" t="s">
+        <v>633</v>
+      </c>
+      <c r="F475" t="s">
+        <v>73</v>
+      </c>
+      <c r="G475" t="s">
+        <v>634</v>
+      </c>
+      <c r="H475" t="s">
+        <v>635</v>
+      </c>
+      <c r="I475" t="s">
+        <v>637</v>
+      </c>
+      <c r="J475" t="s">
+        <v>638</v>
+      </c>
+      <c r="K475" t="s">
+        <v>639</v>
+      </c>
+      <c r="L475" t="s">
+        <v>640</v>
+      </c>
+      <c r="M475" t="s">
+        <v>641</v>
+      </c>
+      <c r="N475" t="s">
+        <v>642</v>
+      </c>
+      <c r="O475" t="s">
+        <v>643</v>
+      </c>
+      <c r="P475" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q475" t="s">
+        <v>645</v>
+      </c>
+      <c r="R475" t="s">
+        <v>647</v>
+      </c>
+      <c r="S475" t="s">
+        <v>648</v>
+      </c>
+      <c r="T475" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>630</v>
+      </c>
+      <c r="B476" t="s">
+        <v>631</v>
+      </c>
+      <c r="C476" t="s">
+        <v>632</v>
+      </c>
+      <c r="D476" t="s">
+        <v>320</v>
+      </c>
+      <c r="E476" t="s">
+        <v>633</v>
+      </c>
+      <c r="F476" t="s">
+        <v>73</v>
+      </c>
+      <c r="G476" t="s">
+        <v>634</v>
+      </c>
+      <c r="H476" t="s">
+        <v>635</v>
+      </c>
+      <c r="I476" t="s">
+        <v>637</v>
+      </c>
+      <c r="J476" t="s">
+        <v>638</v>
+      </c>
+      <c r="K476" t="s">
+        <v>639</v>
+      </c>
+      <c r="L476" t="s">
+        <v>640</v>
+      </c>
+      <c r="M476" t="s">
+        <v>641</v>
+      </c>
+      <c r="N476" t="s">
+        <v>642</v>
+      </c>
+      <c r="O476" t="s">
+        <v>643</v>
+      </c>
+      <c r="P476" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q476" t="s">
+        <v>645</v>
+      </c>
+      <c r="R476" t="s">
+        <v>647</v>
+      </c>
+      <c r="S476" t="s">
+        <v>648</v>
+      </c>
+      <c r="T476" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>630</v>
+      </c>
+      <c r="B477" t="s">
+        <v>631</v>
+      </c>
+      <c r="C477" t="s">
+        <v>632</v>
+      </c>
+      <c r="D477" t="s">
+        <v>320</v>
+      </c>
+      <c r="E477" t="s">
+        <v>633</v>
+      </c>
+      <c r="F477" t="s">
+        <v>73</v>
+      </c>
+      <c r="G477" t="s">
+        <v>634</v>
+      </c>
+      <c r="H477" t="s">
+        <v>635</v>
+      </c>
+      <c r="I477" t="s">
+        <v>637</v>
+      </c>
+      <c r="J477" t="s">
+        <v>638</v>
+      </c>
+      <c r="K477" t="s">
+        <v>639</v>
+      </c>
+      <c r="L477" t="s">
+        <v>640</v>
+      </c>
+      <c r="M477" t="s">
+        <v>641</v>
+      </c>
+      <c r="N477" t="s">
+        <v>642</v>
+      </c>
+      <c r="O477" t="s">
+        <v>643</v>
+      </c>
+      <c r="P477" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q477" t="s">
+        <v>645</v>
+      </c>
+      <c r="R477" t="s">
+        <v>647</v>
+      </c>
+      <c r="S477" t="s">
+        <v>648</v>
+      </c>
+      <c r="T477" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>630</v>
+      </c>
+      <c r="B478" t="s">
+        <v>631</v>
+      </c>
+      <c r="C478" t="s">
+        <v>632</v>
+      </c>
+      <c r="D478" t="s">
+        <v>320</v>
+      </c>
+      <c r="E478" t="s">
+        <v>633</v>
+      </c>
+      <c r="F478" t="s">
+        <v>73</v>
+      </c>
+      <c r="G478" t="s">
+        <v>634</v>
+      </c>
+      <c r="H478" t="s">
+        <v>635</v>
+      </c>
+      <c r="I478" t="s">
+        <v>637</v>
+      </c>
+      <c r="J478" t="s">
+        <v>638</v>
+      </c>
+      <c r="K478" t="s">
+        <v>639</v>
+      </c>
+      <c r="L478" t="s">
+        <v>640</v>
+      </c>
+      <c r="M478" t="s">
+        <v>641</v>
+      </c>
+      <c r="N478" t="s">
+        <v>642</v>
+      </c>
+      <c r="O478" t="s">
+        <v>643</v>
+      </c>
+      <c r="P478" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q478" t="s">
+        <v>645</v>
+      </c>
+      <c r="R478" t="s">
+        <v>647</v>
+      </c>
+      <c r="S478" t="s">
+        <v>648</v>
+      </c>
+      <c r="T478" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>630</v>
+      </c>
+      <c r="B479" t="s">
+        <v>631</v>
+      </c>
+      <c r="C479" t="s">
+        <v>632</v>
+      </c>
+      <c r="D479" t="s">
+        <v>320</v>
+      </c>
+      <c r="E479" t="s">
+        <v>633</v>
+      </c>
+      <c r="F479" t="s">
+        <v>73</v>
+      </c>
+      <c r="G479" t="s">
+        <v>634</v>
+      </c>
+      <c r="H479" t="s">
+        <v>635</v>
+      </c>
+      <c r="I479" t="s">
+        <v>637</v>
+      </c>
+      <c r="J479" t="s">
+        <v>638</v>
+      </c>
+      <c r="K479" t="s">
+        <v>639</v>
+      </c>
+      <c r="L479" t="s">
+        <v>640</v>
+      </c>
+      <c r="M479" t="s">
+        <v>641</v>
+      </c>
+      <c r="N479" t="s">
+        <v>642</v>
+      </c>
+      <c r="O479" t="s">
+        <v>643</v>
+      </c>
+      <c r="P479" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q479" t="s">
+        <v>645</v>
+      </c>
+      <c r="R479" t="s">
+        <v>647</v>
+      </c>
+      <c r="S479" t="s">
+        <v>648</v>
+      </c>
+      <c r="T479" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>630</v>
+      </c>
+      <c r="B480" t="s">
+        <v>631</v>
+      </c>
+      <c r="C480" t="s">
+        <v>632</v>
+      </c>
+      <c r="D480" t="s">
+        <v>320</v>
+      </c>
+      <c r="E480" t="s">
+        <v>633</v>
+      </c>
+      <c r="F480" t="s">
+        <v>73</v>
+      </c>
+      <c r="G480" t="s">
+        <v>634</v>
+      </c>
+      <c r="H480" t="s">
+        <v>635</v>
+      </c>
+      <c r="I480" t="s">
+        <v>637</v>
+      </c>
+      <c r="J480" t="s">
+        <v>638</v>
+      </c>
+      <c r="K480" t="s">
+        <v>639</v>
+      </c>
+      <c r="L480" t="s">
+        <v>640</v>
+      </c>
+      <c r="M480" t="s">
+        <v>641</v>
+      </c>
+      <c r="N480" t="s">
+        <v>642</v>
+      </c>
+      <c r="O480" t="s">
+        <v>643</v>
+      </c>
+      <c r="P480" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q480" t="s">
+        <v>645</v>
+      </c>
+      <c r="R480" t="s">
+        <v>647</v>
+      </c>
+      <c r="S480" t="s">
+        <v>648</v>
+      </c>
+      <c r="T480" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>630</v>
+      </c>
+      <c r="B481" t="s">
+        <v>631</v>
+      </c>
+      <c r="C481" t="s">
+        <v>632</v>
+      </c>
+      <c r="D481" t="s">
+        <v>320</v>
+      </c>
+      <c r="E481" t="s">
+        <v>633</v>
+      </c>
+      <c r="F481" t="s">
+        <v>73</v>
+      </c>
+      <c r="G481" t="s">
+        <v>634</v>
+      </c>
+      <c r="H481" t="s">
+        <v>635</v>
+      </c>
+      <c r="I481" t="s">
+        <v>637</v>
+      </c>
+      <c r="J481" t="s">
+        <v>638</v>
+      </c>
+      <c r="K481" t="s">
+        <v>639</v>
+      </c>
+      <c r="L481" t="s">
+        <v>640</v>
+      </c>
+      <c r="M481" t="s">
+        <v>641</v>
+      </c>
+      <c r="N481" t="s">
+        <v>642</v>
+      </c>
+      <c r="O481" t="s">
+        <v>643</v>
+      </c>
+      <c r="P481" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q481" t="s">
+        <v>645</v>
+      </c>
+      <c r="R481" t="s">
+        <v>647</v>
+      </c>
+      <c r="S481" t="s">
+        <v>648</v>
+      </c>
+      <c r="T481" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>630</v>
+      </c>
+      <c r="B482" t="s">
+        <v>631</v>
+      </c>
+      <c r="C482" t="s">
+        <v>632</v>
+      </c>
+      <c r="D482" t="s">
+        <v>320</v>
+      </c>
+      <c r="E482" t="s">
+        <v>633</v>
+      </c>
+      <c r="F482" t="s">
+        <v>73</v>
+      </c>
+      <c r="G482" t="s">
+        <v>634</v>
+      </c>
+      <c r="H482" t="s">
+        <v>635</v>
+      </c>
+      <c r="I482" t="s">
+        <v>637</v>
+      </c>
+      <c r="J482" t="s">
+        <v>638</v>
+      </c>
+      <c r="K482" t="s">
+        <v>639</v>
+      </c>
+      <c r="L482" t="s">
+        <v>640</v>
+      </c>
+      <c r="M482" t="s">
+        <v>641</v>
+      </c>
+      <c r="N482" t="s">
+        <v>642</v>
+      </c>
+      <c r="O482" t="s">
+        <v>643</v>
+      </c>
+      <c r="P482" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q482" t="s">
+        <v>645</v>
+      </c>
+      <c r="R482" t="s">
+        <v>647</v>
+      </c>
+      <c r="S482" t="s">
+        <v>648</v>
+      </c>
+      <c r="T482" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>630</v>
+      </c>
+      <c r="B483" t="s">
+        <v>631</v>
+      </c>
+      <c r="C483" t="s">
+        <v>632</v>
+      </c>
+      <c r="D483" t="s">
+        <v>320</v>
+      </c>
+      <c r="E483" t="s">
+        <v>633</v>
+      </c>
+      <c r="F483" t="s">
+        <v>73</v>
+      </c>
+      <c r="G483" t="s">
+        <v>634</v>
+      </c>
+      <c r="H483" t="s">
+        <v>635</v>
+      </c>
+      <c r="I483" t="s">
+        <v>637</v>
+      </c>
+      <c r="J483" t="s">
+        <v>638</v>
+      </c>
+      <c r="K483" t="s">
+        <v>639</v>
+      </c>
+      <c r="L483" t="s">
+        <v>640</v>
+      </c>
+      <c r="M483" t="s">
+        <v>641</v>
+      </c>
+      <c r="N483" t="s">
+        <v>642</v>
+      </c>
+      <c r="O483" t="s">
+        <v>643</v>
+      </c>
+      <c r="P483" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q483" t="s">
+        <v>645</v>
+      </c>
+      <c r="R483" t="s">
+        <v>647</v>
+      </c>
+      <c r="S483" t="s">
+        <v>648</v>
+      </c>
+      <c r="T483" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>630</v>
+      </c>
+      <c r="B484" t="s">
+        <v>631</v>
+      </c>
+      <c r="C484" t="s">
+        <v>632</v>
+      </c>
+      <c r="D484" t="s">
+        <v>320</v>
+      </c>
+      <c r="E484" t="s">
+        <v>633</v>
+      </c>
+      <c r="F484" t="s">
+        <v>73</v>
+      </c>
+      <c r="G484" t="s">
+        <v>634</v>
+      </c>
+      <c r="H484" t="s">
+        <v>635</v>
+      </c>
+      <c r="I484" t="s">
+        <v>637</v>
+      </c>
+      <c r="J484" t="s">
+        <v>638</v>
+      </c>
+      <c r="K484" t="s">
+        <v>639</v>
+      </c>
+      <c r="L484" t="s">
+        <v>640</v>
+      </c>
+      <c r="M484" t="s">
+        <v>641</v>
+      </c>
+      <c r="N484" t="s">
+        <v>642</v>
+      </c>
+      <c r="O484" t="s">
+        <v>643</v>
+      </c>
+      <c r="P484" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q484" t="s">
+        <v>645</v>
+      </c>
+      <c r="R484" t="s">
+        <v>647</v>
+      </c>
+      <c r="S484" t="s">
+        <v>648</v>
+      </c>
+      <c r="T484" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>630</v>
+      </c>
+      <c r="B485" t="s">
+        <v>631</v>
+      </c>
+      <c r="C485" t="s">
+        <v>632</v>
+      </c>
+      <c r="D485" t="s">
+        <v>320</v>
+      </c>
+      <c r="E485" t="s">
+        <v>633</v>
+      </c>
+      <c r="F485" t="s">
+        <v>73</v>
+      </c>
+      <c r="G485" t="s">
+        <v>634</v>
+      </c>
+      <c r="H485" t="s">
+        <v>635</v>
+      </c>
+      <c r="I485" t="s">
+        <v>637</v>
+      </c>
+      <c r="J485" t="s">
+        <v>638</v>
+      </c>
+      <c r="K485" t="s">
+        <v>639</v>
+      </c>
+      <c r="L485" t="s">
+        <v>640</v>
+      </c>
+      <c r="M485" t="s">
+        <v>641</v>
+      </c>
+      <c r="N485" t="s">
+        <v>642</v>
+      </c>
+      <c r="O485" t="s">
+        <v>643</v>
+      </c>
+      <c r="P485" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q485" t="s">
+        <v>645</v>
+      </c>
+      <c r="R485" t="s">
+        <v>647</v>
+      </c>
+      <c r="S485" t="s">
+        <v>648</v>
+      </c>
+      <c r="T485" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>630</v>
+      </c>
+      <c r="B486" t="s">
+        <v>631</v>
+      </c>
+      <c r="C486" t="s">
+        <v>632</v>
+      </c>
+      <c r="D486" t="s">
+        <v>320</v>
+      </c>
+      <c r="E486" t="s">
+        <v>633</v>
+      </c>
+      <c r="F486" t="s">
+        <v>73</v>
+      </c>
+      <c r="G486" t="s">
+        <v>634</v>
+      </c>
+      <c r="H486" t="s">
+        <v>635</v>
+      </c>
+      <c r="I486" t="s">
+        <v>637</v>
+      </c>
+      <c r="J486" t="s">
+        <v>638</v>
+      </c>
+      <c r="K486" t="s">
+        <v>639</v>
+      </c>
+      <c r="L486" t="s">
+        <v>640</v>
+      </c>
+      <c r="M486" t="s">
+        <v>641</v>
+      </c>
+      <c r="N486" t="s">
+        <v>642</v>
+      </c>
+      <c r="O486" t="s">
+        <v>643</v>
+      </c>
+      <c r="P486" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q486" t="s">
+        <v>645</v>
+      </c>
+      <c r="R486" t="s">
+        <v>647</v>
+      </c>
+      <c r="S486" t="s">
+        <v>648</v>
+      </c>
+      <c r="T486" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>630</v>
+      </c>
+      <c r="B487" t="s">
+        <v>631</v>
+      </c>
+      <c r="C487" t="s">
+        <v>632</v>
+      </c>
+      <c r="D487" t="s">
+        <v>320</v>
+      </c>
+      <c r="E487" t="s">
+        <v>633</v>
+      </c>
+      <c r="F487" t="s">
+        <v>73</v>
+      </c>
+      <c r="G487" t="s">
+        <v>634</v>
+      </c>
+      <c r="H487" t="s">
+        <v>635</v>
+      </c>
+      <c r="I487" t="s">
+        <v>637</v>
+      </c>
+      <c r="J487" t="s">
+        <v>638</v>
+      </c>
+      <c r="K487" t="s">
+        <v>639</v>
+      </c>
+      <c r="L487" t="s">
+        <v>640</v>
+      </c>
+      <c r="M487" t="s">
+        <v>641</v>
+      </c>
+      <c r="N487" t="s">
+        <v>642</v>
+      </c>
+      <c r="O487" t="s">
+        <v>643</v>
+      </c>
+      <c r="P487" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q487" t="s">
+        <v>645</v>
+      </c>
+      <c r="R487" t="s">
+        <v>647</v>
+      </c>
+      <c r="S487" t="s">
+        <v>648</v>
+      </c>
+      <c r="T487" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="490" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A490" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="D490" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="G490" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H490" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="I490" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="J490" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K490" t="s">
+        <v>34</v>
+      </c>
+      <c r="L490" t="s">
+        <v>216</v>
+      </c>
+      <c r="M490" t="s">
+        <v>75</v>
+      </c>
+      <c r="N490" t="s">
+        <v>418</v>
+      </c>
+      <c r="O490" t="s">
+        <v>74</v>
+      </c>
+      <c r="P490" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q490" t="s">
+        <v>224</v>
+      </c>
+      <c r="R490" t="s">
+        <v>534</v>
+      </c>
+      <c r="S490" t="s">
+        <v>364</v>
+      </c>
+      <c r="T490" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>658</v>
+      </c>
+      <c r="B491" t="s">
+        <v>659</v>
+      </c>
+      <c r="C491" t="s">
+        <v>660</v>
+      </c>
+      <c r="D491" t="s">
+        <v>661</v>
+      </c>
+      <c r="E491" t="s">
+        <v>662</v>
+      </c>
+      <c r="F491" t="s">
+        <v>663</v>
+      </c>
+      <c r="G491" t="s">
+        <v>665</v>
+      </c>
+      <c r="H491" t="s">
+        <v>666</v>
+      </c>
+      <c r="I491" t="s">
+        <v>564</v>
+      </c>
+      <c r="J491" t="s">
+        <v>358</v>
+      </c>
+      <c r="K491" t="s">
+        <v>34</v>
+      </c>
+      <c r="L491" t="s">
+        <v>216</v>
+      </c>
+      <c r="M491" t="s">
+        <v>75</v>
+      </c>
+      <c r="N491" t="s">
+        <v>418</v>
+      </c>
+      <c r="O491" t="s">
+        <v>74</v>
+      </c>
+      <c r="P491" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q491" t="s">
+        <v>224</v>
+      </c>
+      <c r="R491" t="s">
+        <v>534</v>
+      </c>
+      <c r="S491" t="s">
+        <v>364</v>
+      </c>
+      <c r="T491" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>658</v>
+      </c>
+      <c r="B492" t="s">
+        <v>659</v>
+      </c>
+      <c r="C492" t="s">
+        <v>660</v>
+      </c>
+      <c r="D492" t="s">
+        <v>661</v>
+      </c>
+      <c r="E492" t="s">
+        <v>662</v>
+      </c>
+      <c r="F492" t="s">
+        <v>663</v>
+      </c>
+      <c r="G492" t="s">
+        <v>665</v>
+      </c>
+      <c r="H492" t="s">
+        <v>666</v>
+      </c>
+      <c r="I492" t="s">
+        <v>564</v>
+      </c>
+      <c r="J492" t="s">
+        <v>358</v>
+      </c>
+      <c r="K492" t="s">
+        <v>34</v>
+      </c>
+      <c r="L492" t="s">
+        <v>216</v>
+      </c>
+      <c r="M492" t="s">
+        <v>75</v>
+      </c>
+      <c r="N492" t="s">
+        <v>418</v>
+      </c>
+      <c r="O492" t="s">
+        <v>74</v>
+      </c>
+      <c r="P492" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q492" t="s">
+        <v>224</v>
+      </c>
+      <c r="R492" t="s">
+        <v>534</v>
+      </c>
+      <c r="S492" t="s">
+        <v>364</v>
+      </c>
+      <c r="T492" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>658</v>
+      </c>
+      <c r="B493" t="s">
+        <v>659</v>
+      </c>
+      <c r="C493" t="s">
+        <v>660</v>
+      </c>
+      <c r="D493" t="s">
+        <v>661</v>
+      </c>
+      <c r="E493" t="s">
+        <v>662</v>
+      </c>
+      <c r="F493" t="s">
+        <v>664</v>
+      </c>
+      <c r="G493" t="s">
+        <v>665</v>
+      </c>
+      <c r="H493" t="s">
+        <v>666</v>
+      </c>
+      <c r="I493" t="s">
+        <v>564</v>
+      </c>
+      <c r="J493" t="s">
+        <v>358</v>
+      </c>
+      <c r="K493" t="s">
+        <v>34</v>
+      </c>
+      <c r="L493" t="s">
+        <v>216</v>
+      </c>
+      <c r="M493" t="s">
+        <v>75</v>
+      </c>
+      <c r="N493" t="s">
+        <v>418</v>
+      </c>
+      <c r="O493" t="s">
+        <v>74</v>
+      </c>
+      <c r="P493" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q493" t="s">
+        <v>224</v>
+      </c>
+      <c r="R493" t="s">
+        <v>534</v>
+      </c>
+      <c r="S493" t="s">
+        <v>364</v>
+      </c>
+      <c r="T493" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>658</v>
+      </c>
+      <c r="B494" t="s">
+        <v>659</v>
+      </c>
+      <c r="C494" t="s">
+        <v>660</v>
+      </c>
+      <c r="D494" t="s">
+        <v>661</v>
+      </c>
+      <c r="E494" t="s">
+        <v>662</v>
+      </c>
+      <c r="F494" t="s">
+        <v>663</v>
+      </c>
+      <c r="G494" t="s">
+        <v>665</v>
+      </c>
+      <c r="H494" t="s">
+        <v>666</v>
+      </c>
+      <c r="I494" t="s">
+        <v>564</v>
+      </c>
+      <c r="J494" t="s">
+        <v>358</v>
+      </c>
+      <c r="K494" t="s">
+        <v>34</v>
+      </c>
+      <c r="L494" t="s">
+        <v>216</v>
+      </c>
+      <c r="M494" t="s">
+        <v>75</v>
+      </c>
+      <c r="N494" t="s">
+        <v>418</v>
+      </c>
+      <c r="O494" t="s">
+        <v>74</v>
+      </c>
+      <c r="P494" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q494" t="s">
+        <v>224</v>
+      </c>
+      <c r="R494" t="s">
+        <v>534</v>
+      </c>
+      <c r="S494" t="s">
+        <v>364</v>
+      </c>
+      <c r="T494" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>658</v>
+      </c>
+      <c r="B495" t="s">
+        <v>659</v>
+      </c>
+      <c r="C495" t="s">
+        <v>660</v>
+      </c>
+      <c r="D495" t="s">
+        <v>661</v>
+      </c>
+      <c r="E495" t="s">
+        <v>662</v>
+      </c>
+      <c r="F495" t="s">
+        <v>663</v>
+      </c>
+      <c r="G495" t="s">
+        <v>665</v>
+      </c>
+      <c r="H495" t="s">
+        <v>666</v>
+      </c>
+      <c r="I495" t="s">
+        <v>564</v>
+      </c>
+      <c r="J495" t="s">
+        <v>358</v>
+      </c>
+      <c r="K495" t="s">
+        <v>34</v>
+      </c>
+      <c r="L495" t="s">
+        <v>216</v>
+      </c>
+      <c r="M495" t="s">
+        <v>75</v>
+      </c>
+      <c r="N495" t="s">
+        <v>418</v>
+      </c>
+      <c r="O495" t="s">
+        <v>74</v>
+      </c>
+      <c r="P495" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q495" t="s">
+        <v>224</v>
+      </c>
+      <c r="R495" t="s">
+        <v>534</v>
+      </c>
+      <c r="S495" t="s">
+        <v>364</v>
+      </c>
+      <c r="T495" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>658</v>
+      </c>
+      <c r="B496" t="s">
+        <v>659</v>
+      </c>
+      <c r="C496" t="s">
+        <v>660</v>
+      </c>
+      <c r="D496" t="s">
+        <v>661</v>
+      </c>
+      <c r="E496" t="s">
+        <v>662</v>
+      </c>
+      <c r="F496" t="s">
+        <v>663</v>
+      </c>
+      <c r="G496" t="s">
+        <v>665</v>
+      </c>
+      <c r="H496" t="s">
+        <v>666</v>
+      </c>
+      <c r="I496" t="s">
+        <v>564</v>
+      </c>
+      <c r="J496" t="s">
+        <v>358</v>
+      </c>
+      <c r="K496" t="s">
+        <v>34</v>
+      </c>
+      <c r="L496" t="s">
+        <v>216</v>
+      </c>
+      <c r="M496" t="s">
+        <v>75</v>
+      </c>
+      <c r="N496" t="s">
+        <v>418</v>
+      </c>
+      <c r="O496" t="s">
+        <v>74</v>
+      </c>
+      <c r="P496" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q496" t="s">
+        <v>224</v>
+      </c>
+      <c r="R496" t="s">
+        <v>534</v>
+      </c>
+      <c r="S496" t="s">
+        <v>364</v>
+      </c>
+      <c r="T496" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>658</v>
+      </c>
+      <c r="B497" t="s">
+        <v>659</v>
+      </c>
+      <c r="C497" t="s">
+        <v>660</v>
+      </c>
+      <c r="D497" t="s">
+        <v>661</v>
+      </c>
+      <c r="E497" t="s">
+        <v>662</v>
+      </c>
+      <c r="F497" t="s">
+        <v>663</v>
+      </c>
+      <c r="G497" t="s">
+        <v>665</v>
+      </c>
+      <c r="H497" t="s">
+        <v>666</v>
+      </c>
+      <c r="I497" t="s">
+        <v>564</v>
+      </c>
+      <c r="J497" t="s">
+        <v>358</v>
+      </c>
+      <c r="K497" t="s">
+        <v>34</v>
+      </c>
+      <c r="L497" t="s">
+        <v>216</v>
+      </c>
+      <c r="M497" t="s">
+        <v>75</v>
+      </c>
+      <c r="N497" t="s">
+        <v>418</v>
+      </c>
+      <c r="O497" t="s">
+        <v>74</v>
+      </c>
+      <c r="P497" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q497" t="s">
+        <v>224</v>
+      </c>
+      <c r="R497" t="s">
+        <v>534</v>
+      </c>
+      <c r="S497" t="s">
+        <v>364</v>
+      </c>
+      <c r="T497" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>658</v>
+      </c>
+      <c r="B498" t="s">
+        <v>659</v>
+      </c>
+      <c r="C498" t="s">
+        <v>660</v>
+      </c>
+      <c r="D498" t="s">
+        <v>661</v>
+      </c>
+      <c r="E498" t="s">
+        <v>662</v>
+      </c>
+      <c r="F498" t="s">
+        <v>663</v>
+      </c>
+      <c r="G498" t="s">
+        <v>665</v>
+      </c>
+      <c r="H498" t="s">
+        <v>666</v>
+      </c>
+      <c r="I498" t="s">
+        <v>564</v>
+      </c>
+      <c r="J498" t="s">
+        <v>358</v>
+      </c>
+      <c r="K498" t="s">
+        <v>34</v>
+      </c>
+      <c r="L498" t="s">
+        <v>216</v>
+      </c>
+      <c r="M498" t="s">
+        <v>75</v>
+      </c>
+      <c r="N498" t="s">
+        <v>418</v>
+      </c>
+      <c r="O498" t="s">
+        <v>74</v>
+      </c>
+      <c r="P498" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q498" t="s">
+        <v>224</v>
+      </c>
+      <c r="R498" t="s">
+        <v>534</v>
+      </c>
+      <c r="S498" t="s">
+        <v>364</v>
+      </c>
+      <c r="T498" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>658</v>
+      </c>
+      <c r="B499" t="s">
+        <v>659</v>
+      </c>
+      <c r="C499" t="s">
+        <v>660</v>
+      </c>
+      <c r="D499" t="s">
+        <v>661</v>
+      </c>
+      <c r="E499" t="s">
+        <v>662</v>
+      </c>
+      <c r="F499" t="s">
+        <v>663</v>
+      </c>
+      <c r="G499" t="s">
+        <v>665</v>
+      </c>
+      <c r="H499" t="s">
+        <v>666</v>
+      </c>
+      <c r="I499" t="s">
+        <v>564</v>
+      </c>
+      <c r="J499" t="s">
+        <v>358</v>
+      </c>
+      <c r="K499" t="s">
+        <v>34</v>
+      </c>
+      <c r="L499" t="s">
+        <v>216</v>
+      </c>
+      <c r="M499" t="s">
+        <v>75</v>
+      </c>
+      <c r="N499" t="s">
+        <v>418</v>
+      </c>
+      <c r="O499" t="s">
+        <v>74</v>
+      </c>
+      <c r="P499" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q499" t="s">
+        <v>224</v>
+      </c>
+      <c r="R499" t="s">
+        <v>534</v>
+      </c>
+      <c r="S499" t="s">
+        <v>364</v>
+      </c>
+      <c r="T499" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>658</v>
+      </c>
+      <c r="B500" t="s">
+        <v>659</v>
+      </c>
+      <c r="C500" t="s">
+        <v>660</v>
+      </c>
+      <c r="D500" t="s">
+        <v>661</v>
+      </c>
+      <c r="E500" t="s">
+        <v>662</v>
+      </c>
+      <c r="F500" t="s">
+        <v>663</v>
+      </c>
+      <c r="G500" t="s">
+        <v>665</v>
+      </c>
+      <c r="H500" t="s">
+        <v>666</v>
+      </c>
+      <c r="I500" t="s">
+        <v>564</v>
+      </c>
+      <c r="J500" t="s">
+        <v>358</v>
+      </c>
+      <c r="K500" t="s">
+        <v>34</v>
+      </c>
+      <c r="L500" t="s">
+        <v>216</v>
+      </c>
+      <c r="M500" t="s">
+        <v>75</v>
+      </c>
+      <c r="N500" t="s">
+        <v>418</v>
+      </c>
+      <c r="O500" t="s">
+        <v>74</v>
+      </c>
+      <c r="P500" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q500" t="s">
+        <v>224</v>
+      </c>
+      <c r="R500" t="s">
+        <v>534</v>
+      </c>
+      <c r="S500" t="s">
+        <v>364</v>
+      </c>
+      <c r="T500" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>658</v>
+      </c>
+      <c r="B501" t="s">
+        <v>659</v>
+      </c>
+      <c r="C501" t="s">
+        <v>660</v>
+      </c>
+      <c r="D501" t="s">
+        <v>661</v>
+      </c>
+      <c r="E501" t="s">
+        <v>662</v>
+      </c>
+      <c r="F501" t="s">
+        <v>663</v>
+      </c>
+      <c r="G501" t="s">
+        <v>665</v>
+      </c>
+      <c r="H501" t="s">
+        <v>666</v>
+      </c>
+      <c r="I501" t="s">
+        <v>564</v>
+      </c>
+      <c r="J501" t="s">
+        <v>358</v>
+      </c>
+      <c r="K501" t="s">
+        <v>34</v>
+      </c>
+      <c r="L501" t="s">
+        <v>216</v>
+      </c>
+      <c r="M501" t="s">
+        <v>75</v>
+      </c>
+      <c r="N501" t="s">
+        <v>418</v>
+      </c>
+      <c r="O501" t="s">
+        <v>74</v>
+      </c>
+      <c r="P501" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q501" t="s">
+        <v>224</v>
+      </c>
+      <c r="R501" t="s">
+        <v>534</v>
+      </c>
+      <c r="S501" t="s">
+        <v>364</v>
+      </c>
+      <c r="T501" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>658</v>
+      </c>
+      <c r="B502" t="s">
+        <v>659</v>
+      </c>
+      <c r="C502" t="s">
+        <v>660</v>
+      </c>
+      <c r="D502" t="s">
+        <v>661</v>
+      </c>
+      <c r="E502" t="s">
+        <v>662</v>
+      </c>
+      <c r="F502" t="s">
+        <v>663</v>
+      </c>
+      <c r="G502" t="s">
+        <v>665</v>
+      </c>
+      <c r="H502" t="s">
+        <v>666</v>
+      </c>
+      <c r="I502" t="s">
+        <v>564</v>
+      </c>
+      <c r="J502" t="s">
+        <v>358</v>
+      </c>
+      <c r="K502" t="s">
+        <v>34</v>
+      </c>
+      <c r="L502" t="s">
+        <v>216</v>
+      </c>
+      <c r="M502" t="s">
+        <v>75</v>
+      </c>
+      <c r="N502" t="s">
+        <v>418</v>
+      </c>
+      <c r="O502" t="s">
+        <v>74</v>
+      </c>
+      <c r="P502" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q502" t="s">
+        <v>224</v>
+      </c>
+      <c r="R502" t="s">
+        <v>534</v>
+      </c>
+      <c r="S502" t="s">
+        <v>364</v>
+      </c>
+      <c r="T502" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>658</v>
+      </c>
+      <c r="B503" t="s">
+        <v>659</v>
+      </c>
+      <c r="C503" t="s">
+        <v>660</v>
+      </c>
+      <c r="D503" t="s">
+        <v>661</v>
+      </c>
+      <c r="E503" t="s">
+        <v>662</v>
+      </c>
+      <c r="F503" t="s">
+        <v>663</v>
+      </c>
+      <c r="G503" t="s">
+        <v>665</v>
+      </c>
+      <c r="H503" t="s">
+        <v>666</v>
+      </c>
+      <c r="I503" t="s">
+        <v>564</v>
+      </c>
+      <c r="J503" t="s">
+        <v>358</v>
+      </c>
+      <c r="K503" t="s">
+        <v>34</v>
+      </c>
+      <c r="L503" t="s">
+        <v>216</v>
+      </c>
+      <c r="M503" t="s">
+        <v>75</v>
+      </c>
+      <c r="N503" t="s">
+        <v>418</v>
+      </c>
+      <c r="O503" t="s">
+        <v>74</v>
+      </c>
+      <c r="P503" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q503" t="s">
+        <v>224</v>
+      </c>
+      <c r="R503" t="s">
+        <v>534</v>
+      </c>
+      <c r="S503" t="s">
+        <v>364</v>
+      </c>
+      <c r="T503" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>658</v>
+      </c>
+      <c r="B504" t="s">
+        <v>659</v>
+      </c>
+      <c r="C504" t="s">
+        <v>660</v>
+      </c>
+      <c r="D504" t="s">
+        <v>661</v>
+      </c>
+      <c r="E504" t="s">
+        <v>662</v>
+      </c>
+      <c r="F504" t="s">
+        <v>663</v>
+      </c>
+      <c r="G504" t="s">
+        <v>665</v>
+      </c>
+      <c r="H504" t="s">
+        <v>666</v>
+      </c>
+      <c r="I504" t="s">
+        <v>564</v>
+      </c>
+      <c r="J504" t="s">
+        <v>358</v>
+      </c>
+      <c r="K504" t="s">
+        <v>34</v>
+      </c>
+      <c r="L504" t="s">
+        <v>216</v>
+      </c>
+      <c r="M504" t="s">
+        <v>75</v>
+      </c>
+      <c r="N504" t="s">
+        <v>418</v>
+      </c>
+      <c r="O504" t="s">
+        <v>74</v>
+      </c>
+      <c r="P504" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q504" t="s">
+        <v>224</v>
+      </c>
+      <c r="R504" t="s">
+        <v>534</v>
+      </c>
+      <c r="S504" t="s">
+        <v>364</v>
+      </c>
+      <c r="T504" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>658</v>
+      </c>
+      <c r="B506" t="s">
+        <v>659</v>
+      </c>
+      <c r="C506" t="s">
+        <v>660</v>
+      </c>
+      <c r="D506" t="s">
+        <v>661</v>
+      </c>
+      <c r="E506" t="s">
+        <v>662</v>
+      </c>
+      <c r="F506" t="s">
+        <v>664</v>
+      </c>
+      <c r="G506" t="s">
+        <v>665</v>
+      </c>
+      <c r="H506" t="s">
+        <v>666</v>
+      </c>
+      <c r="I506" t="s">
+        <v>564</v>
+      </c>
+      <c r="J506" t="s">
+        <v>358</v>
+      </c>
+      <c r="K506" t="s">
+        <v>34</v>
+      </c>
+      <c r="L506" t="s">
+        <v>216</v>
+      </c>
+      <c r="M506" t="s">
+        <v>75</v>
+      </c>
+      <c r="N506" t="s">
+        <v>418</v>
+      </c>
+      <c r="O506" t="s">
+        <v>74</v>
+      </c>
+      <c r="P506" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q506" t="s">
+        <v>224</v>
+      </c>
+      <c r="R506" t="s">
+        <v>534</v>
+      </c>
+      <c r="S506" t="s">
+        <v>364</v>
+      </c>
+      <c r="T506" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>658</v>
+      </c>
+      <c r="B507" t="s">
+        <v>659</v>
+      </c>
+      <c r="C507" t="s">
+        <v>660</v>
+      </c>
+      <c r="D507" t="s">
+        <v>661</v>
+      </c>
+      <c r="E507" t="s">
+        <v>662</v>
+      </c>
+      <c r="F507" t="s">
+        <v>664</v>
+      </c>
+      <c r="G507" t="s">
+        <v>665</v>
+      </c>
+      <c r="H507" t="s">
+        <v>666</v>
+      </c>
+      <c r="I507" t="s">
+        <v>564</v>
+      </c>
+      <c r="J507" t="s">
+        <v>358</v>
+      </c>
+      <c r="K507" t="s">
+        <v>34</v>
+      </c>
+      <c r="L507" t="s">
+        <v>216</v>
+      </c>
+      <c r="M507" t="s">
+        <v>75</v>
+      </c>
+      <c r="N507" t="s">
+        <v>418</v>
+      </c>
+      <c r="O507" t="s">
+        <v>74</v>
+      </c>
+      <c r="P507" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q507" t="s">
+        <v>224</v>
+      </c>
+      <c r="R507" t="s">
+        <v>534</v>
+      </c>
+      <c r="S507" t="s">
+        <v>364</v>
+      </c>
+      <c r="T507" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>658</v>
+      </c>
+      <c r="B508" t="s">
+        <v>659</v>
+      </c>
+      <c r="C508" t="s">
+        <v>660</v>
+      </c>
+      <c r="D508" t="s">
+        <v>661</v>
+      </c>
+      <c r="E508" t="s">
+        <v>662</v>
+      </c>
+      <c r="F508" t="s">
+        <v>664</v>
+      </c>
+      <c r="G508" t="s">
+        <v>665</v>
+      </c>
+      <c r="H508" t="s">
+        <v>666</v>
+      </c>
+      <c r="I508" t="s">
+        <v>564</v>
+      </c>
+      <c r="J508" t="s">
+        <v>358</v>
+      </c>
+      <c r="K508" t="s">
+        <v>34</v>
+      </c>
+      <c r="L508" t="s">
+        <v>216</v>
+      </c>
+      <c r="M508" t="s">
+        <v>75</v>
+      </c>
+      <c r="N508" t="s">
+        <v>418</v>
+      </c>
+      <c r="O508" t="s">
+        <v>74</v>
+      </c>
+      <c r="P508" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q508" t="s">
+        <v>224</v>
+      </c>
+      <c r="R508" t="s">
+        <v>534</v>
+      </c>
+      <c r="S508" t="s">
+        <v>364</v>
+      </c>
+      <c r="T508" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>658</v>
+      </c>
+      <c r="B509" t="s">
+        <v>659</v>
+      </c>
+      <c r="C509" t="s">
+        <v>660</v>
+      </c>
+      <c r="D509" t="s">
+        <v>661</v>
+      </c>
+      <c r="E509" t="s">
+        <v>662</v>
+      </c>
+      <c r="F509" t="s">
+        <v>664</v>
+      </c>
+      <c r="G509" t="s">
+        <v>665</v>
+      </c>
+      <c r="H509" t="s">
+        <v>666</v>
+      </c>
+      <c r="I509" t="s">
+        <v>564</v>
+      </c>
+      <c r="J509" t="s">
+        <v>358</v>
+      </c>
+      <c r="K509" t="s">
+        <v>34</v>
+      </c>
+      <c r="L509" t="s">
+        <v>216</v>
+      </c>
+      <c r="M509" t="s">
+        <v>75</v>
+      </c>
+      <c r="N509" t="s">
+        <v>418</v>
+      </c>
+      <c r="O509" t="s">
+        <v>74</v>
+      </c>
+      <c r="P509" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q509" t="s">
+        <v>224</v>
+      </c>
+      <c r="R509" t="s">
+        <v>534</v>
+      </c>
+      <c r="S509" t="s">
+        <v>364</v>
+      </c>
+      <c r="T509" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>658</v>
+      </c>
+      <c r="B510" t="s">
+        <v>659</v>
+      </c>
+      <c r="C510" t="s">
+        <v>660</v>
+      </c>
+      <c r="D510" t="s">
+        <v>661</v>
+      </c>
+      <c r="E510" t="s">
+        <v>662</v>
+      </c>
+      <c r="F510" t="s">
+        <v>664</v>
+      </c>
+      <c r="G510" t="s">
+        <v>665</v>
+      </c>
+      <c r="H510" t="s">
+        <v>666</v>
+      </c>
+      <c r="I510" t="s">
+        <v>564</v>
+      </c>
+      <c r="J510" t="s">
+        <v>358</v>
+      </c>
+      <c r="K510" t="s">
+        <v>34</v>
+      </c>
+      <c r="L510" t="s">
+        <v>216</v>
+      </c>
+      <c r="M510" t="s">
+        <v>75</v>
+      </c>
+      <c r="N510" t="s">
+        <v>418</v>
+      </c>
+      <c r="O510" t="s">
+        <v>74</v>
+      </c>
+      <c r="P510" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q510" t="s">
+        <v>224</v>
+      </c>
+      <c r="R510" t="s">
+        <v>534</v>
+      </c>
+      <c r="S510" t="s">
+        <v>364</v>
+      </c>
+      <c r="T510" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>658</v>
+      </c>
+      <c r="B511" t="s">
+        <v>659</v>
+      </c>
+      <c r="C511" t="s">
+        <v>660</v>
+      </c>
+      <c r="D511" t="s">
+        <v>661</v>
+      </c>
+      <c r="E511" t="s">
+        <v>662</v>
+      </c>
+      <c r="F511" t="s">
+        <v>664</v>
+      </c>
+      <c r="G511" t="s">
+        <v>665</v>
+      </c>
+      <c r="H511" t="s">
+        <v>666</v>
+      </c>
+      <c r="I511" t="s">
+        <v>564</v>
+      </c>
+      <c r="J511" t="s">
+        <v>358</v>
+      </c>
+      <c r="K511" t="s">
+        <v>34</v>
+      </c>
+      <c r="L511" t="s">
+        <v>216</v>
+      </c>
+      <c r="M511" t="s">
+        <v>75</v>
+      </c>
+      <c r="N511" t="s">
+        <v>418</v>
+      </c>
+      <c r="O511" t="s">
+        <v>74</v>
+      </c>
+      <c r="P511" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q511" t="s">
+        <v>224</v>
+      </c>
+      <c r="R511" t="s">
+        <v>534</v>
+      </c>
+      <c r="S511" t="s">
+        <v>364</v>
+      </c>
+      <c r="T511" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="512" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>658</v>
+      </c>
+      <c r="B512" t="s">
+        <v>659</v>
+      </c>
+      <c r="C512" t="s">
+        <v>660</v>
+      </c>
+      <c r="D512" t="s">
+        <v>661</v>
+      </c>
+      <c r="E512" t="s">
+        <v>662</v>
+      </c>
+      <c r="F512" t="s">
+        <v>664</v>
+      </c>
+      <c r="G512" t="s">
+        <v>665</v>
+      </c>
+      <c r="H512" t="s">
+        <v>666</v>
+      </c>
+      <c r="I512" t="s">
+        <v>564</v>
+      </c>
+      <c r="J512" t="s">
+        <v>358</v>
+      </c>
+      <c r="K512" t="s">
+        <v>34</v>
+      </c>
+      <c r="L512" t="s">
+        <v>216</v>
+      </c>
+      <c r="M512" t="s">
+        <v>75</v>
+      </c>
+      <c r="N512" t="s">
+        <v>418</v>
+      </c>
+      <c r="O512" t="s">
+        <v>74</v>
+      </c>
+      <c r="P512" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q512" t="s">
+        <v>224</v>
+      </c>
+      <c r="R512" t="s">
+        <v>534</v>
+      </c>
+      <c r="S512" t="s">
+        <v>364</v>
+      </c>
+      <c r="T512" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="513" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>658</v>
+      </c>
+      <c r="B513" t="s">
+        <v>659</v>
+      </c>
+      <c r="C513" t="s">
+        <v>660</v>
+      </c>
+      <c r="D513" t="s">
+        <v>661</v>
+      </c>
+      <c r="E513" t="s">
+        <v>662</v>
+      </c>
+      <c r="F513" t="s">
+        <v>664</v>
+      </c>
+      <c r="G513" t="s">
+        <v>665</v>
+      </c>
+      <c r="H513" t="s">
+        <v>666</v>
+      </c>
+      <c r="I513" t="s">
+        <v>564</v>
+      </c>
+      <c r="J513" t="s">
+        <v>358</v>
+      </c>
+      <c r="K513" t="s">
+        <v>34</v>
+      </c>
+      <c r="L513" t="s">
+        <v>216</v>
+      </c>
+      <c r="M513" t="s">
+        <v>75</v>
+      </c>
+      <c r="N513" t="s">
+        <v>418</v>
+      </c>
+      <c r="O513" t="s">
+        <v>74</v>
+      </c>
+      <c r="P513" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q513" t="s">
+        <v>224</v>
+      </c>
+      <c r="R513" t="s">
+        <v>534</v>
+      </c>
+      <c r="S513" t="s">
+        <v>364</v>
+      </c>
+      <c r="T513" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="514" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>658</v>
+      </c>
+      <c r="B514" t="s">
+        <v>659</v>
+      </c>
+      <c r="C514" t="s">
+        <v>660</v>
+      </c>
+      <c r="D514" t="s">
+        <v>661</v>
+      </c>
+      <c r="E514" t="s">
+        <v>662</v>
+      </c>
+      <c r="F514" t="s">
+        <v>664</v>
+      </c>
+      <c r="G514" t="s">
+        <v>665</v>
+      </c>
+      <c r="H514" t="s">
+        <v>666</v>
+      </c>
+      <c r="I514" t="s">
+        <v>564</v>
+      </c>
+      <c r="J514" t="s">
+        <v>358</v>
+      </c>
+      <c r="K514" t="s">
+        <v>34</v>
+      </c>
+      <c r="L514" t="s">
+        <v>216</v>
+      </c>
+      <c r="M514" t="s">
+        <v>75</v>
+      </c>
+      <c r="N514" t="s">
+        <v>418</v>
+      </c>
+      <c r="O514" t="s">
+        <v>74</v>
+      </c>
+      <c r="P514" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q514" t="s">
+        <v>224</v>
+      </c>
+      <c r="R514" t="s">
+        <v>534</v>
+      </c>
+      <c r="S514" t="s">
+        <v>364</v>
+      </c>
+      <c r="T514" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="515" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>658</v>
+      </c>
+      <c r="B515" t="s">
+        <v>659</v>
+      </c>
+      <c r="C515" t="s">
+        <v>660</v>
+      </c>
+      <c r="D515" t="s">
+        <v>661</v>
+      </c>
+      <c r="E515" t="s">
+        <v>662</v>
+      </c>
+      <c r="F515" t="s">
+        <v>664</v>
+      </c>
+      <c r="G515" t="s">
+        <v>665</v>
+      </c>
+      <c r="H515" t="s">
+        <v>666</v>
+      </c>
+      <c r="I515" t="s">
+        <v>564</v>
+      </c>
+      <c r="J515" t="s">
+        <v>358</v>
+      </c>
+      <c r="K515" t="s">
+        <v>34</v>
+      </c>
+      <c r="L515" t="s">
+        <v>216</v>
+      </c>
+      <c r="M515" t="s">
+        <v>75</v>
+      </c>
+      <c r="N515" t="s">
+        <v>418</v>
+      </c>
+      <c r="O515" t="s">
+        <v>74</v>
+      </c>
+      <c r="P515" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q515" t="s">
+        <v>224</v>
+      </c>
+      <c r="R515" t="s">
+        <v>534</v>
+      </c>
+      <c r="S515" t="s">
+        <v>364</v>
+      </c>
+      <c r="T515" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="516" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>658</v>
+      </c>
+      <c r="B516" t="s">
+        <v>659</v>
+      </c>
+      <c r="C516" t="s">
+        <v>660</v>
+      </c>
+      <c r="D516" t="s">
+        <v>661</v>
+      </c>
+      <c r="E516" t="s">
+        <v>662</v>
+      </c>
+      <c r="F516" t="s">
+        <v>664</v>
+      </c>
+      <c r="G516" t="s">
+        <v>665</v>
+      </c>
+      <c r="H516" t="s">
+        <v>666</v>
+      </c>
+      <c r="I516" t="s">
+        <v>564</v>
+      </c>
+      <c r="J516" t="s">
+        <v>358</v>
+      </c>
+      <c r="K516" t="s">
+        <v>34</v>
+      </c>
+      <c r="L516" t="s">
+        <v>216</v>
+      </c>
+      <c r="M516" t="s">
+        <v>75</v>
+      </c>
+      <c r="N516" t="s">
+        <v>418</v>
+      </c>
+      <c r="O516" t="s">
+        <v>74</v>
+      </c>
+      <c r="P516" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q516" t="s">
+        <v>224</v>
+      </c>
+      <c r="R516" t="s">
+        <v>534</v>
+      </c>
+      <c r="S516" t="s">
+        <v>364</v>
+      </c>
+      <c r="T516" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>658</v>
+      </c>
+      <c r="B517" t="s">
+        <v>659</v>
+      </c>
+      <c r="C517" t="s">
+        <v>660</v>
+      </c>
+      <c r="D517" t="s">
+        <v>661</v>
+      </c>
+      <c r="E517" t="s">
+        <v>662</v>
+      </c>
+      <c r="F517" t="s">
+        <v>664</v>
+      </c>
+      <c r="G517" t="s">
+        <v>665</v>
+      </c>
+      <c r="H517" t="s">
+        <v>666</v>
+      </c>
+      <c r="I517" t="s">
+        <v>564</v>
+      </c>
+      <c r="J517" t="s">
+        <v>358</v>
+      </c>
+      <c r="K517" t="s">
+        <v>34</v>
+      </c>
+      <c r="L517" t="s">
+        <v>216</v>
+      </c>
+      <c r="M517" t="s">
+        <v>75</v>
+      </c>
+      <c r="N517" t="s">
+        <v>418</v>
+      </c>
+      <c r="O517" t="s">
+        <v>74</v>
+      </c>
+      <c r="P517" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q517" t="s">
+        <v>224</v>
+      </c>
+      <c r="R517" t="s">
+        <v>534</v>
+      </c>
+      <c r="S517" t="s">
+        <v>364</v>
+      </c>
+      <c r="T517" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="518" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>658</v>
+      </c>
+      <c r="B518" t="s">
+        <v>659</v>
+      </c>
+      <c r="C518" t="s">
+        <v>660</v>
+      </c>
+      <c r="D518" t="s">
+        <v>661</v>
+      </c>
+      <c r="E518" t="s">
+        <v>662</v>
+      </c>
+      <c r="F518" t="s">
+        <v>664</v>
+      </c>
+      <c r="G518" t="s">
+        <v>665</v>
+      </c>
+      <c r="H518" t="s">
+        <v>666</v>
+      </c>
+      <c r="I518" t="s">
+        <v>564</v>
+      </c>
+      <c r="J518" t="s">
+        <v>358</v>
+      </c>
+      <c r="K518" t="s">
+        <v>34</v>
+      </c>
+      <c r="L518" t="s">
+        <v>216</v>
+      </c>
+      <c r="M518" t="s">
+        <v>75</v>
+      </c>
+      <c r="N518" t="s">
+        <v>418</v>
+      </c>
+      <c r="O518" t="s">
+        <v>74</v>
+      </c>
+      <c r="P518" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q518" t="s">
+        <v>224</v>
+      </c>
+      <c r="R518" t="s">
+        <v>534</v>
+      </c>
+      <c r="S518" t="s">
+        <v>364</v>
+      </c>
+      <c r="T518" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="519" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>658</v>
+      </c>
+      <c r="B519" t="s">
+        <v>659</v>
+      </c>
+      <c r="C519" t="s">
+        <v>660</v>
+      </c>
+      <c r="D519" t="s">
+        <v>661</v>
+      </c>
+      <c r="E519" t="s">
+        <v>662</v>
+      </c>
+      <c r="F519" t="s">
+        <v>664</v>
+      </c>
+      <c r="G519" t="s">
+        <v>665</v>
+      </c>
+      <c r="H519" t="s">
+        <v>666</v>
+      </c>
+      <c r="I519" t="s">
+        <v>564</v>
+      </c>
+      <c r="J519" t="s">
+        <v>358</v>
+      </c>
+      <c r="K519" t="s">
+        <v>34</v>
+      </c>
+      <c r="L519" t="s">
+        <v>216</v>
+      </c>
+      <c r="M519" t="s">
+        <v>75</v>
+      </c>
+      <c r="N519" t="s">
+        <v>418</v>
+      </c>
+      <c r="O519" t="s">
+        <v>74</v>
+      </c>
+      <c r="P519" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q519" t="s">
+        <v>224</v>
+      </c>
+      <c r="R519" t="s">
+        <v>534</v>
+      </c>
+      <c r="S519" t="s">
+        <v>364</v>
+      </c>
+      <c r="T519" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="522" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A522" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="D522" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="E522" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F522" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="G522" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="H522" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="I522" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="J522" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="K522" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="L522" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="M522" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="N522" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="O522" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="P522" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q522" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="R522" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="S522" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="T522" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="523" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
         <v>29</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B523" t="s">
         <v>686</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C523" t="s">
         <v>104</v>
       </c>
-      <c r="D463" t="s">
+      <c r="D523" t="s">
         <v>687</v>
       </c>
-      <c r="E463" t="s">
+      <c r="E523" t="s">
+        <v>688</v>
+      </c>
+      <c r="F523" t="s">
+        <v>570</v>
+      </c>
+      <c r="G523" t="s">
+        <v>111</v>
+      </c>
+      <c r="H523" t="s">
+        <v>690</v>
+      </c>
+      <c r="I523" t="s">
+        <v>691</v>
+      </c>
+      <c r="J523" t="s">
+        <v>692</v>
+      </c>
+      <c r="K523" t="s">
+        <v>693</v>
+      </c>
+      <c r="L523" t="s">
+        <v>694</v>
+      </c>
+      <c r="M523" t="s">
+        <v>695</v>
+      </c>
+      <c r="N523" t="s">
+        <v>696</v>
+      </c>
+      <c r="O523" t="s">
+        <v>697</v>
+      </c>
+      <c r="P523" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q523" t="s">
+        <v>81</v>
+      </c>
+      <c r="R523" t="s">
+        <v>700</v>
+      </c>
+      <c r="S523" t="s">
+        <v>701</v>
+      </c>
+      <c r="T523" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="524" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>29</v>
+      </c>
+      <c r="B524" t="s">
+        <v>686</v>
+      </c>
+      <c r="C524" t="s">
+        <v>104</v>
+      </c>
+      <c r="D524" t="s">
+        <v>687</v>
+      </c>
+      <c r="E524" t="s">
+        <v>688</v>
+      </c>
+      <c r="F524" t="s">
+        <v>570</v>
+      </c>
+      <c r="G524" t="s">
+        <v>111</v>
+      </c>
+      <c r="H524" t="s">
+        <v>690</v>
+      </c>
+      <c r="I524" t="s">
+        <v>691</v>
+      </c>
+      <c r="J524" t="s">
+        <v>692</v>
+      </c>
+      <c r="K524" t="s">
+        <v>693</v>
+      </c>
+      <c r="L524" t="s">
+        <v>694</v>
+      </c>
+      <c r="M524" t="s">
+        <v>695</v>
+      </c>
+      <c r="N524" t="s">
+        <v>696</v>
+      </c>
+      <c r="O524" t="s">
+        <v>697</v>
+      </c>
+      <c r="P524" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q524" t="s">
+        <v>81</v>
+      </c>
+      <c r="R524" t="s">
+        <v>700</v>
+      </c>
+      <c r="S524" t="s">
+        <v>701</v>
+      </c>
+      <c r="T524" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="525" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>29</v>
+      </c>
+      <c r="B525" t="s">
+        <v>686</v>
+      </c>
+      <c r="C525" t="s">
+        <v>104</v>
+      </c>
+      <c r="D525" t="s">
+        <v>687</v>
+      </c>
+      <c r="E525" t="s">
+        <v>688</v>
+      </c>
+      <c r="F525" t="s">
+        <v>570</v>
+      </c>
+      <c r="G525" t="s">
+        <v>111</v>
+      </c>
+      <c r="H525" t="s">
+        <v>690</v>
+      </c>
+      <c r="I525" t="s">
+        <v>691</v>
+      </c>
+      <c r="J525" t="s">
+        <v>692</v>
+      </c>
+      <c r="K525" t="s">
+        <v>693</v>
+      </c>
+      <c r="L525" t="s">
+        <v>694</v>
+      </c>
+      <c r="M525" t="s">
+        <v>695</v>
+      </c>
+      <c r="N525" t="s">
+        <v>696</v>
+      </c>
+      <c r="O525" t="s">
+        <v>697</v>
+      </c>
+      <c r="P525" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q525" t="s">
+        <v>81</v>
+      </c>
+      <c r="R525" t="s">
+        <v>700</v>
+      </c>
+      <c r="S525" t="s">
+        <v>701</v>
+      </c>
+      <c r="T525" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="526" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>29</v>
+      </c>
+      <c r="B526" t="s">
+        <v>686</v>
+      </c>
+      <c r="C526" t="s">
+        <v>104</v>
+      </c>
+      <c r="D526" t="s">
+        <v>687</v>
+      </c>
+      <c r="E526" t="s">
+        <v>688</v>
+      </c>
+      <c r="F526" t="s">
+        <v>570</v>
+      </c>
+      <c r="G526" t="s">
+        <v>111</v>
+      </c>
+      <c r="H526" t="s">
+        <v>690</v>
+      </c>
+      <c r="I526" t="s">
+        <v>691</v>
+      </c>
+      <c r="J526" t="s">
+        <v>692</v>
+      </c>
+      <c r="K526" t="s">
+        <v>693</v>
+      </c>
+      <c r="L526" t="s">
+        <v>694</v>
+      </c>
+      <c r="M526" t="s">
+        <v>695</v>
+      </c>
+      <c r="N526" t="s">
+        <v>696</v>
+      </c>
+      <c r="O526" t="s">
+        <v>697</v>
+      </c>
+      <c r="P526" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q526" t="s">
+        <v>81</v>
+      </c>
+      <c r="R526" t="s">
+        <v>700</v>
+      </c>
+      <c r="S526" t="s">
+        <v>701</v>
+      </c>
+      <c r="T526" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="527" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>29</v>
+      </c>
+      <c r="B527" t="s">
+        <v>686</v>
+      </c>
+      <c r="C527" t="s">
+        <v>104</v>
+      </c>
+      <c r="D527" t="s">
+        <v>687</v>
+      </c>
+      <c r="E527" t="s">
+        <v>688</v>
+      </c>
+      <c r="F527" t="s">
+        <v>570</v>
+      </c>
+      <c r="G527" t="s">
+        <v>111</v>
+      </c>
+      <c r="H527" t="s">
+        <v>690</v>
+      </c>
+      <c r="I527" t="s">
+        <v>691</v>
+      </c>
+      <c r="J527" t="s">
+        <v>692</v>
+      </c>
+      <c r="K527" t="s">
+        <v>693</v>
+      </c>
+      <c r="L527" t="s">
+        <v>694</v>
+      </c>
+      <c r="M527" t="s">
+        <v>695</v>
+      </c>
+      <c r="N527" t="s">
+        <v>696</v>
+      </c>
+      <c r="O527" t="s">
+        <v>697</v>
+      </c>
+      <c r="P527" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q527" t="s">
+        <v>81</v>
+      </c>
+      <c r="R527" t="s">
+        <v>700</v>
+      </c>
+      <c r="S527" t="s">
+        <v>701</v>
+      </c>
+      <c r="T527" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="528" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>29</v>
+      </c>
+      <c r="B528" t="s">
+        <v>686</v>
+      </c>
+      <c r="C528" t="s">
+        <v>104</v>
+      </c>
+      <c r="D528" t="s">
+        <v>687</v>
+      </c>
+      <c r="E528" t="s">
+        <v>688</v>
+      </c>
+      <c r="F528" t="s">
+        <v>570</v>
+      </c>
+      <c r="G528" t="s">
+        <v>111</v>
+      </c>
+      <c r="H528" t="s">
+        <v>690</v>
+      </c>
+      <c r="I528" t="s">
+        <v>691</v>
+      </c>
+      <c r="J528" t="s">
+        <v>692</v>
+      </c>
+      <c r="K528" t="s">
+        <v>693</v>
+      </c>
+      <c r="L528" t="s">
+        <v>694</v>
+      </c>
+      <c r="M528" t="s">
+        <v>695</v>
+      </c>
+      <c r="N528" t="s">
+        <v>696</v>
+      </c>
+      <c r="O528" t="s">
+        <v>697</v>
+      </c>
+      <c r="P528" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q528" t="s">
+        <v>81</v>
+      </c>
+      <c r="R528" t="s">
+        <v>700</v>
+      </c>
+      <c r="S528" t="s">
+        <v>701</v>
+      </c>
+      <c r="T528" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="529" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>29</v>
+      </c>
+      <c r="B529" t="s">
+        <v>686</v>
+      </c>
+      <c r="C529" t="s">
+        <v>104</v>
+      </c>
+      <c r="D529" t="s">
+        <v>687</v>
+      </c>
+      <c r="E529" t="s">
+        <v>688</v>
+      </c>
+      <c r="F529" t="s">
+        <v>570</v>
+      </c>
+      <c r="G529" t="s">
+        <v>111</v>
+      </c>
+      <c r="H529" t="s">
+        <v>690</v>
+      </c>
+      <c r="I529" t="s">
+        <v>691</v>
+      </c>
+      <c r="J529" t="s">
+        <v>692</v>
+      </c>
+      <c r="K529" t="s">
+        <v>693</v>
+      </c>
+      <c r="L529" t="s">
+        <v>694</v>
+      </c>
+      <c r="M529" t="s">
+        <v>695</v>
+      </c>
+      <c r="N529" t="s">
+        <v>696</v>
+      </c>
+      <c r="O529" t="s">
+        <v>697</v>
+      </c>
+      <c r="P529" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q529" t="s">
+        <v>81</v>
+      </c>
+      <c r="R529" t="s">
+        <v>700</v>
+      </c>
+      <c r="S529" t="s">
+        <v>701</v>
+      </c>
+      <c r="T529" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="530" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>29</v>
+      </c>
+      <c r="B530" t="s">
+        <v>686</v>
+      </c>
+      <c r="C530" t="s">
+        <v>104</v>
+      </c>
+      <c r="D530" t="s">
+        <v>687</v>
+      </c>
+      <c r="E530" t="s">
+        <v>688</v>
+      </c>
+      <c r="F530" t="s">
+        <v>570</v>
+      </c>
+      <c r="G530" t="s">
+        <v>111</v>
+      </c>
+      <c r="H530" t="s">
+        <v>690</v>
+      </c>
+      <c r="I530" t="s">
+        <v>691</v>
+      </c>
+      <c r="J530" t="s">
+        <v>692</v>
+      </c>
+      <c r="K530" t="s">
+        <v>693</v>
+      </c>
+      <c r="L530" t="s">
+        <v>694</v>
+      </c>
+      <c r="M530" t="s">
+        <v>695</v>
+      </c>
+      <c r="N530" t="s">
+        <v>696</v>
+      </c>
+      <c r="O530" t="s">
+        <v>697</v>
+      </c>
+      <c r="P530" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q530" t="s">
+        <v>81</v>
+      </c>
+      <c r="R530" t="s">
+        <v>700</v>
+      </c>
+      <c r="S530" t="s">
+        <v>701</v>
+      </c>
+      <c r="T530" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="531" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>29</v>
+      </c>
+      <c r="B531" t="s">
+        <v>686</v>
+      </c>
+      <c r="C531" t="s">
+        <v>104</v>
+      </c>
+      <c r="D531" t="s">
+        <v>687</v>
+      </c>
+      <c r="E531" t="s">
+        <v>688</v>
+      </c>
+      <c r="F531" t="s">
+        <v>570</v>
+      </c>
+      <c r="G531" t="s">
+        <v>111</v>
+      </c>
+      <c r="H531" t="s">
+        <v>690</v>
+      </c>
+      <c r="I531" t="s">
+        <v>691</v>
+      </c>
+      <c r="J531" t="s">
+        <v>692</v>
+      </c>
+      <c r="K531" t="s">
+        <v>693</v>
+      </c>
+      <c r="L531" t="s">
+        <v>694</v>
+      </c>
+      <c r="M531" t="s">
+        <v>695</v>
+      </c>
+      <c r="N531" t="s">
+        <v>696</v>
+      </c>
+      <c r="O531" t="s">
+        <v>697</v>
+      </c>
+      <c r="P531" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q531" t="s">
+        <v>81</v>
+      </c>
+      <c r="R531" t="s">
+        <v>700</v>
+      </c>
+      <c r="S531" t="s">
+        <v>701</v>
+      </c>
+      <c r="T531" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="532" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>29</v>
+      </c>
+      <c r="B532" t="s">
+        <v>686</v>
+      </c>
+      <c r="C532" t="s">
+        <v>104</v>
+      </c>
+      <c r="D532" t="s">
+        <v>687</v>
+      </c>
+      <c r="E532" t="s">
+        <v>688</v>
+      </c>
+      <c r="F532" t="s">
+        <v>570</v>
+      </c>
+      <c r="G532" t="s">
+        <v>111</v>
+      </c>
+      <c r="H532" t="s">
+        <v>690</v>
+      </c>
+      <c r="I532" t="s">
+        <v>691</v>
+      </c>
+      <c r="J532" t="s">
+        <v>692</v>
+      </c>
+      <c r="K532" t="s">
+        <v>693</v>
+      </c>
+      <c r="L532" t="s">
+        <v>694</v>
+      </c>
+      <c r="M532" t="s">
+        <v>695</v>
+      </c>
+      <c r="N532" t="s">
+        <v>696</v>
+      </c>
+      <c r="O532" t="s">
+        <v>697</v>
+      </c>
+      <c r="P532" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q532" t="s">
+        <v>81</v>
+      </c>
+      <c r="R532" t="s">
+        <v>700</v>
+      </c>
+      <c r="S532" t="s">
+        <v>701</v>
+      </c>
+      <c r="T532" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="533" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>29</v>
+      </c>
+      <c r="B533" t="s">
+        <v>686</v>
+      </c>
+      <c r="C533" t="s">
+        <v>104</v>
+      </c>
+      <c r="D533" t="s">
+        <v>687</v>
+      </c>
+      <c r="E533" t="s">
+        <v>688</v>
+      </c>
+      <c r="F533" t="s">
+        <v>570</v>
+      </c>
+      <c r="G533" t="s">
+        <v>111</v>
+      </c>
+      <c r="H533" t="s">
+        <v>690</v>
+      </c>
+      <c r="I533" t="s">
+        <v>691</v>
+      </c>
+      <c r="J533" t="s">
+        <v>692</v>
+      </c>
+      <c r="K533" t="s">
+        <v>693</v>
+      </c>
+      <c r="L533" t="s">
+        <v>694</v>
+      </c>
+      <c r="M533" t="s">
+        <v>695</v>
+      </c>
+      <c r="N533" t="s">
+        <v>696</v>
+      </c>
+      <c r="O533" t="s">
+        <v>697</v>
+      </c>
+      <c r="P533" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q533" t="s">
+        <v>81</v>
+      </c>
+      <c r="R533" t="s">
+        <v>700</v>
+      </c>
+      <c r="S533" t="s">
+        <v>701</v>
+      </c>
+      <c r="T533" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="534" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>29</v>
+      </c>
+      <c r="B534" t="s">
+        <v>686</v>
+      </c>
+      <c r="C534" t="s">
+        <v>104</v>
+      </c>
+      <c r="D534" t="s">
+        <v>687</v>
+      </c>
+      <c r="E534" t="s">
         <v>689</v>
       </c>
-      <c r="F463" t="s">
+      <c r="F534" t="s">
         <v>570</v>
       </c>
-      <c r="G463" t="s">
+      <c r="G534" t="s">
         <v>111</v>
       </c>
-      <c r="H463" t="s">
+      <c r="H534" t="s">
         <v>690</v>
       </c>
-      <c r="I463" t="s">
+      <c r="I534" t="s">
         <v>691</v>
       </c>
-      <c r="J463" t="s">
+      <c r="J534" t="s">
         <v>692</v>
       </c>
-      <c r="K463" t="s">
+      <c r="K534" t="s">
         <v>693</v>
       </c>
-      <c r="L463" t="s">
+      <c r="L534" t="s">
         <v>694</v>
       </c>
-      <c r="M463" t="s">
+      <c r="M534" t="s">
         <v>695</v>
       </c>
-      <c r="N463" t="s">
+      <c r="N534" t="s">
         <v>696</v>
       </c>
-      <c r="O463" t="s">
+      <c r="O534" t="s">
         <v>697</v>
       </c>
-      <c r="P463" t="s">
+      <c r="P534" t="s">
         <v>698</v>
       </c>
-      <c r="Q463" t="s">
+      <c r="Q534" t="s">
         <v>81</v>
       </c>
-      <c r="R463" t="s">
+      <c r="R534" t="s">
         <v>700</v>
       </c>
-      <c r="S463" t="s">
+      <c r="S534" t="s">
         <v>701</v>
       </c>
-      <c r="T463" t="s">
+      <c r="T534" t="s">
         <v>702</v>
       </c>
     </row>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9251" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9851" uniqueCount="756">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -2169,6 +2169,129 @@
   </si>
   <si>
     <t>abstration truu tuong</t>
+  </si>
+  <si>
+    <t>portable di dong co the mang di</t>
+  </si>
+  <si>
+    <t>21 Pretty: dep,de thuong</t>
+  </si>
+  <si>
+    <t>23 Interaction: su tuong tac</t>
+  </si>
+  <si>
+    <t>24 Intact: nguyen ven</t>
+  </si>
+  <si>
+    <t>25 Asset: tai san</t>
+  </si>
+  <si>
+    <t>26 bound: rang buoc</t>
+  </si>
+  <si>
+    <t>28 toggle: chuyen doi</t>
+  </si>
+  <si>
+    <t>29 heat: nhiet,nhiet do</t>
+  </si>
+  <si>
+    <t>30 throw: phi,nem</t>
+  </si>
+  <si>
+    <t>Ensure: dam bao</t>
+  </si>
+  <si>
+    <t>Conclusive: ket luan</t>
+  </si>
+  <si>
+    <t>Doubt: nghi ngo</t>
+  </si>
+  <si>
+    <t>Resume: so yeu li lich</t>
+  </si>
+  <si>
+    <t>Literature: van chuong</t>
+  </si>
+  <si>
+    <t>32 util: su dung</t>
+  </si>
+  <si>
+    <t>33 parse: phan tich cu phap</t>
+  </si>
+  <si>
+    <t>34 specify: xac dinh</t>
+  </si>
+  <si>
+    <t>Fortune: so menh,van mang</t>
+  </si>
+  <si>
+    <t>Feature: dac tinh,dac trung</t>
+  </si>
+  <si>
+    <t>Accord: phu hop,tan thanh</t>
+  </si>
+  <si>
+    <t>Enthusiasm: nhiet tinh,hang hai</t>
+  </si>
+  <si>
+    <t>pretty dep de thuong</t>
+  </si>
+  <si>
+    <t>interaction su tuong tac</t>
+  </si>
+  <si>
+    <t>intact nguyen ven</t>
+  </si>
+  <si>
+    <t>asset tai san</t>
+  </si>
+  <si>
+    <t>bound rang buoc</t>
+  </si>
+  <si>
+    <t>toggle chuyen doi</t>
+  </si>
+  <si>
+    <t>heat nhiet nhiet do</t>
+  </si>
+  <si>
+    <t>throw phi nem</t>
+  </si>
+  <si>
+    <t>ensure dam bao</t>
+  </si>
+  <si>
+    <t>conclusive ket luan</t>
+  </si>
+  <si>
+    <t>doubt nghi ngo</t>
+  </si>
+  <si>
+    <t>resume so yeu li lich</t>
+  </si>
+  <si>
+    <t>literature van chuong</t>
+  </si>
+  <si>
+    <t>util su dung</t>
+  </si>
+  <si>
+    <t>parse phan tich cu phap</t>
+  </si>
+  <si>
+    <t>specify xac dinh</t>
+  </si>
+  <si>
+    <t>fortune so menh van mang</t>
+  </si>
+  <si>
+    <t>feature dac tinh dac trung</t>
+  </si>
+  <si>
+    <t>accord phu hop tan thanh</t>
+  </si>
+  <si>
+    <t>enthusiasm nhiet tinh hang hai</t>
   </si>
 </sst>
 </file>
@@ -2554,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V534"/>
+  <dimension ref="A1:V567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P502" workbookViewId="0">
-      <selection activeCell="T519" sqref="T519"/>
+    <sheetView tabSelected="1" topLeftCell="P554" workbookViewId="0">
+      <selection activeCell="T567" sqref="T567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31293,6 +31416,1866 @@
       </c>
       <c r="T534" t="s">
         <v>702</v>
+      </c>
+    </row>
+    <row r="536" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>29</v>
+      </c>
+      <c r="B536" t="s">
+        <v>686</v>
+      </c>
+      <c r="C536" t="s">
+        <v>104</v>
+      </c>
+      <c r="D536" t="s">
+        <v>687</v>
+      </c>
+      <c r="E536" t="s">
+        <v>689</v>
+      </c>
+      <c r="F536" t="s">
+        <v>570</v>
+      </c>
+      <c r="G536" t="s">
+        <v>111</v>
+      </c>
+      <c r="H536" t="s">
+        <v>715</v>
+      </c>
+      <c r="I536" t="s">
+        <v>691</v>
+      </c>
+      <c r="J536" t="s">
+        <v>692</v>
+      </c>
+      <c r="K536" t="s">
+        <v>693</v>
+      </c>
+      <c r="L536" t="s">
+        <v>694</v>
+      </c>
+      <c r="M536" t="s">
+        <v>695</v>
+      </c>
+      <c r="N536" t="s">
+        <v>696</v>
+      </c>
+      <c r="O536" t="s">
+        <v>697</v>
+      </c>
+      <c r="P536" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q536" t="s">
+        <v>81</v>
+      </c>
+      <c r="R536" t="s">
+        <v>700</v>
+      </c>
+      <c r="S536" t="s">
+        <v>701</v>
+      </c>
+      <c r="T536" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="537" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>29</v>
+      </c>
+      <c r="B537" t="s">
+        <v>686</v>
+      </c>
+      <c r="C537" t="s">
+        <v>104</v>
+      </c>
+      <c r="D537" t="s">
+        <v>687</v>
+      </c>
+      <c r="E537" t="s">
+        <v>689</v>
+      </c>
+      <c r="F537" t="s">
+        <v>570</v>
+      </c>
+      <c r="G537" t="s">
+        <v>111</v>
+      </c>
+      <c r="H537" t="s">
+        <v>715</v>
+      </c>
+      <c r="I537" t="s">
+        <v>691</v>
+      </c>
+      <c r="J537" t="s">
+        <v>692</v>
+      </c>
+      <c r="K537" t="s">
+        <v>693</v>
+      </c>
+      <c r="L537" t="s">
+        <v>694</v>
+      </c>
+      <c r="M537" t="s">
+        <v>695</v>
+      </c>
+      <c r="N537" t="s">
+        <v>696</v>
+      </c>
+      <c r="O537" t="s">
+        <v>697</v>
+      </c>
+      <c r="P537" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q537" t="s">
+        <v>81</v>
+      </c>
+      <c r="R537" t="s">
+        <v>700</v>
+      </c>
+      <c r="S537" t="s">
+        <v>701</v>
+      </c>
+      <c r="T537" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="538" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>29</v>
+      </c>
+      <c r="B538" t="s">
+        <v>686</v>
+      </c>
+      <c r="C538" t="s">
+        <v>104</v>
+      </c>
+      <c r="D538" t="s">
+        <v>687</v>
+      </c>
+      <c r="E538" t="s">
+        <v>689</v>
+      </c>
+      <c r="F538" t="s">
+        <v>570</v>
+      </c>
+      <c r="G538" t="s">
+        <v>111</v>
+      </c>
+      <c r="H538" t="s">
+        <v>715</v>
+      </c>
+      <c r="I538" t="s">
+        <v>691</v>
+      </c>
+      <c r="J538" t="s">
+        <v>692</v>
+      </c>
+      <c r="K538" t="s">
+        <v>693</v>
+      </c>
+      <c r="L538" t="s">
+        <v>694</v>
+      </c>
+      <c r="M538" t="s">
+        <v>695</v>
+      </c>
+      <c r="N538" t="s">
+        <v>696</v>
+      </c>
+      <c r="O538" t="s">
+        <v>697</v>
+      </c>
+      <c r="P538" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q538" t="s">
+        <v>81</v>
+      </c>
+      <c r="R538" t="s">
+        <v>700</v>
+      </c>
+      <c r="S538" t="s">
+        <v>701</v>
+      </c>
+      <c r="T538" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="539" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>29</v>
+      </c>
+      <c r="B539" t="s">
+        <v>686</v>
+      </c>
+      <c r="C539" t="s">
+        <v>104</v>
+      </c>
+      <c r="D539" t="s">
+        <v>687</v>
+      </c>
+      <c r="E539" t="s">
+        <v>689</v>
+      </c>
+      <c r="F539" t="s">
+        <v>570</v>
+      </c>
+      <c r="G539" t="s">
+        <v>111</v>
+      </c>
+      <c r="H539" t="s">
+        <v>715</v>
+      </c>
+      <c r="I539" t="s">
+        <v>691</v>
+      </c>
+      <c r="J539" t="s">
+        <v>692</v>
+      </c>
+      <c r="K539" t="s">
+        <v>693</v>
+      </c>
+      <c r="L539" t="s">
+        <v>694</v>
+      </c>
+      <c r="M539" t="s">
+        <v>695</v>
+      </c>
+      <c r="N539" t="s">
+        <v>696</v>
+      </c>
+      <c r="O539" t="s">
+        <v>697</v>
+      </c>
+      <c r="P539" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q539" t="s">
+        <v>81</v>
+      </c>
+      <c r="R539" t="s">
+        <v>700</v>
+      </c>
+      <c r="S539" t="s">
+        <v>701</v>
+      </c>
+      <c r="T539" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="540" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>29</v>
+      </c>
+      <c r="B540" t="s">
+        <v>686</v>
+      </c>
+      <c r="C540" t="s">
+        <v>104</v>
+      </c>
+      <c r="D540" t="s">
+        <v>687</v>
+      </c>
+      <c r="E540" t="s">
+        <v>689</v>
+      </c>
+      <c r="F540" t="s">
+        <v>570</v>
+      </c>
+      <c r="G540" t="s">
+        <v>111</v>
+      </c>
+      <c r="H540" t="s">
+        <v>715</v>
+      </c>
+      <c r="I540" t="s">
+        <v>691</v>
+      </c>
+      <c r="J540" t="s">
+        <v>692</v>
+      </c>
+      <c r="K540" t="s">
+        <v>693</v>
+      </c>
+      <c r="L540" t="s">
+        <v>694</v>
+      </c>
+      <c r="M540" t="s">
+        <v>695</v>
+      </c>
+      <c r="N540" t="s">
+        <v>696</v>
+      </c>
+      <c r="O540" t="s">
+        <v>697</v>
+      </c>
+      <c r="P540" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q540" t="s">
+        <v>81</v>
+      </c>
+      <c r="R540" t="s">
+        <v>700</v>
+      </c>
+      <c r="S540" t="s">
+        <v>701</v>
+      </c>
+      <c r="T540" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="541" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>29</v>
+      </c>
+      <c r="B541" t="s">
+        <v>686</v>
+      </c>
+      <c r="C541" t="s">
+        <v>104</v>
+      </c>
+      <c r="D541" t="s">
+        <v>687</v>
+      </c>
+      <c r="E541" t="s">
+        <v>689</v>
+      </c>
+      <c r="F541" t="s">
+        <v>570</v>
+      </c>
+      <c r="G541" t="s">
+        <v>111</v>
+      </c>
+      <c r="H541" t="s">
+        <v>715</v>
+      </c>
+      <c r="I541" t="s">
+        <v>691</v>
+      </c>
+      <c r="J541" t="s">
+        <v>692</v>
+      </c>
+      <c r="K541" t="s">
+        <v>693</v>
+      </c>
+      <c r="L541" t="s">
+        <v>694</v>
+      </c>
+      <c r="M541" t="s">
+        <v>695</v>
+      </c>
+      <c r="N541" t="s">
+        <v>696</v>
+      </c>
+      <c r="O541" t="s">
+        <v>697</v>
+      </c>
+      <c r="P541" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q541" t="s">
+        <v>81</v>
+      </c>
+      <c r="R541" t="s">
+        <v>700</v>
+      </c>
+      <c r="S541" t="s">
+        <v>701</v>
+      </c>
+      <c r="T541" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="542" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>29</v>
+      </c>
+      <c r="B542" t="s">
+        <v>686</v>
+      </c>
+      <c r="C542" t="s">
+        <v>104</v>
+      </c>
+      <c r="D542" t="s">
+        <v>687</v>
+      </c>
+      <c r="E542" t="s">
+        <v>689</v>
+      </c>
+      <c r="F542" t="s">
+        <v>570</v>
+      </c>
+      <c r="G542" t="s">
+        <v>111</v>
+      </c>
+      <c r="H542" t="s">
+        <v>715</v>
+      </c>
+      <c r="I542" t="s">
+        <v>691</v>
+      </c>
+      <c r="J542" t="s">
+        <v>692</v>
+      </c>
+      <c r="K542" t="s">
+        <v>693</v>
+      </c>
+      <c r="L542" t="s">
+        <v>694</v>
+      </c>
+      <c r="M542" t="s">
+        <v>695</v>
+      </c>
+      <c r="N542" t="s">
+        <v>696</v>
+      </c>
+      <c r="O542" t="s">
+        <v>697</v>
+      </c>
+      <c r="P542" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q542" t="s">
+        <v>81</v>
+      </c>
+      <c r="R542" t="s">
+        <v>700</v>
+      </c>
+      <c r="S542" t="s">
+        <v>701</v>
+      </c>
+      <c r="T542" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="543" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>29</v>
+      </c>
+      <c r="B543" t="s">
+        <v>686</v>
+      </c>
+      <c r="C543" t="s">
+        <v>104</v>
+      </c>
+      <c r="D543" t="s">
+        <v>687</v>
+      </c>
+      <c r="E543" t="s">
+        <v>689</v>
+      </c>
+      <c r="F543" t="s">
+        <v>570</v>
+      </c>
+      <c r="G543" t="s">
+        <v>111</v>
+      </c>
+      <c r="H543" t="s">
+        <v>715</v>
+      </c>
+      <c r="I543" t="s">
+        <v>691</v>
+      </c>
+      <c r="J543" t="s">
+        <v>692</v>
+      </c>
+      <c r="K543" t="s">
+        <v>693</v>
+      </c>
+      <c r="L543" t="s">
+        <v>694</v>
+      </c>
+      <c r="M543" t="s">
+        <v>695</v>
+      </c>
+      <c r="N543" t="s">
+        <v>696</v>
+      </c>
+      <c r="O543" t="s">
+        <v>697</v>
+      </c>
+      <c r="P543" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q543" t="s">
+        <v>81</v>
+      </c>
+      <c r="R543" t="s">
+        <v>700</v>
+      </c>
+      <c r="S543" t="s">
+        <v>701</v>
+      </c>
+      <c r="T543" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="544" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>29</v>
+      </c>
+      <c r="B544" t="s">
+        <v>686</v>
+      </c>
+      <c r="C544" t="s">
+        <v>104</v>
+      </c>
+      <c r="D544" t="s">
+        <v>687</v>
+      </c>
+      <c r="E544" t="s">
+        <v>689</v>
+      </c>
+      <c r="F544" t="s">
+        <v>570</v>
+      </c>
+      <c r="G544" t="s">
+        <v>111</v>
+      </c>
+      <c r="H544" t="s">
+        <v>715</v>
+      </c>
+      <c r="I544" t="s">
+        <v>691</v>
+      </c>
+      <c r="J544" t="s">
+        <v>692</v>
+      </c>
+      <c r="K544" t="s">
+        <v>693</v>
+      </c>
+      <c r="L544" t="s">
+        <v>694</v>
+      </c>
+      <c r="M544" t="s">
+        <v>695</v>
+      </c>
+      <c r="N544" t="s">
+        <v>696</v>
+      </c>
+      <c r="O544" t="s">
+        <v>697</v>
+      </c>
+      <c r="P544" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q544" t="s">
+        <v>81</v>
+      </c>
+      <c r="R544" t="s">
+        <v>700</v>
+      </c>
+      <c r="S544" t="s">
+        <v>701</v>
+      </c>
+      <c r="T544" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="545" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>29</v>
+      </c>
+      <c r="B545" t="s">
+        <v>686</v>
+      </c>
+      <c r="C545" t="s">
+        <v>104</v>
+      </c>
+      <c r="D545" t="s">
+        <v>687</v>
+      </c>
+      <c r="E545" t="s">
+        <v>689</v>
+      </c>
+      <c r="F545" t="s">
+        <v>570</v>
+      </c>
+      <c r="G545" t="s">
+        <v>111</v>
+      </c>
+      <c r="H545" t="s">
+        <v>715</v>
+      </c>
+      <c r="I545" t="s">
+        <v>691</v>
+      </c>
+      <c r="J545" t="s">
+        <v>692</v>
+      </c>
+      <c r="K545" t="s">
+        <v>693</v>
+      </c>
+      <c r="L545" t="s">
+        <v>694</v>
+      </c>
+      <c r="M545" t="s">
+        <v>695</v>
+      </c>
+      <c r="N545" t="s">
+        <v>696</v>
+      </c>
+      <c r="O545" t="s">
+        <v>697</v>
+      </c>
+      <c r="P545" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q545" t="s">
+        <v>81</v>
+      </c>
+      <c r="R545" t="s">
+        <v>700</v>
+      </c>
+      <c r="S545" t="s">
+        <v>701</v>
+      </c>
+      <c r="T545" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="546" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>29</v>
+      </c>
+      <c r="B546" t="s">
+        <v>686</v>
+      </c>
+      <c r="C546" t="s">
+        <v>104</v>
+      </c>
+      <c r="D546" t="s">
+        <v>687</v>
+      </c>
+      <c r="E546" t="s">
+        <v>689</v>
+      </c>
+      <c r="F546" t="s">
+        <v>570</v>
+      </c>
+      <c r="G546" t="s">
+        <v>111</v>
+      </c>
+      <c r="H546" t="s">
+        <v>715</v>
+      </c>
+      <c r="I546" t="s">
+        <v>691</v>
+      </c>
+      <c r="J546" t="s">
+        <v>692</v>
+      </c>
+      <c r="K546" t="s">
+        <v>693</v>
+      </c>
+      <c r="L546" t="s">
+        <v>694</v>
+      </c>
+      <c r="M546" t="s">
+        <v>695</v>
+      </c>
+      <c r="N546" t="s">
+        <v>696</v>
+      </c>
+      <c r="O546" t="s">
+        <v>697</v>
+      </c>
+      <c r="P546" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q546" t="s">
+        <v>81</v>
+      </c>
+      <c r="R546" t="s">
+        <v>700</v>
+      </c>
+      <c r="S546" t="s">
+        <v>701</v>
+      </c>
+      <c r="T546" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="547" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>29</v>
+      </c>
+      <c r="B547" t="s">
+        <v>686</v>
+      </c>
+      <c r="C547" t="s">
+        <v>104</v>
+      </c>
+      <c r="D547" t="s">
+        <v>687</v>
+      </c>
+      <c r="E547" t="s">
+        <v>689</v>
+      </c>
+      <c r="F547" t="s">
+        <v>570</v>
+      </c>
+      <c r="G547" t="s">
+        <v>111</v>
+      </c>
+      <c r="H547" t="s">
+        <v>715</v>
+      </c>
+      <c r="I547" t="s">
+        <v>691</v>
+      </c>
+      <c r="J547" t="s">
+        <v>692</v>
+      </c>
+      <c r="K547" t="s">
+        <v>693</v>
+      </c>
+      <c r="L547" t="s">
+        <v>694</v>
+      </c>
+      <c r="M547" t="s">
+        <v>695</v>
+      </c>
+      <c r="N547" t="s">
+        <v>696</v>
+      </c>
+      <c r="O547" t="s">
+        <v>697</v>
+      </c>
+      <c r="P547" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q547" t="s">
+        <v>81</v>
+      </c>
+      <c r="R547" t="s">
+        <v>700</v>
+      </c>
+      <c r="S547" t="s">
+        <v>701</v>
+      </c>
+      <c r="T547" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="548" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>29</v>
+      </c>
+      <c r="B548" t="s">
+        <v>686</v>
+      </c>
+      <c r="C548" t="s">
+        <v>104</v>
+      </c>
+      <c r="D548" t="s">
+        <v>687</v>
+      </c>
+      <c r="E548" t="s">
+        <v>689</v>
+      </c>
+      <c r="F548" t="s">
+        <v>570</v>
+      </c>
+      <c r="G548" t="s">
+        <v>111</v>
+      </c>
+      <c r="H548" t="s">
+        <v>715</v>
+      </c>
+      <c r="I548" t="s">
+        <v>691</v>
+      </c>
+      <c r="J548" t="s">
+        <v>692</v>
+      </c>
+      <c r="K548" t="s">
+        <v>693</v>
+      </c>
+      <c r="L548" t="s">
+        <v>694</v>
+      </c>
+      <c r="M548" t="s">
+        <v>695</v>
+      </c>
+      <c r="N548" t="s">
+        <v>696</v>
+      </c>
+      <c r="O548" t="s">
+        <v>697</v>
+      </c>
+      <c r="P548" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q548" t="s">
+        <v>81</v>
+      </c>
+      <c r="R548" t="s">
+        <v>700</v>
+      </c>
+      <c r="S548" t="s">
+        <v>701</v>
+      </c>
+      <c r="T548" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="549" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>29</v>
+      </c>
+      <c r="B549" t="s">
+        <v>686</v>
+      </c>
+      <c r="C549" t="s">
+        <v>104</v>
+      </c>
+      <c r="D549" t="s">
+        <v>687</v>
+      </c>
+      <c r="E549" t="s">
+        <v>689</v>
+      </c>
+      <c r="F549" t="s">
+        <v>570</v>
+      </c>
+      <c r="G549" t="s">
+        <v>111</v>
+      </c>
+      <c r="H549" t="s">
+        <v>715</v>
+      </c>
+      <c r="I549" t="s">
+        <v>691</v>
+      </c>
+      <c r="J549" t="s">
+        <v>692</v>
+      </c>
+      <c r="K549" t="s">
+        <v>693</v>
+      </c>
+      <c r="L549" t="s">
+        <v>694</v>
+      </c>
+      <c r="M549" t="s">
+        <v>695</v>
+      </c>
+      <c r="N549" t="s">
+        <v>696</v>
+      </c>
+      <c r="O549" t="s">
+        <v>697</v>
+      </c>
+      <c r="P549" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q549" t="s">
+        <v>81</v>
+      </c>
+      <c r="R549" t="s">
+        <v>700</v>
+      </c>
+      <c r="S549" t="s">
+        <v>701</v>
+      </c>
+      <c r="T549" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="550" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>29</v>
+      </c>
+      <c r="B550" t="s">
+        <v>686</v>
+      </c>
+      <c r="C550" t="s">
+        <v>104</v>
+      </c>
+      <c r="D550" t="s">
+        <v>687</v>
+      </c>
+      <c r="E550" t="s">
+        <v>689</v>
+      </c>
+      <c r="F550" t="s">
+        <v>570</v>
+      </c>
+      <c r="G550" t="s">
+        <v>111</v>
+      </c>
+      <c r="H550" t="s">
+        <v>715</v>
+      </c>
+      <c r="I550" t="s">
+        <v>691</v>
+      </c>
+      <c r="J550" t="s">
+        <v>692</v>
+      </c>
+      <c r="K550" t="s">
+        <v>693</v>
+      </c>
+      <c r="L550" t="s">
+        <v>694</v>
+      </c>
+      <c r="M550" t="s">
+        <v>695</v>
+      </c>
+      <c r="N550" t="s">
+        <v>696</v>
+      </c>
+      <c r="O550" t="s">
+        <v>697</v>
+      </c>
+      <c r="P550" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q550" t="s">
+        <v>81</v>
+      </c>
+      <c r="R550" t="s">
+        <v>700</v>
+      </c>
+      <c r="S550" t="s">
+        <v>701</v>
+      </c>
+      <c r="T550" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="551" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>29</v>
+      </c>
+      <c r="B551" t="s">
+        <v>686</v>
+      </c>
+      <c r="C551" t="s">
+        <v>104</v>
+      </c>
+      <c r="D551" t="s">
+        <v>687</v>
+      </c>
+      <c r="E551" t="s">
+        <v>689</v>
+      </c>
+      <c r="F551" t="s">
+        <v>570</v>
+      </c>
+      <c r="G551" t="s">
+        <v>111</v>
+      </c>
+      <c r="H551" t="s">
+        <v>715</v>
+      </c>
+      <c r="I551" t="s">
+        <v>691</v>
+      </c>
+      <c r="J551" t="s">
+        <v>692</v>
+      </c>
+      <c r="K551" t="s">
+        <v>693</v>
+      </c>
+      <c r="L551" t="s">
+        <v>694</v>
+      </c>
+      <c r="M551" t="s">
+        <v>695</v>
+      </c>
+      <c r="N551" t="s">
+        <v>696</v>
+      </c>
+      <c r="O551" t="s">
+        <v>697</v>
+      </c>
+      <c r="P551" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q551" t="s">
+        <v>81</v>
+      </c>
+      <c r="R551" t="s">
+        <v>700</v>
+      </c>
+      <c r="S551" t="s">
+        <v>701</v>
+      </c>
+      <c r="T551" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="554" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A554" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B554" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C554" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D554" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="E554" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="F554" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="G554" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="H554" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="I554" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="J554" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="K554" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="L554" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="M554" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="N554" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="O554" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="P554" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q554" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="R554" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="S554" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="T554" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="555" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>736</v>
+      </c>
+      <c r="B555" t="s">
+        <v>737</v>
+      </c>
+      <c r="C555" t="s">
+        <v>738</v>
+      </c>
+      <c r="D555" t="s">
+        <v>739</v>
+      </c>
+      <c r="E555" t="s">
+        <v>740</v>
+      </c>
+      <c r="F555" t="s">
+        <v>741</v>
+      </c>
+      <c r="G555" t="s">
+        <v>742</v>
+      </c>
+      <c r="H555" t="s">
+        <v>743</v>
+      </c>
+      <c r="I555" t="s">
+        <v>744</v>
+      </c>
+      <c r="J555" t="s">
+        <v>745</v>
+      </c>
+      <c r="K555" t="s">
+        <v>746</v>
+      </c>
+      <c r="L555" t="s">
+        <v>747</v>
+      </c>
+      <c r="M555" t="s">
+        <v>748</v>
+      </c>
+      <c r="N555" t="s">
+        <v>749</v>
+      </c>
+      <c r="O555" t="s">
+        <v>750</v>
+      </c>
+      <c r="P555" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q555" t="s">
+        <v>752</v>
+      </c>
+      <c r="R555" t="s">
+        <v>753</v>
+      </c>
+      <c r="S555" t="s">
+        <v>754</v>
+      </c>
+      <c r="T555" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="556" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>736</v>
+      </c>
+      <c r="B556" t="s">
+        <v>737</v>
+      </c>
+      <c r="C556" t="s">
+        <v>738</v>
+      </c>
+      <c r="D556" t="s">
+        <v>739</v>
+      </c>
+      <c r="E556" t="s">
+        <v>740</v>
+      </c>
+      <c r="F556" t="s">
+        <v>741</v>
+      </c>
+      <c r="G556" t="s">
+        <v>742</v>
+      </c>
+      <c r="H556" t="s">
+        <v>743</v>
+      </c>
+      <c r="I556" t="s">
+        <v>744</v>
+      </c>
+      <c r="J556" t="s">
+        <v>745</v>
+      </c>
+      <c r="K556" t="s">
+        <v>746</v>
+      </c>
+      <c r="L556" t="s">
+        <v>747</v>
+      </c>
+      <c r="M556" t="s">
+        <v>748</v>
+      </c>
+      <c r="N556" t="s">
+        <v>749</v>
+      </c>
+      <c r="O556" t="s">
+        <v>750</v>
+      </c>
+      <c r="P556" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q556" t="s">
+        <v>752</v>
+      </c>
+      <c r="R556" t="s">
+        <v>753</v>
+      </c>
+      <c r="S556" t="s">
+        <v>754</v>
+      </c>
+      <c r="T556" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="557" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>736</v>
+      </c>
+      <c r="B557" t="s">
+        <v>737</v>
+      </c>
+      <c r="C557" t="s">
+        <v>738</v>
+      </c>
+      <c r="D557" t="s">
+        <v>739</v>
+      </c>
+      <c r="E557" t="s">
+        <v>740</v>
+      </c>
+      <c r="F557" t="s">
+        <v>741</v>
+      </c>
+      <c r="G557" t="s">
+        <v>742</v>
+      </c>
+      <c r="H557" t="s">
+        <v>743</v>
+      </c>
+      <c r="I557" t="s">
+        <v>744</v>
+      </c>
+      <c r="J557" t="s">
+        <v>745</v>
+      </c>
+      <c r="K557" t="s">
+        <v>746</v>
+      </c>
+      <c r="L557" t="s">
+        <v>747</v>
+      </c>
+      <c r="M557" t="s">
+        <v>748</v>
+      </c>
+      <c r="N557" t="s">
+        <v>749</v>
+      </c>
+      <c r="O557" t="s">
+        <v>750</v>
+      </c>
+      <c r="P557" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q557" t="s">
+        <v>752</v>
+      </c>
+      <c r="R557" t="s">
+        <v>753</v>
+      </c>
+      <c r="S557" t="s">
+        <v>754</v>
+      </c>
+      <c r="T557" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="558" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>736</v>
+      </c>
+      <c r="B558" t="s">
+        <v>737</v>
+      </c>
+      <c r="C558" t="s">
+        <v>738</v>
+      </c>
+      <c r="D558" t="s">
+        <v>739</v>
+      </c>
+      <c r="E558" t="s">
+        <v>740</v>
+      </c>
+      <c r="F558" t="s">
+        <v>741</v>
+      </c>
+      <c r="G558" t="s">
+        <v>742</v>
+      </c>
+      <c r="H558" t="s">
+        <v>743</v>
+      </c>
+      <c r="I558" t="s">
+        <v>744</v>
+      </c>
+      <c r="J558" t="s">
+        <v>745</v>
+      </c>
+      <c r="K558" t="s">
+        <v>746</v>
+      </c>
+      <c r="L558" t="s">
+        <v>747</v>
+      </c>
+      <c r="M558" t="s">
+        <v>748</v>
+      </c>
+      <c r="N558" t="s">
+        <v>749</v>
+      </c>
+      <c r="O558" t="s">
+        <v>750</v>
+      </c>
+      <c r="P558" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q558" t="s">
+        <v>752</v>
+      </c>
+      <c r="R558" t="s">
+        <v>753</v>
+      </c>
+      <c r="S558" t="s">
+        <v>754</v>
+      </c>
+      <c r="T558" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="559" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>736</v>
+      </c>
+      <c r="B559" t="s">
+        <v>737</v>
+      </c>
+      <c r="C559" t="s">
+        <v>738</v>
+      </c>
+      <c r="D559" t="s">
+        <v>739</v>
+      </c>
+      <c r="E559" t="s">
+        <v>740</v>
+      </c>
+      <c r="F559" t="s">
+        <v>741</v>
+      </c>
+      <c r="G559" t="s">
+        <v>742</v>
+      </c>
+      <c r="H559" t="s">
+        <v>743</v>
+      </c>
+      <c r="I559" t="s">
+        <v>744</v>
+      </c>
+      <c r="J559" t="s">
+        <v>745</v>
+      </c>
+      <c r="K559" t="s">
+        <v>746</v>
+      </c>
+      <c r="L559" t="s">
+        <v>747</v>
+      </c>
+      <c r="M559" t="s">
+        <v>748</v>
+      </c>
+      <c r="N559" t="s">
+        <v>749</v>
+      </c>
+      <c r="O559" t="s">
+        <v>750</v>
+      </c>
+      <c r="P559" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q559" t="s">
+        <v>752</v>
+      </c>
+      <c r="R559" t="s">
+        <v>753</v>
+      </c>
+      <c r="S559" t="s">
+        <v>754</v>
+      </c>
+      <c r="T559" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="560" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>736</v>
+      </c>
+      <c r="B560" t="s">
+        <v>737</v>
+      </c>
+      <c r="C560" t="s">
+        <v>738</v>
+      </c>
+      <c r="D560" t="s">
+        <v>739</v>
+      </c>
+      <c r="E560" t="s">
+        <v>740</v>
+      </c>
+      <c r="F560" t="s">
+        <v>741</v>
+      </c>
+      <c r="G560" t="s">
+        <v>742</v>
+      </c>
+      <c r="H560" t="s">
+        <v>743</v>
+      </c>
+      <c r="I560" t="s">
+        <v>744</v>
+      </c>
+      <c r="J560" t="s">
+        <v>745</v>
+      </c>
+      <c r="K560" t="s">
+        <v>746</v>
+      </c>
+      <c r="L560" t="s">
+        <v>747</v>
+      </c>
+      <c r="M560" t="s">
+        <v>748</v>
+      </c>
+      <c r="N560" t="s">
+        <v>749</v>
+      </c>
+      <c r="O560" t="s">
+        <v>750</v>
+      </c>
+      <c r="P560" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q560" t="s">
+        <v>752</v>
+      </c>
+      <c r="R560" t="s">
+        <v>753</v>
+      </c>
+      <c r="S560" t="s">
+        <v>754</v>
+      </c>
+      <c r="T560" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="561" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>736</v>
+      </c>
+      <c r="B561" t="s">
+        <v>737</v>
+      </c>
+      <c r="C561" t="s">
+        <v>738</v>
+      </c>
+      <c r="D561" t="s">
+        <v>739</v>
+      </c>
+      <c r="E561" t="s">
+        <v>740</v>
+      </c>
+      <c r="F561" t="s">
+        <v>741</v>
+      </c>
+      <c r="G561" t="s">
+        <v>742</v>
+      </c>
+      <c r="H561" t="s">
+        <v>743</v>
+      </c>
+      <c r="I561" t="s">
+        <v>744</v>
+      </c>
+      <c r="J561" t="s">
+        <v>745</v>
+      </c>
+      <c r="K561" t="s">
+        <v>746</v>
+      </c>
+      <c r="L561" t="s">
+        <v>747</v>
+      </c>
+      <c r="M561" t="s">
+        <v>748</v>
+      </c>
+      <c r="N561" t="s">
+        <v>749</v>
+      </c>
+      <c r="O561" t="s">
+        <v>750</v>
+      </c>
+      <c r="P561" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q561" t="s">
+        <v>752</v>
+      </c>
+      <c r="R561" t="s">
+        <v>753</v>
+      </c>
+      <c r="S561" t="s">
+        <v>754</v>
+      </c>
+      <c r="T561" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="562" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>736</v>
+      </c>
+      <c r="B562" t="s">
+        <v>737</v>
+      </c>
+      <c r="C562" t="s">
+        <v>738</v>
+      </c>
+      <c r="D562" t="s">
+        <v>739</v>
+      </c>
+      <c r="E562" t="s">
+        <v>740</v>
+      </c>
+      <c r="F562" t="s">
+        <v>741</v>
+      </c>
+      <c r="G562" t="s">
+        <v>742</v>
+      </c>
+      <c r="H562" t="s">
+        <v>743</v>
+      </c>
+      <c r="I562" t="s">
+        <v>744</v>
+      </c>
+      <c r="J562" t="s">
+        <v>745</v>
+      </c>
+      <c r="K562" t="s">
+        <v>746</v>
+      </c>
+      <c r="L562" t="s">
+        <v>747</v>
+      </c>
+      <c r="M562" t="s">
+        <v>748</v>
+      </c>
+      <c r="N562" t="s">
+        <v>749</v>
+      </c>
+      <c r="O562" t="s">
+        <v>750</v>
+      </c>
+      <c r="P562" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q562" t="s">
+        <v>752</v>
+      </c>
+      <c r="R562" t="s">
+        <v>753</v>
+      </c>
+      <c r="S562" t="s">
+        <v>754</v>
+      </c>
+      <c r="T562" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="563" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>736</v>
+      </c>
+      <c r="B563" t="s">
+        <v>737</v>
+      </c>
+      <c r="C563" t="s">
+        <v>738</v>
+      </c>
+      <c r="D563" t="s">
+        <v>739</v>
+      </c>
+      <c r="E563" t="s">
+        <v>740</v>
+      </c>
+      <c r="F563" t="s">
+        <v>741</v>
+      </c>
+      <c r="G563" t="s">
+        <v>742</v>
+      </c>
+      <c r="H563" t="s">
+        <v>743</v>
+      </c>
+      <c r="I563" t="s">
+        <v>744</v>
+      </c>
+      <c r="J563" t="s">
+        <v>745</v>
+      </c>
+      <c r="K563" t="s">
+        <v>746</v>
+      </c>
+      <c r="L563" t="s">
+        <v>747</v>
+      </c>
+      <c r="M563" t="s">
+        <v>748</v>
+      </c>
+      <c r="N563" t="s">
+        <v>749</v>
+      </c>
+      <c r="O563" t="s">
+        <v>750</v>
+      </c>
+      <c r="P563" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q563" t="s">
+        <v>752</v>
+      </c>
+      <c r="R563" t="s">
+        <v>753</v>
+      </c>
+      <c r="S563" t="s">
+        <v>754</v>
+      </c>
+      <c r="T563" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>736</v>
+      </c>
+      <c r="B564" t="s">
+        <v>737</v>
+      </c>
+      <c r="C564" t="s">
+        <v>738</v>
+      </c>
+      <c r="D564" t="s">
+        <v>739</v>
+      </c>
+      <c r="E564" t="s">
+        <v>740</v>
+      </c>
+      <c r="F564" t="s">
+        <v>741</v>
+      </c>
+      <c r="G564" t="s">
+        <v>742</v>
+      </c>
+      <c r="H564" t="s">
+        <v>743</v>
+      </c>
+      <c r="I564" t="s">
+        <v>744</v>
+      </c>
+      <c r="J564" t="s">
+        <v>745</v>
+      </c>
+      <c r="K564" t="s">
+        <v>746</v>
+      </c>
+      <c r="L564" t="s">
+        <v>747</v>
+      </c>
+      <c r="M564" t="s">
+        <v>748</v>
+      </c>
+      <c r="N564" t="s">
+        <v>749</v>
+      </c>
+      <c r="O564" t="s">
+        <v>750</v>
+      </c>
+      <c r="P564" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q564" t="s">
+        <v>752</v>
+      </c>
+      <c r="R564" t="s">
+        <v>753</v>
+      </c>
+      <c r="S564" t="s">
+        <v>754</v>
+      </c>
+      <c r="T564" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="565" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>736</v>
+      </c>
+      <c r="B565" t="s">
+        <v>737</v>
+      </c>
+      <c r="C565" t="s">
+        <v>738</v>
+      </c>
+      <c r="D565" t="s">
+        <v>739</v>
+      </c>
+      <c r="E565" t="s">
+        <v>740</v>
+      </c>
+      <c r="F565" t="s">
+        <v>741</v>
+      </c>
+      <c r="G565" t="s">
+        <v>742</v>
+      </c>
+      <c r="H565" t="s">
+        <v>743</v>
+      </c>
+      <c r="I565" t="s">
+        <v>744</v>
+      </c>
+      <c r="J565" t="s">
+        <v>745</v>
+      </c>
+      <c r="K565" t="s">
+        <v>746</v>
+      </c>
+      <c r="L565" t="s">
+        <v>747</v>
+      </c>
+      <c r="M565" t="s">
+        <v>748</v>
+      </c>
+      <c r="N565" t="s">
+        <v>749</v>
+      </c>
+      <c r="O565" t="s">
+        <v>750</v>
+      </c>
+      <c r="P565" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q565" t="s">
+        <v>752</v>
+      </c>
+      <c r="R565" t="s">
+        <v>753</v>
+      </c>
+      <c r="S565" t="s">
+        <v>754</v>
+      </c>
+      <c r="T565" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="566" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>736</v>
+      </c>
+      <c r="B566" t="s">
+        <v>737</v>
+      </c>
+      <c r="C566" t="s">
+        <v>738</v>
+      </c>
+      <c r="D566" t="s">
+        <v>739</v>
+      </c>
+      <c r="E566" t="s">
+        <v>740</v>
+      </c>
+      <c r="F566" t="s">
+        <v>741</v>
+      </c>
+      <c r="G566" t="s">
+        <v>742</v>
+      </c>
+      <c r="H566" t="s">
+        <v>743</v>
+      </c>
+      <c r="I566" t="s">
+        <v>744</v>
+      </c>
+      <c r="J566" t="s">
+        <v>745</v>
+      </c>
+      <c r="K566" t="s">
+        <v>746</v>
+      </c>
+      <c r="L566" t="s">
+        <v>747</v>
+      </c>
+      <c r="M566" t="s">
+        <v>748</v>
+      </c>
+      <c r="N566" t="s">
+        <v>749</v>
+      </c>
+      <c r="O566" t="s">
+        <v>750</v>
+      </c>
+      <c r="P566" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q566" t="s">
+        <v>752</v>
+      </c>
+      <c r="R566" t="s">
+        <v>753</v>
+      </c>
+      <c r="S566" t="s">
+        <v>754</v>
+      </c>
+      <c r="T566" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="567" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>736</v>
+      </c>
+      <c r="B567" t="s">
+        <v>737</v>
+      </c>
+      <c r="C567" t="s">
+        <v>738</v>
+      </c>
+      <c r="D567" t="s">
+        <v>739</v>
+      </c>
+      <c r="E567" t="s">
+        <v>740</v>
+      </c>
+      <c r="F567" t="s">
+        <v>741</v>
+      </c>
+      <c r="G567" t="s">
+        <v>742</v>
+      </c>
+      <c r="H567" t="s">
+        <v>743</v>
+      </c>
+      <c r="I567" t="s">
+        <v>744</v>
+      </c>
+      <c r="J567" t="s">
+        <v>745</v>
+      </c>
+      <c r="K567" t="s">
+        <v>746</v>
+      </c>
+      <c r="L567" t="s">
+        <v>747</v>
+      </c>
+      <c r="M567" t="s">
+        <v>748</v>
+      </c>
+      <c r="N567" t="s">
+        <v>749</v>
+      </c>
+      <c r="O567" t="s">
+        <v>750</v>
+      </c>
+      <c r="P567" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q567" t="s">
+        <v>752</v>
+      </c>
+      <c r="R567" t="s">
+        <v>753</v>
+      </c>
+      <c r="S567" t="s">
+        <v>754</v>
+      </c>
+      <c r="T567" t="s">
+        <v>755</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9851" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10131" uniqueCount="756">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -2677,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V567"/>
+  <dimension ref="A1:V582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P554" workbookViewId="0">
-      <selection activeCell="T567" sqref="T567"/>
+    <sheetView tabSelected="1" topLeftCell="P565" workbookViewId="0">
+      <selection activeCell="T582" sqref="T582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33275,6 +33275,874 @@
         <v>754</v>
       </c>
       <c r="T567" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>736</v>
+      </c>
+      <c r="B569" t="s">
+        <v>737</v>
+      </c>
+      <c r="C569" t="s">
+        <v>738</v>
+      </c>
+      <c r="D569" t="s">
+        <v>739</v>
+      </c>
+      <c r="E569" t="s">
+        <v>740</v>
+      </c>
+      <c r="F569" t="s">
+        <v>741</v>
+      </c>
+      <c r="G569" t="s">
+        <v>742</v>
+      </c>
+      <c r="H569" t="s">
+        <v>743</v>
+      </c>
+      <c r="I569" t="s">
+        <v>744</v>
+      </c>
+      <c r="J569" t="s">
+        <v>745</v>
+      </c>
+      <c r="K569" t="s">
+        <v>746</v>
+      </c>
+      <c r="L569" t="s">
+        <v>747</v>
+      </c>
+      <c r="M569" t="s">
+        <v>748</v>
+      </c>
+      <c r="N569" t="s">
+        <v>749</v>
+      </c>
+      <c r="O569" t="s">
+        <v>750</v>
+      </c>
+      <c r="P569" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q569" t="s">
+        <v>752</v>
+      </c>
+      <c r="R569" t="s">
+        <v>753</v>
+      </c>
+      <c r="S569" t="s">
+        <v>754</v>
+      </c>
+      <c r="T569" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="570" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>736</v>
+      </c>
+      <c r="B570" t="s">
+        <v>737</v>
+      </c>
+      <c r="C570" t="s">
+        <v>738</v>
+      </c>
+      <c r="D570" t="s">
+        <v>739</v>
+      </c>
+      <c r="E570" t="s">
+        <v>740</v>
+      </c>
+      <c r="F570" t="s">
+        <v>741</v>
+      </c>
+      <c r="G570" t="s">
+        <v>742</v>
+      </c>
+      <c r="H570" t="s">
+        <v>743</v>
+      </c>
+      <c r="I570" t="s">
+        <v>744</v>
+      </c>
+      <c r="J570" t="s">
+        <v>745</v>
+      </c>
+      <c r="K570" t="s">
+        <v>746</v>
+      </c>
+      <c r="L570" t="s">
+        <v>747</v>
+      </c>
+      <c r="M570" t="s">
+        <v>748</v>
+      </c>
+      <c r="N570" t="s">
+        <v>749</v>
+      </c>
+      <c r="O570" t="s">
+        <v>750</v>
+      </c>
+      <c r="P570" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q570" t="s">
+        <v>752</v>
+      </c>
+      <c r="R570" t="s">
+        <v>753</v>
+      </c>
+      <c r="S570" t="s">
+        <v>754</v>
+      </c>
+      <c r="T570" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="571" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>736</v>
+      </c>
+      <c r="B571" t="s">
+        <v>737</v>
+      </c>
+      <c r="C571" t="s">
+        <v>738</v>
+      </c>
+      <c r="D571" t="s">
+        <v>739</v>
+      </c>
+      <c r="E571" t="s">
+        <v>740</v>
+      </c>
+      <c r="F571" t="s">
+        <v>741</v>
+      </c>
+      <c r="G571" t="s">
+        <v>742</v>
+      </c>
+      <c r="H571" t="s">
+        <v>743</v>
+      </c>
+      <c r="I571" t="s">
+        <v>744</v>
+      </c>
+      <c r="J571" t="s">
+        <v>745</v>
+      </c>
+      <c r="K571" t="s">
+        <v>746</v>
+      </c>
+      <c r="L571" t="s">
+        <v>747</v>
+      </c>
+      <c r="M571" t="s">
+        <v>748</v>
+      </c>
+      <c r="N571" t="s">
+        <v>749</v>
+      </c>
+      <c r="O571" t="s">
+        <v>750</v>
+      </c>
+      <c r="P571" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q571" t="s">
+        <v>752</v>
+      </c>
+      <c r="R571" t="s">
+        <v>753</v>
+      </c>
+      <c r="S571" t="s">
+        <v>754</v>
+      </c>
+      <c r="T571" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="572" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>736</v>
+      </c>
+      <c r="B572" t="s">
+        <v>737</v>
+      </c>
+      <c r="C572" t="s">
+        <v>738</v>
+      </c>
+      <c r="D572" t="s">
+        <v>739</v>
+      </c>
+      <c r="E572" t="s">
+        <v>740</v>
+      </c>
+      <c r="F572" t="s">
+        <v>741</v>
+      </c>
+      <c r="G572" t="s">
+        <v>742</v>
+      </c>
+      <c r="H572" t="s">
+        <v>743</v>
+      </c>
+      <c r="I572" t="s">
+        <v>744</v>
+      </c>
+      <c r="J572" t="s">
+        <v>745</v>
+      </c>
+      <c r="K572" t="s">
+        <v>746</v>
+      </c>
+      <c r="L572" t="s">
+        <v>747</v>
+      </c>
+      <c r="M572" t="s">
+        <v>748</v>
+      </c>
+      <c r="N572" t="s">
+        <v>749</v>
+      </c>
+      <c r="O572" t="s">
+        <v>750</v>
+      </c>
+      <c r="P572" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q572" t="s">
+        <v>752</v>
+      </c>
+      <c r="R572" t="s">
+        <v>753</v>
+      </c>
+      <c r="S572" t="s">
+        <v>754</v>
+      </c>
+      <c r="T572" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="573" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>736</v>
+      </c>
+      <c r="B573" t="s">
+        <v>737</v>
+      </c>
+      <c r="C573" t="s">
+        <v>738</v>
+      </c>
+      <c r="D573" t="s">
+        <v>739</v>
+      </c>
+      <c r="E573" t="s">
+        <v>740</v>
+      </c>
+      <c r="F573" t="s">
+        <v>741</v>
+      </c>
+      <c r="G573" t="s">
+        <v>742</v>
+      </c>
+      <c r="H573" t="s">
+        <v>743</v>
+      </c>
+      <c r="I573" t="s">
+        <v>744</v>
+      </c>
+      <c r="J573" t="s">
+        <v>745</v>
+      </c>
+      <c r="K573" t="s">
+        <v>746</v>
+      </c>
+      <c r="L573" t="s">
+        <v>747</v>
+      </c>
+      <c r="M573" t="s">
+        <v>748</v>
+      </c>
+      <c r="N573" t="s">
+        <v>749</v>
+      </c>
+      <c r="O573" t="s">
+        <v>750</v>
+      </c>
+      <c r="P573" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q573" t="s">
+        <v>752</v>
+      </c>
+      <c r="R573" t="s">
+        <v>753</v>
+      </c>
+      <c r="S573" t="s">
+        <v>754</v>
+      </c>
+      <c r="T573" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="574" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>736</v>
+      </c>
+      <c r="B574" t="s">
+        <v>737</v>
+      </c>
+      <c r="C574" t="s">
+        <v>738</v>
+      </c>
+      <c r="D574" t="s">
+        <v>739</v>
+      </c>
+      <c r="E574" t="s">
+        <v>740</v>
+      </c>
+      <c r="F574" t="s">
+        <v>741</v>
+      </c>
+      <c r="G574" t="s">
+        <v>742</v>
+      </c>
+      <c r="H574" t="s">
+        <v>743</v>
+      </c>
+      <c r="I574" t="s">
+        <v>744</v>
+      </c>
+      <c r="J574" t="s">
+        <v>745</v>
+      </c>
+      <c r="K574" t="s">
+        <v>746</v>
+      </c>
+      <c r="L574" t="s">
+        <v>747</v>
+      </c>
+      <c r="M574" t="s">
+        <v>748</v>
+      </c>
+      <c r="N574" t="s">
+        <v>749</v>
+      </c>
+      <c r="O574" t="s">
+        <v>750</v>
+      </c>
+      <c r="P574" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q574" t="s">
+        <v>752</v>
+      </c>
+      <c r="R574" t="s">
+        <v>753</v>
+      </c>
+      <c r="S574" t="s">
+        <v>754</v>
+      </c>
+      <c r="T574" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="575" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>736</v>
+      </c>
+      <c r="B575" t="s">
+        <v>737</v>
+      </c>
+      <c r="C575" t="s">
+        <v>738</v>
+      </c>
+      <c r="D575" t="s">
+        <v>739</v>
+      </c>
+      <c r="E575" t="s">
+        <v>740</v>
+      </c>
+      <c r="F575" t="s">
+        <v>741</v>
+      </c>
+      <c r="G575" t="s">
+        <v>742</v>
+      </c>
+      <c r="H575" t="s">
+        <v>743</v>
+      </c>
+      <c r="I575" t="s">
+        <v>744</v>
+      </c>
+      <c r="J575" t="s">
+        <v>745</v>
+      </c>
+      <c r="K575" t="s">
+        <v>746</v>
+      </c>
+      <c r="L575" t="s">
+        <v>747</v>
+      </c>
+      <c r="M575" t="s">
+        <v>748</v>
+      </c>
+      <c r="N575" t="s">
+        <v>749</v>
+      </c>
+      <c r="O575" t="s">
+        <v>750</v>
+      </c>
+      <c r="P575" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q575" t="s">
+        <v>752</v>
+      </c>
+      <c r="R575" t="s">
+        <v>753</v>
+      </c>
+      <c r="S575" t="s">
+        <v>754</v>
+      </c>
+      <c r="T575" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="576" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>736</v>
+      </c>
+      <c r="B576" t="s">
+        <v>737</v>
+      </c>
+      <c r="C576" t="s">
+        <v>738</v>
+      </c>
+      <c r="D576" t="s">
+        <v>739</v>
+      </c>
+      <c r="E576" t="s">
+        <v>740</v>
+      </c>
+      <c r="F576" t="s">
+        <v>741</v>
+      </c>
+      <c r="G576" t="s">
+        <v>742</v>
+      </c>
+      <c r="H576" t="s">
+        <v>743</v>
+      </c>
+      <c r="I576" t="s">
+        <v>744</v>
+      </c>
+      <c r="J576" t="s">
+        <v>745</v>
+      </c>
+      <c r="K576" t="s">
+        <v>746</v>
+      </c>
+      <c r="L576" t="s">
+        <v>747</v>
+      </c>
+      <c r="M576" t="s">
+        <v>748</v>
+      </c>
+      <c r="N576" t="s">
+        <v>749</v>
+      </c>
+      <c r="O576" t="s">
+        <v>750</v>
+      </c>
+      <c r="P576" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q576" t="s">
+        <v>752</v>
+      </c>
+      <c r="R576" t="s">
+        <v>753</v>
+      </c>
+      <c r="S576" t="s">
+        <v>754</v>
+      </c>
+      <c r="T576" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="577" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>736</v>
+      </c>
+      <c r="B577" t="s">
+        <v>737</v>
+      </c>
+      <c r="C577" t="s">
+        <v>738</v>
+      </c>
+      <c r="D577" t="s">
+        <v>739</v>
+      </c>
+      <c r="E577" t="s">
+        <v>740</v>
+      </c>
+      <c r="F577" t="s">
+        <v>741</v>
+      </c>
+      <c r="G577" t="s">
+        <v>742</v>
+      </c>
+      <c r="H577" t="s">
+        <v>743</v>
+      </c>
+      <c r="I577" t="s">
+        <v>744</v>
+      </c>
+      <c r="J577" t="s">
+        <v>745</v>
+      </c>
+      <c r="K577" t="s">
+        <v>746</v>
+      </c>
+      <c r="L577" t="s">
+        <v>747</v>
+      </c>
+      <c r="M577" t="s">
+        <v>748</v>
+      </c>
+      <c r="N577" t="s">
+        <v>749</v>
+      </c>
+      <c r="O577" t="s">
+        <v>750</v>
+      </c>
+      <c r="P577" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q577" t="s">
+        <v>752</v>
+      </c>
+      <c r="R577" t="s">
+        <v>753</v>
+      </c>
+      <c r="S577" t="s">
+        <v>754</v>
+      </c>
+      <c r="T577" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="578" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>736</v>
+      </c>
+      <c r="B578" t="s">
+        <v>737</v>
+      </c>
+      <c r="C578" t="s">
+        <v>738</v>
+      </c>
+      <c r="D578" t="s">
+        <v>739</v>
+      </c>
+      <c r="E578" t="s">
+        <v>740</v>
+      </c>
+      <c r="F578" t="s">
+        <v>741</v>
+      </c>
+      <c r="G578" t="s">
+        <v>742</v>
+      </c>
+      <c r="H578" t="s">
+        <v>743</v>
+      </c>
+      <c r="I578" t="s">
+        <v>744</v>
+      </c>
+      <c r="J578" t="s">
+        <v>745</v>
+      </c>
+      <c r="K578" t="s">
+        <v>746</v>
+      </c>
+      <c r="L578" t="s">
+        <v>747</v>
+      </c>
+      <c r="M578" t="s">
+        <v>748</v>
+      </c>
+      <c r="N578" t="s">
+        <v>749</v>
+      </c>
+      <c r="O578" t="s">
+        <v>750</v>
+      </c>
+      <c r="P578" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q578" t="s">
+        <v>752</v>
+      </c>
+      <c r="R578" t="s">
+        <v>753</v>
+      </c>
+      <c r="S578" t="s">
+        <v>754</v>
+      </c>
+      <c r="T578" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="579" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>736</v>
+      </c>
+      <c r="B579" t="s">
+        <v>737</v>
+      </c>
+      <c r="C579" t="s">
+        <v>738</v>
+      </c>
+      <c r="D579" t="s">
+        <v>739</v>
+      </c>
+      <c r="E579" t="s">
+        <v>740</v>
+      </c>
+      <c r="F579" t="s">
+        <v>741</v>
+      </c>
+      <c r="G579" t="s">
+        <v>742</v>
+      </c>
+      <c r="H579" t="s">
+        <v>743</v>
+      </c>
+      <c r="I579" t="s">
+        <v>744</v>
+      </c>
+      <c r="J579" t="s">
+        <v>745</v>
+      </c>
+      <c r="K579" t="s">
+        <v>746</v>
+      </c>
+      <c r="L579" t="s">
+        <v>747</v>
+      </c>
+      <c r="M579" t="s">
+        <v>748</v>
+      </c>
+      <c r="N579" t="s">
+        <v>749</v>
+      </c>
+      <c r="O579" t="s">
+        <v>750</v>
+      </c>
+      <c r="P579" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q579" t="s">
+        <v>752</v>
+      </c>
+      <c r="R579" t="s">
+        <v>753</v>
+      </c>
+      <c r="S579" t="s">
+        <v>754</v>
+      </c>
+      <c r="T579" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="580" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>736</v>
+      </c>
+      <c r="B580" t="s">
+        <v>737</v>
+      </c>
+      <c r="C580" t="s">
+        <v>738</v>
+      </c>
+      <c r="D580" t="s">
+        <v>739</v>
+      </c>
+      <c r="E580" t="s">
+        <v>740</v>
+      </c>
+      <c r="F580" t="s">
+        <v>741</v>
+      </c>
+      <c r="G580" t="s">
+        <v>742</v>
+      </c>
+      <c r="H580" t="s">
+        <v>743</v>
+      </c>
+      <c r="I580" t="s">
+        <v>744</v>
+      </c>
+      <c r="J580" t="s">
+        <v>745</v>
+      </c>
+      <c r="K580" t="s">
+        <v>746</v>
+      </c>
+      <c r="L580" t="s">
+        <v>747</v>
+      </c>
+      <c r="M580" t="s">
+        <v>748</v>
+      </c>
+      <c r="N580" t="s">
+        <v>749</v>
+      </c>
+      <c r="O580" t="s">
+        <v>750</v>
+      </c>
+      <c r="P580" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q580" t="s">
+        <v>752</v>
+      </c>
+      <c r="R580" t="s">
+        <v>753</v>
+      </c>
+      <c r="S580" t="s">
+        <v>754</v>
+      </c>
+      <c r="T580" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="581" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>736</v>
+      </c>
+      <c r="B581" t="s">
+        <v>737</v>
+      </c>
+      <c r="C581" t="s">
+        <v>738</v>
+      </c>
+      <c r="D581" t="s">
+        <v>739</v>
+      </c>
+      <c r="E581" t="s">
+        <v>740</v>
+      </c>
+      <c r="F581" t="s">
+        <v>741</v>
+      </c>
+      <c r="G581" t="s">
+        <v>742</v>
+      </c>
+      <c r="H581" t="s">
+        <v>743</v>
+      </c>
+      <c r="I581" t="s">
+        <v>744</v>
+      </c>
+      <c r="J581" t="s">
+        <v>745</v>
+      </c>
+      <c r="K581" t="s">
+        <v>746</v>
+      </c>
+      <c r="L581" t="s">
+        <v>747</v>
+      </c>
+      <c r="M581" t="s">
+        <v>748</v>
+      </c>
+      <c r="N581" t="s">
+        <v>749</v>
+      </c>
+      <c r="O581" t="s">
+        <v>750</v>
+      </c>
+      <c r="P581" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q581" t="s">
+        <v>752</v>
+      </c>
+      <c r="R581" t="s">
+        <v>753</v>
+      </c>
+      <c r="S581" t="s">
+        <v>754</v>
+      </c>
+      <c r="T581" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="582" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>736</v>
+      </c>
+      <c r="B582" t="s">
+        <v>737</v>
+      </c>
+      <c r="C582" t="s">
+        <v>738</v>
+      </c>
+      <c r="D582" t="s">
+        <v>739</v>
+      </c>
+      <c r="E582" t="s">
+        <v>740</v>
+      </c>
+      <c r="F582" t="s">
+        <v>741</v>
+      </c>
+      <c r="G582" t="s">
+        <v>742</v>
+      </c>
+      <c r="H582" t="s">
+        <v>743</v>
+      </c>
+      <c r="I582" t="s">
+        <v>744</v>
+      </c>
+      <c r="J582" t="s">
+        <v>745</v>
+      </c>
+      <c r="K582" t="s">
+        <v>746</v>
+      </c>
+      <c r="L582" t="s">
+        <v>747</v>
+      </c>
+      <c r="M582" t="s">
+        <v>748</v>
+      </c>
+      <c r="N582" t="s">
+        <v>749</v>
+      </c>
+      <c r="O582" t="s">
+        <v>750</v>
+      </c>
+      <c r="P582" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q582" t="s">
+        <v>752</v>
+      </c>
+      <c r="R582" t="s">
+        <v>753</v>
+      </c>
+      <c r="S582" t="s">
+        <v>754</v>
+      </c>
+      <c r="T582" t="s">
         <v>755</v>
       </c>
     </row>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10671" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10951" uniqueCount="757">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -2682,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="P103" workbookViewId="0">
+      <selection activeCell="T120" sqref="T120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8665,6 +8665,874 @@
         <v>116</v>
       </c>
       <c r="T105" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" t="s">
+        <v>104</v>
+      </c>
+      <c r="E107" t="s">
+        <v>105</v>
+      </c>
+      <c r="F107" t="s">
+        <v>704</v>
+      </c>
+      <c r="G107" t="s">
+        <v>705</v>
+      </c>
+      <c r="H107" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" t="s">
+        <v>28</v>
+      </c>
+      <c r="J107" t="s">
+        <v>108</v>
+      </c>
+      <c r="K107" t="s">
+        <v>109</v>
+      </c>
+      <c r="L107" t="s">
+        <v>110</v>
+      </c>
+      <c r="M107" t="s">
+        <v>119</v>
+      </c>
+      <c r="N107" t="s">
+        <v>111</v>
+      </c>
+      <c r="O107" t="s">
+        <v>112</v>
+      </c>
+      <c r="P107" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>114</v>
+      </c>
+      <c r="R107" t="s">
+        <v>115</v>
+      </c>
+      <c r="S107" t="s">
+        <v>116</v>
+      </c>
+      <c r="T107" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>102</v>
+      </c>
+      <c r="C108" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" t="s">
+        <v>105</v>
+      </c>
+      <c r="F108" t="s">
+        <v>704</v>
+      </c>
+      <c r="G108" t="s">
+        <v>705</v>
+      </c>
+      <c r="H108" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" t="s">
+        <v>28</v>
+      </c>
+      <c r="J108" t="s">
+        <v>108</v>
+      </c>
+      <c r="K108" t="s">
+        <v>109</v>
+      </c>
+      <c r="L108" t="s">
+        <v>110</v>
+      </c>
+      <c r="M108" t="s">
+        <v>119</v>
+      </c>
+      <c r="N108" t="s">
+        <v>111</v>
+      </c>
+      <c r="O108" t="s">
+        <v>112</v>
+      </c>
+      <c r="P108" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>114</v>
+      </c>
+      <c r="R108" t="s">
+        <v>115</v>
+      </c>
+      <c r="S108" t="s">
+        <v>116</v>
+      </c>
+      <c r="T108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" t="s">
+        <v>103</v>
+      </c>
+      <c r="D109" t="s">
+        <v>104</v>
+      </c>
+      <c r="E109" t="s">
+        <v>105</v>
+      </c>
+      <c r="F109" t="s">
+        <v>704</v>
+      </c>
+      <c r="G109" t="s">
+        <v>705</v>
+      </c>
+      <c r="H109" t="s">
+        <v>26</v>
+      </c>
+      <c r="I109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J109" t="s">
+        <v>108</v>
+      </c>
+      <c r="K109" t="s">
+        <v>109</v>
+      </c>
+      <c r="L109" t="s">
+        <v>110</v>
+      </c>
+      <c r="M109" t="s">
+        <v>119</v>
+      </c>
+      <c r="N109" t="s">
+        <v>111</v>
+      </c>
+      <c r="O109" t="s">
+        <v>112</v>
+      </c>
+      <c r="P109" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>114</v>
+      </c>
+      <c r="R109" t="s">
+        <v>115</v>
+      </c>
+      <c r="S109" t="s">
+        <v>116</v>
+      </c>
+      <c r="T109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>102</v>
+      </c>
+      <c r="C110" t="s">
+        <v>103</v>
+      </c>
+      <c r="D110" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" t="s">
+        <v>105</v>
+      </c>
+      <c r="F110" t="s">
+        <v>704</v>
+      </c>
+      <c r="G110" t="s">
+        <v>705</v>
+      </c>
+      <c r="H110" t="s">
+        <v>26</v>
+      </c>
+      <c r="I110" t="s">
+        <v>28</v>
+      </c>
+      <c r="J110" t="s">
+        <v>108</v>
+      </c>
+      <c r="K110" t="s">
+        <v>109</v>
+      </c>
+      <c r="L110" t="s">
+        <v>110</v>
+      </c>
+      <c r="M110" t="s">
+        <v>119</v>
+      </c>
+      <c r="N110" t="s">
+        <v>111</v>
+      </c>
+      <c r="O110" t="s">
+        <v>112</v>
+      </c>
+      <c r="P110" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>114</v>
+      </c>
+      <c r="R110" t="s">
+        <v>115</v>
+      </c>
+      <c r="S110" t="s">
+        <v>116</v>
+      </c>
+      <c r="T110" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" t="s">
+        <v>103</v>
+      </c>
+      <c r="D111" t="s">
+        <v>104</v>
+      </c>
+      <c r="E111" t="s">
+        <v>105</v>
+      </c>
+      <c r="F111" t="s">
+        <v>704</v>
+      </c>
+      <c r="G111" t="s">
+        <v>705</v>
+      </c>
+      <c r="H111" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" t="s">
+        <v>28</v>
+      </c>
+      <c r="J111" t="s">
+        <v>108</v>
+      </c>
+      <c r="K111" t="s">
+        <v>109</v>
+      </c>
+      <c r="L111" t="s">
+        <v>110</v>
+      </c>
+      <c r="M111" t="s">
+        <v>119</v>
+      </c>
+      <c r="N111" t="s">
+        <v>111</v>
+      </c>
+      <c r="O111" t="s">
+        <v>112</v>
+      </c>
+      <c r="P111" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>114</v>
+      </c>
+      <c r="R111" t="s">
+        <v>115</v>
+      </c>
+      <c r="S111" t="s">
+        <v>116</v>
+      </c>
+      <c r="T111" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" t="s">
+        <v>103</v>
+      </c>
+      <c r="D112" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" t="s">
+        <v>105</v>
+      </c>
+      <c r="F112" t="s">
+        <v>704</v>
+      </c>
+      <c r="G112" t="s">
+        <v>705</v>
+      </c>
+      <c r="H112" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" t="s">
+        <v>28</v>
+      </c>
+      <c r="J112" t="s">
+        <v>108</v>
+      </c>
+      <c r="K112" t="s">
+        <v>109</v>
+      </c>
+      <c r="L112" t="s">
+        <v>110</v>
+      </c>
+      <c r="M112" t="s">
+        <v>119</v>
+      </c>
+      <c r="N112" t="s">
+        <v>111</v>
+      </c>
+      <c r="O112" t="s">
+        <v>112</v>
+      </c>
+      <c r="P112" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>114</v>
+      </c>
+      <c r="R112" t="s">
+        <v>115</v>
+      </c>
+      <c r="S112" t="s">
+        <v>116</v>
+      </c>
+      <c r="T112" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>102</v>
+      </c>
+      <c r="C113" t="s">
+        <v>103</v>
+      </c>
+      <c r="D113" t="s">
+        <v>104</v>
+      </c>
+      <c r="E113" t="s">
+        <v>105</v>
+      </c>
+      <c r="F113" t="s">
+        <v>704</v>
+      </c>
+      <c r="G113" t="s">
+        <v>705</v>
+      </c>
+      <c r="H113" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" t="s">
+        <v>28</v>
+      </c>
+      <c r="J113" t="s">
+        <v>108</v>
+      </c>
+      <c r="K113" t="s">
+        <v>109</v>
+      </c>
+      <c r="L113" t="s">
+        <v>110</v>
+      </c>
+      <c r="M113" t="s">
+        <v>119</v>
+      </c>
+      <c r="N113" t="s">
+        <v>111</v>
+      </c>
+      <c r="O113" t="s">
+        <v>112</v>
+      </c>
+      <c r="P113" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>114</v>
+      </c>
+      <c r="R113" t="s">
+        <v>115</v>
+      </c>
+      <c r="S113" t="s">
+        <v>116</v>
+      </c>
+      <c r="T113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" t="s">
+        <v>103</v>
+      </c>
+      <c r="D114" t="s">
+        <v>104</v>
+      </c>
+      <c r="E114" t="s">
+        <v>105</v>
+      </c>
+      <c r="F114" t="s">
+        <v>704</v>
+      </c>
+      <c r="G114" t="s">
+        <v>705</v>
+      </c>
+      <c r="H114" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" t="s">
+        <v>28</v>
+      </c>
+      <c r="J114" t="s">
+        <v>108</v>
+      </c>
+      <c r="K114" t="s">
+        <v>109</v>
+      </c>
+      <c r="L114" t="s">
+        <v>110</v>
+      </c>
+      <c r="M114" t="s">
+        <v>119</v>
+      </c>
+      <c r="N114" t="s">
+        <v>111</v>
+      </c>
+      <c r="O114" t="s">
+        <v>112</v>
+      </c>
+      <c r="P114" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>114</v>
+      </c>
+      <c r="R114" t="s">
+        <v>115</v>
+      </c>
+      <c r="S114" t="s">
+        <v>116</v>
+      </c>
+      <c r="T114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115" t="s">
+        <v>103</v>
+      </c>
+      <c r="D115" t="s">
+        <v>104</v>
+      </c>
+      <c r="E115" t="s">
+        <v>105</v>
+      </c>
+      <c r="F115" t="s">
+        <v>704</v>
+      </c>
+      <c r="G115" t="s">
+        <v>705</v>
+      </c>
+      <c r="H115" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J115" t="s">
+        <v>108</v>
+      </c>
+      <c r="K115" t="s">
+        <v>109</v>
+      </c>
+      <c r="L115" t="s">
+        <v>110</v>
+      </c>
+      <c r="M115" t="s">
+        <v>119</v>
+      </c>
+      <c r="N115" t="s">
+        <v>111</v>
+      </c>
+      <c r="O115" t="s">
+        <v>112</v>
+      </c>
+      <c r="P115" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>114</v>
+      </c>
+      <c r="R115" t="s">
+        <v>115</v>
+      </c>
+      <c r="S115" t="s">
+        <v>116</v>
+      </c>
+      <c r="T115" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C116" t="s">
+        <v>103</v>
+      </c>
+      <c r="D116" t="s">
+        <v>104</v>
+      </c>
+      <c r="E116" t="s">
+        <v>105</v>
+      </c>
+      <c r="F116" t="s">
+        <v>704</v>
+      </c>
+      <c r="G116" t="s">
+        <v>705</v>
+      </c>
+      <c r="H116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" t="s">
+        <v>28</v>
+      </c>
+      <c r="J116" t="s">
+        <v>108</v>
+      </c>
+      <c r="K116" t="s">
+        <v>109</v>
+      </c>
+      <c r="L116" t="s">
+        <v>110</v>
+      </c>
+      <c r="M116" t="s">
+        <v>119</v>
+      </c>
+      <c r="N116" t="s">
+        <v>111</v>
+      </c>
+      <c r="O116" t="s">
+        <v>112</v>
+      </c>
+      <c r="P116" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>114</v>
+      </c>
+      <c r="R116" t="s">
+        <v>115</v>
+      </c>
+      <c r="S116" t="s">
+        <v>116</v>
+      </c>
+      <c r="T116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" t="s">
+        <v>103</v>
+      </c>
+      <c r="D117" t="s">
+        <v>104</v>
+      </c>
+      <c r="E117" t="s">
+        <v>105</v>
+      </c>
+      <c r="F117" t="s">
+        <v>704</v>
+      </c>
+      <c r="G117" t="s">
+        <v>705</v>
+      </c>
+      <c r="H117" t="s">
+        <v>26</v>
+      </c>
+      <c r="I117" t="s">
+        <v>28</v>
+      </c>
+      <c r="J117" t="s">
+        <v>108</v>
+      </c>
+      <c r="K117" t="s">
+        <v>109</v>
+      </c>
+      <c r="L117" t="s">
+        <v>110</v>
+      </c>
+      <c r="M117" t="s">
+        <v>119</v>
+      </c>
+      <c r="N117" t="s">
+        <v>111</v>
+      </c>
+      <c r="O117" t="s">
+        <v>112</v>
+      </c>
+      <c r="P117" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>114</v>
+      </c>
+      <c r="R117" t="s">
+        <v>115</v>
+      </c>
+      <c r="S117" t="s">
+        <v>116</v>
+      </c>
+      <c r="T117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" t="s">
+        <v>103</v>
+      </c>
+      <c r="D118" t="s">
+        <v>104</v>
+      </c>
+      <c r="E118" t="s">
+        <v>105</v>
+      </c>
+      <c r="F118" t="s">
+        <v>704</v>
+      </c>
+      <c r="G118" t="s">
+        <v>705</v>
+      </c>
+      <c r="H118" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118" t="s">
+        <v>28</v>
+      </c>
+      <c r="J118" t="s">
+        <v>108</v>
+      </c>
+      <c r="K118" t="s">
+        <v>109</v>
+      </c>
+      <c r="L118" t="s">
+        <v>110</v>
+      </c>
+      <c r="M118" t="s">
+        <v>119</v>
+      </c>
+      <c r="N118" t="s">
+        <v>111</v>
+      </c>
+      <c r="O118" t="s">
+        <v>112</v>
+      </c>
+      <c r="P118" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>114</v>
+      </c>
+      <c r="R118" t="s">
+        <v>115</v>
+      </c>
+      <c r="S118" t="s">
+        <v>116</v>
+      </c>
+      <c r="T118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119" t="s">
+        <v>103</v>
+      </c>
+      <c r="D119" t="s">
+        <v>104</v>
+      </c>
+      <c r="E119" t="s">
+        <v>105</v>
+      </c>
+      <c r="F119" t="s">
+        <v>704</v>
+      </c>
+      <c r="G119" t="s">
+        <v>705</v>
+      </c>
+      <c r="H119" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" t="s">
+        <v>28</v>
+      </c>
+      <c r="J119" t="s">
+        <v>108</v>
+      </c>
+      <c r="K119" t="s">
+        <v>109</v>
+      </c>
+      <c r="L119" t="s">
+        <v>110</v>
+      </c>
+      <c r="M119" t="s">
+        <v>119</v>
+      </c>
+      <c r="N119" t="s">
+        <v>111</v>
+      </c>
+      <c r="O119" t="s">
+        <v>112</v>
+      </c>
+      <c r="P119" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>114</v>
+      </c>
+      <c r="R119" t="s">
+        <v>115</v>
+      </c>
+      <c r="S119" t="s">
+        <v>116</v>
+      </c>
+      <c r="T119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>102</v>
+      </c>
+      <c r="C120" t="s">
+        <v>103</v>
+      </c>
+      <c r="D120" t="s">
+        <v>104</v>
+      </c>
+      <c r="E120" t="s">
+        <v>105</v>
+      </c>
+      <c r="F120" t="s">
+        <v>704</v>
+      </c>
+      <c r="G120" t="s">
+        <v>705</v>
+      </c>
+      <c r="H120" t="s">
+        <v>26</v>
+      </c>
+      <c r="I120" t="s">
+        <v>28</v>
+      </c>
+      <c r="J120" t="s">
+        <v>108</v>
+      </c>
+      <c r="K120" t="s">
+        <v>109</v>
+      </c>
+      <c r="L120" t="s">
+        <v>110</v>
+      </c>
+      <c r="M120" t="s">
+        <v>119</v>
+      </c>
+      <c r="N120" t="s">
+        <v>111</v>
+      </c>
+      <c r="O120" t="s">
+        <v>112</v>
+      </c>
+      <c r="P120" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>114</v>
+      </c>
+      <c r="R120" t="s">
+        <v>115</v>
+      </c>
+      <c r="S120" t="s">
+        <v>116</v>
+      </c>
+      <c r="T120" t="s">
         <v>117</v>
       </c>
     </row>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11491" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11771" uniqueCount="760">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -2298,6 +2298,12 @@
   </si>
   <si>
     <t>receipt  bien lai</t>
+  </si>
+  <si>
+    <t>affect anh huong den</t>
+  </si>
+  <si>
+    <t>difinitely chac chan</t>
   </si>
 </sst>
 </file>
@@ -2685,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235"/>
+    <sheetView tabSelected="1" topLeftCell="P225" workbookViewId="0">
+      <selection activeCell="U244" sqref="U244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15613,6 +15619,874 @@
         <v>225</v>
       </c>
       <c r="T229" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>227</v>
+      </c>
+      <c r="B231" t="s">
+        <v>211</v>
+      </c>
+      <c r="C231" t="s">
+        <v>31</v>
+      </c>
+      <c r="D231" t="s">
+        <v>212</v>
+      </c>
+      <c r="E231" t="s">
+        <v>213</v>
+      </c>
+      <c r="F231" t="s">
+        <v>35</v>
+      </c>
+      <c r="G231" t="s">
+        <v>214</v>
+      </c>
+      <c r="H231" t="s">
+        <v>215</v>
+      </c>
+      <c r="I231" t="s">
+        <v>216</v>
+      </c>
+      <c r="J231" t="s">
+        <v>217</v>
+      </c>
+      <c r="K231" t="s">
+        <v>218</v>
+      </c>
+      <c r="L231" t="s">
+        <v>36</v>
+      </c>
+      <c r="M231" t="s">
+        <v>219</v>
+      </c>
+      <c r="N231" t="s">
+        <v>220</v>
+      </c>
+      <c r="O231" t="s">
+        <v>221</v>
+      </c>
+      <c r="P231" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>758</v>
+      </c>
+      <c r="R231" t="s">
+        <v>224</v>
+      </c>
+      <c r="S231" t="s">
+        <v>759</v>
+      </c>
+      <c r="T231" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>227</v>
+      </c>
+      <c r="B232" t="s">
+        <v>211</v>
+      </c>
+      <c r="C232" t="s">
+        <v>31</v>
+      </c>
+      <c r="D232" t="s">
+        <v>212</v>
+      </c>
+      <c r="E232" t="s">
+        <v>213</v>
+      </c>
+      <c r="F232" t="s">
+        <v>35</v>
+      </c>
+      <c r="G232" t="s">
+        <v>214</v>
+      </c>
+      <c r="H232" t="s">
+        <v>215</v>
+      </c>
+      <c r="I232" t="s">
+        <v>216</v>
+      </c>
+      <c r="J232" t="s">
+        <v>217</v>
+      </c>
+      <c r="K232" t="s">
+        <v>218</v>
+      </c>
+      <c r="L232" t="s">
+        <v>36</v>
+      </c>
+      <c r="M232" t="s">
+        <v>219</v>
+      </c>
+      <c r="N232" t="s">
+        <v>220</v>
+      </c>
+      <c r="O232" t="s">
+        <v>221</v>
+      </c>
+      <c r="P232" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>758</v>
+      </c>
+      <c r="R232" t="s">
+        <v>224</v>
+      </c>
+      <c r="S232" t="s">
+        <v>759</v>
+      </c>
+      <c r="T232" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>227</v>
+      </c>
+      <c r="B233" t="s">
+        <v>211</v>
+      </c>
+      <c r="C233" t="s">
+        <v>31</v>
+      </c>
+      <c r="D233" t="s">
+        <v>212</v>
+      </c>
+      <c r="E233" t="s">
+        <v>213</v>
+      </c>
+      <c r="F233" t="s">
+        <v>35</v>
+      </c>
+      <c r="G233" t="s">
+        <v>214</v>
+      </c>
+      <c r="H233" t="s">
+        <v>215</v>
+      </c>
+      <c r="I233" t="s">
+        <v>216</v>
+      </c>
+      <c r="J233" t="s">
+        <v>217</v>
+      </c>
+      <c r="K233" t="s">
+        <v>218</v>
+      </c>
+      <c r="L233" t="s">
+        <v>36</v>
+      </c>
+      <c r="M233" t="s">
+        <v>219</v>
+      </c>
+      <c r="N233" t="s">
+        <v>220</v>
+      </c>
+      <c r="O233" t="s">
+        <v>221</v>
+      </c>
+      <c r="P233" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>758</v>
+      </c>
+      <c r="R233" t="s">
+        <v>224</v>
+      </c>
+      <c r="S233" t="s">
+        <v>759</v>
+      </c>
+      <c r="T233" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>227</v>
+      </c>
+      <c r="B234" t="s">
+        <v>211</v>
+      </c>
+      <c r="C234" t="s">
+        <v>31</v>
+      </c>
+      <c r="D234" t="s">
+        <v>212</v>
+      </c>
+      <c r="E234" t="s">
+        <v>213</v>
+      </c>
+      <c r="F234" t="s">
+        <v>35</v>
+      </c>
+      <c r="G234" t="s">
+        <v>214</v>
+      </c>
+      <c r="H234" t="s">
+        <v>215</v>
+      </c>
+      <c r="I234" t="s">
+        <v>216</v>
+      </c>
+      <c r="J234" t="s">
+        <v>217</v>
+      </c>
+      <c r="K234" t="s">
+        <v>218</v>
+      </c>
+      <c r="L234" t="s">
+        <v>36</v>
+      </c>
+      <c r="M234" t="s">
+        <v>219</v>
+      </c>
+      <c r="N234" t="s">
+        <v>220</v>
+      </c>
+      <c r="O234" t="s">
+        <v>221</v>
+      </c>
+      <c r="P234" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>758</v>
+      </c>
+      <c r="R234" t="s">
+        <v>224</v>
+      </c>
+      <c r="S234" t="s">
+        <v>759</v>
+      </c>
+      <c r="T234" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>227</v>
+      </c>
+      <c r="B235" t="s">
+        <v>211</v>
+      </c>
+      <c r="C235" t="s">
+        <v>31</v>
+      </c>
+      <c r="D235" t="s">
+        <v>212</v>
+      </c>
+      <c r="E235" t="s">
+        <v>213</v>
+      </c>
+      <c r="F235" t="s">
+        <v>35</v>
+      </c>
+      <c r="G235" t="s">
+        <v>214</v>
+      </c>
+      <c r="H235" t="s">
+        <v>215</v>
+      </c>
+      <c r="I235" t="s">
+        <v>216</v>
+      </c>
+      <c r="J235" t="s">
+        <v>217</v>
+      </c>
+      <c r="K235" t="s">
+        <v>218</v>
+      </c>
+      <c r="L235" t="s">
+        <v>36</v>
+      </c>
+      <c r="M235" t="s">
+        <v>219</v>
+      </c>
+      <c r="N235" t="s">
+        <v>220</v>
+      </c>
+      <c r="O235" t="s">
+        <v>221</v>
+      </c>
+      <c r="P235" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>758</v>
+      </c>
+      <c r="R235" t="s">
+        <v>224</v>
+      </c>
+      <c r="S235" t="s">
+        <v>759</v>
+      </c>
+      <c r="T235" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>227</v>
+      </c>
+      <c r="B236" t="s">
+        <v>211</v>
+      </c>
+      <c r="C236" t="s">
+        <v>31</v>
+      </c>
+      <c r="D236" t="s">
+        <v>212</v>
+      </c>
+      <c r="E236" t="s">
+        <v>213</v>
+      </c>
+      <c r="F236" t="s">
+        <v>35</v>
+      </c>
+      <c r="G236" t="s">
+        <v>214</v>
+      </c>
+      <c r="H236" t="s">
+        <v>215</v>
+      </c>
+      <c r="I236" t="s">
+        <v>216</v>
+      </c>
+      <c r="J236" t="s">
+        <v>217</v>
+      </c>
+      <c r="K236" t="s">
+        <v>218</v>
+      </c>
+      <c r="L236" t="s">
+        <v>36</v>
+      </c>
+      <c r="M236" t="s">
+        <v>219</v>
+      </c>
+      <c r="N236" t="s">
+        <v>220</v>
+      </c>
+      <c r="O236" t="s">
+        <v>221</v>
+      </c>
+      <c r="P236" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>758</v>
+      </c>
+      <c r="R236" t="s">
+        <v>224</v>
+      </c>
+      <c r="S236" t="s">
+        <v>759</v>
+      </c>
+      <c r="T236" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>227</v>
+      </c>
+      <c r="B237" t="s">
+        <v>211</v>
+      </c>
+      <c r="C237" t="s">
+        <v>31</v>
+      </c>
+      <c r="D237" t="s">
+        <v>212</v>
+      </c>
+      <c r="E237" t="s">
+        <v>213</v>
+      </c>
+      <c r="F237" t="s">
+        <v>35</v>
+      </c>
+      <c r="G237" t="s">
+        <v>214</v>
+      </c>
+      <c r="H237" t="s">
+        <v>215</v>
+      </c>
+      <c r="I237" t="s">
+        <v>216</v>
+      </c>
+      <c r="J237" t="s">
+        <v>217</v>
+      </c>
+      <c r="K237" t="s">
+        <v>218</v>
+      </c>
+      <c r="L237" t="s">
+        <v>36</v>
+      </c>
+      <c r="M237" t="s">
+        <v>219</v>
+      </c>
+      <c r="N237" t="s">
+        <v>220</v>
+      </c>
+      <c r="O237" t="s">
+        <v>221</v>
+      </c>
+      <c r="P237" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>758</v>
+      </c>
+      <c r="R237" t="s">
+        <v>224</v>
+      </c>
+      <c r="S237" t="s">
+        <v>759</v>
+      </c>
+      <c r="T237" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>227</v>
+      </c>
+      <c r="B238" t="s">
+        <v>211</v>
+      </c>
+      <c r="C238" t="s">
+        <v>31</v>
+      </c>
+      <c r="D238" t="s">
+        <v>212</v>
+      </c>
+      <c r="E238" t="s">
+        <v>213</v>
+      </c>
+      <c r="F238" t="s">
+        <v>35</v>
+      </c>
+      <c r="G238" t="s">
+        <v>214</v>
+      </c>
+      <c r="H238" t="s">
+        <v>215</v>
+      </c>
+      <c r="I238" t="s">
+        <v>216</v>
+      </c>
+      <c r="J238" t="s">
+        <v>217</v>
+      </c>
+      <c r="K238" t="s">
+        <v>218</v>
+      </c>
+      <c r="L238" t="s">
+        <v>36</v>
+      </c>
+      <c r="M238" t="s">
+        <v>219</v>
+      </c>
+      <c r="N238" t="s">
+        <v>220</v>
+      </c>
+      <c r="O238" t="s">
+        <v>221</v>
+      </c>
+      <c r="P238" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>758</v>
+      </c>
+      <c r="R238" t="s">
+        <v>224</v>
+      </c>
+      <c r="S238" t="s">
+        <v>759</v>
+      </c>
+      <c r="T238" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>227</v>
+      </c>
+      <c r="B239" t="s">
+        <v>211</v>
+      </c>
+      <c r="C239" t="s">
+        <v>31</v>
+      </c>
+      <c r="D239" t="s">
+        <v>212</v>
+      </c>
+      <c r="E239" t="s">
+        <v>213</v>
+      </c>
+      <c r="F239" t="s">
+        <v>35</v>
+      </c>
+      <c r="G239" t="s">
+        <v>214</v>
+      </c>
+      <c r="H239" t="s">
+        <v>215</v>
+      </c>
+      <c r="I239" t="s">
+        <v>216</v>
+      </c>
+      <c r="J239" t="s">
+        <v>217</v>
+      </c>
+      <c r="K239" t="s">
+        <v>218</v>
+      </c>
+      <c r="L239" t="s">
+        <v>36</v>
+      </c>
+      <c r="M239" t="s">
+        <v>219</v>
+      </c>
+      <c r="N239" t="s">
+        <v>220</v>
+      </c>
+      <c r="O239" t="s">
+        <v>221</v>
+      </c>
+      <c r="P239" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>758</v>
+      </c>
+      <c r="R239" t="s">
+        <v>224</v>
+      </c>
+      <c r="S239" t="s">
+        <v>759</v>
+      </c>
+      <c r="T239" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>227</v>
+      </c>
+      <c r="B240" t="s">
+        <v>211</v>
+      </c>
+      <c r="C240" t="s">
+        <v>31</v>
+      </c>
+      <c r="D240" t="s">
+        <v>212</v>
+      </c>
+      <c r="E240" t="s">
+        <v>213</v>
+      </c>
+      <c r="F240" t="s">
+        <v>35</v>
+      </c>
+      <c r="G240" t="s">
+        <v>214</v>
+      </c>
+      <c r="H240" t="s">
+        <v>215</v>
+      </c>
+      <c r="I240" t="s">
+        <v>216</v>
+      </c>
+      <c r="J240" t="s">
+        <v>217</v>
+      </c>
+      <c r="K240" t="s">
+        <v>218</v>
+      </c>
+      <c r="L240" t="s">
+        <v>36</v>
+      </c>
+      <c r="M240" t="s">
+        <v>219</v>
+      </c>
+      <c r="N240" t="s">
+        <v>220</v>
+      </c>
+      <c r="O240" t="s">
+        <v>221</v>
+      </c>
+      <c r="P240" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>758</v>
+      </c>
+      <c r="R240" t="s">
+        <v>224</v>
+      </c>
+      <c r="S240" t="s">
+        <v>759</v>
+      </c>
+      <c r="T240" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>227</v>
+      </c>
+      <c r="B241" t="s">
+        <v>211</v>
+      </c>
+      <c r="C241" t="s">
+        <v>31</v>
+      </c>
+      <c r="D241" t="s">
+        <v>212</v>
+      </c>
+      <c r="E241" t="s">
+        <v>213</v>
+      </c>
+      <c r="F241" t="s">
+        <v>35</v>
+      </c>
+      <c r="G241" t="s">
+        <v>214</v>
+      </c>
+      <c r="H241" t="s">
+        <v>215</v>
+      </c>
+      <c r="I241" t="s">
+        <v>216</v>
+      </c>
+      <c r="J241" t="s">
+        <v>217</v>
+      </c>
+      <c r="K241" t="s">
+        <v>218</v>
+      </c>
+      <c r="L241" t="s">
+        <v>36</v>
+      </c>
+      <c r="M241" t="s">
+        <v>219</v>
+      </c>
+      <c r="N241" t="s">
+        <v>220</v>
+      </c>
+      <c r="O241" t="s">
+        <v>221</v>
+      </c>
+      <c r="P241" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>758</v>
+      </c>
+      <c r="R241" t="s">
+        <v>224</v>
+      </c>
+      <c r="S241" t="s">
+        <v>759</v>
+      </c>
+      <c r="T241" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>227</v>
+      </c>
+      <c r="B242" t="s">
+        <v>211</v>
+      </c>
+      <c r="C242" t="s">
+        <v>31</v>
+      </c>
+      <c r="D242" t="s">
+        <v>212</v>
+      </c>
+      <c r="E242" t="s">
+        <v>213</v>
+      </c>
+      <c r="F242" t="s">
+        <v>35</v>
+      </c>
+      <c r="G242" t="s">
+        <v>214</v>
+      </c>
+      <c r="H242" t="s">
+        <v>215</v>
+      </c>
+      <c r="I242" t="s">
+        <v>216</v>
+      </c>
+      <c r="J242" t="s">
+        <v>217</v>
+      </c>
+      <c r="K242" t="s">
+        <v>218</v>
+      </c>
+      <c r="L242" t="s">
+        <v>36</v>
+      </c>
+      <c r="M242" t="s">
+        <v>219</v>
+      </c>
+      <c r="N242" t="s">
+        <v>220</v>
+      </c>
+      <c r="O242" t="s">
+        <v>221</v>
+      </c>
+      <c r="P242" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>758</v>
+      </c>
+      <c r="R242" t="s">
+        <v>224</v>
+      </c>
+      <c r="S242" t="s">
+        <v>759</v>
+      </c>
+      <c r="T242" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>227</v>
+      </c>
+      <c r="B243" t="s">
+        <v>211</v>
+      </c>
+      <c r="C243" t="s">
+        <v>31</v>
+      </c>
+      <c r="D243" t="s">
+        <v>212</v>
+      </c>
+      <c r="E243" t="s">
+        <v>213</v>
+      </c>
+      <c r="F243" t="s">
+        <v>35</v>
+      </c>
+      <c r="G243" t="s">
+        <v>214</v>
+      </c>
+      <c r="H243" t="s">
+        <v>215</v>
+      </c>
+      <c r="I243" t="s">
+        <v>216</v>
+      </c>
+      <c r="J243" t="s">
+        <v>217</v>
+      </c>
+      <c r="K243" t="s">
+        <v>218</v>
+      </c>
+      <c r="L243" t="s">
+        <v>36</v>
+      </c>
+      <c r="M243" t="s">
+        <v>219</v>
+      </c>
+      <c r="N243" t="s">
+        <v>220</v>
+      </c>
+      <c r="O243" t="s">
+        <v>221</v>
+      </c>
+      <c r="P243" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>758</v>
+      </c>
+      <c r="R243" t="s">
+        <v>224</v>
+      </c>
+      <c r="S243" t="s">
+        <v>759</v>
+      </c>
+      <c r="T243" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>227</v>
+      </c>
+      <c r="B244" t="s">
+        <v>211</v>
+      </c>
+      <c r="C244" t="s">
+        <v>31</v>
+      </c>
+      <c r="D244" t="s">
+        <v>212</v>
+      </c>
+      <c r="E244" t="s">
+        <v>213</v>
+      </c>
+      <c r="F244" t="s">
+        <v>35</v>
+      </c>
+      <c r="G244" t="s">
+        <v>214</v>
+      </c>
+      <c r="H244" t="s">
+        <v>215</v>
+      </c>
+      <c r="I244" t="s">
+        <v>216</v>
+      </c>
+      <c r="J244" t="s">
+        <v>217</v>
+      </c>
+      <c r="K244" t="s">
+        <v>218</v>
+      </c>
+      <c r="L244" t="s">
+        <v>36</v>
+      </c>
+      <c r="M244" t="s">
+        <v>219</v>
+      </c>
+      <c r="N244" t="s">
+        <v>220</v>
+      </c>
+      <c r="O244" t="s">
+        <v>221</v>
+      </c>
+      <c r="P244" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>758</v>
+      </c>
+      <c r="R244" t="s">
+        <v>224</v>
+      </c>
+      <c r="S244" t="s">
+        <v>759</v>
+      </c>
+      <c r="T244" t="s">
         <v>226</v>
       </c>
     </row>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15621" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16176" uniqueCount="806">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -2301,6 +2301,147 @@
   </si>
   <si>
     <t xml:space="preserve">accord phu hop tan thanh </t>
+  </si>
+  <si>
+    <t>identified: xac dinh</t>
+  </si>
+  <si>
+    <t>Enhance: nang cao</t>
+  </si>
+  <si>
+    <t>Cohesive: ket hop,ket dinh</t>
+  </si>
+  <si>
+    <t>31 decimal: thap phan</t>
+  </si>
+  <si>
+    <t>27 subtract: phep tru</t>
+  </si>
+  <si>
+    <t>depth: chieu sau,do sau</t>
+  </si>
+  <si>
+    <t>redundant du thua ko can thiet</t>
+  </si>
+  <si>
+    <t>Redundant: du thua,ko can thiet</t>
+  </si>
+  <si>
+    <t>enhance nang cao</t>
+  </si>
+  <si>
+    <t>cohesive ket hop ket dinh</t>
+  </si>
+  <si>
+    <t>decimal thap phan</t>
+  </si>
+  <si>
+    <t>subtract phep tru</t>
+  </si>
+  <si>
+    <t>depth chieu sau do sau</t>
+  </si>
+  <si>
+    <t>ability kha nang</t>
+  </si>
+  <si>
+    <t>access truy cap</t>
+  </si>
+  <si>
+    <t>analyst nha phan tich</t>
+  </si>
+  <si>
+    <t>centerpiece manh trung tam</t>
+  </si>
+  <si>
+    <t>equipment thiet bi</t>
+  </si>
+  <si>
+    <t>interact tuong tac</t>
+  </si>
+  <si>
+    <t>reliability co the tin cay</t>
+  </si>
+  <si>
+    <t>activity hoat dong</t>
+  </si>
+  <si>
+    <t>animation hoat hinh</t>
+  </si>
+  <si>
+    <t>coordinate phoi hop</t>
+  </si>
+  <si>
+    <t>distribute phan phoi</t>
+  </si>
+  <si>
+    <t>divide phan chia</t>
+  </si>
+  <si>
+    <t>estimate uoc luong</t>
+  </si>
+  <si>
+    <t>interchange trao doi lan nhau</t>
+  </si>
+  <si>
+    <t>liquid chat long</t>
+  </si>
+  <si>
+    <t>encode ma hoa</t>
+  </si>
+  <si>
+    <t>expertise thanh thao</t>
+  </si>
+  <si>
+    <t>majority phan lon</t>
+  </si>
+  <si>
+    <t>solve giai quyet</t>
+  </si>
+  <si>
+    <t>superior cao hon phia tren</t>
+  </si>
+  <si>
+    <t>sophistication phuc tap</t>
+  </si>
+  <si>
+    <t>contemporary cung luc dong thoi</t>
+  </si>
+  <si>
+    <t>disparate khac nhau</t>
+  </si>
+  <si>
+    <t>encourage dong vien khuyen khich</t>
+  </si>
+  <si>
+    <t>discourage ko dong vien</t>
+  </si>
+  <si>
+    <t>essential thiet yeu can ban</t>
+  </si>
+  <si>
+    <t>potential tiem nang</t>
+  </si>
+  <si>
+    <t>predict tien doan du doan</t>
+  </si>
+  <si>
+    <t>resume khoi phuc</t>
+  </si>
+  <si>
+    <t>semiconductor ban dan</t>
+  </si>
+  <si>
+    <t>indicate chi ra cho biet</t>
+  </si>
+  <si>
+    <t>immense bao la rong lon</t>
+  </si>
+  <si>
+    <t>imitate mo phong</t>
+  </si>
+  <si>
+    <t>filtration loc</t>
   </si>
 </sst>
 </file>
@@ -2686,10 +2827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V880"/>
+  <dimension ref="A1:V914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P861" workbookViewId="0">
-      <selection activeCell="T880" sqref="T880"/>
+    <sheetView tabSelected="1" topLeftCell="P898" workbookViewId="0">
+      <selection activeCell="U911" sqref="U911"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51197,6 +51338,1727 @@
       </c>
       <c r="T880" t="s">
         <v>749</v>
+      </c>
+    </row>
+    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A883" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B883" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C883" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="D883" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="E883" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F883" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G883" t="s">
+        <v>764</v>
+      </c>
+      <c r="H883" t="s">
+        <v>599</v>
+      </c>
+      <c r="I883" t="s">
+        <v>690</v>
+      </c>
+      <c r="J883" t="s">
+        <v>687</v>
+      </c>
+      <c r="K883" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="L883" t="s">
+        <v>215</v>
+      </c>
+      <c r="M883" t="s">
+        <v>491</v>
+      </c>
+      <c r="N883" t="s">
+        <v>490</v>
+      </c>
+      <c r="O883" t="s">
+        <v>186</v>
+      </c>
+      <c r="P883" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q883" t="s">
+        <v>40</v>
+      </c>
+      <c r="R883" t="s">
+        <v>34</v>
+      </c>
+      <c r="S883" t="s">
+        <v>136</v>
+      </c>
+      <c r="T883" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>219</v>
+      </c>
+      <c r="B884" t="s">
+        <v>765</v>
+      </c>
+      <c r="C884" t="s">
+        <v>767</v>
+      </c>
+      <c r="D884" t="s">
+        <v>768</v>
+      </c>
+      <c r="E884" t="s">
+        <v>769</v>
+      </c>
+      <c r="F884" t="s">
+        <v>770</v>
+      </c>
+      <c r="G884" t="s">
+        <v>771</v>
+      </c>
+      <c r="H884" t="s">
+        <v>599</v>
+      </c>
+      <c r="I884" t="s">
+        <v>690</v>
+      </c>
+      <c r="J884" t="s">
+        <v>687</v>
+      </c>
+      <c r="K884" t="s">
+        <v>636</v>
+      </c>
+      <c r="L884" t="s">
+        <v>215</v>
+      </c>
+      <c r="M884" t="s">
+        <v>491</v>
+      </c>
+      <c r="N884" t="s">
+        <v>490</v>
+      </c>
+      <c r="O884" t="s">
+        <v>186</v>
+      </c>
+      <c r="P884" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q884" t="s">
+        <v>25</v>
+      </c>
+      <c r="R884" t="s">
+        <v>34</v>
+      </c>
+      <c r="S884" t="s">
+        <v>136</v>
+      </c>
+      <c r="T884" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>219</v>
+      </c>
+      <c r="B885" t="s">
+        <v>765</v>
+      </c>
+      <c r="C885" t="s">
+        <v>767</v>
+      </c>
+      <c r="D885" t="s">
+        <v>768</v>
+      </c>
+      <c r="E885" t="s">
+        <v>769</v>
+      </c>
+      <c r="F885" t="s">
+        <v>770</v>
+      </c>
+      <c r="G885" t="s">
+        <v>771</v>
+      </c>
+      <c r="H885" t="s">
+        <v>599</v>
+      </c>
+      <c r="I885" t="s">
+        <v>690</v>
+      </c>
+      <c r="J885" t="s">
+        <v>687</v>
+      </c>
+      <c r="K885" t="s">
+        <v>636</v>
+      </c>
+      <c r="L885" t="s">
+        <v>215</v>
+      </c>
+      <c r="M885" t="s">
+        <v>491</v>
+      </c>
+      <c r="N885" t="s">
+        <v>490</v>
+      </c>
+      <c r="O885" t="s">
+        <v>186</v>
+      </c>
+      <c r="P885" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q885" t="s">
+        <v>25</v>
+      </c>
+      <c r="R885" t="s">
+        <v>34</v>
+      </c>
+      <c r="S885" t="s">
+        <v>136</v>
+      </c>
+      <c r="T885" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>219</v>
+      </c>
+      <c r="B886" t="s">
+        <v>765</v>
+      </c>
+      <c r="C886" t="s">
+        <v>767</v>
+      </c>
+      <c r="D886" t="s">
+        <v>768</v>
+      </c>
+      <c r="E886" t="s">
+        <v>769</v>
+      </c>
+      <c r="F886" t="s">
+        <v>770</v>
+      </c>
+      <c r="G886" t="s">
+        <v>771</v>
+      </c>
+      <c r="H886" t="s">
+        <v>599</v>
+      </c>
+      <c r="I886" t="s">
+        <v>690</v>
+      </c>
+      <c r="J886" t="s">
+        <v>687</v>
+      </c>
+      <c r="K886" t="s">
+        <v>636</v>
+      </c>
+      <c r="L886" t="s">
+        <v>215</v>
+      </c>
+      <c r="M886" t="s">
+        <v>491</v>
+      </c>
+      <c r="N886" t="s">
+        <v>490</v>
+      </c>
+      <c r="O886" t="s">
+        <v>186</v>
+      </c>
+      <c r="P886" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q886" t="s">
+        <v>25</v>
+      </c>
+      <c r="R886" t="s">
+        <v>34</v>
+      </c>
+      <c r="S886" t="s">
+        <v>136</v>
+      </c>
+      <c r="T886" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>219</v>
+      </c>
+      <c r="B887" t="s">
+        <v>765</v>
+      </c>
+      <c r="C887" t="s">
+        <v>767</v>
+      </c>
+      <c r="D887" t="s">
+        <v>768</v>
+      </c>
+      <c r="E887" t="s">
+        <v>769</v>
+      </c>
+      <c r="F887" t="s">
+        <v>770</v>
+      </c>
+      <c r="G887" t="s">
+        <v>771</v>
+      </c>
+      <c r="H887" t="s">
+        <v>599</v>
+      </c>
+      <c r="I887" t="s">
+        <v>690</v>
+      </c>
+      <c r="J887" t="s">
+        <v>687</v>
+      </c>
+      <c r="K887" t="s">
+        <v>636</v>
+      </c>
+      <c r="L887" t="s">
+        <v>215</v>
+      </c>
+      <c r="M887" t="s">
+        <v>491</v>
+      </c>
+      <c r="N887" t="s">
+        <v>490</v>
+      </c>
+      <c r="O887" t="s">
+        <v>186</v>
+      </c>
+      <c r="P887" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q887" t="s">
+        <v>25</v>
+      </c>
+      <c r="R887" t="s">
+        <v>34</v>
+      </c>
+      <c r="S887" t="s">
+        <v>136</v>
+      </c>
+      <c r="T887" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>219</v>
+      </c>
+      <c r="B888" t="s">
+        <v>765</v>
+      </c>
+      <c r="C888" t="s">
+        <v>767</v>
+      </c>
+      <c r="D888" t="s">
+        <v>768</v>
+      </c>
+      <c r="E888" t="s">
+        <v>769</v>
+      </c>
+      <c r="F888" t="s">
+        <v>770</v>
+      </c>
+      <c r="G888" t="s">
+        <v>771</v>
+      </c>
+      <c r="H888" t="s">
+        <v>599</v>
+      </c>
+      <c r="I888" t="s">
+        <v>690</v>
+      </c>
+      <c r="J888" t="s">
+        <v>687</v>
+      </c>
+      <c r="K888" t="s">
+        <v>636</v>
+      </c>
+      <c r="L888" t="s">
+        <v>215</v>
+      </c>
+      <c r="M888" t="s">
+        <v>491</v>
+      </c>
+      <c r="N888" t="s">
+        <v>490</v>
+      </c>
+      <c r="O888" t="s">
+        <v>186</v>
+      </c>
+      <c r="P888" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q888" t="s">
+        <v>25</v>
+      </c>
+      <c r="R888" t="s">
+        <v>34</v>
+      </c>
+      <c r="S888" t="s">
+        <v>136</v>
+      </c>
+      <c r="T888" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>219</v>
+      </c>
+      <c r="B889" t="s">
+        <v>765</v>
+      </c>
+      <c r="C889" t="s">
+        <v>767</v>
+      </c>
+      <c r="D889" t="s">
+        <v>768</v>
+      </c>
+      <c r="E889" t="s">
+        <v>769</v>
+      </c>
+      <c r="F889" t="s">
+        <v>770</v>
+      </c>
+      <c r="G889" t="s">
+        <v>771</v>
+      </c>
+      <c r="H889" t="s">
+        <v>599</v>
+      </c>
+      <c r="I889" t="s">
+        <v>690</v>
+      </c>
+      <c r="J889" t="s">
+        <v>687</v>
+      </c>
+      <c r="K889" t="s">
+        <v>636</v>
+      </c>
+      <c r="L889" t="s">
+        <v>215</v>
+      </c>
+      <c r="M889" t="s">
+        <v>491</v>
+      </c>
+      <c r="N889" t="s">
+        <v>490</v>
+      </c>
+      <c r="O889" t="s">
+        <v>186</v>
+      </c>
+      <c r="P889" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q889" t="s">
+        <v>25</v>
+      </c>
+      <c r="R889" t="s">
+        <v>34</v>
+      </c>
+      <c r="S889" t="s">
+        <v>136</v>
+      </c>
+      <c r="T889" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="890" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>219</v>
+      </c>
+      <c r="B890" t="s">
+        <v>765</v>
+      </c>
+      <c r="C890" t="s">
+        <v>767</v>
+      </c>
+      <c r="D890" t="s">
+        <v>768</v>
+      </c>
+      <c r="E890" t="s">
+        <v>769</v>
+      </c>
+      <c r="F890" t="s">
+        <v>770</v>
+      </c>
+      <c r="G890" t="s">
+        <v>771</v>
+      </c>
+      <c r="H890" t="s">
+        <v>599</v>
+      </c>
+      <c r="I890" t="s">
+        <v>690</v>
+      </c>
+      <c r="J890" t="s">
+        <v>687</v>
+      </c>
+      <c r="K890" t="s">
+        <v>636</v>
+      </c>
+      <c r="L890" t="s">
+        <v>215</v>
+      </c>
+      <c r="M890" t="s">
+        <v>491</v>
+      </c>
+      <c r="N890" t="s">
+        <v>490</v>
+      </c>
+      <c r="O890" t="s">
+        <v>186</v>
+      </c>
+      <c r="P890" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q890" t="s">
+        <v>25</v>
+      </c>
+      <c r="R890" t="s">
+        <v>34</v>
+      </c>
+      <c r="S890" t="s">
+        <v>136</v>
+      </c>
+      <c r="T890" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>219</v>
+      </c>
+      <c r="B891" t="s">
+        <v>765</v>
+      </c>
+      <c r="C891" t="s">
+        <v>767</v>
+      </c>
+      <c r="D891" t="s">
+        <v>768</v>
+      </c>
+      <c r="E891" t="s">
+        <v>769</v>
+      </c>
+      <c r="F891" t="s">
+        <v>770</v>
+      </c>
+      <c r="G891" t="s">
+        <v>771</v>
+      </c>
+      <c r="H891" t="s">
+        <v>599</v>
+      </c>
+      <c r="I891" t="s">
+        <v>690</v>
+      </c>
+      <c r="J891" t="s">
+        <v>687</v>
+      </c>
+      <c r="K891" t="s">
+        <v>636</v>
+      </c>
+      <c r="L891" t="s">
+        <v>215</v>
+      </c>
+      <c r="M891" t="s">
+        <v>491</v>
+      </c>
+      <c r="N891" t="s">
+        <v>490</v>
+      </c>
+      <c r="O891" t="s">
+        <v>186</v>
+      </c>
+      <c r="P891" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q891" t="s">
+        <v>25</v>
+      </c>
+      <c r="R891" t="s">
+        <v>34</v>
+      </c>
+      <c r="S891" t="s">
+        <v>136</v>
+      </c>
+      <c r="T891" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>219</v>
+      </c>
+      <c r="B892" t="s">
+        <v>765</v>
+      </c>
+      <c r="C892" t="s">
+        <v>767</v>
+      </c>
+      <c r="D892" t="s">
+        <v>768</v>
+      </c>
+      <c r="E892" t="s">
+        <v>769</v>
+      </c>
+      <c r="F892" t="s">
+        <v>770</v>
+      </c>
+      <c r="G892" t="s">
+        <v>771</v>
+      </c>
+      <c r="H892" t="s">
+        <v>599</v>
+      </c>
+      <c r="I892" t="s">
+        <v>690</v>
+      </c>
+      <c r="J892" t="s">
+        <v>687</v>
+      </c>
+      <c r="K892" t="s">
+        <v>636</v>
+      </c>
+      <c r="L892" t="s">
+        <v>215</v>
+      </c>
+      <c r="M892" t="s">
+        <v>491</v>
+      </c>
+      <c r="N892" t="s">
+        <v>490</v>
+      </c>
+      <c r="O892" t="s">
+        <v>186</v>
+      </c>
+      <c r="P892" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q892" t="s">
+        <v>25</v>
+      </c>
+      <c r="R892" t="s">
+        <v>34</v>
+      </c>
+      <c r="S892" t="s">
+        <v>136</v>
+      </c>
+      <c r="T892" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>219</v>
+      </c>
+      <c r="B893" t="s">
+        <v>765</v>
+      </c>
+      <c r="C893" t="s">
+        <v>767</v>
+      </c>
+      <c r="D893" t="s">
+        <v>768</v>
+      </c>
+      <c r="E893" t="s">
+        <v>769</v>
+      </c>
+      <c r="F893" t="s">
+        <v>770</v>
+      </c>
+      <c r="G893" t="s">
+        <v>771</v>
+      </c>
+      <c r="H893" t="s">
+        <v>599</v>
+      </c>
+      <c r="I893" t="s">
+        <v>690</v>
+      </c>
+      <c r="J893" t="s">
+        <v>687</v>
+      </c>
+      <c r="K893" t="s">
+        <v>636</v>
+      </c>
+      <c r="L893" t="s">
+        <v>215</v>
+      </c>
+      <c r="M893" t="s">
+        <v>491</v>
+      </c>
+      <c r="N893" t="s">
+        <v>490</v>
+      </c>
+      <c r="O893" t="s">
+        <v>186</v>
+      </c>
+      <c r="P893" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q893" t="s">
+        <v>25</v>
+      </c>
+      <c r="R893" t="s">
+        <v>34</v>
+      </c>
+      <c r="S893" t="s">
+        <v>136</v>
+      </c>
+      <c r="T893" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="894" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>219</v>
+      </c>
+      <c r="B894" t="s">
+        <v>765</v>
+      </c>
+      <c r="C894" t="s">
+        <v>767</v>
+      </c>
+      <c r="D894" t="s">
+        <v>768</v>
+      </c>
+      <c r="E894" t="s">
+        <v>769</v>
+      </c>
+      <c r="F894" t="s">
+        <v>770</v>
+      </c>
+      <c r="G894" t="s">
+        <v>771</v>
+      </c>
+      <c r="H894" t="s">
+        <v>599</v>
+      </c>
+      <c r="I894" t="s">
+        <v>690</v>
+      </c>
+      <c r="J894" t="s">
+        <v>687</v>
+      </c>
+      <c r="K894" t="s">
+        <v>636</v>
+      </c>
+      <c r="L894" t="s">
+        <v>215</v>
+      </c>
+      <c r="M894" t="s">
+        <v>491</v>
+      </c>
+      <c r="N894" t="s">
+        <v>490</v>
+      </c>
+      <c r="O894" t="s">
+        <v>186</v>
+      </c>
+      <c r="P894" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q894" t="s">
+        <v>25</v>
+      </c>
+      <c r="R894" t="s">
+        <v>34</v>
+      </c>
+      <c r="S894" t="s">
+        <v>136</v>
+      </c>
+      <c r="T894" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="895" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>219</v>
+      </c>
+      <c r="B895" t="s">
+        <v>765</v>
+      </c>
+      <c r="C895" t="s">
+        <v>767</v>
+      </c>
+      <c r="D895" t="s">
+        <v>768</v>
+      </c>
+      <c r="E895" t="s">
+        <v>769</v>
+      </c>
+      <c r="F895" t="s">
+        <v>770</v>
+      </c>
+      <c r="G895" t="s">
+        <v>771</v>
+      </c>
+      <c r="H895" t="s">
+        <v>599</v>
+      </c>
+      <c r="I895" t="s">
+        <v>690</v>
+      </c>
+      <c r="J895" t="s">
+        <v>687</v>
+      </c>
+      <c r="K895" t="s">
+        <v>636</v>
+      </c>
+      <c r="L895" t="s">
+        <v>215</v>
+      </c>
+      <c r="M895" t="s">
+        <v>491</v>
+      </c>
+      <c r="N895" t="s">
+        <v>490</v>
+      </c>
+      <c r="O895" t="s">
+        <v>186</v>
+      </c>
+      <c r="P895" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q895" t="s">
+        <v>25</v>
+      </c>
+      <c r="R895" t="s">
+        <v>34</v>
+      </c>
+      <c r="S895" t="s">
+        <v>136</v>
+      </c>
+      <c r="T895" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="896" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>219</v>
+      </c>
+      <c r="B896" t="s">
+        <v>765</v>
+      </c>
+      <c r="C896" t="s">
+        <v>767</v>
+      </c>
+      <c r="D896" t="s">
+        <v>768</v>
+      </c>
+      <c r="E896" t="s">
+        <v>769</v>
+      </c>
+      <c r="F896" t="s">
+        <v>770</v>
+      </c>
+      <c r="G896" t="s">
+        <v>771</v>
+      </c>
+      <c r="H896" t="s">
+        <v>599</v>
+      </c>
+      <c r="I896" t="s">
+        <v>690</v>
+      </c>
+      <c r="J896" t="s">
+        <v>687</v>
+      </c>
+      <c r="K896" t="s">
+        <v>636</v>
+      </c>
+      <c r="L896" t="s">
+        <v>215</v>
+      </c>
+      <c r="M896" t="s">
+        <v>491</v>
+      </c>
+      <c r="N896" t="s">
+        <v>490</v>
+      </c>
+      <c r="O896" t="s">
+        <v>186</v>
+      </c>
+      <c r="P896" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q896" t="s">
+        <v>25</v>
+      </c>
+      <c r="R896" t="s">
+        <v>34</v>
+      </c>
+      <c r="S896" t="s">
+        <v>136</v>
+      </c>
+      <c r="T896" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="899" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>772</v>
+      </c>
+      <c r="B899" t="s">
+        <v>773</v>
+      </c>
+      <c r="C899" t="s">
+        <v>774</v>
+      </c>
+      <c r="D899" t="s">
+        <v>775</v>
+      </c>
+      <c r="E899" t="s">
+        <v>776</v>
+      </c>
+      <c r="F899" t="s">
+        <v>777</v>
+      </c>
+      <c r="G899" t="s">
+        <v>778</v>
+      </c>
+      <c r="H899" t="s">
+        <v>779</v>
+      </c>
+      <c r="I899" t="s">
+        <v>780</v>
+      </c>
+      <c r="J899" t="s">
+        <v>781</v>
+      </c>
+      <c r="K899" t="s">
+        <v>427</v>
+      </c>
+      <c r="L899" t="s">
+        <v>782</v>
+      </c>
+      <c r="M899" t="s">
+        <v>783</v>
+      </c>
+      <c r="N899" t="s">
+        <v>784</v>
+      </c>
+      <c r="O899" t="s">
+        <v>785</v>
+      </c>
+      <c r="P899" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q899" t="s">
+        <v>787</v>
+      </c>
+      <c r="R899" t="s">
+        <v>788</v>
+      </c>
+      <c r="S899" t="s">
+        <v>789</v>
+      </c>
+      <c r="T899" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="900" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>772</v>
+      </c>
+      <c r="B900" t="s">
+        <v>773</v>
+      </c>
+      <c r="C900" t="s">
+        <v>774</v>
+      </c>
+      <c r="D900" t="s">
+        <v>775</v>
+      </c>
+      <c r="E900" t="s">
+        <v>776</v>
+      </c>
+      <c r="F900" t="s">
+        <v>777</v>
+      </c>
+      <c r="G900" t="s">
+        <v>778</v>
+      </c>
+      <c r="H900" t="s">
+        <v>779</v>
+      </c>
+      <c r="I900" t="s">
+        <v>780</v>
+      </c>
+      <c r="J900" t="s">
+        <v>781</v>
+      </c>
+      <c r="K900" t="s">
+        <v>427</v>
+      </c>
+      <c r="L900" t="s">
+        <v>782</v>
+      </c>
+      <c r="M900" t="s">
+        <v>783</v>
+      </c>
+      <c r="N900" t="s">
+        <v>784</v>
+      </c>
+      <c r="O900" t="s">
+        <v>785</v>
+      </c>
+      <c r="P900" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q900" t="s">
+        <v>787</v>
+      </c>
+      <c r="R900" t="s">
+        <v>788</v>
+      </c>
+      <c r="S900" t="s">
+        <v>789</v>
+      </c>
+      <c r="T900" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="901" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>772</v>
+      </c>
+      <c r="B901" t="s">
+        <v>773</v>
+      </c>
+      <c r="C901" t="s">
+        <v>774</v>
+      </c>
+      <c r="D901" t="s">
+        <v>775</v>
+      </c>
+      <c r="E901" t="s">
+        <v>776</v>
+      </c>
+      <c r="F901" t="s">
+        <v>777</v>
+      </c>
+      <c r="G901" t="s">
+        <v>778</v>
+      </c>
+      <c r="H901" t="s">
+        <v>779</v>
+      </c>
+      <c r="I901" t="s">
+        <v>780</v>
+      </c>
+      <c r="J901" t="s">
+        <v>781</v>
+      </c>
+      <c r="K901" t="s">
+        <v>427</v>
+      </c>
+      <c r="L901" t="s">
+        <v>782</v>
+      </c>
+      <c r="M901" t="s">
+        <v>783</v>
+      </c>
+      <c r="N901" t="s">
+        <v>784</v>
+      </c>
+      <c r="O901" t="s">
+        <v>785</v>
+      </c>
+      <c r="P901" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q901" t="s">
+        <v>787</v>
+      </c>
+      <c r="R901" t="s">
+        <v>788</v>
+      </c>
+      <c r="S901" t="s">
+        <v>789</v>
+      </c>
+      <c r="T901" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="902" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>772</v>
+      </c>
+      <c r="B902" t="s">
+        <v>773</v>
+      </c>
+      <c r="C902" t="s">
+        <v>774</v>
+      </c>
+      <c r="D902" t="s">
+        <v>775</v>
+      </c>
+      <c r="E902" t="s">
+        <v>776</v>
+      </c>
+      <c r="F902" t="s">
+        <v>777</v>
+      </c>
+      <c r="G902" t="s">
+        <v>778</v>
+      </c>
+      <c r="H902" t="s">
+        <v>779</v>
+      </c>
+      <c r="I902" t="s">
+        <v>780</v>
+      </c>
+      <c r="J902" t="s">
+        <v>781</v>
+      </c>
+      <c r="K902" t="s">
+        <v>427</v>
+      </c>
+      <c r="L902" t="s">
+        <v>782</v>
+      </c>
+      <c r="M902" t="s">
+        <v>783</v>
+      </c>
+      <c r="N902" t="s">
+        <v>784</v>
+      </c>
+      <c r="O902" t="s">
+        <v>785</v>
+      </c>
+      <c r="P902" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q902" t="s">
+        <v>787</v>
+      </c>
+      <c r="R902" t="s">
+        <v>788</v>
+      </c>
+      <c r="S902" t="s">
+        <v>789</v>
+      </c>
+      <c r="T902" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="903" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>772</v>
+      </c>
+      <c r="B903" t="s">
+        <v>773</v>
+      </c>
+      <c r="C903" t="s">
+        <v>774</v>
+      </c>
+      <c r="D903" t="s">
+        <v>775</v>
+      </c>
+      <c r="E903" t="s">
+        <v>776</v>
+      </c>
+      <c r="F903" t="s">
+        <v>777</v>
+      </c>
+      <c r="G903" t="s">
+        <v>778</v>
+      </c>
+      <c r="H903" t="s">
+        <v>779</v>
+      </c>
+      <c r="I903" t="s">
+        <v>780</v>
+      </c>
+      <c r="J903" t="s">
+        <v>781</v>
+      </c>
+      <c r="K903" t="s">
+        <v>427</v>
+      </c>
+      <c r="L903" t="s">
+        <v>782</v>
+      </c>
+      <c r="M903" t="s">
+        <v>783</v>
+      </c>
+      <c r="N903" t="s">
+        <v>784</v>
+      </c>
+      <c r="O903" t="s">
+        <v>785</v>
+      </c>
+      <c r="P903" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q903" t="s">
+        <v>787</v>
+      </c>
+      <c r="R903" t="s">
+        <v>788</v>
+      </c>
+      <c r="S903" t="s">
+        <v>789</v>
+      </c>
+      <c r="T903" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="904" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>772</v>
+      </c>
+      <c r="B904" t="s">
+        <v>773</v>
+      </c>
+      <c r="C904" t="s">
+        <v>774</v>
+      </c>
+      <c r="D904" t="s">
+        <v>775</v>
+      </c>
+      <c r="E904" t="s">
+        <v>776</v>
+      </c>
+      <c r="F904" t="s">
+        <v>777</v>
+      </c>
+      <c r="G904" t="s">
+        <v>778</v>
+      </c>
+      <c r="H904" t="s">
+        <v>779</v>
+      </c>
+      <c r="I904" t="s">
+        <v>780</v>
+      </c>
+      <c r="J904" t="s">
+        <v>781</v>
+      </c>
+      <c r="K904" t="s">
+        <v>427</v>
+      </c>
+      <c r="L904" t="s">
+        <v>782</v>
+      </c>
+      <c r="M904" t="s">
+        <v>783</v>
+      </c>
+      <c r="N904" t="s">
+        <v>784</v>
+      </c>
+      <c r="O904" t="s">
+        <v>785</v>
+      </c>
+      <c r="P904" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q904" t="s">
+        <v>787</v>
+      </c>
+      <c r="R904" t="s">
+        <v>788</v>
+      </c>
+      <c r="S904" t="s">
+        <v>789</v>
+      </c>
+      <c r="T904" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="905" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>772</v>
+      </c>
+      <c r="B905" t="s">
+        <v>773</v>
+      </c>
+      <c r="C905" t="s">
+        <v>774</v>
+      </c>
+      <c r="D905" t="s">
+        <v>775</v>
+      </c>
+      <c r="E905" t="s">
+        <v>776</v>
+      </c>
+      <c r="F905" t="s">
+        <v>777</v>
+      </c>
+      <c r="G905" t="s">
+        <v>778</v>
+      </c>
+      <c r="H905" t="s">
+        <v>779</v>
+      </c>
+      <c r="I905" t="s">
+        <v>780</v>
+      </c>
+      <c r="J905" t="s">
+        <v>781</v>
+      </c>
+      <c r="K905" t="s">
+        <v>427</v>
+      </c>
+      <c r="L905" t="s">
+        <v>782</v>
+      </c>
+      <c r="M905" t="s">
+        <v>783</v>
+      </c>
+      <c r="N905" t="s">
+        <v>784</v>
+      </c>
+      <c r="O905" t="s">
+        <v>785</v>
+      </c>
+      <c r="P905" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q905" t="s">
+        <v>787</v>
+      </c>
+      <c r="R905" t="s">
+        <v>788</v>
+      </c>
+      <c r="S905" t="s">
+        <v>789</v>
+      </c>
+      <c r="T905" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="906" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>772</v>
+      </c>
+      <c r="B906" t="s">
+        <v>773</v>
+      </c>
+      <c r="C906" t="s">
+        <v>774</v>
+      </c>
+      <c r="D906" t="s">
+        <v>775</v>
+      </c>
+      <c r="E906" t="s">
+        <v>776</v>
+      </c>
+      <c r="F906" t="s">
+        <v>777</v>
+      </c>
+      <c r="G906" t="s">
+        <v>778</v>
+      </c>
+      <c r="H906" t="s">
+        <v>779</v>
+      </c>
+      <c r="I906" t="s">
+        <v>780</v>
+      </c>
+      <c r="J906" t="s">
+        <v>781</v>
+      </c>
+      <c r="K906" t="s">
+        <v>427</v>
+      </c>
+      <c r="L906" t="s">
+        <v>782</v>
+      </c>
+      <c r="M906" t="s">
+        <v>783</v>
+      </c>
+      <c r="N906" t="s">
+        <v>784</v>
+      </c>
+      <c r="O906" t="s">
+        <v>785</v>
+      </c>
+      <c r="P906" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q906" t="s">
+        <v>787</v>
+      </c>
+      <c r="R906" t="s">
+        <v>788</v>
+      </c>
+      <c r="S906" t="s">
+        <v>789</v>
+      </c>
+      <c r="T906" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="907" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>772</v>
+      </c>
+      <c r="B907" t="s">
+        <v>773</v>
+      </c>
+      <c r="C907" t="s">
+        <v>774</v>
+      </c>
+      <c r="D907" t="s">
+        <v>775</v>
+      </c>
+      <c r="E907" t="s">
+        <v>776</v>
+      </c>
+      <c r="F907" t="s">
+        <v>777</v>
+      </c>
+      <c r="G907" t="s">
+        <v>778</v>
+      </c>
+      <c r="H907" t="s">
+        <v>779</v>
+      </c>
+      <c r="I907" t="s">
+        <v>780</v>
+      </c>
+      <c r="J907" t="s">
+        <v>781</v>
+      </c>
+      <c r="K907" t="s">
+        <v>427</v>
+      </c>
+      <c r="L907" t="s">
+        <v>782</v>
+      </c>
+      <c r="M907" t="s">
+        <v>783</v>
+      </c>
+      <c r="N907" t="s">
+        <v>784</v>
+      </c>
+      <c r="O907" t="s">
+        <v>785</v>
+      </c>
+      <c r="P907" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q907" t="s">
+        <v>787</v>
+      </c>
+      <c r="R907" t="s">
+        <v>788</v>
+      </c>
+      <c r="S907" t="s">
+        <v>789</v>
+      </c>
+      <c r="T907" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="908" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>772</v>
+      </c>
+      <c r="B908" t="s">
+        <v>773</v>
+      </c>
+      <c r="C908" t="s">
+        <v>774</v>
+      </c>
+      <c r="D908" t="s">
+        <v>775</v>
+      </c>
+      <c r="E908" t="s">
+        <v>776</v>
+      </c>
+      <c r="F908" t="s">
+        <v>777</v>
+      </c>
+      <c r="G908" t="s">
+        <v>778</v>
+      </c>
+      <c r="H908" t="s">
+        <v>779</v>
+      </c>
+      <c r="I908" t="s">
+        <v>780</v>
+      </c>
+      <c r="J908" t="s">
+        <v>781</v>
+      </c>
+      <c r="K908" t="s">
+        <v>427</v>
+      </c>
+      <c r="L908" t="s">
+        <v>782</v>
+      </c>
+      <c r="M908" t="s">
+        <v>783</v>
+      </c>
+      <c r="N908" t="s">
+        <v>784</v>
+      </c>
+      <c r="O908" t="s">
+        <v>785</v>
+      </c>
+      <c r="P908" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q908" t="s">
+        <v>787</v>
+      </c>
+      <c r="R908" t="s">
+        <v>788</v>
+      </c>
+      <c r="S908" t="s">
+        <v>789</v>
+      </c>
+      <c r="T908" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="909" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>772</v>
+      </c>
+      <c r="B909" t="s">
+        <v>773</v>
+      </c>
+      <c r="C909" t="s">
+        <v>774</v>
+      </c>
+      <c r="D909" t="s">
+        <v>775</v>
+      </c>
+      <c r="E909" t="s">
+        <v>776</v>
+      </c>
+      <c r="F909" t="s">
+        <v>777</v>
+      </c>
+      <c r="G909" t="s">
+        <v>778</v>
+      </c>
+      <c r="H909" t="s">
+        <v>779</v>
+      </c>
+      <c r="I909" t="s">
+        <v>780</v>
+      </c>
+      <c r="J909" t="s">
+        <v>781</v>
+      </c>
+      <c r="K909" t="s">
+        <v>427</v>
+      </c>
+      <c r="L909" t="s">
+        <v>782</v>
+      </c>
+      <c r="M909" t="s">
+        <v>783</v>
+      </c>
+      <c r="N909" t="s">
+        <v>784</v>
+      </c>
+      <c r="O909" t="s">
+        <v>785</v>
+      </c>
+      <c r="P909" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q909" t="s">
+        <v>787</v>
+      </c>
+      <c r="R909" t="s">
+        <v>788</v>
+      </c>
+      <c r="S909" t="s">
+        <v>789</v>
+      </c>
+      <c r="T909" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="910" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>772</v>
+      </c>
+      <c r="B910" t="s">
+        <v>773</v>
+      </c>
+      <c r="C910" t="s">
+        <v>774</v>
+      </c>
+      <c r="D910" t="s">
+        <v>775</v>
+      </c>
+      <c r="E910" t="s">
+        <v>776</v>
+      </c>
+      <c r="F910" t="s">
+        <v>777</v>
+      </c>
+      <c r="G910" t="s">
+        <v>778</v>
+      </c>
+      <c r="H910" t="s">
+        <v>779</v>
+      </c>
+      <c r="I910" t="s">
+        <v>780</v>
+      </c>
+      <c r="J910" t="s">
+        <v>781</v>
+      </c>
+      <c r="K910" t="s">
+        <v>427</v>
+      </c>
+      <c r="L910" t="s">
+        <v>782</v>
+      </c>
+      <c r="M910" t="s">
+        <v>783</v>
+      </c>
+      <c r="N910" t="s">
+        <v>784</v>
+      </c>
+      <c r="O910" t="s">
+        <v>785</v>
+      </c>
+      <c r="P910" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q910" t="s">
+        <v>787</v>
+      </c>
+      <c r="R910" t="s">
+        <v>788</v>
+      </c>
+      <c r="S910" t="s">
+        <v>789</v>
+      </c>
+      <c r="T910" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="911" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>772</v>
+      </c>
+      <c r="B911" t="s">
+        <v>773</v>
+      </c>
+      <c r="C911" t="s">
+        <v>774</v>
+      </c>
+      <c r="D911" t="s">
+        <v>775</v>
+      </c>
+      <c r="E911" t="s">
+        <v>776</v>
+      </c>
+      <c r="F911" t="s">
+        <v>777</v>
+      </c>
+      <c r="G911" t="s">
+        <v>778</v>
+      </c>
+      <c r="H911" t="s">
+        <v>779</v>
+      </c>
+      <c r="I911" t="s">
+        <v>780</v>
+      </c>
+      <c r="J911" t="s">
+        <v>781</v>
+      </c>
+      <c r="K911" t="s">
+        <v>427</v>
+      </c>
+      <c r="L911" t="s">
+        <v>782</v>
+      </c>
+      <c r="M911" t="s">
+        <v>783</v>
+      </c>
+      <c r="N911" t="s">
+        <v>784</v>
+      </c>
+      <c r="O911" t="s">
+        <v>785</v>
+      </c>
+      <c r="P911" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q911" t="s">
+        <v>787</v>
+      </c>
+      <c r="R911" t="s">
+        <v>788</v>
+      </c>
+      <c r="S911" t="s">
+        <v>789</v>
+      </c>
+      <c r="T911" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="914" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>791</v>
+      </c>
+      <c r="B914" t="s">
+        <v>792</v>
+      </c>
+      <c r="C914" t="s">
+        <v>793</v>
+      </c>
+      <c r="D914" t="s">
+        <v>794</v>
+      </c>
+      <c r="E914" t="s">
+        <v>795</v>
+      </c>
+      <c r="F914" t="s">
+        <v>796</v>
+      </c>
+      <c r="G914" t="s">
+        <v>797</v>
+      </c>
+      <c r="H914" t="s">
+        <v>798</v>
+      </c>
+      <c r="I914" t="s">
+        <v>799</v>
+      </c>
+      <c r="J914" t="s">
+        <v>800</v>
+      </c>
+      <c r="K914" t="s">
+        <v>801</v>
+      </c>
+      <c r="L914" t="s">
+        <v>802</v>
+      </c>
+      <c r="M914" t="s">
+        <v>803</v>
+      </c>
+      <c r="N914" t="s">
+        <v>804</v>
+      </c>
+      <c r="O914" t="s">
+        <v>805</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16176" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16371" uniqueCount="806">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -2827,10 +2827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V914"/>
+  <dimension ref="A1:V927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P898" workbookViewId="0">
-      <selection activeCell="U911" sqref="U911"/>
+    <sheetView tabSelected="1" topLeftCell="M910" workbookViewId="0">
+      <selection activeCell="P927" sqref="P927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53058,6 +53058,617 @@
         <v>804</v>
       </c>
       <c r="O914" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="915" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>791</v>
+      </c>
+      <c r="B915" t="s">
+        <v>792</v>
+      </c>
+      <c r="C915" t="s">
+        <v>793</v>
+      </c>
+      <c r="D915" t="s">
+        <v>794</v>
+      </c>
+      <c r="E915" t="s">
+        <v>795</v>
+      </c>
+      <c r="F915" t="s">
+        <v>796</v>
+      </c>
+      <c r="G915" t="s">
+        <v>797</v>
+      </c>
+      <c r="H915" t="s">
+        <v>798</v>
+      </c>
+      <c r="I915" t="s">
+        <v>799</v>
+      </c>
+      <c r="J915" t="s">
+        <v>800</v>
+      </c>
+      <c r="K915" t="s">
+        <v>801</v>
+      </c>
+      <c r="L915" t="s">
+        <v>802</v>
+      </c>
+      <c r="M915" t="s">
+        <v>803</v>
+      </c>
+      <c r="N915" t="s">
+        <v>804</v>
+      </c>
+      <c r="O915" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="916" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>791</v>
+      </c>
+      <c r="B916" t="s">
+        <v>792</v>
+      </c>
+      <c r="C916" t="s">
+        <v>793</v>
+      </c>
+      <c r="D916" t="s">
+        <v>794</v>
+      </c>
+      <c r="E916" t="s">
+        <v>795</v>
+      </c>
+      <c r="F916" t="s">
+        <v>796</v>
+      </c>
+      <c r="G916" t="s">
+        <v>797</v>
+      </c>
+      <c r="H916" t="s">
+        <v>798</v>
+      </c>
+      <c r="I916" t="s">
+        <v>799</v>
+      </c>
+      <c r="J916" t="s">
+        <v>800</v>
+      </c>
+      <c r="K916" t="s">
+        <v>801</v>
+      </c>
+      <c r="L916" t="s">
+        <v>802</v>
+      </c>
+      <c r="M916" t="s">
+        <v>803</v>
+      </c>
+      <c r="N916" t="s">
+        <v>804</v>
+      </c>
+      <c r="O916" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="917" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>791</v>
+      </c>
+      <c r="B917" t="s">
+        <v>792</v>
+      </c>
+      <c r="C917" t="s">
+        <v>793</v>
+      </c>
+      <c r="D917" t="s">
+        <v>794</v>
+      </c>
+      <c r="E917" t="s">
+        <v>795</v>
+      </c>
+      <c r="F917" t="s">
+        <v>796</v>
+      </c>
+      <c r="G917" t="s">
+        <v>797</v>
+      </c>
+      <c r="H917" t="s">
+        <v>798</v>
+      </c>
+      <c r="I917" t="s">
+        <v>799</v>
+      </c>
+      <c r="J917" t="s">
+        <v>800</v>
+      </c>
+      <c r="K917" t="s">
+        <v>801</v>
+      </c>
+      <c r="L917" t="s">
+        <v>802</v>
+      </c>
+      <c r="M917" t="s">
+        <v>803</v>
+      </c>
+      <c r="N917" t="s">
+        <v>804</v>
+      </c>
+      <c r="O917" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="918" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>791</v>
+      </c>
+      <c r="B918" t="s">
+        <v>792</v>
+      </c>
+      <c r="C918" t="s">
+        <v>793</v>
+      </c>
+      <c r="D918" t="s">
+        <v>794</v>
+      </c>
+      <c r="E918" t="s">
+        <v>795</v>
+      </c>
+      <c r="F918" t="s">
+        <v>796</v>
+      </c>
+      <c r="G918" t="s">
+        <v>797</v>
+      </c>
+      <c r="H918" t="s">
+        <v>798</v>
+      </c>
+      <c r="I918" t="s">
+        <v>799</v>
+      </c>
+      <c r="J918" t="s">
+        <v>800</v>
+      </c>
+      <c r="K918" t="s">
+        <v>801</v>
+      </c>
+      <c r="L918" t="s">
+        <v>802</v>
+      </c>
+      <c r="M918" t="s">
+        <v>803</v>
+      </c>
+      <c r="N918" t="s">
+        <v>804</v>
+      </c>
+      <c r="O918" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="919" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>791</v>
+      </c>
+      <c r="B919" t="s">
+        <v>792</v>
+      </c>
+      <c r="C919" t="s">
+        <v>793</v>
+      </c>
+      <c r="D919" t="s">
+        <v>794</v>
+      </c>
+      <c r="E919" t="s">
+        <v>795</v>
+      </c>
+      <c r="F919" t="s">
+        <v>796</v>
+      </c>
+      <c r="G919" t="s">
+        <v>797</v>
+      </c>
+      <c r="H919" t="s">
+        <v>798</v>
+      </c>
+      <c r="I919" t="s">
+        <v>799</v>
+      </c>
+      <c r="J919" t="s">
+        <v>800</v>
+      </c>
+      <c r="K919" t="s">
+        <v>801</v>
+      </c>
+      <c r="L919" t="s">
+        <v>802</v>
+      </c>
+      <c r="M919" t="s">
+        <v>803</v>
+      </c>
+      <c r="N919" t="s">
+        <v>804</v>
+      </c>
+      <c r="O919" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="920" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>791</v>
+      </c>
+      <c r="B920" t="s">
+        <v>792</v>
+      </c>
+      <c r="C920" t="s">
+        <v>793</v>
+      </c>
+      <c r="D920" t="s">
+        <v>794</v>
+      </c>
+      <c r="E920" t="s">
+        <v>795</v>
+      </c>
+      <c r="F920" t="s">
+        <v>796</v>
+      </c>
+      <c r="G920" t="s">
+        <v>797</v>
+      </c>
+      <c r="H920" t="s">
+        <v>798</v>
+      </c>
+      <c r="I920" t="s">
+        <v>799</v>
+      </c>
+      <c r="J920" t="s">
+        <v>800</v>
+      </c>
+      <c r="K920" t="s">
+        <v>801</v>
+      </c>
+      <c r="L920" t="s">
+        <v>802</v>
+      </c>
+      <c r="M920" t="s">
+        <v>803</v>
+      </c>
+      <c r="N920" t="s">
+        <v>804</v>
+      </c>
+      <c r="O920" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="921" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>791</v>
+      </c>
+      <c r="B921" t="s">
+        <v>792</v>
+      </c>
+      <c r="C921" t="s">
+        <v>793</v>
+      </c>
+      <c r="D921" t="s">
+        <v>794</v>
+      </c>
+      <c r="E921" t="s">
+        <v>795</v>
+      </c>
+      <c r="F921" t="s">
+        <v>796</v>
+      </c>
+      <c r="G921" t="s">
+        <v>797</v>
+      </c>
+      <c r="H921" t="s">
+        <v>798</v>
+      </c>
+      <c r="I921" t="s">
+        <v>799</v>
+      </c>
+      <c r="J921" t="s">
+        <v>800</v>
+      </c>
+      <c r="K921" t="s">
+        <v>801</v>
+      </c>
+      <c r="L921" t="s">
+        <v>802</v>
+      </c>
+      <c r="M921" t="s">
+        <v>803</v>
+      </c>
+      <c r="N921" t="s">
+        <v>804</v>
+      </c>
+      <c r="O921" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="922" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>791</v>
+      </c>
+      <c r="B922" t="s">
+        <v>792</v>
+      </c>
+      <c r="C922" t="s">
+        <v>793</v>
+      </c>
+      <c r="D922" t="s">
+        <v>794</v>
+      </c>
+      <c r="E922" t="s">
+        <v>795</v>
+      </c>
+      <c r="F922" t="s">
+        <v>796</v>
+      </c>
+      <c r="G922" t="s">
+        <v>797</v>
+      </c>
+      <c r="H922" t="s">
+        <v>798</v>
+      </c>
+      <c r="I922" t="s">
+        <v>799</v>
+      </c>
+      <c r="J922" t="s">
+        <v>800</v>
+      </c>
+      <c r="K922" t="s">
+        <v>801</v>
+      </c>
+      <c r="L922" t="s">
+        <v>802</v>
+      </c>
+      <c r="M922" t="s">
+        <v>803</v>
+      </c>
+      <c r="N922" t="s">
+        <v>804</v>
+      </c>
+      <c r="O922" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="923" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>791</v>
+      </c>
+      <c r="B923" t="s">
+        <v>792</v>
+      </c>
+      <c r="C923" t="s">
+        <v>793</v>
+      </c>
+      <c r="D923" t="s">
+        <v>794</v>
+      </c>
+      <c r="E923" t="s">
+        <v>795</v>
+      </c>
+      <c r="F923" t="s">
+        <v>796</v>
+      </c>
+      <c r="G923" t="s">
+        <v>797</v>
+      </c>
+      <c r="H923" t="s">
+        <v>798</v>
+      </c>
+      <c r="I923" t="s">
+        <v>799</v>
+      </c>
+      <c r="J923" t="s">
+        <v>800</v>
+      </c>
+      <c r="K923" t="s">
+        <v>801</v>
+      </c>
+      <c r="L923" t="s">
+        <v>802</v>
+      </c>
+      <c r="M923" t="s">
+        <v>803</v>
+      </c>
+      <c r="N923" t="s">
+        <v>804</v>
+      </c>
+      <c r="O923" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="924" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>791</v>
+      </c>
+      <c r="B924" t="s">
+        <v>792</v>
+      </c>
+      <c r="C924" t="s">
+        <v>793</v>
+      </c>
+      <c r="D924" t="s">
+        <v>794</v>
+      </c>
+      <c r="E924" t="s">
+        <v>795</v>
+      </c>
+      <c r="F924" t="s">
+        <v>796</v>
+      </c>
+      <c r="G924" t="s">
+        <v>797</v>
+      </c>
+      <c r="H924" t="s">
+        <v>798</v>
+      </c>
+      <c r="I924" t="s">
+        <v>799</v>
+      </c>
+      <c r="J924" t="s">
+        <v>800</v>
+      </c>
+      <c r="K924" t="s">
+        <v>801</v>
+      </c>
+      <c r="L924" t="s">
+        <v>802</v>
+      </c>
+      <c r="M924" t="s">
+        <v>803</v>
+      </c>
+      <c r="N924" t="s">
+        <v>804</v>
+      </c>
+      <c r="O924" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="925" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>791</v>
+      </c>
+      <c r="B925" t="s">
+        <v>792</v>
+      </c>
+      <c r="C925" t="s">
+        <v>793</v>
+      </c>
+      <c r="D925" t="s">
+        <v>794</v>
+      </c>
+      <c r="E925" t="s">
+        <v>795</v>
+      </c>
+      <c r="F925" t="s">
+        <v>796</v>
+      </c>
+      <c r="G925" t="s">
+        <v>797</v>
+      </c>
+      <c r="H925" t="s">
+        <v>798</v>
+      </c>
+      <c r="I925" t="s">
+        <v>799</v>
+      </c>
+      <c r="J925" t="s">
+        <v>800</v>
+      </c>
+      <c r="K925" t="s">
+        <v>801</v>
+      </c>
+      <c r="L925" t="s">
+        <v>802</v>
+      </c>
+      <c r="M925" t="s">
+        <v>803</v>
+      </c>
+      <c r="N925" t="s">
+        <v>804</v>
+      </c>
+      <c r="O925" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="926" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>791</v>
+      </c>
+      <c r="B926" t="s">
+        <v>792</v>
+      </c>
+      <c r="C926" t="s">
+        <v>793</v>
+      </c>
+      <c r="D926" t="s">
+        <v>794</v>
+      </c>
+      <c r="E926" t="s">
+        <v>795</v>
+      </c>
+      <c r="F926" t="s">
+        <v>796</v>
+      </c>
+      <c r="G926" t="s">
+        <v>797</v>
+      </c>
+      <c r="H926" t="s">
+        <v>798</v>
+      </c>
+      <c r="I926" t="s">
+        <v>799</v>
+      </c>
+      <c r="J926" t="s">
+        <v>800</v>
+      </c>
+      <c r="K926" t="s">
+        <v>801</v>
+      </c>
+      <c r="L926" t="s">
+        <v>802</v>
+      </c>
+      <c r="M926" t="s">
+        <v>803</v>
+      </c>
+      <c r="N926" t="s">
+        <v>804</v>
+      </c>
+      <c r="O926" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="927" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>791</v>
+      </c>
+      <c r="B927" t="s">
+        <v>792</v>
+      </c>
+      <c r="C927" t="s">
+        <v>793</v>
+      </c>
+      <c r="D927" t="s">
+        <v>794</v>
+      </c>
+      <c r="E927" t="s">
+        <v>795</v>
+      </c>
+      <c r="F927" t="s">
+        <v>796</v>
+      </c>
+      <c r="G927" t="s">
+        <v>797</v>
+      </c>
+      <c r="H927" t="s">
+        <v>798</v>
+      </c>
+      <c r="I927" t="s">
+        <v>799</v>
+      </c>
+      <c r="J927" t="s">
+        <v>800</v>
+      </c>
+      <c r="K927" t="s">
+        <v>801</v>
+      </c>
+      <c r="L927" t="s">
+        <v>802</v>
+      </c>
+      <c r="M927" t="s">
+        <v>803</v>
+      </c>
+      <c r="N927" t="s">
+        <v>804</v>
+      </c>
+      <c r="O927" t="s">
         <v>805</v>
       </c>
     </row>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16371" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16651" uniqueCount="826">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -2442,6 +2442,66 @@
   </si>
   <si>
     <t>filtration loc</t>
+  </si>
+  <si>
+    <t>accuracy chinh xac</t>
+  </si>
+  <si>
+    <t>acceptable co the chap nhan duoc</t>
+  </si>
+  <si>
+    <t>precise chinh xac</t>
+  </si>
+  <si>
+    <t>revelant thich hop co lien quan</t>
+  </si>
+  <si>
+    <t>inpiration su cam hung</t>
+  </si>
+  <si>
+    <t>intersection giao diem</t>
+  </si>
+  <si>
+    <t>respective tuong ung</t>
+  </si>
+  <si>
+    <t>schema luoc do</t>
+  </si>
+  <si>
+    <t>rigid cung</t>
+  </si>
+  <si>
+    <t>alternative su thay the</t>
+  </si>
+  <si>
+    <t>beam trum</t>
+  </si>
+  <si>
+    <t>inertia quan tinh</t>
+  </si>
+  <si>
+    <t>noticeable de nhan thay</t>
+  </si>
+  <si>
+    <t>prediction su tien doan</t>
+  </si>
+  <si>
+    <t>quantity so luong</t>
+  </si>
+  <si>
+    <t>establish thiet lap</t>
+  </si>
+  <si>
+    <t>permanent vinh vien</t>
+  </si>
+  <si>
+    <t>diverse nhieu loai</t>
+  </si>
+  <si>
+    <t>shape hinh dang</t>
+  </si>
+  <si>
+    <t>virtual ao</t>
   </si>
 </sst>
 </file>
@@ -2827,10 +2887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V927"/>
+  <dimension ref="A1:V943"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M910" workbookViewId="0">
-      <selection activeCell="P927" sqref="P927"/>
+    <sheetView tabSelected="1" topLeftCell="Q925" workbookViewId="0">
+      <selection activeCell="U943" sqref="U943"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53670,6 +53730,874 @@
       </c>
       <c r="O927" t="s">
         <v>805</v>
+      </c>
+    </row>
+    <row r="930" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>806</v>
+      </c>
+      <c r="B930" t="s">
+        <v>807</v>
+      </c>
+      <c r="C930" t="s">
+        <v>808</v>
+      </c>
+      <c r="D930" t="s">
+        <v>809</v>
+      </c>
+      <c r="E930" t="s">
+        <v>810</v>
+      </c>
+      <c r="F930" t="s">
+        <v>811</v>
+      </c>
+      <c r="G930" t="s">
+        <v>812</v>
+      </c>
+      <c r="H930" t="s">
+        <v>813</v>
+      </c>
+      <c r="I930" t="s">
+        <v>814</v>
+      </c>
+      <c r="J930" t="s">
+        <v>815</v>
+      </c>
+      <c r="K930" t="s">
+        <v>816</v>
+      </c>
+      <c r="L930" t="s">
+        <v>817</v>
+      </c>
+      <c r="M930" t="s">
+        <v>818</v>
+      </c>
+      <c r="N930" t="s">
+        <v>819</v>
+      </c>
+      <c r="O930" t="s">
+        <v>820</v>
+      </c>
+      <c r="P930" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q930" t="s">
+        <v>822</v>
+      </c>
+      <c r="R930" t="s">
+        <v>823</v>
+      </c>
+      <c r="S930" t="s">
+        <v>824</v>
+      </c>
+      <c r="T930" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="931" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>806</v>
+      </c>
+      <c r="B931" t="s">
+        <v>807</v>
+      </c>
+      <c r="C931" t="s">
+        <v>808</v>
+      </c>
+      <c r="D931" t="s">
+        <v>809</v>
+      </c>
+      <c r="E931" t="s">
+        <v>810</v>
+      </c>
+      <c r="F931" t="s">
+        <v>811</v>
+      </c>
+      <c r="G931" t="s">
+        <v>812</v>
+      </c>
+      <c r="H931" t="s">
+        <v>813</v>
+      </c>
+      <c r="I931" t="s">
+        <v>814</v>
+      </c>
+      <c r="J931" t="s">
+        <v>815</v>
+      </c>
+      <c r="K931" t="s">
+        <v>816</v>
+      </c>
+      <c r="L931" t="s">
+        <v>817</v>
+      </c>
+      <c r="M931" t="s">
+        <v>818</v>
+      </c>
+      <c r="N931" t="s">
+        <v>819</v>
+      </c>
+      <c r="O931" t="s">
+        <v>820</v>
+      </c>
+      <c r="P931" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q931" t="s">
+        <v>822</v>
+      </c>
+      <c r="R931" t="s">
+        <v>823</v>
+      </c>
+      <c r="S931" t="s">
+        <v>824</v>
+      </c>
+      <c r="T931" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="932" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>806</v>
+      </c>
+      <c r="B932" t="s">
+        <v>807</v>
+      </c>
+      <c r="C932" t="s">
+        <v>808</v>
+      </c>
+      <c r="D932" t="s">
+        <v>809</v>
+      </c>
+      <c r="E932" t="s">
+        <v>810</v>
+      </c>
+      <c r="F932" t="s">
+        <v>811</v>
+      </c>
+      <c r="G932" t="s">
+        <v>812</v>
+      </c>
+      <c r="H932" t="s">
+        <v>813</v>
+      </c>
+      <c r="I932" t="s">
+        <v>814</v>
+      </c>
+      <c r="J932" t="s">
+        <v>815</v>
+      </c>
+      <c r="K932" t="s">
+        <v>816</v>
+      </c>
+      <c r="L932" t="s">
+        <v>817</v>
+      </c>
+      <c r="M932" t="s">
+        <v>818</v>
+      </c>
+      <c r="N932" t="s">
+        <v>819</v>
+      </c>
+      <c r="O932" t="s">
+        <v>820</v>
+      </c>
+      <c r="P932" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q932" t="s">
+        <v>822</v>
+      </c>
+      <c r="R932" t="s">
+        <v>823</v>
+      </c>
+      <c r="S932" t="s">
+        <v>824</v>
+      </c>
+      <c r="T932" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="933" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>806</v>
+      </c>
+      <c r="B933" t="s">
+        <v>807</v>
+      </c>
+      <c r="C933" t="s">
+        <v>808</v>
+      </c>
+      <c r="D933" t="s">
+        <v>809</v>
+      </c>
+      <c r="E933" t="s">
+        <v>810</v>
+      </c>
+      <c r="F933" t="s">
+        <v>811</v>
+      </c>
+      <c r="G933" t="s">
+        <v>812</v>
+      </c>
+      <c r="H933" t="s">
+        <v>813</v>
+      </c>
+      <c r="I933" t="s">
+        <v>814</v>
+      </c>
+      <c r="J933" t="s">
+        <v>815</v>
+      </c>
+      <c r="K933" t="s">
+        <v>816</v>
+      </c>
+      <c r="L933" t="s">
+        <v>817</v>
+      </c>
+      <c r="M933" t="s">
+        <v>818</v>
+      </c>
+      <c r="N933" t="s">
+        <v>819</v>
+      </c>
+      <c r="O933" t="s">
+        <v>820</v>
+      </c>
+      <c r="P933" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q933" t="s">
+        <v>822</v>
+      </c>
+      <c r="R933" t="s">
+        <v>823</v>
+      </c>
+      <c r="S933" t="s">
+        <v>824</v>
+      </c>
+      <c r="T933" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="934" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>806</v>
+      </c>
+      <c r="B934" t="s">
+        <v>807</v>
+      </c>
+      <c r="C934" t="s">
+        <v>808</v>
+      </c>
+      <c r="D934" t="s">
+        <v>809</v>
+      </c>
+      <c r="E934" t="s">
+        <v>810</v>
+      </c>
+      <c r="F934" t="s">
+        <v>811</v>
+      </c>
+      <c r="G934" t="s">
+        <v>812</v>
+      </c>
+      <c r="H934" t="s">
+        <v>813</v>
+      </c>
+      <c r="I934" t="s">
+        <v>814</v>
+      </c>
+      <c r="J934" t="s">
+        <v>815</v>
+      </c>
+      <c r="K934" t="s">
+        <v>816</v>
+      </c>
+      <c r="L934" t="s">
+        <v>817</v>
+      </c>
+      <c r="M934" t="s">
+        <v>818</v>
+      </c>
+      <c r="N934" t="s">
+        <v>819</v>
+      </c>
+      <c r="O934" t="s">
+        <v>820</v>
+      </c>
+      <c r="P934" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q934" t="s">
+        <v>822</v>
+      </c>
+      <c r="R934" t="s">
+        <v>823</v>
+      </c>
+      <c r="S934" t="s">
+        <v>824</v>
+      </c>
+      <c r="T934" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="935" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>806</v>
+      </c>
+      <c r="B935" t="s">
+        <v>807</v>
+      </c>
+      <c r="C935" t="s">
+        <v>808</v>
+      </c>
+      <c r="D935" t="s">
+        <v>809</v>
+      </c>
+      <c r="E935" t="s">
+        <v>810</v>
+      </c>
+      <c r="F935" t="s">
+        <v>811</v>
+      </c>
+      <c r="G935" t="s">
+        <v>812</v>
+      </c>
+      <c r="H935" t="s">
+        <v>813</v>
+      </c>
+      <c r="I935" t="s">
+        <v>814</v>
+      </c>
+      <c r="J935" t="s">
+        <v>815</v>
+      </c>
+      <c r="K935" t="s">
+        <v>816</v>
+      </c>
+      <c r="L935" t="s">
+        <v>817</v>
+      </c>
+      <c r="M935" t="s">
+        <v>818</v>
+      </c>
+      <c r="N935" t="s">
+        <v>819</v>
+      </c>
+      <c r="O935" t="s">
+        <v>820</v>
+      </c>
+      <c r="P935" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q935" t="s">
+        <v>822</v>
+      </c>
+      <c r="R935" t="s">
+        <v>823</v>
+      </c>
+      <c r="S935" t="s">
+        <v>824</v>
+      </c>
+      <c r="T935" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="936" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>806</v>
+      </c>
+      <c r="B936" t="s">
+        <v>807</v>
+      </c>
+      <c r="C936" t="s">
+        <v>808</v>
+      </c>
+      <c r="D936" t="s">
+        <v>809</v>
+      </c>
+      <c r="E936" t="s">
+        <v>810</v>
+      </c>
+      <c r="F936" t="s">
+        <v>811</v>
+      </c>
+      <c r="G936" t="s">
+        <v>812</v>
+      </c>
+      <c r="H936" t="s">
+        <v>813</v>
+      </c>
+      <c r="I936" t="s">
+        <v>814</v>
+      </c>
+      <c r="J936" t="s">
+        <v>815</v>
+      </c>
+      <c r="K936" t="s">
+        <v>816</v>
+      </c>
+      <c r="L936" t="s">
+        <v>817</v>
+      </c>
+      <c r="M936" t="s">
+        <v>818</v>
+      </c>
+      <c r="N936" t="s">
+        <v>819</v>
+      </c>
+      <c r="O936" t="s">
+        <v>820</v>
+      </c>
+      <c r="P936" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q936" t="s">
+        <v>822</v>
+      </c>
+      <c r="R936" t="s">
+        <v>823</v>
+      </c>
+      <c r="S936" t="s">
+        <v>824</v>
+      </c>
+      <c r="T936" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="937" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>806</v>
+      </c>
+      <c r="B937" t="s">
+        <v>807</v>
+      </c>
+      <c r="C937" t="s">
+        <v>808</v>
+      </c>
+      <c r="D937" t="s">
+        <v>809</v>
+      </c>
+      <c r="E937" t="s">
+        <v>810</v>
+      </c>
+      <c r="F937" t="s">
+        <v>811</v>
+      </c>
+      <c r="G937" t="s">
+        <v>812</v>
+      </c>
+      <c r="H937" t="s">
+        <v>813</v>
+      </c>
+      <c r="I937" t="s">
+        <v>814</v>
+      </c>
+      <c r="J937" t="s">
+        <v>815</v>
+      </c>
+      <c r="K937" t="s">
+        <v>816</v>
+      </c>
+      <c r="L937" t="s">
+        <v>817</v>
+      </c>
+      <c r="M937" t="s">
+        <v>818</v>
+      </c>
+      <c r="N937" t="s">
+        <v>819</v>
+      </c>
+      <c r="O937" t="s">
+        <v>820</v>
+      </c>
+      <c r="P937" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q937" t="s">
+        <v>822</v>
+      </c>
+      <c r="R937" t="s">
+        <v>823</v>
+      </c>
+      <c r="S937" t="s">
+        <v>824</v>
+      </c>
+      <c r="T937" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="938" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>806</v>
+      </c>
+      <c r="B938" t="s">
+        <v>807</v>
+      </c>
+      <c r="C938" t="s">
+        <v>808</v>
+      </c>
+      <c r="D938" t="s">
+        <v>809</v>
+      </c>
+      <c r="E938" t="s">
+        <v>810</v>
+      </c>
+      <c r="F938" t="s">
+        <v>811</v>
+      </c>
+      <c r="G938" t="s">
+        <v>812</v>
+      </c>
+      <c r="H938" t="s">
+        <v>813</v>
+      </c>
+      <c r="I938" t="s">
+        <v>814</v>
+      </c>
+      <c r="J938" t="s">
+        <v>815</v>
+      </c>
+      <c r="K938" t="s">
+        <v>816</v>
+      </c>
+      <c r="L938" t="s">
+        <v>817</v>
+      </c>
+      <c r="M938" t="s">
+        <v>818</v>
+      </c>
+      <c r="N938" t="s">
+        <v>819</v>
+      </c>
+      <c r="O938" t="s">
+        <v>820</v>
+      </c>
+      <c r="P938" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q938" t="s">
+        <v>822</v>
+      </c>
+      <c r="R938" t="s">
+        <v>823</v>
+      </c>
+      <c r="S938" t="s">
+        <v>824</v>
+      </c>
+      <c r="T938" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="939" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>806</v>
+      </c>
+      <c r="B939" t="s">
+        <v>807</v>
+      </c>
+      <c r="C939" t="s">
+        <v>808</v>
+      </c>
+      <c r="D939" t="s">
+        <v>809</v>
+      </c>
+      <c r="E939" t="s">
+        <v>810</v>
+      </c>
+      <c r="F939" t="s">
+        <v>811</v>
+      </c>
+      <c r="G939" t="s">
+        <v>812</v>
+      </c>
+      <c r="H939" t="s">
+        <v>813</v>
+      </c>
+      <c r="I939" t="s">
+        <v>814</v>
+      </c>
+      <c r="J939" t="s">
+        <v>815</v>
+      </c>
+      <c r="K939" t="s">
+        <v>816</v>
+      </c>
+      <c r="L939" t="s">
+        <v>817</v>
+      </c>
+      <c r="M939" t="s">
+        <v>818</v>
+      </c>
+      <c r="N939" t="s">
+        <v>819</v>
+      </c>
+      <c r="O939" t="s">
+        <v>820</v>
+      </c>
+      <c r="P939" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q939" t="s">
+        <v>822</v>
+      </c>
+      <c r="R939" t="s">
+        <v>823</v>
+      </c>
+      <c r="S939" t="s">
+        <v>824</v>
+      </c>
+      <c r="T939" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="940" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>806</v>
+      </c>
+      <c r="B940" t="s">
+        <v>807</v>
+      </c>
+      <c r="C940" t="s">
+        <v>808</v>
+      </c>
+      <c r="D940" t="s">
+        <v>809</v>
+      </c>
+      <c r="E940" t="s">
+        <v>810</v>
+      </c>
+      <c r="F940" t="s">
+        <v>811</v>
+      </c>
+      <c r="G940" t="s">
+        <v>812</v>
+      </c>
+      <c r="H940" t="s">
+        <v>813</v>
+      </c>
+      <c r="I940" t="s">
+        <v>814</v>
+      </c>
+      <c r="J940" t="s">
+        <v>815</v>
+      </c>
+      <c r="K940" t="s">
+        <v>816</v>
+      </c>
+      <c r="L940" t="s">
+        <v>817</v>
+      </c>
+      <c r="M940" t="s">
+        <v>818</v>
+      </c>
+      <c r="N940" t="s">
+        <v>819</v>
+      </c>
+      <c r="O940" t="s">
+        <v>820</v>
+      </c>
+      <c r="P940" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q940" t="s">
+        <v>822</v>
+      </c>
+      <c r="R940" t="s">
+        <v>823</v>
+      </c>
+      <c r="S940" t="s">
+        <v>824</v>
+      </c>
+      <c r="T940" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="941" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>806</v>
+      </c>
+      <c r="B941" t="s">
+        <v>807</v>
+      </c>
+      <c r="C941" t="s">
+        <v>808</v>
+      </c>
+      <c r="D941" t="s">
+        <v>809</v>
+      </c>
+      <c r="E941" t="s">
+        <v>810</v>
+      </c>
+      <c r="F941" t="s">
+        <v>811</v>
+      </c>
+      <c r="G941" t="s">
+        <v>812</v>
+      </c>
+      <c r="H941" t="s">
+        <v>813</v>
+      </c>
+      <c r="I941" t="s">
+        <v>814</v>
+      </c>
+      <c r="J941" t="s">
+        <v>815</v>
+      </c>
+      <c r="K941" t="s">
+        <v>816</v>
+      </c>
+      <c r="L941" t="s">
+        <v>817</v>
+      </c>
+      <c r="M941" t="s">
+        <v>818</v>
+      </c>
+      <c r="N941" t="s">
+        <v>819</v>
+      </c>
+      <c r="O941" t="s">
+        <v>820</v>
+      </c>
+      <c r="P941" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q941" t="s">
+        <v>822</v>
+      </c>
+      <c r="R941" t="s">
+        <v>823</v>
+      </c>
+      <c r="S941" t="s">
+        <v>824</v>
+      </c>
+      <c r="T941" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="942" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>806</v>
+      </c>
+      <c r="B942" t="s">
+        <v>807</v>
+      </c>
+      <c r="C942" t="s">
+        <v>808</v>
+      </c>
+      <c r="D942" t="s">
+        <v>809</v>
+      </c>
+      <c r="E942" t="s">
+        <v>810</v>
+      </c>
+      <c r="F942" t="s">
+        <v>811</v>
+      </c>
+      <c r="G942" t="s">
+        <v>812</v>
+      </c>
+      <c r="H942" t="s">
+        <v>813</v>
+      </c>
+      <c r="I942" t="s">
+        <v>814</v>
+      </c>
+      <c r="J942" t="s">
+        <v>815</v>
+      </c>
+      <c r="K942" t="s">
+        <v>816</v>
+      </c>
+      <c r="L942" t="s">
+        <v>817</v>
+      </c>
+      <c r="M942" t="s">
+        <v>818</v>
+      </c>
+      <c r="N942" t="s">
+        <v>819</v>
+      </c>
+      <c r="O942" t="s">
+        <v>820</v>
+      </c>
+      <c r="P942" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q942" t="s">
+        <v>822</v>
+      </c>
+      <c r="R942" t="s">
+        <v>823</v>
+      </c>
+      <c r="S942" t="s">
+        <v>824</v>
+      </c>
+      <c r="T942" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="943" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>806</v>
+      </c>
+      <c r="B943" t="s">
+        <v>807</v>
+      </c>
+      <c r="C943" t="s">
+        <v>808</v>
+      </c>
+      <c r="D943" t="s">
+        <v>809</v>
+      </c>
+      <c r="E943" t="s">
+        <v>810</v>
+      </c>
+      <c r="F943" t="s">
+        <v>811</v>
+      </c>
+      <c r="G943" t="s">
+        <v>812</v>
+      </c>
+      <c r="H943" t="s">
+        <v>813</v>
+      </c>
+      <c r="I943" t="s">
+        <v>814</v>
+      </c>
+      <c r="J943" t="s">
+        <v>815</v>
+      </c>
+      <c r="K943" t="s">
+        <v>816</v>
+      </c>
+      <c r="L943" t="s">
+        <v>817</v>
+      </c>
+      <c r="M943" t="s">
+        <v>818</v>
+      </c>
+      <c r="N943" t="s">
+        <v>819</v>
+      </c>
+      <c r="O943" t="s">
+        <v>820</v>
+      </c>
+      <c r="P943" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q943" t="s">
+        <v>822</v>
+      </c>
+      <c r="R943" t="s">
+        <v>823</v>
+      </c>
+      <c r="S943" t="s">
+        <v>824</v>
+      </c>
+      <c r="T943" t="s">
+        <v>825</v>
       </c>
     </row>
   </sheetData>

--- a/NOTE/new words.xlsx
+++ b/NOTE/new words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16651" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17421" uniqueCount="826">
   <si>
     <t>inner: ben trong</t>
   </si>
@@ -2887,10 +2887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V943"/>
+  <dimension ref="A1:V988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q925" workbookViewId="0">
-      <selection activeCell="U943" sqref="U943"/>
+    <sheetView tabSelected="1" topLeftCell="P968" workbookViewId="0">
+      <selection activeCell="T989" sqref="T989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53074,1529 +53074,3923 @@
         <v>790</v>
       </c>
     </row>
-    <row r="914" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>772</v>
+      </c>
+      <c r="B913" t="s">
+        <v>773</v>
+      </c>
+      <c r="C913" t="s">
+        <v>774</v>
+      </c>
+      <c r="D913" t="s">
+        <v>775</v>
+      </c>
+      <c r="E913" t="s">
+        <v>776</v>
+      </c>
+      <c r="F913" t="s">
+        <v>777</v>
+      </c>
+      <c r="G913" t="s">
+        <v>778</v>
+      </c>
+      <c r="H913" t="s">
+        <v>779</v>
+      </c>
+      <c r="I913" t="s">
+        <v>780</v>
+      </c>
+      <c r="J913" t="s">
+        <v>781</v>
+      </c>
+      <c r="K913" t="s">
+        <v>427</v>
+      </c>
+      <c r="L913" t="s">
+        <v>782</v>
+      </c>
+      <c r="M913" t="s">
+        <v>783</v>
+      </c>
+      <c r="N913" t="s">
+        <v>784</v>
+      </c>
+      <c r="O913" t="s">
+        <v>785</v>
+      </c>
+      <c r="P913" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q913" t="s">
+        <v>787</v>
+      </c>
+      <c r="R913" t="s">
+        <v>788</v>
+      </c>
+      <c r="S913" t="s">
+        <v>789</v>
+      </c>
+      <c r="T913" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="914" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
+        <v>772</v>
+      </c>
+      <c r="B914" t="s">
+        <v>773</v>
+      </c>
+      <c r="C914" t="s">
+        <v>774</v>
+      </c>
+      <c r="D914" t="s">
+        <v>775</v>
+      </c>
+      <c r="E914" t="s">
+        <v>776</v>
+      </c>
+      <c r="F914" t="s">
+        <v>777</v>
+      </c>
+      <c r="G914" t="s">
+        <v>778</v>
+      </c>
+      <c r="H914" t="s">
+        <v>779</v>
+      </c>
+      <c r="I914" t="s">
+        <v>780</v>
+      </c>
+      <c r="J914" t="s">
+        <v>781</v>
+      </c>
+      <c r="K914" t="s">
+        <v>427</v>
+      </c>
+      <c r="L914" t="s">
+        <v>782</v>
+      </c>
+      <c r="M914" t="s">
+        <v>783</v>
+      </c>
+      <c r="N914" t="s">
+        <v>784</v>
+      </c>
+      <c r="O914" t="s">
+        <v>785</v>
+      </c>
+      <c r="P914" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q914" t="s">
+        <v>787</v>
+      </c>
+      <c r="R914" t="s">
+        <v>788</v>
+      </c>
+      <c r="S914" t="s">
+        <v>789</v>
+      </c>
+      <c r="T914" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="915" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>772</v>
+      </c>
+      <c r="B915" t="s">
+        <v>773</v>
+      </c>
+      <c r="C915" t="s">
+        <v>774</v>
+      </c>
+      <c r="D915" t="s">
+        <v>775</v>
+      </c>
+      <c r="E915" t="s">
+        <v>776</v>
+      </c>
+      <c r="F915" t="s">
+        <v>777</v>
+      </c>
+      <c r="G915" t="s">
+        <v>778</v>
+      </c>
+      <c r="H915" t="s">
+        <v>779</v>
+      </c>
+      <c r="I915" t="s">
+        <v>780</v>
+      </c>
+      <c r="J915" t="s">
+        <v>781</v>
+      </c>
+      <c r="K915" t="s">
+        <v>427</v>
+      </c>
+      <c r="L915" t="s">
+        <v>782</v>
+      </c>
+      <c r="M915" t="s">
+        <v>783</v>
+      </c>
+      <c r="N915" t="s">
+        <v>784</v>
+      </c>
+      <c r="O915" t="s">
+        <v>785</v>
+      </c>
+      <c r="P915" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q915" t="s">
+        <v>787</v>
+      </c>
+      <c r="R915" t="s">
+        <v>788</v>
+      </c>
+      <c r="S915" t="s">
+        <v>789</v>
+      </c>
+      <c r="T915" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="916" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>772</v>
+      </c>
+      <c r="B916" t="s">
+        <v>773</v>
+      </c>
+      <c r="C916" t="s">
+        <v>774</v>
+      </c>
+      <c r="D916" t="s">
+        <v>775</v>
+      </c>
+      <c r="E916" t="s">
+        <v>776</v>
+      </c>
+      <c r="F916" t="s">
+        <v>777</v>
+      </c>
+      <c r="G916" t="s">
+        <v>778</v>
+      </c>
+      <c r="H916" t="s">
+        <v>779</v>
+      </c>
+      <c r="I916" t="s">
+        <v>780</v>
+      </c>
+      <c r="J916" t="s">
+        <v>781</v>
+      </c>
+      <c r="K916" t="s">
+        <v>427</v>
+      </c>
+      <c r="L916" t="s">
+        <v>782</v>
+      </c>
+      <c r="M916" t="s">
+        <v>783</v>
+      </c>
+      <c r="N916" t="s">
+        <v>784</v>
+      </c>
+      <c r="O916" t="s">
+        <v>785</v>
+      </c>
+      <c r="P916" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q916" t="s">
+        <v>787</v>
+      </c>
+      <c r="R916" t="s">
+        <v>788</v>
+      </c>
+      <c r="S916" t="s">
+        <v>789</v>
+      </c>
+      <c r="T916" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="917" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>772</v>
+      </c>
+      <c r="B917" t="s">
+        <v>773</v>
+      </c>
+      <c r="C917" t="s">
+        <v>774</v>
+      </c>
+      <c r="D917" t="s">
+        <v>775</v>
+      </c>
+      <c r="E917" t="s">
+        <v>776</v>
+      </c>
+      <c r="F917" t="s">
+        <v>777</v>
+      </c>
+      <c r="G917" t="s">
+        <v>778</v>
+      </c>
+      <c r="H917" t="s">
+        <v>779</v>
+      </c>
+      <c r="I917" t="s">
+        <v>780</v>
+      </c>
+      <c r="J917" t="s">
+        <v>781</v>
+      </c>
+      <c r="K917" t="s">
+        <v>427</v>
+      </c>
+      <c r="L917" t="s">
+        <v>782</v>
+      </c>
+      <c r="M917" t="s">
+        <v>783</v>
+      </c>
+      <c r="N917" t="s">
+        <v>784</v>
+      </c>
+      <c r="O917" t="s">
+        <v>785</v>
+      </c>
+      <c r="P917" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q917" t="s">
+        <v>787</v>
+      </c>
+      <c r="R917" t="s">
+        <v>788</v>
+      </c>
+      <c r="S917" t="s">
+        <v>789</v>
+      </c>
+      <c r="T917" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="918" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>772</v>
+      </c>
+      <c r="B918" t="s">
+        <v>773</v>
+      </c>
+      <c r="C918" t="s">
+        <v>774</v>
+      </c>
+      <c r="D918" t="s">
+        <v>775</v>
+      </c>
+      <c r="E918" t="s">
+        <v>776</v>
+      </c>
+      <c r="F918" t="s">
+        <v>777</v>
+      </c>
+      <c r="G918" t="s">
+        <v>778</v>
+      </c>
+      <c r="H918" t="s">
+        <v>779</v>
+      </c>
+      <c r="I918" t="s">
+        <v>780</v>
+      </c>
+      <c r="J918" t="s">
+        <v>781</v>
+      </c>
+      <c r="K918" t="s">
+        <v>427</v>
+      </c>
+      <c r="L918" t="s">
+        <v>782</v>
+      </c>
+      <c r="M918" t="s">
+        <v>783</v>
+      </c>
+      <c r="N918" t="s">
+        <v>784</v>
+      </c>
+      <c r="O918" t="s">
+        <v>785</v>
+      </c>
+      <c r="P918" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q918" t="s">
+        <v>787</v>
+      </c>
+      <c r="R918" t="s">
+        <v>788</v>
+      </c>
+      <c r="S918" t="s">
+        <v>789</v>
+      </c>
+      <c r="T918" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="919" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>772</v>
+      </c>
+      <c r="B919" t="s">
+        <v>773</v>
+      </c>
+      <c r="C919" t="s">
+        <v>774</v>
+      </c>
+      <c r="D919" t="s">
+        <v>775</v>
+      </c>
+      <c r="E919" t="s">
+        <v>776</v>
+      </c>
+      <c r="F919" t="s">
+        <v>777</v>
+      </c>
+      <c r="G919" t="s">
+        <v>778</v>
+      </c>
+      <c r="H919" t="s">
+        <v>779</v>
+      </c>
+      <c r="I919" t="s">
+        <v>780</v>
+      </c>
+      <c r="J919" t="s">
+        <v>781</v>
+      </c>
+      <c r="K919" t="s">
+        <v>427</v>
+      </c>
+      <c r="L919" t="s">
+        <v>782</v>
+      </c>
+      <c r="M919" t="s">
+        <v>783</v>
+      </c>
+      <c r="N919" t="s">
+        <v>784</v>
+      </c>
+      <c r="O919" t="s">
+        <v>785</v>
+      </c>
+      <c r="P919" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q919" t="s">
+        <v>787</v>
+      </c>
+      <c r="R919" t="s">
+        <v>788</v>
+      </c>
+      <c r="S919" t="s">
+        <v>789</v>
+      </c>
+      <c r="T919" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="920" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>772</v>
+      </c>
+      <c r="B920" t="s">
+        <v>773</v>
+      </c>
+      <c r="C920" t="s">
+        <v>774</v>
+      </c>
+      <c r="D920" t="s">
+        <v>775</v>
+      </c>
+      <c r="E920" t="s">
+        <v>776</v>
+      </c>
+      <c r="F920" t="s">
+        <v>777</v>
+      </c>
+      <c r="G920" t="s">
+        <v>778</v>
+      </c>
+      <c r="H920" t="s">
+        <v>779</v>
+      </c>
+      <c r="I920" t="s">
+        <v>780</v>
+      </c>
+      <c r="J920" t="s">
+        <v>781</v>
+      </c>
+      <c r="K920" t="s">
+        <v>427</v>
+      </c>
+      <c r="L920" t="s">
+        <v>782</v>
+      </c>
+      <c r="M920" t="s">
+        <v>783</v>
+      </c>
+      <c r="N920" t="s">
+        <v>784</v>
+      </c>
+      <c r="O920" t="s">
+        <v>785</v>
+      </c>
+      <c r="P920" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q920" t="s">
+        <v>787</v>
+      </c>
+      <c r="R920" t="s">
+        <v>788</v>
+      </c>
+      <c r="S920" t="s">
+        <v>789</v>
+      </c>
+      <c r="T920" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="921" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>772</v>
+      </c>
+      <c r="B921" t="s">
+        <v>773</v>
+      </c>
+      <c r="C921" t="s">
+        <v>774</v>
+      </c>
+      <c r="D921" t="s">
+        <v>775</v>
+      </c>
+      <c r="E921" t="s">
+        <v>776</v>
+      </c>
+      <c r="F921" t="s">
+        <v>777</v>
+      </c>
+      <c r="G921" t="s">
+        <v>778</v>
+      </c>
+      <c r="H921" t="s">
+        <v>779</v>
+      </c>
+      <c r="I921" t="s">
+        <v>780</v>
+      </c>
+      <c r="J921" t="s">
+        <v>781</v>
+      </c>
+      <c r="K921" t="s">
+        <v>427</v>
+      </c>
+      <c r="L921" t="s">
+        <v>782</v>
+      </c>
+      <c r="M921" t="s">
+        <v>783</v>
+      </c>
+      <c r="N921" t="s">
+        <v>784</v>
+      </c>
+      <c r="O921" t="s">
+        <v>785</v>
+      </c>
+      <c r="P921" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q921" t="s">
+        <v>787</v>
+      </c>
+      <c r="R921" t="s">
+        <v>788</v>
+      </c>
+      <c r="S921" t="s">
+        <v>789</v>
+      </c>
+      <c r="T921" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="922" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>772</v>
+      </c>
+      <c r="B922" t="s">
+        <v>773</v>
+      </c>
+      <c r="C922" t="s">
+        <v>774</v>
+      </c>
+      <c r="D922" t="s">
+        <v>775</v>
+      </c>
+      <c r="E922" t="s">
+        <v>776</v>
+      </c>
+      <c r="F922" t="s">
+        <v>777</v>
+      </c>
+      <c r="G922" t="s">
+        <v>778</v>
+      </c>
+      <c r="H922" t="s">
+        <v>779</v>
+      </c>
+      <c r="I922" t="s">
+        <v>780</v>
+      </c>
+      <c r="J922" t="s">
+        <v>781</v>
+      </c>
+      <c r="K922" t="s">
+        <v>427</v>
+      </c>
+      <c r="L922" t="s">
+        <v>782</v>
+      </c>
+      <c r="M922" t="s">
+        <v>783</v>
+      </c>
+      <c r="N922" t="s">
+        <v>784</v>
+      </c>
+      <c r="O922" t="s">
+        <v>785</v>
+      </c>
+      <c r="P922" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q922" t="s">
+        <v>787</v>
+      </c>
+      <c r="R922" t="s">
+        <v>788</v>
+      </c>
+      <c r="S922" t="s">
+        <v>789</v>
+      </c>
+      <c r="T922" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="923" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>772</v>
+      </c>
+      <c r="B923" t="s">
+        <v>773</v>
+      </c>
+      <c r="C923" t="s">
+        <v>774</v>
+      </c>
+      <c r="D923" t="s">
+        <v>775</v>
+      </c>
+      <c r="E923" t="s">
+        <v>776</v>
+      </c>
+      <c r="F923" t="s">
+        <v>777</v>
+      </c>
+      <c r="G923" t="s">
+        <v>778</v>
+      </c>
+      <c r="H923" t="s">
+        <v>779</v>
+      </c>
+      <c r="I923" t="s">
+        <v>780</v>
+      </c>
+      <c r="J923" t="s">
+        <v>781</v>
+      </c>
+      <c r="K923" t="s">
+        <v>427</v>
+      </c>
+      <c r="L923" t="s">
+        <v>782</v>
+      </c>
+      <c r="M923" t="s">
+        <v>783</v>
+      </c>
+      <c r="N923" t="s">
+        <v>784</v>
+      </c>
+      <c r="O923" t="s">
+        <v>785</v>
+      </c>
+      <c r="P923" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q923" t="s">
+        <v>787</v>
+      </c>
+      <c r="R923" t="s">
+        <v>788</v>
+      </c>
+      <c r="S923" t="s">
+        <v>789</v>
+      </c>
+      <c r="T923" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="924" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>772</v>
+      </c>
+      <c r="B924" t="s">
+        <v>773</v>
+      </c>
+      <c r="C924" t="s">
+        <v>774</v>
+      </c>
+      <c r="D924" t="s">
+        <v>775</v>
+      </c>
+      <c r="E924" t="s">
+        <v>776</v>
+      </c>
+      <c r="F924" t="s">
+        <v>777</v>
+      </c>
+      <c r="G924" t="s">
+        <v>778</v>
+      </c>
+      <c r="H924" t="s">
+        <v>779</v>
+      </c>
+      <c r="I924" t="s">
+        <v>780</v>
+      </c>
+      <c r="J924" t="s">
+        <v>781</v>
+      </c>
+      <c r="K924" t="s">
+        <v>427</v>
+      </c>
+      <c r="L924" t="s">
+        <v>782</v>
+      </c>
+      <c r="M924" t="s">
+        <v>783</v>
+      </c>
+      <c r="N924" t="s">
+        <v>784</v>
+      </c>
+      <c r="O924" t="s">
+        <v>785</v>
+      </c>
+      <c r="P924" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q924" t="s">
+        <v>787</v>
+      </c>
+      <c r="R924" t="s">
+        <v>788</v>
+      </c>
+      <c r="S924" t="s">
+        <v>789</v>
+      </c>
+      <c r="T924" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="925" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>772</v>
+      </c>
+      <c r="B925" t="s">
+        <v>773</v>
+      </c>
+      <c r="C925" t="s">
+        <v>774</v>
+      </c>
+      <c r="D925" t="s">
+        <v>775</v>
+      </c>
+      <c r="E925" t="s">
+        <v>776</v>
+      </c>
+      <c r="F925" t="s">
+        <v>777</v>
+      </c>
+      <c r="G925" t="s">
+        <v>778</v>
+      </c>
+      <c r="H925" t="s">
+        <v>779</v>
+      </c>
+      <c r="I925" t="s">
+        <v>780</v>
+      </c>
+      <c r="J925" t="s">
+        <v>781</v>
+      </c>
+      <c r="K925" t="s">
+        <v>427</v>
+      </c>
+      <c r="L925" t="s">
+        <v>782</v>
+      </c>
+      <c r="M925" t="s">
+        <v>783</v>
+      </c>
+      <c r="N925" t="s">
+        <v>784</v>
+      </c>
+      <c r="O925" t="s">
+        <v>785</v>
+      </c>
+      <c r="P925" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q925" t="s">
+        <v>787</v>
+      </c>
+      <c r="R925" t="s">
+        <v>788</v>
+      </c>
+      <c r="S925" t="s">
+        <v>789</v>
+      </c>
+      <c r="T925" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="926" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>772</v>
+      </c>
+      <c r="B926" t="s">
+        <v>773</v>
+      </c>
+      <c r="C926" t="s">
+        <v>774</v>
+      </c>
+      <c r="D926" t="s">
+        <v>775</v>
+      </c>
+      <c r="E926" t="s">
+        <v>776</v>
+      </c>
+      <c r="F926" t="s">
+        <v>777</v>
+      </c>
+      <c r="G926" t="s">
+        <v>778</v>
+      </c>
+      <c r="H926" t="s">
+        <v>779</v>
+      </c>
+      <c r="I926" t="s">
+        <v>780</v>
+      </c>
+      <c r="J926" t="s">
+        <v>781</v>
+      </c>
+      <c r="K926" t="s">
+        <v>427</v>
+      </c>
+      <c r="L926" t="s">
+        <v>782</v>
+      </c>
+      <c r="M926" t="s">
+        <v>783</v>
+      </c>
+      <c r="N926" t="s">
+        <v>784</v>
+      </c>
+      <c r="O926" t="s">
+        <v>785</v>
+      </c>
+      <c r="P926" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q926" t="s">
+        <v>787</v>
+      </c>
+      <c r="R926" t="s">
+        <v>788</v>
+      </c>
+      <c r="S926" t="s">
+        <v>789</v>
+      </c>
+      <c r="T926" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="929" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
         <v>791</v>
       </c>
-      <c r="B914" t="s">
+      <c r="B929" t="s">
         <v>792</v>
       </c>
-      <c r="C914" t="s">
+      <c r="C929" t="s">
         <v>793</v>
       </c>
-      <c r="D914" t="s">
+      <c r="D929" t="s">
         <v>794</v>
       </c>
-      <c r="E914" t="s">
+      <c r="E929" t="s">
         <v>795</v>
       </c>
-      <c r="F914" t="s">
+      <c r="F929" t="s">
         <v>796</v>
       </c>
-      <c r="G914" t="s">
+      <c r="G929" t="s">
         <v>797</v>
       </c>
-      <c r="H914" t="s">
+      <c r="H929" t="s">
         <v>798</v>
       </c>
-      <c r="I914" t="s">
+      <c r="I929" t="s">
         <v>799</v>
       </c>
-      <c r="J914" t="s">
+      <c r="J929" t="s">
         <v>800</v>
       </c>
-      <c r="K914" t="s">
+      <c r="K929" t="s">
         <v>801</v>
       </c>
-      <c r="L914" t="s">
+      <c r="L929" t="s">
         <v>802</v>
       </c>
-      <c r="M914" t="s">
+      <c r="M929" t="s">
         <v>803</v>
       </c>
-      <c r="N914" t="s">
+      <c r="N929" t="s">
         <v>804</v>
       </c>
-      <c r="O914" t="s">
+      <c r="O929" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="915" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A915" t="s">
+    <row r="930" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
         <v>791</v>
       </c>
-      <c r="B915" t="s">
+      <c r="B930" t="s">
         <v>792</v>
       </c>
-      <c r="C915" t="s">
+      <c r="C930" t="s">
         <v>793</v>
       </c>
-      <c r="D915" t="s">
+      <c r="D930" t="s">
         <v>794</v>
       </c>
-      <c r="E915" t="s">
+      <c r="E930" t="s">
         <v>795</v>
       </c>
-      <c r="F915" t="s">
+      <c r="F930" t="s">
         <v>796</v>
       </c>
-      <c r="G915" t="s">
+      <c r="G930" t="s">
         <v>797</v>
       </c>
-      <c r="H915" t="s">
+      <c r="H930" t="s">
         <v>798</v>
       </c>
-      <c r="I915" t="s">
+      <c r="I930" t="s">
         <v>799</v>
       </c>
-      <c r="J915" t="s">
+      <c r="J930" t="s">
         <v>800</v>
       </c>
-      <c r="K915" t="s">
+      <c r="K930" t="s">
         <v>801</v>
       </c>
-      <c r="L915" t="s">
+      <c r="L930" t="s">
         <v>802</v>
       </c>
-      <c r="M915" t="s">
+      <c r="M930" t="s">
         <v>803</v>
       </c>
-      <c r="N915" t="s">
+      <c r="N930" t="s">
         <v>804</v>
       </c>
-      <c r="O915" t="s">
+      <c r="O930" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="916" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A916" t="s">
+    <row r="931" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
         <v>791</v>
       </c>
-      <c r="B916" t="s">
+      <c r="B931" t="s">
         <v>792</v>
       </c>
-      <c r="C916" t="s">
+      <c r="C931" t="s">
         <v>793</v>
       </c>
-      <c r="D916" t="s">
+      <c r="D931" t="s">
         <v>794</v>
       </c>
-      <c r="E916" t="s">
+      <c r="E931" t="s">
         <v>795</v>
       </c>
-      <c r="F916" t="s">
+      <c r="F931" t="s">
         <v>796</v>
       </c>
-      <c r="G916" t="s">
+      <c r="G931" t="s">
         <v>797</v>
       </c>
-      <c r="H916" t="s">
+      <c r="H931" t="s">
         <v>798</v>
       </c>
-      <c r="I916" t="s">
+      <c r="I931" t="s">
         <v>799</v>
       </c>
-      <c r="J916" t="s">
+      <c r="J931" t="s">
         <v>800</v>
       </c>
-      <c r="K916" t="s">
+      <c r="K931" t="s">
         <v>801</v>
       </c>
-      <c r="L916" t="s">
+      <c r="L931" t="s">
         <v>802</v>
       </c>
-      <c r="M916" t="s">
+      <c r="M931" t="s">
         <v>803</v>
       </c>
-      <c r="N916" t="s">
+      <c r="N931" t="s">
         <v>804</v>
       </c>
-      <c r="O916" t="s">
+      <c r="O931" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="917" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A917" t="s">
+    <row r="932" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
         <v>791</v>
       </c>
-      <c r="B917" t="s">
+      <c r="B932" t="s">
         <v>792</v>
       </c>
-      <c r="C917" t="s">
+      <c r="C932" t="s">
         <v>793</v>
       </c>
-      <c r="D917" t="s">
+      <c r="D932" t="s">
         <v>794</v>
       </c>
-      <c r="E917" t="s">
+      <c r="E932" t="s">
         <v>795</v>
       </c>
-      <c r="F917" t="s">
+      <c r="F932" t="s">
         <v>796</v>
       </c>
-      <c r="G917" t="s">
+      <c r="G932" t="s">
         <v>797</v>
       </c>
-      <c r="H917" t="s">
+      <c r="H932" t="s">
         <v>798</v>
       </c>
-      <c r="I917" t="s">
+      <c r="I932" t="s">
         <v>799</v>
       </c>
-      <c r="J917" t="s">
+      <c r="J932" t="s">
         <v>800</v>
       </c>
-      <c r="K917" t="s">
+      <c r="K932" t="s">
         <v>801</v>
       </c>
-      <c r="L917" t="s">
+      <c r="L932" t="s">
         <v>802</v>
       </c>
-      <c r="M917" t="s">
+      <c r="M932" t="s">
         <v>803</v>
       </c>
-      <c r="N917" t="s">
+      <c r="N932" t="s">
         <v>804</v>
       </c>
-      <c r="O917" t="s">
+      <c r="O932" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="918" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A918" t="s">
+    <row r="933" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
         <v>791</v>
       </c>
-      <c r="B918" t="s">
+      <c r="B933" t="s">
         <v>792</v>
       </c>
-      <c r="C918" t="s">
+      <c r="C933" t="s">
         <v>793</v>
       </c>
-      <c r="D918" t="s">
+      <c r="D933" t="s">
         <v>794</v>
       </c>
-      <c r="E918" t="s">
+      <c r="E933" t="s">
         <v>795</v>
       </c>
-      <c r="F918" t="s">
+      <c r="F933" t="s">
         <v>796</v>
       </c>
-      <c r="G918" t="s">
+      <c r="G933" t="s">
         <v>797</v>
       </c>
-      <c r="H918" t="s">
+      <c r="H933" t="s">
         <v>798</v>
       </c>
-      <c r="I918" t="s">
+      <c r="I933" t="s">
         <v>799</v>
       </c>
-      <c r="J918" t="s">
+      <c r="J933" t="s">
         <v>800</v>
       </c>
-      <c r="K918" t="s">
+      <c r="K933" t="s">
         <v>801</v>
       </c>
-      <c r="L918" t="s">
+      <c r="L933" t="s">
         <v>802</v>
       </c>
-      <c r="M918" t="s">
+      <c r="M933" t="s">
         <v>803</v>
       </c>
-      <c r="N918" t="s">
+      <c r="N933" t="s">
         <v>804</v>
       </c>
-      <c r="O918" t="s">
+      <c r="O933" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="919" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A919" t="s">
+    <row r="934" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
         <v>791</v>
       </c>
-      <c r="B919" t="s">
+      <c r="B934" t="s">
         <v>792</v>
       </c>
-      <c r="C919" t="s">
+      <c r="C934" t="s">
         <v>793</v>
       </c>
-      <c r="D919" t="s">
+      <c r="D934" t="s">
         <v>794</v>
       </c>
-      <c r="E919" t="s">
+      <c r="E934" t="s">
         <v>795</v>
       </c>
-      <c r="F919" t="s">
+      <c r="F934" t="s">
         <v>796</v>
       </c>
-      <c r="G919" t="s">
+      <c r="G934" t="s">
         <v>797</v>
       </c>
-      <c r="H919" t="s">
+      <c r="H934" t="s">
         <v>798</v>
       </c>
-      <c r="I919" t="s">
+      <c r="I934" t="s">
         <v>799</v>
       </c>
-      <c r="J919" t="s">
+      <c r="J934" t="s">
         <v>800</v>
       </c>
-      <c r="K919" t="s">
+      <c r="K934" t="s">
         <v>801</v>
       </c>
-      <c r="L919" t="s">
+      <c r="L934" t="s">
         <v>802</v>
       </c>
-      <c r="M919" t="s">
+      <c r="M934" t="s">
         <v>803</v>
       </c>
-      <c r="N919" t="s">
+      <c r="N934" t="s">
         <v>804</v>
       </c>
-      <c r="O919" t="s">
+      <c r="O934" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="920" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A920" t="s">
+    <row r="935" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
         <v>791</v>
       </c>
-      <c r="B920" t="s">
+      <c r="B935" t="s">
         <v>792</v>
       </c>
-      <c r="C920" t="s">
+      <c r="C935" t="s">
         <v>793</v>
       </c>
-      <c r="D920" t="s">
+      <c r="D935" t="s">
         <v>794</v>
       </c>
-      <c r="E920" t="s">
+      <c r="E935" t="s">
         <v>795</v>
       </c>
-      <c r="F920" t="s">
+      <c r="F935" t="s">
         <v>796</v>
       </c>
-      <c r="G920" t="s">
+      <c r="G935" t="s">
         <v>797</v>
       </c>
-      <c r="H920" t="s">
+      <c r="H935" t="s">
         <v>798</v>
       </c>
-      <c r="I920" t="s">
+      <c r="I935" t="s">
         <v>799</v>
       </c>
-      <c r="J920" t="s">
+      <c r="J935" t="s">
         <v>800</v>
       </c>
-      <c r="K920" t="s">
+      <c r="K935" t="s">
         <v>801</v>
       </c>
-      <c r="L920" t="s">
+      <c r="L935" t="s">
         <v>802</v>
       </c>
-      <c r="M920" t="s">
+      <c r="M935" t="s">
         <v>803</v>
       </c>
-      <c r="N920" t="s">
+      <c r="N935" t="s">
         <v>804</v>
       </c>
-      <c r="O920" t="s">
+      <c r="O935" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="921" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A921" t="s">
+    <row r="936" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
         <v>791</v>
       </c>
-      <c r="B921" t="s">
+      <c r="B936" t="s">
         <v>792</v>
       </c>
-      <c r="C921" t="s">
+      <c r="C936" t="s">
         <v>793</v>
       </c>
-      <c r="D921" t="s">
+      <c r="D936" t="s">
         <v>794</v>
       </c>
-      <c r="E921" t="s">
+      <c r="E936" t="s">
         <v>795</v>
       </c>
-      <c r="F921" t="s">
+      <c r="F936" t="s">
         <v>796</v>
       </c>
-      <c r="G921" t="s">
+      <c r="G936" t="s">
         <v>797</v>
       </c>
-      <c r="H921" t="s">
+      <c r="H936" t="s">
         <v>798</v>
       </c>
-      <c r="I921" t="s">
+      <c r="I936" t="s">
         <v>799</v>
       </c>
-      <c r="J921" t="s">
+      <c r="J936" t="s">
         <v>800</v>
       </c>
-      <c r="K921" t="s">
+      <c r="K936" t="s">
         <v>801</v>
       </c>
-      <c r="L921" t="s">
+      <c r="L936" t="s">
         <v>802</v>
       </c>
-      <c r="M921" t="s">
+      <c r="M936" t="s">
         <v>803</v>
       </c>
-      <c r="N921" t="s">
+      <c r="N936" t="s">
         <v>804</v>
       </c>
-      <c r="O921" t="s">
+      <c r="O936" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="922" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A922" t="s">
+    <row r="937" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
         <v>791</v>
       </c>
-      <c r="B922" t="s">
+      <c r="B937" t="s">
         <v>792</v>
       </c>
-      <c r="C922" t="s">
+      <c r="C937" t="s">
         <v>793</v>
       </c>
-      <c r="D922" t="s">
+      <c r="D937" t="s">
         <v>794</v>
       </c>
-      <c r="E922" t="s">
+      <c r="E937" t="s">
         <v>795</v>
       </c>
-      <c r="F922" t="s">
+      <c r="F937" t="s">
         <v>796</v>
       </c>
-      <c r="G922" t="s">
+      <c r="G937" t="s">
         <v>797</v>
       </c>
-      <c r="H922" t="s">
+      <c r="H937" t="s">
         <v>798</v>
       </c>
-      <c r="I922" t="s">
+      <c r="I937" t="s">
         <v>799</v>
       </c>
-      <c r="J922" t="s">
+      <c r="J937" t="s">
         <v>800</v>
       </c>
-      <c r="K922" t="s">
+      <c r="K937" t="s">
         <v>801</v>
       </c>
-      <c r="L922" t="s">
+      <c r="L937" t="s">
         <v>802</v>
       </c>
-      <c r="M922" t="s">
+      <c r="M937" t="s">
         <v>803</v>
       </c>
-      <c r="N922" t="s">
+      <c r="N937" t="s">
         <v>804</v>
       </c>
-      <c r="O922" t="s">
+      <c r="O937" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="923" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A923" t="s">
+    <row r="938" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
         <v>791</v>
       </c>
-      <c r="B923" t="s">
+      <c r="B938" t="s">
         <v>792</v>
       </c>
-      <c r="C923" t="s">
+      <c r="C938" t="s">
         <v>793</v>
       </c>
-      <c r="D923" t="s">
+      <c r="D938" t="s">
         <v>794</v>
       </c>
-      <c r="E923" t="s">
+      <c r="E938" t="s">
         <v>795</v>
       </c>
-      <c r="F923" t="s">
+      <c r="F938" t="s">
         <v>796</v>
       </c>
-      <c r="G923" t="s">
+      <c r="G938" t="s">
         <v>797</v>
       </c>
-      <c r="H923" t="s">
+      <c r="H938" t="s">
         <v>798</v>
       </c>
-      <c r="I923" t="s">
+      <c r="I938" t="s">
         <v>799</v>
       </c>
-      <c r="J923" t="s">
+      <c r="J938" t="s">
         <v>800</v>
       </c>
-      <c r="K923" t="s">
+      <c r="K938" t="s">
         <v>801</v>
       </c>
-      <c r="L923" t="s">
+      <c r="L938" t="s">
         <v>802</v>
       </c>
-      <c r="M923" t="s">
+      <c r="M938" t="s">
         <v>803</v>
       </c>
-      <c r="N923" t="s">
+      <c r="N938" t="s">
         <v>804</v>
       </c>
-      <c r="O923" t="s">
+      <c r="O938" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="924" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A924" t="s">
+    <row r="939" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
         <v>791</v>
       </c>
-      <c r="B924" t="s">
+      <c r="B939" t="s">
         <v>792</v>
       </c>
-      <c r="C924" t="s">
+      <c r="C939" t="s">
         <v>793</v>
       </c>
-      <c r="D924" t="s">
+      <c r="D939" t="s">
         <v>794</v>
       </c>
-      <c r="E924" t="s">
+      <c r="E939" t="s">
         <v>795</v>
       </c>
-      <c r="F924" t="s">
+      <c r="F939" t="s">
         <v>796</v>
       </c>
-      <c r="G924" t="s">
+      <c r="G939" t="s">
         <v>797</v>
       </c>
-      <c r="H924" t="s">
+      <c r="H939" t="s">
         <v>798</v>
       </c>
-      <c r="I924" t="s">
+      <c r="I939" t="s">
         <v>799</v>
       </c>
-      <c r="J924" t="s">
+      <c r="J939" t="s">
         <v>800</v>
       </c>
-      <c r="K924" t="s">
+      <c r="K939" t="s">
         <v>801</v>
       </c>
-      <c r="L924" t="s">
+      <c r="L939" t="s">
         <v>802</v>
       </c>
-      <c r="M924" t="s">
+      <c r="M939" t="s">
         <v>803</v>
       </c>
-      <c r="N924" t="s">
+      <c r="N939" t="s">
         <v>804</v>
       </c>
-      <c r="O924" t="s">
+      <c r="O939" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="925" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A925" t="s">
+    <row r="940" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
         <v>791</v>
       </c>
-      <c r="B925" t="s">
+      <c r="B940" t="s">
         <v>792</v>
       </c>
-      <c r="C925" t="s">
+      <c r="C940" t="s">
         <v>793</v>
       </c>
-      <c r="D925" t="s">
+      <c r="D940" t="s">
         <v>794</v>
       </c>
-      <c r="E925" t="s">
+      <c r="E940" t="s">
         <v>795</v>
       </c>
-      <c r="F925" t="s">
+      <c r="F940" t="s">
         <v>796</v>
       </c>
-      <c r="G925" t="s">
+      <c r="G940" t="s">
         <v>797</v>
       </c>
-      <c r="H925" t="s">
+      <c r="H940" t="s">
         <v>798</v>
       </c>
-      <c r="I925" t="s">
+      <c r="I940" t="s">
         <v>799</v>
       </c>
-      <c r="J925" t="s">
+      <c r="J940" t="s">
         <v>800</v>
       </c>
-      <c r="K925" t="s">
+      <c r="K940" t="s">
         <v>801</v>
       </c>
-      <c r="L925" t="s">
+      <c r="L940" t="s">
         <v>802</v>
       </c>
-      <c r="M925" t="s">
+      <c r="M940" t="s">
         <v>803</v>
       </c>
-      <c r="N925" t="s">
+      <c r="N940" t="s">
         <v>804</v>
       </c>
-      <c r="O925" t="s">
+      <c r="O940" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="926" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A926" t="s">
+    <row r="941" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
         <v>791</v>
       </c>
-      <c r="B926" t="s">
+      <c r="B941" t="s">
         <v>792</v>
       </c>
-      <c r="C926" t="s">
+      <c r="C941" t="s">
         <v>793</v>
       </c>
-      <c r="D926" t="s">
+      <c r="D941" t="s">
         <v>794</v>
       </c>
-      <c r="E926" t="s">
+      <c r="E941" t="s">
         <v>795</v>
       </c>
-      <c r="F926" t="s">
+      <c r="F941" t="s">
         <v>796</v>
       </c>
-      <c r="G926" t="s">
+      <c r="G941" t="s">
         <v>797</v>
       </c>
-      <c r="H926" t="s">
+      <c r="H941" t="s">
         <v>798</v>
       </c>
-      <c r="I926" t="s">
+      <c r="I941" t="s">
         <v>799</v>
       </c>
-      <c r="J926" t="s">
+      <c r="J941" t="s">
         <v>800</v>
       </c>
-      <c r="K926" t="s">
+      <c r="K941" t="s">
         <v>801</v>
       </c>
-      <c r="L926" t="s">
+      <c r="L941" t="s">
         <v>802</v>
       </c>
-      <c r="M926" t="s">
+      <c r="M941" t="s">
         <v>803</v>
       </c>
-      <c r="N926" t="s">
+      <c r="N941" t="s">
         <v>804</v>
       </c>
-      <c r="O926" t="s">
+      <c r="O941" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="927" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A927" t="s">
+    <row r="942" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
         <v>791</v>
       </c>
-      <c r="B927" t="s">
+      <c r="B942" t="s">
         <v>792</v>
       </c>
-      <c r="C927" t="s">
+      <c r="C942" t="s">
         <v>793</v>
       </c>
-      <c r="D927" t="s">
+      <c r="D942" t="s">
         <v>794</v>
       </c>
-      <c r="E927" t="s">
+      <c r="E942" t="s">
         <v>795</v>
       </c>
-      <c r="F927" t="s">
+      <c r="F942" t="s">
         <v>796</v>
       </c>
-      <c r="G927" t="s">
+      <c r="G942" t="s">
         <v>797</v>
       </c>
-      <c r="H927" t="s">
+      <c r="H942" t="s">
         <v>798</v>
       </c>
-      <c r="I927" t="s">
+      <c r="I942" t="s">
         <v>799</v>
       </c>
-      <c r="J927" t="s">
+      <c r="J942" t="s">
         <v>800</v>
       </c>
-      <c r="K927" t="s">
+      <c r="K942" t="s">
         <v>801</v>
       </c>
-      <c r="L927" t="s">
+      <c r="L942" t="s">
         <v>802</v>
       </c>
-      <c r="M927" t="s">
+      <c r="M942" t="s">
         <v>803</v>
       </c>
-      <c r="N927" t="s">
+      <c r="N942" t="s">
         <v>804</v>
       </c>
-      <c r="O927" t="s">
+      <c r="O942" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="930" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A930" t="s">
+    <row r="944" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>791</v>
+      </c>
+      <c r="B944" t="s">
+        <v>792</v>
+      </c>
+      <c r="C944" t="s">
+        <v>793</v>
+      </c>
+      <c r="D944" t="s">
+        <v>794</v>
+      </c>
+      <c r="E944" t="s">
+        <v>795</v>
+      </c>
+      <c r="F944" t="s">
+        <v>796</v>
+      </c>
+      <c r="G944" t="s">
+        <v>797</v>
+      </c>
+      <c r="H944" t="s">
+        <v>798</v>
+      </c>
+      <c r="I944" t="s">
+        <v>799</v>
+      </c>
+      <c r="J944" t="s">
+        <v>800</v>
+      </c>
+      <c r="K944" t="s">
+        <v>801</v>
+      </c>
+      <c r="L944" t="s">
+        <v>802</v>
+      </c>
+      <c r="M944" t="s">
+        <v>803</v>
+      </c>
+      <c r="N944" t="s">
+        <v>804</v>
+      </c>
+      <c r="O944" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="945" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>791</v>
+      </c>
+      <c r="B945" t="s">
+        <v>792</v>
+      </c>
+      <c r="C945" t="s">
+        <v>793</v>
+      </c>
+      <c r="D945" t="s">
+        <v>794</v>
+      </c>
+      <c r="E945" t="s">
+        <v>795</v>
+      </c>
+      <c r="F945" t="s">
+        <v>796</v>
+      </c>
+      <c r="G945" t="s">
+        <v>797</v>
+      </c>
+      <c r="H945" t="s">
+        <v>798</v>
+      </c>
+      <c r="I945" t="s">
+        <v>799</v>
+      </c>
+      <c r="J945" t="s">
+        <v>800</v>
+      </c>
+      <c r="K945" t="s">
+        <v>801</v>
+      </c>
+      <c r="L945" t="s">
+        <v>802</v>
+      </c>
+      <c r="M945" t="s">
+        <v>803</v>
+      </c>
+      <c r="N945" t="s">
+        <v>804</v>
+      </c>
+      <c r="O945" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="946" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>791</v>
+      </c>
+      <c r="B946" t="s">
+        <v>792</v>
+      </c>
+      <c r="C946" t="s">
+        <v>793</v>
+      </c>
+      <c r="D946" t="s">
+        <v>794</v>
+      </c>
+      <c r="E946" t="s">
+        <v>795</v>
+      </c>
+      <c r="F946" t="s">
+        <v>796</v>
+      </c>
+      <c r="G946" t="s">
+        <v>797</v>
+      </c>
+      <c r="H946" t="s">
+        <v>798</v>
+      </c>
+      <c r="I946" t="s">
+        <v>799</v>
+      </c>
+      <c r="J946" t="s">
+        <v>800</v>
+      </c>
+      <c r="K946" t="s">
+        <v>801</v>
+      </c>
+      <c r="L946" t="s">
+        <v>802</v>
+      </c>
+      <c r="M946" t="s">
+        <v>803</v>
+      </c>
+      <c r="N946" t="s">
+        <v>804</v>
+      </c>
+      <c r="O946" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="947" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>791</v>
+      </c>
+      <c r="B947" t="s">
+        <v>792</v>
+      </c>
+      <c r="C947" t="s">
+        <v>793</v>
+      </c>
+      <c r="D947" t="s">
+        <v>794</v>
+      </c>
+      <c r="E947" t="s">
+        <v>795</v>
+      </c>
+      <c r="F947" t="s">
+        <v>796</v>
+      </c>
+      <c r="G947" t="s">
+        <v>797</v>
+      </c>
+      <c r="H947" t="s">
+        <v>798</v>
+      </c>
+      <c r="I947" t="s">
+        <v>799</v>
+      </c>
+      <c r="J947" t="s">
+        <v>800</v>
+      </c>
+      <c r="K947" t="s">
+        <v>801</v>
+      </c>
+      <c r="L947" t="s">
+        <v>802</v>
+      </c>
+      <c r="M947" t="s">
+        <v>803</v>
+      </c>
+      <c r="N947" t="s">
+        <v>804</v>
+      </c>
+      <c r="O947" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="948" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>791</v>
+      </c>
+      <c r="B948" t="s">
+        <v>792</v>
+      </c>
+      <c r="C948" t="s">
+        <v>793</v>
+      </c>
+      <c r="D948" t="s">
+        <v>794</v>
+      </c>
+      <c r="E948" t="s">
+        <v>795</v>
+      </c>
+      <c r="F948" t="s">
+        <v>796</v>
+      </c>
+      <c r="G948" t="s">
+        <v>797</v>
+      </c>
+      <c r="H948" t="s">
+        <v>798</v>
+      </c>
+      <c r="I948" t="s">
+        <v>799</v>
+      </c>
+      <c r="J948" t="s">
+        <v>800</v>
+      </c>
+      <c r="K948" t="s">
+        <v>801</v>
+      </c>
+      <c r="L948" t="s">
+        <v>802</v>
+      </c>
+      <c r="M948" t="s">
+        <v>803</v>
+      </c>
+      <c r="N948" t="s">
+        <v>804</v>
+      </c>
+      <c r="O948" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="949" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>791</v>
+      </c>
+      <c r="B949" t="s">
+        <v>792</v>
+      </c>
+      <c r="C949" t="s">
+        <v>793</v>
+      </c>
+      <c r="D949" t="s">
+        <v>794</v>
+      </c>
+      <c r="E949" t="s">
+        <v>795</v>
+      </c>
+      <c r="F949" t="s">
+        <v>796</v>
+      </c>
+      <c r="G949" t="s">
+        <v>797</v>
+      </c>
+      <c r="H949" t="s">
+        <v>798</v>
+      </c>
+      <c r="I949" t="s">
+        <v>799</v>
+      </c>
+      <c r="J949" t="s">
+        <v>800</v>
+      </c>
+      <c r="K949" t="s">
+        <v>801</v>
+      </c>
+      <c r="L949" t="s">
+        <v>802</v>
+      </c>
+      <c r="M949" t="s">
+        <v>803</v>
+      </c>
+      <c r="N949" t="s">
+        <v>804</v>
+      </c>
+      <c r="O949" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="950" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>791</v>
+      </c>
+      <c r="B950" t="s">
+        <v>792</v>
+      </c>
+      <c r="C950" t="s">
+        <v>793</v>
+      </c>
+      <c r="D950" t="s">
+        <v>794</v>
+      </c>
+      <c r="E950" t="s">
+        <v>795</v>
+      </c>
+      <c r="F950" t="s">
+        <v>796</v>
+      </c>
+      <c r="G950" t="s">
+        <v>797</v>
+      </c>
+      <c r="H950" t="s">
+        <v>798</v>
+      </c>
+      <c r="I950" t="s">
+        <v>799</v>
+      </c>
+      <c r="J950" t="s">
+        <v>800</v>
+      </c>
+      <c r="K950" t="s">
+        <v>801</v>
+      </c>
+      <c r="L950" t="s">
+        <v>802</v>
+      </c>
+      <c r="M950" t="s">
+        <v>803</v>
+      </c>
+      <c r="N950" t="s">
+        <v>804</v>
+      </c>
+      <c r="O950" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="951" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>791</v>
+      </c>
+      <c r="B951" t="s">
+        <v>792</v>
+      </c>
+      <c r="C951" t="s">
+        <v>793</v>
+      </c>
+      <c r="D951" t="s">
+        <v>794</v>
+      </c>
+      <c r="E951" t="s">
+        <v>795</v>
+      </c>
+      <c r="F951" t="s">
+        <v>796</v>
+      </c>
+      <c r="G951" t="s">
+        <v>797</v>
+      </c>
+      <c r="H951" t="s">
+        <v>798</v>
+      </c>
+      <c r="I951" t="s">
+        <v>799</v>
+      </c>
+      <c r="J951" t="s">
+        <v>800</v>
+      </c>
+      <c r="K951" t="s">
+        <v>801</v>
+      </c>
+      <c r="L951" t="s">
+        <v>802</v>
+      </c>
+      <c r="M951" t="s">
+        <v>803</v>
+      </c>
+      <c r="N951" t="s">
+        <v>804</v>
+      </c>
+      <c r="O951" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="952" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>791</v>
+      </c>
+      <c r="B952" t="s">
+        <v>792</v>
+      </c>
+      <c r="C952" t="s">
+        <v>793</v>
+      </c>
+      <c r="D952" t="s">
+        <v>794</v>
+      </c>
+      <c r="E952" t="s">
+        <v>795</v>
+      </c>
+      <c r="F952" t="s">
+        <v>796</v>
+      </c>
+      <c r="G952" t="s">
+        <v>797</v>
+      </c>
+      <c r="H952" t="s">
+        <v>798</v>
+      </c>
+      <c r="I952" t="s">
+        <v>799</v>
+      </c>
+      <c r="J952" t="s">
+        <v>800</v>
+      </c>
+      <c r="K952" t="s">
+        <v>801</v>
+      </c>
+      <c r="L952" t="s">
+        <v>802</v>
+      </c>
+      <c r="M952" t="s">
+        <v>803</v>
+      </c>
+      <c r="N952" t="s">
+        <v>804</v>
+      </c>
+      <c r="O952" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="953" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>791</v>
+      </c>
+      <c r="B953" t="s">
+        <v>792</v>
+      </c>
+      <c r="C953" t="s">
+        <v>793</v>
+      </c>
+      <c r="D953" t="s">
+        <v>794</v>
+      </c>
+      <c r="E953" t="s">
+        <v>795</v>
+      </c>
+      <c r="F953" t="s">
+        <v>796</v>
+      </c>
+      <c r="G953" t="s">
+        <v>797</v>
+      </c>
+      <c r="H953" t="s">
+        <v>798</v>
+      </c>
+      <c r="I953" t="s">
+        <v>799</v>
+      </c>
+      <c r="J953" t="s">
+        <v>800</v>
+      </c>
+      <c r="K953" t="s">
+        <v>801</v>
+      </c>
+      <c r="L953" t="s">
+        <v>802</v>
+      </c>
+      <c r="M953" t="s">
+        <v>803</v>
+      </c>
+      <c r="N953" t="s">
+        <v>804</v>
+      </c>
+      <c r="O953" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="954" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>791</v>
+      </c>
+      <c r="B954" t="s">
+        <v>792</v>
+      </c>
+      <c r="C954" t="s">
+        <v>793</v>
+      </c>
+      <c r="D954" t="s">
+        <v>794</v>
+      </c>
+      <c r="E954" t="s">
+        <v>795</v>
+      </c>
+      <c r="F954" t="s">
+        <v>796</v>
+      </c>
+      <c r="G954" t="s">
+        <v>797</v>
+      </c>
+      <c r="H954" t="s">
+        <v>798</v>
+      </c>
+      <c r="I954" t="s">
+        <v>799</v>
+      </c>
+      <c r="J954" t="s">
+        <v>800</v>
+      </c>
+      <c r="K954" t="s">
+        <v>801</v>
+      </c>
+      <c r="L954" t="s">
+        <v>802</v>
+      </c>
+      <c r="M954" t="s">
+        <v>803</v>
+      </c>
+      <c r="N954" t="s">
+        <v>804</v>
+      </c>
+      <c r="O954" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="955" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>791</v>
+      </c>
+      <c r="B955" t="s">
+        <v>792</v>
+      </c>
+      <c r="C955" t="s">
+        <v>793</v>
+      </c>
+      <c r="D955" t="s">
+        <v>794</v>
+      </c>
+      <c r="E955" t="s">
+        <v>795</v>
+      </c>
+      <c r="F955" t="s">
+        <v>796</v>
+      </c>
+      <c r="G955" t="s">
+        <v>797</v>
+      </c>
+      <c r="H955" t="s">
+        <v>798</v>
+      </c>
+      <c r="I955" t="s">
+        <v>799</v>
+      </c>
+      <c r="J955" t="s">
+        <v>800</v>
+      </c>
+      <c r="K955" t="s">
+        <v>801</v>
+      </c>
+      <c r="L955" t="s">
+        <v>802</v>
+      </c>
+      <c r="M955" t="s">
+        <v>803</v>
+      </c>
+      <c r="N955" t="s">
+        <v>804</v>
+      </c>
+      <c r="O955" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="956" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>791</v>
+      </c>
+      <c r="B956" t="s">
+        <v>792</v>
+      </c>
+      <c r="C956" t="s">
+        <v>793</v>
+      </c>
+      <c r="D956" t="s">
+        <v>794</v>
+      </c>
+      <c r="E956" t="s">
+        <v>795</v>
+      </c>
+      <c r="F956" t="s">
+        <v>796</v>
+      </c>
+      <c r="G956" t="s">
+        <v>797</v>
+      </c>
+      <c r="H956" t="s">
+        <v>798</v>
+      </c>
+      <c r="I956" t="s">
+        <v>799</v>
+      </c>
+      <c r="J956" t="s">
+        <v>800</v>
+      </c>
+      <c r="K956" t="s">
+        <v>801</v>
+      </c>
+      <c r="L956" t="s">
+        <v>802</v>
+      </c>
+      <c r="M956" t="s">
+        <v>803</v>
+      </c>
+      <c r="N956" t="s">
+        <v>804</v>
+      </c>
+      <c r="O956" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="957" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>791</v>
+      </c>
+      <c r="B957" t="s">
+        <v>792</v>
+      </c>
+      <c r="C957" t="s">
+        <v>793</v>
+      </c>
+      <c r="D957" t="s">
+        <v>794</v>
+      </c>
+      <c r="E957" t="s">
+        <v>795</v>
+      </c>
+      <c r="F957" t="s">
+        <v>796</v>
+      </c>
+      <c r="G957" t="s">
+        <v>797</v>
+      </c>
+      <c r="H957" t="s">
+        <v>798</v>
+      </c>
+      <c r="I957" t="s">
+        <v>799</v>
+      </c>
+      <c r="J957" t="s">
+        <v>800</v>
+      </c>
+      <c r="K957" t="s">
+        <v>801</v>
+      </c>
+      <c r="L957" t="s">
+        <v>802</v>
+      </c>
+      <c r="M957" t="s">
+        <v>803</v>
+      </c>
+      <c r="N957" t="s">
+        <v>804</v>
+      </c>
+      <c r="O957" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="960" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
         <v>806</v>
       </c>
-      <c r="B930" t="s">
+      <c r="B960" t="s">
         <v>807</v>
       </c>
-      <c r="C930" t="s">
+      <c r="C960" t="s">
         <v>808</v>
       </c>
-      <c r="D930" t="s">
+      <c r="D960" t="s">
         <v>809</v>
       </c>
-      <c r="E930" t="s">
+      <c r="E960" t="s">
         <v>810</v>
       </c>
-      <c r="F930" t="s">
+      <c r="F960" t="s">
         <v>811</v>
       </c>
-      <c r="G930" t="s">
+      <c r="G960" t="s">
         <v>812</v>
       </c>
-      <c r="H930" t="s">
+      <c r="H960" t="s">
         <v>813</v>
       </c>
-      <c r="I930" t="s">
+      <c r="I960" t="s">
         <v>814</v>
       </c>
-      <c r="J930" t="s">
+      <c r="J960" t="s">
         <v>815</v>
       </c>
-      <c r="K930" t="s">
+      <c r="K960" t="s">
         <v>816</v>
       </c>
-      <c r="L930" t="s">
+      <c r="L960" t="s">
         <v>817</v>
       </c>
-      <c r="M930" t="s">
+      <c r="M960" t="s">
         <v>818</v>
       </c>
-      <c r="N930" t="s">
+      <c r="N960" t="s">
         <v>819</v>
       </c>
-      <c r="O930" t="s">
+      <c r="O960" t="s">
         <v>820</v>
       </c>
-      <c r="P930" t="s">
+      <c r="P960" t="s">
         <v>821</v>
       </c>
-      <c r="Q930" t="s">
+      <c r="Q960" t="s">
         <v>822</v>
       </c>
-      <c r="R930" t="s">
+      <c r="R960" t="s">
         <v>823</v>
       </c>
-      <c r="S930" t="s">
+      <c r="S960" t="s">
         <v>824</v>
       </c>
-      <c r="T930" t="s">
+      <c r="T960" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="931" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A931" t="s">
+    <row r="961" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
         <v>806</v>
       </c>
-      <c r="B931" t="s">
+      <c r="B961" t="s">
         <v>807</v>
       </c>
-      <c r="C931" t="s">
+      <c r="C961" t="s">
         <v>808</v>
       </c>
-      <c r="D931" t="s">
+      <c r="D961" t="s">
         <v>809</v>
       </c>
-      <c r="E931" t="s">
+      <c r="E961" t="s">
         <v>810</v>
       </c>
-      <c r="F931" t="s">
+      <c r="F961" t="s">
         <v>811</v>
       </c>
-      <c r="G931" t="s">
+      <c r="G961" t="s">
         <v>812</v>
       </c>
-      <c r="H931" t="s">
+      <c r="H961" t="s">
         <v>813</v>
       </c>
-      <c r="I931" t="s">
+      <c r="I961" t="s">
         <v>814</v>
       </c>
-      <c r="J931" t="s">
+      <c r="J961" t="s">
         <v>815</v>
       </c>
-      <c r="K931" t="s">
+      <c r="K961" t="s">
         <v>816</v>
       </c>
-      <c r="L931" t="s">
+      <c r="L961" t="s">
         <v>817</v>
       </c>
-      <c r="M931" t="s">
+      <c r="M961" t="s">
         <v>818</v>
       </c>
-      <c r="N931" t="s">
+      <c r="N961" t="s">
         <v>819</v>
       </c>
-      <c r="O931" t="s">
+      <c r="O961" t="s">
         <v>820</v>
       </c>
-      <c r="P931" t="s">
+      <c r="P961" t="s">
         <v>821</v>
       </c>
-      <c r="Q931" t="s">
+      <c r="Q961" t="s">
         <v>822</v>
       </c>
-      <c r="R931" t="s">
+      <c r="R961" t="s">
         <v>823</v>
       </c>
-      <c r="S931" t="s">
+      <c r="S961" t="s">
         <v>824</v>
       </c>
-      <c r="T931" t="s">
+      <c r="T961" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="932" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A932" t="s">
+    <row r="962" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
         <v>806</v>
       </c>
-      <c r="B932" t="s">
+      <c r="B962" t="s">
         <v>807</v>
       </c>
-      <c r="C932" t="s">
+      <c r="C962" t="s">
         <v>808</v>
       </c>
-      <c r="D932" t="s">
+      <c r="D962" t="s">
         <v>809</v>
       </c>
-      <c r="E932" t="s">
+      <c r="E962" t="s">
         <v>810</v>
       </c>
-      <c r="F932" t="s">
+      <c r="F962" t="s">
         <v>811</v>
       </c>
-      <c r="G932" t="s">
+      <c r="G962" t="s">
         <v>812</v>
       </c>
-      <c r="H932" t="s">
+      <c r="H962" t="s">
         <v>813</v>
       </c>
-      <c r="I932" t="s">
+      <c r="I962" t="s">
         <v>814</v>
       </c>
-      <c r="J932" t="s">
+      <c r="J962" t="s">
         <v>815</v>
       </c>
-      <c r="K932" t="s">
+      <c r="K962" t="s">
         <v>816</v>
       </c>
-      <c r="L932" t="s">
+      <c r="L962" t="s">
         <v>817</v>
       </c>
-      <c r="M932" t="s">
+      <c r="M962" t="s">
         <v>818</v>
       </c>
-      <c r="N932" t="s">
+      <c r="N962" t="s">
         <v>819</v>
       </c>
-      <c r="O932" t="s">
+      <c r="O962" t="s">
         <v>820</v>
       </c>
-      <c r="P932" t="s">
+      <c r="P962" t="s">
         <v>821</v>
       </c>
-      <c r="Q932" t="s">
+      <c r="Q962" t="s">
         <v>822</v>
       </c>
-      <c r="R932" t="s">
+      <c r="R962" t="s">
         <v>823</v>
       </c>
-      <c r="S932" t="s">
+      <c r="S962" t="s">
         <v>824</v>
       </c>
-      <c r="T932" t="s">
+      <c r="T962" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="933" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A933" t="s">
+    <row r="963" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
         <v>806</v>
       </c>
-      <c r="B933" t="s">
+      <c r="B963" t="s">
         <v>807</v>
       </c>
-      <c r="C933" t="s">
+      <c r="C963" t="s">
         <v>808</v>
       </c>
-      <c r="D933" t="s">
+      <c r="D963" t="s">
         <v>809</v>
       </c>
-      <c r="E933" t="s">
+      <c r="E963" t="s">
         <v>810</v>
       </c>
-      <c r="F933" t="s">
+      <c r="F963" t="s">
         <v>811</v>
       </c>
-      <c r="G933" t="s">
+      <c r="G963" t="s">
         <v>812</v>
       </c>
-      <c r="H933" t="s">
+      <c r="H963" t="s">
         <v>813</v>
       </c>
-      <c r="I933" t="s">
+      <c r="I963" t="s">
         <v>814</v>
       </c>
-      <c r="J933" t="s">
+      <c r="J963" t="s">
         <v>815</v>
       </c>
-      <c r="K933" t="s">
+      <c r="K963" t="s">
         <v>816</v>
       </c>
-      <c r="L933" t="s">
+      <c r="L963" t="s">
         <v>817</v>
       </c>
-      <c r="M933" t="s">
+      <c r="M963" t="s">
         <v>818</v>
       </c>
-      <c r="N933" t="s">
+      <c r="N963" t="s">
         <v>819</v>
       </c>
-      <c r="O933" t="s">
+      <c r="O963" t="s">
         <v>820</v>
       </c>
-      <c r="P933" t="s">
+      <c r="P963" t="s">
         <v>821</v>
       </c>
-      <c r="Q933" t="s">
+      <c r="Q963" t="s">
         <v>822</v>
       </c>
-      <c r="R933" t="s">
+      <c r="R963" t="s">
         <v>823</v>
       </c>
-      <c r="S933" t="s">
+      <c r="S963" t="s">
         <v>824</v>
       </c>
-      <c r="T933" t="s">
+      <c r="T963" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="934" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A934" t="s">
+    <row r="964" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
         <v>806</v>
       </c>
-      <c r="B934" t="s">
+      <c r="B964" t="s">
         <v>807</v>
       </c>
-      <c r="C934" t="s">
+      <c r="C964" t="s">
         <v>808</v>
       </c>
-      <c r="D934" t="s">
+      <c r="D964" t="s">
         <v>809</v>
       </c>
-      <c r="E934" t="s">
+      <c r="E964" t="s">
         <v>810</v>
       </c>
-      <c r="F934" t="s">
+      <c r="F964" t="s">
         <v>811</v>
       </c>
-      <c r="G934" t="s">
+      <c r="G964" t="s">
         <v>812</v>
       </c>
-      <c r="H934" t="s">
+      <c r="H964" t="s">
         <v>813</v>
       </c>
-      <c r="I934" t="s">
+      <c r="I964" t="s">
         <v>814</v>
       </c>
-      <c r="J934" t="s">
+      <c r="J964" t="s">
         <v>815</v>
       </c>
-      <c r="K934" t="s">
+      <c r="K964" t="s">
         <v>816</v>
       </c>
-      <c r="L934" t="s">
+      <c r="L964" t="s">
         <v>817</v>
       </c>
-      <c r="M934" t="s">
+      <c r="M964" t="s">
         <v>818</v>
       </c>
-      <c r="N934" t="s">
+      <c r="N964" t="s">
         <v>819</v>
       </c>
-      <c r="O934" t="s">
+      <c r="O964" t="s">
         <v>820</v>
       </c>
-      <c r="P934" t="s">
+      <c r="P964" t="s">
         <v>821</v>
       </c>
-      <c r="Q934" t="s">
+      <c r="Q964" t="s">
         <v>822</v>
       </c>
-      <c r="R934" t="s">
+      <c r="R964" t="s">
         <v>823</v>
       </c>
-      <c r="S934" t="s">
+      <c r="S964" t="s">
         <v>824</v>
       </c>
-      <c r="T934" t="s">
+      <c r="T964" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="935" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A935" t="s">
+    <row r="965" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
         <v>806</v>
       </c>
-      <c r="B935" t="s">
+      <c r="B965" t="s">
         <v>807</v>
       </c>
-      <c r="C935" t="s">
+      <c r="C965" t="s">
         <v>808</v>
       </c>
-      <c r="D935" t="s">
+      <c r="D965" t="s">
         <v>809</v>
       </c>
-      <c r="E935" t="s">
+      <c r="E965" t="s">
         <v>810</v>
       </c>
-      <c r="F935" t="s">
+      <c r="F965" t="s">
         <v>811</v>
       </c>
-      <c r="G935" t="s">
+      <c r="G965" t="s">
         <v>812</v>
       </c>
-      <c r="H935" t="s">
+      <c r="H965" t="s">
         <v>813</v>
       </c>
-      <c r="I935" t="s">
+      <c r="I965" t="s">
         <v>814</v>
       </c>
-      <c r="J935" t="s">
+      <c r="J965" t="s">
         <v>815</v>
       </c>
-      <c r="K935" t="s">
+      <c r="K965" t="s">
         <v>816</v>
       </c>
-      <c r="L935" t="s">
+      <c r="L965" t="s">
         <v>817</v>
       </c>
-      <c r="M935" t="s">
+      <c r="M965" t="s">
         <v>818</v>
       </c>
-      <c r="N935" t="s">
+      <c r="N965" t="s">
         <v>819</v>
       </c>
-      <c r="O935" t="s">
+      <c r="O965" t="s">
         <v>820</v>
       </c>
-      <c r="P935" t="s">
+      <c r="P965" t="s">
         <v>821</v>
       </c>
-      <c r="Q935" t="s">
+      <c r="Q965" t="s">
         <v>822</v>
       </c>
-      <c r="R935" t="s">
+      <c r="R965" t="s">
         <v>823</v>
       </c>
-      <c r="S935" t="s">
+      <c r="S965" t="s">
         <v>824</v>
       </c>
-      <c r="T935" t="s">
+      <c r="T965" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="936" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A936" t="s">
+    <row r="966" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
         <v>806</v>
       </c>
-      <c r="B936" t="s">
+      <c r="B966" t="s">
         <v>807</v>
       </c>
-      <c r="C936" t="s">
+      <c r="C966" t="s">
         <v>808</v>
       </c>
-      <c r="D936" t="s">
+      <c r="D966" t="s">
         <v>809</v>
       </c>
-      <c r="E936" t="s">
+      <c r="E966" t="s">
         <v>810</v>
       </c>
-      <c r="F936" t="s">
+      <c r="F966" t="s">
         <v>811</v>
       </c>
-      <c r="G936" t="s">
+      <c r="G966" t="s">
         <v>812</v>
       </c>
-      <c r="H936" t="s">
+      <c r="H966" t="s">
         <v>813</v>
       </c>
-      <c r="I936" t="s">
+      <c r="I966" t="s">
         <v>814</v>
       </c>
-      <c r="J936" t="s">
+      <c r="J966" t="s">
         <v>815</v>
       </c>
-      <c r="K936" t="s">
+      <c r="K966" t="s">
         <v>816</v>
       </c>
-      <c r="L936" t="s">
+      <c r="L966" t="s">
         <v>817</v>
       </c>
-      <c r="M936" t="s">
+      <c r="M966" t="s">
         <v>818</v>
       </c>
-      <c r="N936" t="s">
+      <c r="N966" t="s">
         <v>819</v>
       </c>
-      <c r="O936" t="s">
+      <c r="O966" t="s">
         <v>820</v>
       </c>
-      <c r="P936" t="s">
+      <c r="P966" t="s">
         <v>821</v>
       </c>
-      <c r="Q936" t="s">
+      <c r="Q966" t="s">
         <v>822</v>
       </c>
-      <c r="R936" t="s">
+      <c r="R966" t="s">
         <v>823</v>
       </c>
-      <c r="S936" t="s">
+      <c r="S966" t="s">
         <v>824</v>
       </c>
-      <c r="T936" t="s">
+      <c r="T966" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="937" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A937" t="s">
+    <row r="967" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
         <v>806</v>
       </c>
-      <c r="B937" t="s">
+      <c r="B967" t="s">
         <v>807</v>
       </c>
-      <c r="C937" t="s">
+      <c r="C967" t="s">
         <v>808</v>
       </c>
-      <c r="D937" t="s">
+      <c r="D967" t="s">
         <v>809</v>
       </c>
-      <c r="E937" t="s">
+      <c r="E967" t="s">
         <v>810</v>
       </c>
-      <c r="F937" t="s">
+      <c r="F967" t="s">
         <v>811</v>
       </c>
-      <c r="G937" t="s">
+      <c r="G967" t="s">
         <v>812</v>
       </c>
-      <c r="H937" t="s">
+      <c r="H967" t="s">
         <v>813</v>
       </c>
-      <c r="I937" t="s">
+      <c r="I967" t="s">
         <v>814</v>
       </c>
-      <c r="J937" t="s">
+      <c r="J967" t="s">
         <v>815</v>
       </c>
-      <c r="K937" t="s">
+      <c r="K967" t="s">
         <v>816</v>
       </c>
-      <c r="L937" t="s">
+      <c r="L967" t="s">
         <v>817</v>
       </c>
-      <c r="M937" t="s">
+      <c r="M967" t="s">
         <v>818</v>
       </c>
-      <c r="N937" t="s">
+      <c r="N967" t="s">
         <v>819</v>
       </c>
-      <c r="O937" t="s">
+      <c r="O967" t="s">
         <v>820</v>
       </c>
-      <c r="P937" t="s">
+      <c r="P967" t="s">
         <v>821</v>
       </c>
-      <c r="Q937" t="s">
+      <c r="Q967" t="s">
         <v>822</v>
       </c>
-      <c r="R937" t="s">
+      <c r="R967" t="s">
         <v>823</v>
       </c>
-      <c r="S937" t="s">
+      <c r="S967" t="s">
         <v>824</v>
       </c>
-      <c r="T937" t="s">
+      <c r="T967" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="938" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A938" t="s">
+    <row r="968" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
         <v>806</v>
       </c>
-      <c r="B938" t="s">
+      <c r="B968" t="s">
         <v>807</v>
       </c>
-      <c r="C938" t="s">
+      <c r="C968" t="s">
         <v>808</v>
       </c>
-      <c r="D938" t="s">
+      <c r="D968" t="s">
         <v>809</v>
       </c>
-      <c r="E938" t="s">
+      <c r="E968" t="s">
         <v>810</v>
       </c>
-      <c r="F938" t="s">
+      <c r="F968" t="s">
         <v>811</v>
       </c>
-      <c r="G938" t="s">
+      <c r="G968" t="s">
         <v>812</v>
       </c>
-      <c r="H938" t="s">
+      <c r="H968" t="s">
         <v>813</v>
       </c>
-      <c r="I938" t="s">
+      <c r="I968" t="s">
         <v>814</v>
       </c>
-      <c r="J938" t="s">
+      <c r="J968" t="s">
         <v>815</v>
       </c>
-      <c r="K938" t="s">
+      <c r="K968" t="s">
         <v>816</v>
       </c>
-      <c r="L938" t="s">
+      <c r="L968" t="s">
         <v>817</v>
       </c>
-      <c r="M938" t="s">
+      <c r="M968" t="s">
         <v>818</v>
       </c>
-      <c r="N938" t="s">
+      <c r="N968" t="s">
         <v>819</v>
       </c>
-      <c r="O938" t="s">
+      <c r="O968" t="s">
         <v>820</v>
       </c>
-      <c r="P938" t="s">
+      <c r="P968" t="s">
         <v>821</v>
       </c>
-      <c r="Q938" t="s">
+      <c r="Q968" t="s">
         <v>822</v>
       </c>
-      <c r="R938" t="s">
+      <c r="R968" t="s">
         <v>823</v>
       </c>
-      <c r="S938" t="s">
+      <c r="S968" t="s">
         <v>824</v>
       </c>
-      <c r="T938" t="s">
+      <c r="T968" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="939" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A939" t="s">
+    <row r="969" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
         <v>806</v>
       </c>
-      <c r="B939" t="s">
+      <c r="B969" t="s">
         <v>807</v>
       </c>
-      <c r="C939" t="s">
+      <c r="C969" t="s">
         <v>808</v>
       </c>
-      <c r="D939" t="s">
+      <c r="D969" t="s">
         <v>809</v>
       </c>
-      <c r="E939" t="s">
+      <c r="E969" t="s">
         <v>810</v>
       </c>
-      <c r="F939" t="s">
+      <c r="F969" t="s">
         <v>811</v>
       </c>
-      <c r="G939" t="s">
+      <c r="G969" t="s">
         <v>812</v>
       </c>
-      <c r="H939" t="s">
+      <c r="H969" t="s">
         <v>813</v>
       </c>
-      <c r="I939" t="s">
+      <c r="I969" t="s">
         <v>814</v>
       </c>
-      <c r="J939" t="s">
+      <c r="J969" t="s">
         <v>815</v>
       </c>
-      <c r="K939" t="s">
+      <c r="K969" t="s">
         <v>816</v>
       </c>
-      <c r="L939" t="s">
+      <c r="L969" t="s">
         <v>817</v>
       </c>
-      <c r="M939" t="s">
+      <c r="M969" t="s">
         <v>818</v>
       </c>
-      <c r="N939" t="s">
+      <c r="N969" t="s">
         <v>819</v>
       </c>
-      <c r="O939" t="s">
+      <c r="O969" t="s">
         <v>820</v>
       </c>
-      <c r="P939" t="s">
+      <c r="P969" t="s">
         <v>821</v>
       </c>
-      <c r="Q939" t="s">
+      <c r="Q969" t="s">
         <v>822</v>
       </c>
-      <c r="R939" t="s">
+      <c r="R969" t="s">
         <v>823</v>
       </c>
-      <c r="S939" t="s">
+      <c r="S969" t="s">
         <v>824</v>
       </c>
-      <c r="T939" t="s">
+      <c r="T969" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="940" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A940" t="s">
+    <row r="970" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
         <v>806</v>
       </c>
-      <c r="B940" t="s">
+      <c r="B970" t="s">
         <v>807</v>
       </c>
-      <c r="C940" t="s">
+      <c r="C970" t="s">
         <v>808</v>
       </c>
-      <c r="D940" t="s">
+      <c r="D970" t="s">
         <v>809</v>
       </c>
-      <c r="E940" t="s">
+      <c r="E970" t="s">
         <v>810</v>
       </c>
-      <c r="F940" t="s">
+      <c r="F970" t="s">
         <v>811</v>
       </c>
-      <c r="G940" t="s">
+      <c r="G970" t="s">
         <v>812</v>
       </c>
-      <c r="H940" t="s">
+      <c r="H970" t="s">
         <v>813</v>
       </c>
-      <c r="I940" t="s">
+      <c r="I970" t="s">
         <v>814</v>
       </c>
-      <c r="J940" t="s">
+      <c r="J970" t="s">
         <v>815</v>
       </c>
-      <c r="K940" t="s">
+      <c r="K970" t="s">
         <v>816</v>
       </c>
-      <c r="L940" t="s">
+      <c r="L970" t="s">
         <v>817</v>
       </c>
-      <c r="M940" t="s">
+      <c r="M970" t="s">
         <v>818</v>
       </c>
-      <c r="N940" t="s">
+      <c r="N970" t="s">
         <v>819</v>
       </c>
-      <c r="O940" t="s">
+      <c r="O970" t="s">
         <v>820</v>
       </c>
-      <c r="P940" t="s">
+      <c r="P970" t="s">
         <v>821</v>
       </c>
-      <c r="Q940" t="s">
+      <c r="Q970" t="s">
         <v>822</v>
       </c>
-      <c r="R940" t="s">
+      <c r="R970" t="s">
         <v>823</v>
       </c>
-      <c r="S940" t="s">
+      <c r="S970" t="s">
         <v>824</v>
       </c>
-      <c r="T940" t="s">
+      <c r="T970" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="941" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A941" t="s">
+    <row r="971" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
         <v>806</v>
       </c>
-      <c r="B941" t="s">
+      <c r="B971" t="s">
         <v>807</v>
       </c>
-      <c r="C941" t="s">
+      <c r="C971" t="s">
         <v>808</v>
       </c>
-      <c r="D941" t="s">
+      <c r="D971" t="s">
         <v>809</v>
       </c>
-      <c r="E941" t="s">
+      <c r="E971" t="s">
         <v>810</v>
       </c>
-      <c r="F941" t="s">
+      <c r="F971" t="s">
         <v>811</v>
       </c>
-      <c r="G941" t="s">
+      <c r="G971" t="s">
         <v>812</v>
       </c>
-      <c r="H941" t="s">
+      <c r="H971" t="s">
         <v>813</v>
       </c>
-      <c r="I941" t="s">
+      <c r="I971" t="s">
         <v>814</v>
       </c>
-      <c r="J941" t="s">
+      <c r="J971" t="s">
         <v>815</v>
       </c>
-      <c r="K941" t="s">
+      <c r="K971" t="s">
         <v>816</v>
       </c>
-      <c r="L941" t="s">
+      <c r="L971" t="s">
         <v>817</v>
       </c>
-      <c r="M941" t="s">
+      <c r="M971" t="s">
         <v>818</v>
       </c>
-      <c r="N941" t="s">
+      <c r="N971" t="s">
         <v>819</v>
       </c>
-      <c r="O941" t="s">
+      <c r="O971" t="s">
         <v>820</v>
       </c>
-      <c r="P941" t="s">
+      <c r="P971" t="s">
         <v>821</v>
       </c>
-      <c r="Q941" t="s">
+      <c r="Q971" t="s">
         <v>822</v>
       </c>
-      <c r="R941" t="s">
+      <c r="R971" t="s">
         <v>823</v>
       </c>
-      <c r="S941" t="s">
+      <c r="S971" t="s">
         <v>824</v>
       </c>
-      <c r="T941" t="s">
+      <c r="T971" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="942" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A942" t="s">
+    <row r="972" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
         <v>806</v>
       </c>
-      <c r="B942" t="s">
+      <c r="B972" t="s">
         <v>807</v>
       </c>
-      <c r="C942" t="s">
+      <c r="C972" t="s">
         <v>808</v>
       </c>
-      <c r="D942" t="s">
+      <c r="D972" t="s">
         <v>809</v>
       </c>
-      <c r="E942" t="s">
+      <c r="E972" t="s">
         <v>810</v>
       </c>
-      <c r="F942" t="s">
+      <c r="F972" t="s">
         <v>811</v>
       </c>
-      <c r="G942" t="s">
+      <c r="G972" t="s">
         <v>812</v>
       </c>
-      <c r="H942" t="s">
+      <c r="H972" t="s">
         <v>813</v>
       </c>
-      <c r="I942" t="s">
+      <c r="I972" t="s">
         <v>814</v>
       </c>
-      <c r="J942" t="s">
+      <c r="J972" t="s">
         <v>815</v>
       </c>
-      <c r="K942" t="s">
+      <c r="K972" t="s">
         <v>816</v>
       </c>
-      <c r="L942" t="s">
+      <c r="L972" t="s">
         <v>817</v>
       </c>
-      <c r="M942" t="s">
+      <c r="M972" t="s">
         <v>818</v>
       </c>
-      <c r="N942" t="s">
+      <c r="N972" t="s">
         <v>819</v>
       </c>
-      <c r="O942" t="s">
+      <c r="O972" t="s">
         <v>820</v>
       </c>
-      <c r="P942" t="s">
+      <c r="P972" t="s">
         <v>821</v>
       </c>
-      <c r="Q942" t="s">
+      <c r="Q972" t="s">
         <v>822</v>
       </c>
-      <c r="R942" t="s">
+      <c r="R972" t="s">
         <v>823</v>
       </c>
-      <c r="S942" t="s">
+      <c r="S972" t="s">
         <v>824</v>
       </c>
-      <c r="T942" t="s">
+      <c r="T972" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="943" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A943" t="s">
+    <row r="973" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
         <v>806</v>
       </c>
-      <c r="B943" t="s">
+      <c r="B973" t="s">
         <v>807</v>
       </c>
-      <c r="C943" t="s">
+      <c r="C973" t="s">
         <v>808</v>
       </c>
-      <c r="D943" t="s">
+      <c r="D973" t="s">
         <v>809</v>
       </c>
-      <c r="E943" t="s">
+      <c r="E973" t="s">
         <v>810</v>
       </c>
-      <c r="F943" t="s">
+      <c r="F973" t="s">
         <v>811</v>
       </c>
-      <c r="G943" t="s">
+      <c r="G973" t="s">
         <v>812</v>
       </c>
-      <c r="H943" t="s">
+      <c r="H973" t="s">
         <v>813</v>
       </c>
-      <c r="I943" t="s">
+      <c r="I973" t="s">
         <v>814</v>
       </c>
-      <c r="J943" t="s">
+      <c r="J973" t="s">
         <v>815</v>
       </c>
-      <c r="K943" t="s">
+      <c r="K973" t="s">
         <v>816</v>
       </c>
-      <c r="L943" t="s">
+      <c r="L973" t="s">
         <v>817</v>
       </c>
-      <c r="M943" t="s">
+      <c r="M973" t="s">
         <v>818</v>
       </c>
-      <c r="N943" t="s">
+      <c r="N973" t="s">
         <v>819</v>
       </c>
-      <c r="O943" t="s">
+      <c r="O973" t="s">
         <v>820</v>
       </c>
-      <c r="P943" t="s">
+      <c r="P973" t="s">
         <v>821</v>
       </c>
-      <c r="Q943" t="s">
+      <c r="Q973" t="s">
         <v>822</v>
       </c>
-      <c r="R943" t="s">
+      <c r="R973" t="s">
         <v>823</v>
       </c>
-      <c r="S943" t="s">
+      <c r="S973" t="s">
         <v>824</v>
       </c>
-      <c r="T943" t="s">
+      <c r="T973" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="975" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>806</v>
+      </c>
+      <c r="B975" t="s">
+        <v>807</v>
+      </c>
+      <c r="C975" t="s">
+        <v>808</v>
+      </c>
+      <c r="D975" t="s">
+        <v>809</v>
+      </c>
+      <c r="E975" t="s">
+        <v>810</v>
+      </c>
+      <c r="F975" t="s">
+        <v>811</v>
+      </c>
+      <c r="G975" t="s">
+        <v>812</v>
+      </c>
+      <c r="H975" t="s">
+        <v>813</v>
+      </c>
+      <c r="I975" t="s">
+        <v>814</v>
+      </c>
+      <c r="J975" t="s">
+        <v>815</v>
+      </c>
+      <c r="K975" t="s">
+        <v>816</v>
+      </c>
+      <c r="L975" t="s">
+        <v>817</v>
+      </c>
+      <c r="M975" t="s">
+        <v>818</v>
+      </c>
+      <c r="N975" t="s">
+        <v>819</v>
+      </c>
+      <c r="O975" t="s">
+        <v>820</v>
+      </c>
+      <c r="P975" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q975" t="s">
+        <v>822</v>
+      </c>
+      <c r="R975" t="s">
+        <v>823</v>
+      </c>
+      <c r="S975" t="s">
+        <v>824</v>
+      </c>
+      <c r="T975" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="976" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>806</v>
+      </c>
+      <c r="B976" t="s">
+        <v>807</v>
+      </c>
+      <c r="C976" t="s">
+        <v>808</v>
+      </c>
+      <c r="D976" t="s">
+        <v>809</v>
+      </c>
+      <c r="E976" t="s">
+        <v>810</v>
+      </c>
+      <c r="F976" t="s">
+        <v>811</v>
+      </c>
+      <c r="G976" t="s">
+        <v>812</v>
+      </c>
+      <c r="H976" t="s">
+        <v>813</v>
+      </c>
+      <c r="I976" t="s">
+        <v>814</v>
+      </c>
+      <c r="J976" t="s">
+        <v>815</v>
+      </c>
+      <c r="K976" t="s">
+        <v>816</v>
+      </c>
+      <c r="L976" t="s">
+        <v>817</v>
+      </c>
+      <c r="M976" t="s">
+        <v>818</v>
+      </c>
+      <c r="N976" t="s">
+        <v>819</v>
+      </c>
+      <c r="O976" t="s">
+        <v>820</v>
+      </c>
+      <c r="P976" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q976" t="s">
+        <v>822</v>
+      </c>
+      <c r="R976" t="s">
+        <v>823</v>
+      </c>
+      <c r="S976" t="s">
+        <v>824</v>
+      </c>
+      <c r="T976" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="977" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>806</v>
+      </c>
+      <c r="B977" t="s">
+        <v>807</v>
+      </c>
+      <c r="C977" t="s">
+        <v>808</v>
+      </c>
+      <c r="D977" t="s">
+        <v>809</v>
+      </c>
+      <c r="E977" t="s">
+        <v>810</v>
+      </c>
+      <c r="F977" t="s">
+        <v>811</v>
+      </c>
+      <c r="G977" t="s">
+        <v>812</v>
+      </c>
+      <c r="H977" t="s">
+        <v>813</v>
+      </c>
+      <c r="I977" t="s">
+        <v>814</v>
+      </c>
+      <c r="J977" t="s">
+        <v>815</v>
+      </c>
+      <c r="K977" t="s">
+        <v>816</v>
+      </c>
+      <c r="L977" t="s">
+        <v>817</v>
+      </c>
+      <c r="M977" t="s">
+        <v>818</v>
+      </c>
+      <c r="N977" t="s">
+        <v>819</v>
+      </c>
+      <c r="O977" t="s">
+        <v>820</v>
+      </c>
+      <c r="P977" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q977" t="s">
+        <v>822</v>
+      </c>
+      <c r="R977" t="s">
+        <v>823</v>
+      </c>
+      <c r="S977" t="s">
+        <v>824</v>
+      </c>
+      <c r="T977" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="978" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>806</v>
+      </c>
+      <c r="B978" t="s">
+        <v>807</v>
+      </c>
+      <c r="C978" t="s">
+        <v>808</v>
+      </c>
+      <c r="D978" t="s">
+        <v>809</v>
+      </c>
+      <c r="E978" t="s">
+        <v>810</v>
+      </c>
+      <c r="F978" t="s">
+        <v>811</v>
+      </c>
+      <c r="G978" t="s">
+        <v>812</v>
+      </c>
+      <c r="H978" t="s">
+        <v>813</v>
+      </c>
+      <c r="I978" t="s">
+        <v>814</v>
+      </c>
+      <c r="J978" t="s">
+        <v>815</v>
+      </c>
+      <c r="K978" t="s">
+        <v>816</v>
+      </c>
+      <c r="L978" t="s">
+        <v>817</v>
+      </c>
+      <c r="M978" t="s">
+        <v>818</v>
+      </c>
+      <c r="N978" t="s">
+        <v>819</v>
+      </c>
+      <c r="O978" t="s">
+        <v>820</v>
+      </c>
+      <c r="P978" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q978" t="s">
+        <v>822</v>
+      </c>
+      <c r="R978" t="s">
+        <v>823</v>
+      </c>
+      <c r="S978" t="s">
+        <v>824</v>
+      </c>
+      <c r="T978" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="979" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>806</v>
+      </c>
+      <c r="B979" t="s">
+        <v>807</v>
+      </c>
+      <c r="C979" t="s">
+        <v>808</v>
+      </c>
+      <c r="D979" t="s">
+        <v>809</v>
+      </c>
+      <c r="E979" t="s">
+        <v>810</v>
+      </c>
+      <c r="F979" t="s">
+        <v>811</v>
+      </c>
+      <c r="G979" t="s">
+        <v>812</v>
+      </c>
+      <c r="H979" t="s">
+        <v>813</v>
+      </c>
+      <c r="I979" t="s">
+        <v>814</v>
+      </c>
+      <c r="J979" t="s">
+        <v>815</v>
+      </c>
+      <c r="K979" t="s">
+        <v>816</v>
+      </c>
+      <c r="L979" t="s">
+        <v>817</v>
+      </c>
+      <c r="M979" t="s">
+        <v>818</v>
+      </c>
+      <c r="N979" t="s">
+        <v>819</v>
+      </c>
+      <c r="O979" t="s">
+        <v>820</v>
+      </c>
+      <c r="P979" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q979" t="s">
+        <v>822</v>
+      </c>
+      <c r="R979" t="s">
+        <v>823</v>
+      </c>
+      <c r="S979" t="s">
+        <v>824</v>
+      </c>
+      <c r="T979" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="980" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>806</v>
+      </c>
+      <c r="B980" t="s">
+        <v>807</v>
+      </c>
+      <c r="C980" t="s">
+        <v>808</v>
+      </c>
+      <c r="D980" t="s">
+        <v>809</v>
+      </c>
+      <c r="E980" t="s">
+        <v>810</v>
+      </c>
+      <c r="F980" t="s">
+        <v>811</v>
+      </c>
+      <c r="G980" t="s">
+        <v>812</v>
+      </c>
+      <c r="H980" t="s">
+        <v>813</v>
+      </c>
+      <c r="I980" t="s">
+        <v>814</v>
+      </c>
+      <c r="J980" t="s">
+        <v>815</v>
+      </c>
+      <c r="K980" t="s">
+        <v>816</v>
+      </c>
+      <c r="L980" t="s">
+        <v>817</v>
+      </c>
+      <c r="M980" t="s">
+        <v>818</v>
+      </c>
+      <c r="N980" t="s">
+        <v>819</v>
+      </c>
+      <c r="O980" t="s">
+        <v>820</v>
+      </c>
+      <c r="P980" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q980" t="s">
+        <v>822</v>
+      </c>
+      <c r="R980" t="s">
+        <v>823</v>
+      </c>
+      <c r="S980" t="s">
+        <v>824</v>
+      </c>
+      <c r="T980" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="981" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>806</v>
+      </c>
+      <c r="B981" t="s">
+        <v>807</v>
+      </c>
+      <c r="C981" t="s">
+        <v>808</v>
+      </c>
+      <c r="D981" t="s">
+        <v>809</v>
+      </c>
+      <c r="E981" t="s">
+        <v>810</v>
+      </c>
+      <c r="F981" t="s">
+        <v>811</v>
+      </c>
+      <c r="G981" t="s">
+        <v>812</v>
+      </c>
+      <c r="H981" t="s">
+        <v>813</v>
+      </c>
+      <c r="I981" t="s">
+        <v>814</v>
+      </c>
+      <c r="J981" t="s">
+        <v>815</v>
+      </c>
+      <c r="K981" t="s">
+        <v>816</v>
+      </c>
+      <c r="L981" t="s">
+        <v>817</v>
+      </c>
+      <c r="M981" t="s">
+        <v>818</v>
+      </c>
+      <c r="N981" t="s">
+        <v>819</v>
+      </c>
+      <c r="O981" t="s">
+        <v>820</v>
+      </c>
+      <c r="P981" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q981" t="s">
+        <v>822</v>
+      </c>
+      <c r="R981" t="s">
+        <v>823</v>
+      </c>
+      <c r="S981" t="s">
+        <v>824</v>
+      </c>
+      <c r="T981" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="982" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>806</v>
+      </c>
+      <c r="B982" t="s">
+        <v>807</v>
+      </c>
+      <c r="C982" t="s">
+        <v>808</v>
+      </c>
+      <c r="D982" t="s">
+        <v>809</v>
+      </c>
+      <c r="E982" t="s">
+        <v>810</v>
+      </c>
+      <c r="F982" t="s">
+        <v>811</v>
+      </c>
+      <c r="G982" t="s">
+        <v>812</v>
+      </c>
+      <c r="H982" t="s">
+        <v>813</v>
+      </c>
+      <c r="I982" t="s">
+        <v>814</v>
+      </c>
+      <c r="J982" t="s">
+        <v>815</v>
+      </c>
+      <c r="K982" t="s">
+        <v>816</v>
+      </c>
+      <c r="L982" t="s">
+        <v>817</v>
+      </c>
+      <c r="M982" t="s">
+        <v>818</v>
+      </c>
+      <c r="N982" t="s">
+        <v>819</v>
+      </c>
+      <c r="O982" t="s">
+        <v>820</v>
+      </c>
+      <c r="P982" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q982" t="s">
+        <v>822</v>
+      </c>
+      <c r="R982" t="s">
+        <v>823</v>
+      </c>
+      <c r="S982" t="s">
+        <v>824</v>
+      </c>
+      <c r="T982" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="983" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>806</v>
+      </c>
+      <c r="B983" t="s">
+        <v>807</v>
+      </c>
+      <c r="C983" t="s">
+        <v>808</v>
+      </c>
+      <c r="D983" t="s">
+        <v>809</v>
+      </c>
+      <c r="E983" t="s">
+        <v>810</v>
+      </c>
+      <c r="F983" t="s">
+        <v>811</v>
+      </c>
+      <c r="G983" t="s">
+        <v>812</v>
+      </c>
+      <c r="H983" t="s">
+        <v>813</v>
+      </c>
+      <c r="I983" t="s">
+        <v>814</v>
+      </c>
+      <c r="J983" t="s">
+        <v>815</v>
+      </c>
+      <c r="K983" t="s">
+        <v>816</v>
+      </c>
+      <c r="L983" t="s">
+        <v>817</v>
+      </c>
+      <c r="M983" t="s">
+        <v>818</v>
+      </c>
+      <c r="N983" t="s">
+        <v>819</v>
+      </c>
+      <c r="O983" t="s">
+        <v>820</v>
+      </c>
+      <c r="P983" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q983" t="s">
+        <v>822</v>
+      </c>
+      <c r="R983" t="s">
+        <v>823</v>
+      </c>
+      <c r="S983" t="s">
+        <v>824</v>
+      </c>
+      <c r="T983" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="984" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>806</v>
+      </c>
+      <c r="B984" t="s">
+        <v>807</v>
+      </c>
+      <c r="C984" t="s">
+        <v>808</v>
+      </c>
+      <c r="D984" t="s">
+        <v>809</v>
+      </c>
+      <c r="E984" t="s">
+        <v>810</v>
+      </c>
+      <c r="F984" t="s">
+        <v>811</v>
+      </c>
+      <c r="G984" t="s">
+        <v>812</v>
+      </c>
+      <c r="H984" t="s">
+        <v>813</v>
+      </c>
+      <c r="I984" t="s">
+        <v>814</v>
+      </c>
+      <c r="J984" t="s">
+        <v>815</v>
+      </c>
+      <c r="K984" t="s">
+        <v>816</v>
+      </c>
+      <c r="L984" t="s">
+        <v>817</v>
+      </c>
+      <c r="M984" t="s">
+        <v>818</v>
+      </c>
+      <c r="N984" t="s">
+        <v>819</v>
+      </c>
+      <c r="O984" t="s">
+        <v>820</v>
+      </c>
+      <c r="P984" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q984" t="s">
+        <v>822</v>
+      </c>
+      <c r="R984" t="s">
+        <v>823</v>
+      </c>
+      <c r="S984" t="s">
+        <v>824</v>
+      </c>
+      <c r="T984" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="985" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>806</v>
+      </c>
+      <c r="B985" t="s">
+        <v>807</v>
+      </c>
+      <c r="C985" t="s">
+        <v>808</v>
+      </c>
+      <c r="D985" t="s">
+        <v>809</v>
+      </c>
+      <c r="E985" t="s">
+        <v>810</v>
+      </c>
+      <c r="F985" t="s">
+        <v>811</v>
+      </c>
+      <c r="G985" t="s">
+        <v>812</v>
+      </c>
+      <c r="H985" t="s">
+        <v>813</v>
+      </c>
+      <c r="I985" t="s">
+        <v>814</v>
+      </c>
+      <c r="J985" t="s">
+        <v>815</v>
+      </c>
+      <c r="K985" t="s">
+        <v>816</v>
+      </c>
+      <c r="L985" t="s">
+        <v>817</v>
+      </c>
+      <c r="M985" t="s">
+        <v>818</v>
+      </c>
+      <c r="N985" t="s">
+        <v>819</v>
+      </c>
+      <c r="O985" t="s">
+        <v>820</v>
+      </c>
+      <c r="P985" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q985" t="s">
+        <v>822</v>
+      </c>
+      <c r="R985" t="s">
+        <v>823</v>
+      </c>
+      <c r="S985" t="s">
+        <v>824</v>
+      </c>
+      <c r="T985" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="986" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>806</v>
+      </c>
+      <c r="B986" t="s">
+        <v>807</v>
+      </c>
+      <c r="C986" t="s">
+        <v>808</v>
+      </c>
+      <c r="D986" t="s">
+        <v>809</v>
+      </c>
+      <c r="E986" t="s">
+        <v>810</v>
+      </c>
+      <c r="F986" t="s">
+        <v>811</v>
+      </c>
+      <c r="G986" t="s">
+        <v>812</v>
+      </c>
+      <c r="H986" t="s">
+        <v>813</v>
+      </c>
+      <c r="I986" t="s">
+        <v>814</v>
+      </c>
+      <c r="J986" t="s">
+        <v>815</v>
+      </c>
+      <c r="K986" t="s">
+        <v>816</v>
+      </c>
+      <c r="L986" t="s">
+        <v>817</v>
+      </c>
+      <c r="M986" t="s">
+        <v>818</v>
+      </c>
+      <c r="N986" t="s">
+        <v>819</v>
+      </c>
+      <c r="O986" t="s">
+        <v>820</v>
+      </c>
+      <c r="P986" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q986" t="s">
+        <v>822</v>
+      </c>
+      <c r="R986" t="s">
+        <v>823</v>
+      </c>
+      <c r="S986" t="s">
+        <v>824</v>
+      </c>
+      <c r="T986" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="987" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>806</v>
+      </c>
+      <c r="B987" t="s">
+        <v>807</v>
+      </c>
+      <c r="C987" t="s">
+        <v>808</v>
+      </c>
+      <c r="D987" t="s">
+        <v>809</v>
+      </c>
+      <c r="E987" t="s">
+        <v>810</v>
+      </c>
+      <c r="F987" t="s">
+        <v>811</v>
+      </c>
+      <c r="G987" t="s">
+        <v>812</v>
+      </c>
+      <c r="H987" t="s">
+        <v>813</v>
+      </c>
+      <c r="I987" t="s">
+        <v>814</v>
+      </c>
+      <c r="J987" t="s">
+        <v>815</v>
+      </c>
+      <c r="K987" t="s">
+        <v>816</v>
+      </c>
+      <c r="L987" t="s">
+        <v>817</v>
+      </c>
+      <c r="M987" t="s">
+        <v>818</v>
+      </c>
+      <c r="N987" t="s">
+        <v>819</v>
+      </c>
+      <c r="O987" t="s">
+        <v>820</v>
+      </c>
+      <c r="P987" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q987" t="s">
+        <v>822</v>
+      </c>
+      <c r="R987" t="s">
+        <v>823</v>
+      </c>
+      <c r="S987" t="s">
+        <v>824</v>
+      </c>
+      <c r="T987" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="988" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>806</v>
+      </c>
+      <c r="B988" t="s">
+        <v>807</v>
+      </c>
+      <c r="C988" t="s">
+        <v>808</v>
+      </c>
+      <c r="D988" t="s">
+        <v>809</v>
+      </c>
+      <c r="E988" t="s">
+        <v>810</v>
+      </c>
+      <c r="F988" t="s">
+        <v>811</v>
+      </c>
+      <c r="G988" t="s">
+        <v>812</v>
+      </c>
+      <c r="H988" t="s">
+        <v>813</v>
+      </c>
+      <c r="I988" t="s">
+        <v>814</v>
+      </c>
+      <c r="J988" t="s">
+        <v>815</v>
+      </c>
+      <c r="K988" t="s">
+        <v>816</v>
+      </c>
+      <c r="L988" t="s">
+        <v>817</v>
+      </c>
+      <c r="M988" t="s">
+        <v>818</v>
+      </c>
+      <c r="N988" t="s">
+        <v>819</v>
+      </c>
+      <c r="O988" t="s">
+        <v>820</v>
+      </c>
+      <c r="P988" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q988" t="s">
+        <v>822</v>
+      </c>
+      <c r="R988" t="s">
+        <v>823</v>
+      </c>
+      <c r="S988" t="s">
+        <v>824</v>
+      </c>
+      <c r="T988" t="s">
         <v>825</v>
       </c>
     </row>
